--- a/Disign/무기, 캐릭터.xlsx
+++ b/Disign/무기, 캐릭터.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8472" activeTab="4"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8472" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="용어정리" sheetId="1" r:id="rId4"/>
@@ -26,513 +26,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="370">
-  <x:si>
-    <x:t>지정한 무기의 공격횟수를 1로 줄이는 대신, 공격력이 (30 * 줄어든 공격횟수)% 증가
-무기 지정은 이 특성을 얻고 처음으로 어떤 무기를 착용하면 그 무기가 지정된다. 
-지정된 무기를 착용해제하면 다시 무기를 지정할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2, 4, 6 스테이지면 보스가 등장하고 다음 스테이지로 가는 방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투사체속도
-모든 투사체 무기는 10m/s의 투사체 속도를 가진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 상태 이상에 걸려있는 경우, 세 번째 공격의 공격력이 60% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여기서 드랍되는 무기는 스탯의 최소 최대가 무기맵의 무기보다 더 낮다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>archer/궁수</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">첫 번째 무기와 두 번째 무기가 주먹 무기이고,
-첫 번째 공격과 두 번째 공격을 모두 맞출 경우, 세 번째 공격의 사거리와 공격력이 150% 증가 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>L 태그의 무기로 적을 공격하면, 적에게 '독' 상태를 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫 번째 무기가 총일 때, 첫 번째 공격이 적을 '정지'상태로 만든다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화할 때마다 스탯 포인트를 제공해 원하는 스탯을 올릴 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세 개의 무기가 모두 다른 태그라면 각 무기의 공격속도가 0.2초 감소</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-상시 특성
-: 무기 교체를 할 때마다 적용되는 상시 효과를 가지는 특성. 
-일시 특성
-: 메인공격을 할 때마다 적용되는 일시 효과를 가지는 특성. 효과가 첫번째 공격에 적용됬다면 첫번째 공격이 끝난 뒤에 효과가 사라진다.
-버프 특성
-: 특정 조건을 만족하면 버프가 발생하고 제한시간이 끝나면 버프가 사라지는 특성.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오로지 투사체 무기만 소유, 투사체가 날라가는 속도를 결정함.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위 스탯표에서 실제 스탯은 기본 가중치로 계산해서 나온 값이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터가 적에게 주는 데미지를 결정한다. / 최초 스탯 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이 수치가 0이 되면 게임이 종료된다. / 최초 스탯 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반드랍의 경우와 희귀드랍의 경우에 무기 가중치가 다르다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스탯 증가, 초기 자원 증가 / 특성을 여러번 찍을 수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2개의 스테이지를 끝내면 5레벨정도 오르게 경험치를 준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3스테이지 =&gt; 1451</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4스테이지 =&gt; 1451</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보스3 1690</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보스1 300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보스2 600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1스테이지 =&gt; 2326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2스테이지 =&gt; 2326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 ~ 15레벨 | 4652 + 348 = 3800 + 10x | x = 120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단검 / 레이피어 / 할버드 | https://assetstore.unity.com/?free=true&amp;q=weapon&amp;orderBy=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도
-공격속도는 분배된 포인트가  0일 때 1.3초.
-1 포인트당 (가중치)씩 빨라짐.
-공격속도는 0.04초보다 빠를 수 없음.
-최소치 0.05 / 최대치 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>궁수 | https://assetstore.unity.com/packages/3d/characters/newbie-friends-208112 (가운데 철모쓴애) (가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카타르 | https://assetstore.unity.com/packages/3d/props/weapons/ultimate-weapons-pack-lite-94668</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레벨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방어력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적들의 어그로를 6초간 끄는 미끼를 자신의 위치에 설치한다. / 보스는 걸리지 않는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫 번째와 두 번째 무기의 공격력을 50% 감소시키고 그만큼 세 번째 무기의 공격력이 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원거리 무기 공격력 10%증가/활 태그가 붙은 무기 공격력 10%증가 / 이동속도 10%증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최종 데미지
-= (무기 공격력 + 캐릭터 공격력) * (1 - (방어력 / 100+방어력)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원거리 무기 공격력 10%증가/ 총 태그가 붙은 무기 공격력 10%증가 / 체력 10% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신의 자리에 폭탄을 터트려 길이 5m인 장판을 깐다. 이 장판은 '손상' 상태를 부여한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접무기 공격력 10% 증가/L 태그가 붙은 무기 공격횟수 1 증가/ 이동속도 10% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대시 후 1초 동안 찌르기 태그가 달린 무기의 공격력 30% 증가 및 사거리 20% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접,원거리 무기 공격력 각각 5% 증가/ 메인 공격 시 40% 확률로 공격력 50% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접무기 공격력 10% 증가/H 태그가 붙은 무기 공격력 10% 증가/ 공격력 5% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 범위에 140의 고정 데미지를 주는 폭탄을 앞에 둔다. 무너질 수 있는 벽을 부순다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터는 현재 들고 있는 소모품을 사용한다. / 소모품은 -&gt;, &lt;-로 바꿀 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫 번째 무기가 베기 태그를 가진 무기일 때, 적에게 '느릿한' 상태를 부여한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나의 무기가 일반맵에서 드랍되는 것보다 최소치 최대치가 더 좋은 상태로 나오는 방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오로지 지역 무기만 소유. 커서가 가르키는 위치에 있는 원의 반지름을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">목차
-- 0. 게임 전투 템포
-- 1. 맵 클리어 보상 방식
-- 2. 맵 구성 방식
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한 무기의 서브 공격을 얼마나 빠르게 하는지 결정한다. (ex - 2.1초, 1초)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0성에서 1성은 1조각, 1성에서 2성은 2조각, 2성에서 3성은 6조각이 필요하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터는 좌우로 움직일 수 있다. 이때, 움직이는 속도는 이동속도의 영향을 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접, 원거리 무기 공격력 각각 5% 증가 / 현재 이동속도의 N%를 공격력에 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해병 | https://assetstore.unity.com/packages/3d/characters/robots/robot-soldier-142438#content (가능) / https://assetstore.unity.com/packages/3d/characters/robots/robot-hero-pbr-hp-polyart-106154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법사 | https://assetstore.unity.com/packages/2d/characters/cute-2d-girl-wizard-155796 (가능) / https://assetstore.unity.com/packages/3d/characters/humanoids/fantasy/battle-wizard-poly-art-128097</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접 / 원거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>warrior/전사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵에 있는 모든 적에게 '정지'를 8초간 건다. / 보스는 걸리지 않는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">무기
-- 1. 분류
-- 2. 무기 스탯
-- 3. 무기 
-- 4. 소모품
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4초동안 초당 적의 최대 체력의 1%만큼 데미지를 준다. 최대 3중첩 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보스의 경우, 초당 최대 채력의 0.2%만큼 데미지를 준다. 나머지는 동일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ex - 물 원소를 쓰고 불 원소를 쓰면 무기의 속성은 불 속성으로 결정됨.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫 번째 무기가 H 태그를 가진 무기일 때, 적에게 '손상'을 부여한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>활 태그가 달린 무기로 공격에 성공하면, 다음 메인 공격의 공격력 40% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마우스 커서가 가르키는 위치에 원 내부를 공격을 해 데미지를 입히는 무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,6,9,12,15레벨에 특성 선택이 제공, 대신 스탯은 오르지 않는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">공격범위
-모든 지역 무기는 0.5m의 반지름을 가진 원을 공격범위로 둔다.
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>드랍되는 돈의 양에 최소치와 최대치를 두어 그 사이의 양으로 드랍되게 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태이상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>assassin/암살자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>battering / 난타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>panacea / 만병통치약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grenade/ 수류탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hatchet / 손 도끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>magician/마법사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>derringer / 데린저</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 레벨 및 캐릭터 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투사체/projectile</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shortbow / 숏보우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rapier / 레이피어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>호크아이 / hawkeye</x:t>
-  </x:si>
-  <x:si>
-    <x:t>crossbow / 석궁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>즉시 모든 상태이상을 푼다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>longbow / 롱보우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 맵 클리어 보상 방식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>consumable/소모품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계정 레벨 및 계정 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테이지의 가장 첫 맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>halberd / 할버드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 만약 원소 소모품을 쓰고 또 다른 원소 소모품을 쓰면 마지막으로 쓴 원소 소모품의 속성이 무기에 적용된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>베기에서 궤적의 반지름을, 찌르기에서 가로 선분의 길이를, 투사체에서 투사체가 갈 수 있는 최대 거리를 의미</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 드랍
-: 적을 처치해서 무기가 드랍되는 경우
-희귀 드랍
-: 보물 상자 또는 무기맵에서 무기가 드랍되는 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1스테이지 =&gt; 360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2스테이지 =&gt; 360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터는 앞, 뒤 방향으로 일정거리를 빠르게 이동한다. 이때 잠시 무적이 된다. / 3초마다 사용가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터는 가지고 있는 무기를 이용해 적을 공격할 수 있다. / 한번의 클릭으로 한번의 서브공격이 나간다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기맵은 다른 무기맵과 3개의 맵 간격을 두어야 한다. 보스맵은 시작맵과 7개의 맵 간격을 두어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 소모품을 사용하거나, 특정 조건을 만족하면 보상을 제공하는 방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 ~ 11레벨 | 3502 = 1600 + 15x | x = 126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특성 틀
-========================
-n 번째 공격 / " " 태그를 가진 무기 / 그냥 / 특정 조건을 만족
-+
-일(할) 때
-+
-" " 스탯을 강화한다. / " " 기능을 추가한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기의 스탯은 [ 스탯에 분배된 포인트 * 가중치 + 기본 값] 이다. (공격속도는 [ 기본값 - 스탯에 분배된 포인트 * 가중치 ] 이다.)
-이때 아래 표에서 실제 스탯의 가중치는 기본 가중치이며 자세한 설명은 표 아래에 존재한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창 / 숏보우 / 파이어볼 / 썬더볼트 / 손 도끼 / 매직미사일 |  https://assetstore.unity.com/packages/3d/props/weapons/free-rpg-weapons-199738</x:t>
-  </x:si>
-  <x:si>
-    <x:t>롱소드 / 양손검 / 롱 보우 / 전투 도끼 |  https://assetstore.unity.com/packages/3d/props/weapons/free-pack-of-medieval-weapons-136607</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">공격속도
-최소 가중치 0.0175초
-기본 가중치 0.02초
-최대 가중치 0.025초
-일반 드랍의 가능한 가중치
-0.0175 0.02 0.0225
-희귀 드랍의 가능한 가중치
-0.02 0.0225 0.025
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>암살자 | https://assetstore.unity.com/packages/2d/characters/mighty-heroes-rogue-2d-fantasy-characters-pack-85770 (가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스택은 1스택씩 차례대로 사라진다. 유지시간이 끝나기 전에 칼 태그가 붙은 무기로 공격에 성공하면 시간이 갱신된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기의 총 스탯 포인트는 100 / 아래는 tag1의 각 태그마다 기준이 되는 스탯 분배(*실제로 적용되는 거 아님)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>칼 태그가 붙은 무기로 공격에 성공하면, 한번의 서브공격마다 캐릭터의 공격력이 2초간 10% 증가 (최대 100%까지)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>슬러그 샷건 / 데린저 / 저격소총  |  https://assetstore.unity.com/packages/3d/props/weapons/3d-guns-guns-pack-228975</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여기 상태이상에 적혀있는 수치는 디폴트 값이다.
-만약 상태이상을 거는 특성이나 소모품이 있을 때, 거기에 상태이상 관련 수치가
-있다면 디폴트가 아닌 거기에 적혀있는 수치를 따르면 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접 사거리
-최소 가중치 0.025m
-기본 가중치 0.05m
-최대 가중치 0.1m
-일반 드랍의 가능한 가중치
-0.025 0.05
-희귀 드랍의 가능한 가중치
-0.05 0.075 0.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원거리 사거리
-최소 가중치 0.075m
-기본 가중치 0.1m
-최대 가중치 0.15m
-일반 드랍의 가능한 가중치
-0.075 0.1
-희귀 드랍의 가능한 가중치
-0.1 0.125 0.15</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">공격횟수
-공격횟수는 분배된 포인트가 0일 때 0회 공격.
-(가중치)포인트당 1회 늘어남.
-공격횟수에 상한 없음.
-공격횟수가 0이면 바로 다음 무기로 넘어감.
-최소치 0 / 최대치 X
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>석궁 | https://assetstore.unity.com/packages/3d/props/weapons/stylized-crossbow-243342</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전사 | https://assetstore.unity.com/packages/3d/characters/humanoids/barbarian-warrior-75519#description (가능) / https://assetstore.unity.com/packages/3d/characters/humanoids/low-poly-fantasy-warrior-127775</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sword / 검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 조건일시 기능 추가나 스탯 강화  /  깡 스탯 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테이지 구성은 아이작처럼 맵을 무작위 방식으로 배치한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격횟수
-기본, 최소 가중치 10포인트
-최대 가중치 7포인트
-일반 드랍의 가능한 가중치
-10 9
-희귀 드랍의 가능한 가중치
-8 7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 / 계정
-- 캐릭터 레벨 및 캐릭터 특성
-- 계정 레벨 및 계정 특성
-- 캐릭터 공통 스탯
-- 캐릭터 종류
-- 캐릭터 무브셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>katar / 카타르</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부활 횟수를 1회 늘린다. (특정 레벨 이상)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특성 선택은 3개의 선택지를 주고 하나를 고른다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대시 후 2초 동안 공격속도가 0.15초 감소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>darkness element / 암흑 원소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>just hand / 맨주먹 (default)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법 태그가 달린 무기는 공격속도가 0.1초 감소</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">캐릭터는 점프를 해, 위로 움직일 수 있다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">스택은 1초마다 1스택씩 차례대로 사라진다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>밸런스(B) : 대체로 모든 수치에서 평균이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>H / 공격력, 공격속도, 공격횟수, 사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B / 공격력, 공격속도, 공격횟수, 사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특성을 찍지 않는 레벨일 때는 스탯이 오른다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30초간 캐릭터의 방어력을 50% 상승시킨다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L / 공격력, 공격속도, 공격횟수, 사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한 맵에서 캐릭터의 속도를 50% 상승시킨다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>힘줄 자르기 / tendon cut</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fire element / 불 원소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최종 이동속도
-= 이동속도 / 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기의 궤적이 가로 선분인 무기</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="383">
+  <x:si>
+    <x:t>속도물약 - https://assetstore.unity.com/packages/2d/gui/icons/2d-pixel-item-asset-pack-99645#content | JarBlue01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단물약 - https://assetstore.unity.com/packages/2d/gui/icons/2d-pixel-item-asset-pack-99645#content | JarPurple01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력물약 - https://assetstore.unity.com/packages/2d/gui/icons/2d-pixel-item-asset-pack-99645#content | PotionRed00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불 원소 - https://assetstore.unity.com/packages/2d/gui/icons/elemental-potions-175338#content | fire_potion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물 원소 - https://assetstore.unity.com/packages/2d/gui/icons/elemental-potions-175338#content | water_potion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>끈끈이 폭탄 - https://assetstore.unity.com/packages/2d/gui/icons/potions-kit-196598#content | Immunity Potions</x:t>
   </x:si>
   <x:si>
     <x:t>**용어정리**
@@ -548,23 +59,797 @@
   만약 무기를 딱 하나를 착용했다면 그 무기로 공격하면 한 번의 공격 사이클이 돌고, 두 개를 착용했다면 두 개의 무기가 공격을 다 끝냈다면 한 번의 공격 사이클이 돈 것이다.</x:t>
   </x:si>
   <x:si>
+    <x:t>전사 | https://assetstore.unity.com/packages/3d/characters/humanoids/barbarian-warrior-75519#description (가능) / https://assetstore.unity.com/packages/3d/characters/humanoids/low-poly-fantasy-warrior-127775</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기의 스탯은 [ 스탯에 분배된 포인트 * 가중치 + 기본 값] 이다. (공격속도는 [ 기본값 - 스탯에 분배된 포인트 * 가중치 ] 이다.)
+이때 아래 표에서 실제 스탯의 가중치는 기본 가중치이며 자세한 설명은 표 아래에 존재한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정 범위에 140의 고정 데미지를 주는 폭탄을 앞에 둔다. 무너질 수 있는 벽을 부순다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 번째와 두 번째 무기의 공격력을 50% 감소시키고 그만큼 세 번째 무기의 공격력이 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원거리 무기 공격력 10%증가/ 총 태그가 붙은 무기 공격력 10%증가 / 체력 10% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적들의 어그로를 6초간 끄는 미끼를 자신의 위치에 설치한다. / 보스는 걸리지 않는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신의 자리에 폭탄을 터트려 길이 5m인 장판을 깐다. 이 장판은 '손상' 상태를 부여한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접,원거리 무기 공격력 각각 5% 증가/ 메인 공격 시 40% 확률로 공격력 50% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원거리 무기 공격력 10%증가/활 태그가 붙은 무기 공격력 10%증가 / 이동속도 10%증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접무기 공격력 10% 증가/L 태그가 붙은 무기 공격횟수 1 증가/ 이동속도 10% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터는 현재 들고 있는 소모품을 사용한다. / 소모품은 -&gt;, &lt;-로 바꿀 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대시 후 1초 동안 찌르기 태그가 달린 무기의 공격력 30% 증가 및 사거리 20% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접무기 공격력 10% 증가/H 태그가 붙은 무기 공격력 10% 증가/ 공격력 5% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 만약 원소 소모품을 쓰고 또 다른 원소 소모품을 쓰면 마지막으로 쓴 원소 소모품의 속성이 무기에 적용된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>베기에서 궤적의 반지름을, 찌르기에서 가로 선분의 길이를, 투사체에서 투사체가 갈 수 있는 최대 거리를 의미</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 드랍
+: 적을 처치해서 무기가 드랍되는 경우
+희귀 드랍
+: 보물 상자 또는 무기맵에서 무기가 드랍되는 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>슬러그 샷건 / 데린저 / 저격소총  |  https://assetstore.unity.com/packages/3d/props/weapons/3d-guns-guns-pack-228975</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특성 틀
+========================
+n 번째 공격 / " " 태그를 가진 무기 / 그냥 / 특정 조건을 만족
++
+일(할) 때
++
+" " 스탯을 강화한다. / " " 기능을 추가한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정한 무기의 공격횟수를 1로 줄이는 대신, 공격력이 (30 * 줄어든 공격횟수)% 증가
+무기 지정은 이 특성을 얻고 처음으로 어떤 무기를 착용하면 그 무기가 지정된다. 
+지정된 무기를 착용해제하면 다시 무기를 지정할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>석궁 | https://assetstore.unity.com/packages/3d/props/weapons/stylized-crossbow-243342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>암살자 | https://assetstore.unity.com/packages/2d/characters/mighty-heroes-rogue-2d-fantasy-characters-pack-85770 (가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만병통치약 - https://assetstore.unity.com/packages/2d/gui/icons/2d-pixel-item-asset-pack-99645#content | PotionPurple02</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">공격속도
+최소 가중치 0.0175초
+기본 가중치 0.02초
+최대 가중치 0.025초
+일반 드랍의 가능한 가중치
+0.0175 0.02 0.0225
+희귀 드랍의 가능한 가중치
+0.02 0.0225 0.025
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">첫 번째 무기와 두 번째 무기가 주먹 무기이고,
+첫 번째 공격과 두 번째 공격을 모두 맞출 경우, 세 번째 공격의 사거리와 공격력이 150% 증가 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>칼 태그가 붙은 무기로 공격에 성공하면, 한번의 서브공격마다 캐릭터의 공격력이 2초간 10% 증가 (최대 100%까지)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테이지 구성은 아이작처럼 맵을 무작위 방식으로 배치한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스탯 증가, 초기 자원 증가 / 특성을 여러번 찍을 수 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 조건일시 기능 추가나 스탯 강화  /  깡 스탯 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라이트(L) : 대체로 공격력이 낮고, 공격속도가 빠르다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반드랍의 경우와 희귀드랍의 경우에 무기 가중치가 다르다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오로지 투사체 무기만 소유, 투사체가 날라가는 속도를 결정함.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터가 적에게 주는 데미지를 결정한다. / 최초 스탯 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L 태그의 무기로 적을 공격하면, 적에게 '독' 상태를 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2개의 스테이지를 끝내면 5레벨정도 오르게 경험치를 준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이 수치가 0이 되면 게임이 종료된다. / 최초 스탯 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위 스탯표에서 실제 스탯은 기본 가중치로 계산해서 나온 값이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4스테이지 =&gt; 600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2스테이지 =&gt; 300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 레벨 및 캐릭터 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grenade/ 수류탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>battering / 난타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>consumable/소모품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테이지의 가장 첫 맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>즉시 모든 상태이상을 푼다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>crossbow / 석궁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>assassin/암살자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>halberd / 할버드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>longbow / 롱보우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>panacea / 만병통치약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계정 레벨 및 계정 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 맵 클리어 보상 방식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투사체/projectile</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rapier / 레이피어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>호크아이 / hawkeye</x:t>
+  </x:si>
+  <x:si>
+    <x:t>magician/마법사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shortbow / 숏보우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hatchet / 손 도끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>derringer / 데린저</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여기서 드랍되는 무기는 스탯의 최소 최대가 무기맵의 무기보다 더 낮다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 번째 무기가 총일 때, 첫 번째 공격이 적을 '정지'상태로 만든다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기의 총 스탯 포인트는 100 / 아래는 tag1의 각 태그마다 기준이 되는 스탯 분배(*실제로 적용되는 거 아님)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스택은 1스택씩 차례대로 사라진다. 유지시간이 끝나기 전에 칼 태그가 붙은 무기로 공격에 성공하면 시간이 갱신된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소모품 에셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단검 / 레이피어 / 할버드 | https://assetstore.unity.com/?free=true&amp;q=weapon&amp;orderBy=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기맵은 다른 무기맵과 3개의 맵 간격을 두어야 한다. 보스맵은 시작맵과 7개의 맵 간격을 두어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최종 데미지
+= (무기 공격력 + 캐릭터 공격력) * (1 - (몬스터 방어력 / 100+몬스터 방어력)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터는 가지고 있는 무기를 이용해 적을 공격할 수 있다. / 한번의 클릭으로 한번의 서브공격이 나간다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터는 앞, 뒤 방향으로 일정거리를 빠르게 이동한다. 이때 잠시 무적이 된다. / 3초마다 사용가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 / 계정
+- 캐릭터 레벨 및 캐릭터 특성
+- 계정 레벨 및 계정 특성
+- 캐릭터 공통 스탯
+- 캐릭터 종류
+- 캐릭터 무브셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격횟수
+기본, 최소 가중치 10포인트
+최대 가중치 7포인트
+일반 드랍의 가능한 가중치
+10 9
+희귀 드랍의 가능한 가중치
+8 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창 / 숏보우 / 파이어볼 / 썬더볼트 / 손 도끼 / 매직미사일 |  https://assetstore.unity.com/packages/3d/props/weapons/free-rpg-weapons-199738</x:t>
+  </x:si>
+  <x:si>
+    <x:t>롱소드 / 양손검 / 롱 보우 / 전투 도끼 |  https://assetstore.unity.com/packages/3d/props/weapons/free-pack-of-medieval-weapons-136607</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근/원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투사체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소모품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총</x:t>
+  </x:si>
+  <x:si>
+    <x:t>찌르기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주먹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가중치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방어력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레벨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부활</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지역만</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상점맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>활</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>베기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ㅁ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보스맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기믹맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>attackRange/공격범위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기가 주는 데미지를 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>characteristic name</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">공격력 5% 증가 / 최대 10번 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>가속 / acceleration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>healthPoint(HP)/체력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스택은 1스택씩 차례대로 사라진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>암수 / secret weapon</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> battleaxe / 전투도끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 에셋은 판타지, 현대 무관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올포원 / all for one</x:t>
+  </x:si>
+  <x:si>
+    <x:t>attackPower(AP)/공격력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thunderbolt / 썬더볼트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>biker gang / 폭주족</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fire element / 불 원소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑옷 파괴 / armor break</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적을 2초간 움직이지 못하게 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신속한 영창 / fast chant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력 5% 증가 / 최대 10번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6스테이지 =&gt; 1960~2500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방어력 5% 증가 / 최대 10번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>attackNum(AN)/공격횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>힘줄 자르기 / tendon cut</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1레벨로 시작 / 15레벨이 만렙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sniper rifle / 저격소총</x:t>
+  </x:si>
+  <x:si>
+    <x:t>long sword / 롱소드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>holy element / 성 원소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>interaction/상호작용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>즉시 체력의 40%를 회복한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hp potion / 체력 물약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1스테이지 =&gt; 360 ~ 720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기의 궤적이 가로 선분인 무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>break bomb / 손상 폭탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동속도 5% 증가 / 최대 10번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fire ball / 파이어볼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최종 이동속도
+= 이동속도 / 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초기 골드 소유량이 N만큼 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pile bunker / 파일 벙커</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 소모품을 사용하거나, 특정 조건을 만족하면 보상을 제공하는 방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상호작용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 공격범위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 소모품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(미정)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dash/대시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레벨업 보상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테이지 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격범위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>space</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jump/점프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기믹맵 : 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bow / 활</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 일반맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tag1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 포인트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지역/zone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상점맵 : 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기에셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 무브셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투사체속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2. 보스맵 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기맵 : 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태이상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특성 제공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일시 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투사체만</x:t>
+  </x:si>
+  <x:si>
+    <x:t>//////</x:t>
+  </x:si>
+  <x:si>
+    <x:t>베기/cut</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 스탯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>move/이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요한 경험치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>effect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shift</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a, d, s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 상점맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">계정 레벨표 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방어력 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에셋 유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>moveset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 포인트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tag2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tag0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. 기믹맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터에셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 무기맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버프 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동속도 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상시 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60 포인트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계정 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. 시작맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">무기맵 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>gun / 총</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 번째 무기가 베기 태그를 가진 무기일 때, 적에게 '느릿한' 상태를 부여한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 ~ 15레벨 | 2326 + 775 = 650*4 + 10x | x = 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접, 원거리 무기 공격력 각각 5% 증가 / 현재 이동속도의 N%를 공격력에 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나의 무기가 일반맵에서 드랍되는 것보다 최소치 최대치가 더 좋은 상태로 나오는 방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터는 좌우로 움직일 수 있다. 이때, 움직이는 속도는 이동속도의 영향을 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 무기의 서브 공격을 얼마나 빠르게 하는지 결정한다. (ex - 2.1초, 1초)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0성에서 1성은 1조각, 1성에서 2성은 2조각, 2성에서 3성은 6조각이 필요하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오로지 지역 무기만 소유. 커서가 가르키는 위치에 있는 원의 반지름을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">목차
+- 0. 게임 전투 템포
+- 1. 맵 클리어 보상 방식
+- 2. 맵 구성 방식
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기의 궤적이 호인 무기 ( 호는 지면과 평행한 가로 선분의 위로 45도, 아래로 45도이다.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신의 자리에 폭탄을 터트려 길이 5m인 장판을 깐다. 이 장판은 '느릿한' 상태를 부여한다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>가만히 있으면 중간은 간다. /
 you will break even if you stay still</x:t>
   </x:si>
   <x:si>
-    <x:t>무기의 궤적이 호인 무기 ( 호는 지면과 평행한 가로 선분의 위로 45도, 아래로 45도이다.)</x:t>
-  </x:si>
-  <x:si>
     <x:t>근접 무기 공격력 10% 증가 / 검 태그가 붙은 무기 공격속도 10% 감소 / 방어력 10% 증가</x:t>
   </x:si>
   <x:si>
+    <x:t>원거리 무기 공격력 10%증가/ 마법 태그가 붙은 무기 공격속도 0.05초 감소/ 공격력 10%증가</x:t>
+  </x:si>
+  <x:si>
     <x:t>한번의 메인 공격 이후, 2초 기다린 후 다음 메인 공격을 하면 그 메인공격의 공격력이 70% 증가</x:t>
   </x:si>
   <x:si>
-    <x:t>원거리 무기 공격력 10%증가/ 마법 태그가 붙은 무기 공격속도 0.05초 감소/ 공격력 10%증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신의 자리에 폭탄을 터트려 길이 5m인 장판을 깐다. 이 장판은 '느릿한' 상태를 부여한다.</x:t>
+    <x:t>7 ~ 11레벨 |   1451 + 483 + 600 = 15x + 5*260 | x = 82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해병 | https://assetstore.unity.com/packages/3d/characters/robots/robot-soldier-142438#content (가능) / https://assetstore.unity.com/packages/3d/characters/robots/robot-hero-pbr-hp-polyart-106154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법사 | https://assetstore.unity.com/packages/2d/characters/cute-2d-girl-wizard-155796 (가능) / https://assetstore.unity.com/packages/3d/characters/humanoids/fantasy/battle-wizard-poly-art-128097</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+상시 특성
+: 무기 교체를 할 때마다 적용되는 상시 효과를 가지는 특성. 
+일시 특성
+: 메인공격을 할 때마다 적용되는 일시 효과를 가지는 특성. 효과가 첫번째 공격에 적용됬다면 첫번째 공격이 끝난 뒤에 효과가 사라진다.
+버프 특성
+: 특정 조건을 만족하면 버프가 발생하고 제한시간이 끝나면 버프가 사라지는 특성.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2스테이지 끝내 5레벨이 오르려면 (몬스터 스테이지의 모든 몬스터를 잡았을 때의 경험치
++ 모든 몬스터를 잡았을 때의 1/3 경험치 + 보스 스테이지의 보스 경험치) 가 적정치
+ex - 1스테이지 모든 몬스터 잡을 때 경험치, 360 + 그것의, 1/3 120 + 보스 몬스터 경험치 300
+6스테이지 보스에선 레벨이 올라도 소용없다 생각해 12~15구간은 5스테이지 경험치로만 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">수류탄 - https://assetstore.unity.com/packages/3d/fps-grenade-model-textures-63667#content </x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도
+공격속도는 분배된 포인트가  0일 때 1.3초.
+1 포인트당 (가중치)씩 빨라짐.
+공격속도는 0.04초보다 빠를 수 없음.
+최소치 0.05 / 최대치 2</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">공격력
@@ -579,88 +864,99 @@
     <x:t>소모품의 최대 소지 개수는 3개(종류 상관없이). 소모품은 R키로 사용할 수 있으며 &lt;-, -&gt;로 소모품을 바꿀 수 있다.</x:t>
   </x:si>
   <x:si>
-    <x:t>stop! / 멈춰!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gambler/도박꾼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>break / 손상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 레벨 표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>magic /마법</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bait / 미끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>axe / 도끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난도질 / hack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Left click</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌진 / rush</x:t>
-  </x:si>
-  <x:si>
-    <x:t>attack/공격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fist / 주먹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>knight/기사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spear / 창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반맵 : 8~10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 맵 구성 방식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 공통 스탯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>slow / 느릿한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>range/사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 무기 스탯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>poison / 독</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 투사체속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dagger / 단검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>찌르기/sting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>marine/해병</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 공통 스탯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stop / 정지</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">보스맵 : 1 </x:t>
+    <x:t xml:space="preserve">공격범위
+모든 지역 무기는 0.5m의 반지름을 가진 원을 공격범위로 둔다.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보스의 경우, 초당 최대 채력의 0.2%만큼 데미지를 준다. 나머지는 동일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>드랍되는 돈의 양에 최소치와 최대치를 두어 그 사이의 양으로 드랍되게 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>활 태그가 달린 무기로 공격에 성공하면, 다음 메인 공격의 공격력 40% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,6,9,12,15레벨에 특성 선택이 제공, 대신 스탯은 오르지 않는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ex - 물 원소를 쓰고 불 원소를 쓰면 무기의 속성은 불 속성으로 결정됨.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마우스 커서가 가르키는 위치에 원 내부를 공격을 해 데미지를 입히는 무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵에 있는 모든 적에게 '정지'를 8초간 건다. / 보스는 걸리지 않는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">무기
+- 1. 분류
+- 2. 무기 스탯
+- 3. 무기 
+- 4. 소모품
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 번째 무기가 H 태그를 가진 무기일 때, 적에게 '손상'을 부여한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4초동안 초당 적의 최대 체력의 1%만큼 데미지를 준다. 최대 3중첩 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여기 상태이상에 적혀있는 수치는 디폴트 값이다.
+만약 상태이상을 거는 특성이나 소모품이 있을 때, 거기에 상태이상 관련 수치가
+있다면 디폴트가 아닌 거기에 적혀있는 수치를 따르면 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">공격횟수
+공격횟수는 분배된 포인트가 0일 때 0회 공격.
+(가중치)포인트당 1회 늘어남.
+공격횟수에 상한 없음.
+공격횟수가 0이면 바로 다음 무기로 넘어감.
+최소치 0 / 최대치 X
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접 사거리
+최소 가중치 0.025m
+기본 가중치 0.05m
+최대 가중치 0.1m
+일반 드랍의 가능한 가중치
+0.025 0.05
+희귀 드랍의 가능한 가중치
+0.05 0.075 0.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>궁수 | https://assetstore.unity.com/packages/3d/characters/newbie-friends-208112 (가운데 철모쓴애) (가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카타르 | https://assetstore.unity.com/packages/3d/props/weapons/ultimate-weapons-pack-lite-94668</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 상태 이상에 걸려있는 경우, 세 번째 공격의 공격력이 60% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2~6레벨 | 360 + 120+ 300 = 15x | x = 52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세 개의 무기가 모두 다른 태그라면 각 무기의 공격속도가 0.2초 감소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투사체속도
+모든 투사체 무기는 10m/s의 투사체 속도를 가진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2, 4, 6 스테이지면 보스가 등장하고 다음 스테이지로 가는 방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화할 때마다 스탯 포인트를 제공해 원하는 스탯을 올릴 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">도박사 | https://assetstore.unity.com/packages/3d/characters/creatures/low-pol-skeleton-188865 (가능) / </x:t>
+  </x:si>
+  <x:si>
+    <x:t>기사 | https://assetstore.unity.com/packages/3d/characters/animals/dog-knight-pbr-polyart-135227(가능)</x:t>
   </x:si>
   <x:si>
     <x:t>사거리
@@ -668,12 +964,6 @@
 1포인트당 (가중치)씩 높아짐
 사거리는 20m를 넘길 수 없음
 최소치 0.1m / 최대치 20m</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기사 | https://assetstore.unity.com/packages/3d/characters/animals/dog-knight-pbr-polyart-135227(가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">도박사 | https://assetstore.unity.com/packages/3d/characters/creatures/low-pol-skeleton-188865 (가능) / </x:t>
   </x:si>
   <x:si>
     <x:t>공격력
@@ -685,448 +975,140 @@
 1.5 1.6 1.7 1.8 1.9 2</x:t>
   </x:si>
   <x:si>
-    <x:t>적에게 받는 데미지를 경감시킨다. / 최초 스탯 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력+4 , 이동속도+2.5, 방어력+10, 체력+10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터의 움직이는 속도를 결정한다. / 최초 스탯 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 무기맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 상점맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tag2</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2. 보스맵 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>gun / 총</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>moveset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 포인트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>베기/cut</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터에셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60 포인트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기맵 : 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방어력 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상시 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>effect</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dash/대시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상점맵 : 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tag1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기믹맵 : 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상호작용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 일반맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투사체속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동속도 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지역/zone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일시 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jump/점프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>float</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 무브셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테이지 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요한 경험치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(미정)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레벨업 보상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 소모품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특성 제공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격범위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>space</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 공격범위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계정 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기에셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shift</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에셋 유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6. 시작맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버프 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">무기맵 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>move/이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a, d, s</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">계정 레벨표 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>tag0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>//////</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5. 기믹맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 스탯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bow / 활</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투사체만</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 포인트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sniper rifle / 저격소총</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑옷 파괴 / armor break</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기가 주는 데미지를 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>biker gang / 폭주족</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력 5% 증가 / 최대 10번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방어력 5% 증가 / 최대 10번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적을 2초간 움직이지 못하게 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> battleaxe / 전투도끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가속 / acceleration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>healthPoint(HP)/체력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hp potion / 체력 물약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동속도 5% 증가 / 최대 10번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>thunderbolt / 썬더볼트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fire ball / 파이어볼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>즉시 체력의 40%를 회복한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 에셋은 판타지, 현대 무관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>long sword / 롱소드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>holy element / 성 원소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>interaction/상호작용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>break bomb / 손상 폭탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1레벨로 시작 / 15레벨이 만렙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>attackPower(AP)/공격력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초기 골드 소유량이 N만큼 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>attackRange/공격범위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신속한 영창 / fast chant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스택은 1스택씩 차례대로 사라진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올포원 / all for one</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">공격력 5% 증가 / 최대 10번 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>pile bunker / 파일 벙커</x:t>
-  </x:si>
-  <x:si>
-    <x:t>암수 / secret weapon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>characteristic name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>attackNum(AN)/공격횟수</x:t>
-  </x:si>
-  <x:si>
     <x:t>강타 / smash</x:t>
   </x:si>
   <x:si>
-    <x:t>라이트(L) : 대체로 공격력이 낮고, 공격속도가 빠르다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상점맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총</x:t>
-  </x:si>
-  <x:si>
-    <x:t>활</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>찌르기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소모품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주먹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가중치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근/원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지역만</x:t>
-  </x:si>
-  <x:si>
-    <x:t>e</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기믹맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부활</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보스맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ㅁ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접</x:t>
-  </x:si>
-  <x:si>
-    <x:t>베기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투사체</x:t>
+    <x:t>실제 투사체속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 맵 구성 방식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stop / 정지</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">보스맵 : 1 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>poison / 독</x:t>
+  </x:si>
+  <x:si>
+    <x:t>archer/궁수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>marine/해병</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접 / 원거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>break / 손상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난도질 / hack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>knight/기사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bait / 미끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gambler/도박꾼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>warrior/전사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fist / 주먹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stop! / 멈춰!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>attack/공격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌진 / rush</x:t>
+  </x:si>
+  <x:si>
+    <x:t>slow / 느릿한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 공통 스탯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Left click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>찌르기/sting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반맵 : 8~10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>magic /마법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 무기 스탯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sword / 검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dagger / 단검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>range/사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>axe / 도끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spear / 창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 공통 스탯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>katar / 카타르</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 레벨 표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성 원소 - https://assetstore.unity.com/packages/2d/gui/icons/potions-kit-196598#content | Brawl Potions</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">미끼 - https://assetstore.unity.com/packages/3d/characters/humanoids/puppet-kid-free-demo-230773#content </x:t>
+  </x:si>
+  <x:si>
+    <x:t>암흑 원소 - https://assetstore.unity.com/packages/2d/gui/icons/potions-kit-196598#content | Demon Potions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원거리 사거리
+최소 가중치 0.075m
+기본 가중치 0.1m
+최대 가중치 0.15m
+일반 드랍의 가능한 가중치
+0.075 0.1
+희귀 드랍의 가능한 가중치
+0.1 0.125 0.15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손상 폭탄 - https://assetstore.unity.com/packages/2d/gui/icons/potions-kit-196598#content | Blood Potions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가중치는 드랍시 가능한 가중치에서 랜덤으로 결정된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤비(H) : 대체로 공격력이 높고 공격속도가 느리다.</x:t>
   </x:si>
   <x:si>
     <x:t>약자 멸시 / 
 contempt for the Weak</x:t>
   </x:si>
   <x:si>
-    <x:t>가중치는 드랍시 가능한 가중치에서 랜덤으로 결정된다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>캐릭터는 근처에 있는 다른 객체와 상호작용할 수 있다.</x:t>
   </x:si>
   <x:si>
@@ -1139,110 +1121,170 @@
     <x:t>더이상 안 쓰는 무기는 갈아서 다른 무기를 강화하게 함</x:t>
   </x:si>
   <x:si>
-    <x:t>헤비(H) : 대체로 공격력이 높고 공격속도가 느리다.</x:t>
+    <x:t>적에게 받는 데미지를 경감시킨다. / 최초 스탯 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터의 움직이는 속도를 결정한다. / 최초 스탯 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력+4 , 이동속도+2.5, 방어력+10, 체력+10</x:t>
   </x:si>
   <x:si>
     <x:t>1, 3, 5 스테이지면 그냥 다음 스테이지로 가는 방</x:t>
   </x:si>
   <x:si>
-    <x:t>한 맵에서 무기의 속성을 암흑으로 바꾼다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지역에서는 공격이 가능한 최대 거리를 의미</x:t>
+    <x:t>한 맵에서 캐릭터의 속도를 50% 상승시킨다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특성 선택은 3개의 선택지를 주고 하나를 고른다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법 태그가 달린 무기는 공격속도가 0.1초 감소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>just hand / 맨주먹 (default)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L / 공격력, 공격속도, 공격횟수, 사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30초간 캐릭터의 방어력을 50% 상승시킨다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밸런스(B) : 대체로 모든 수치에서 평균이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">캐릭터는 점프를 해, 위로 움직일 수 있다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>darkness element / 암흑 원소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부활 횟수를 1회 늘린다. (특정 레벨 이상)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B / 공격력, 공격속도, 공격횟수, 사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">스택은 1초마다 1스택씩 차례대로 사라진다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>특성을 찍지 않는 레벨일 때는 스탯이 오른다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대시 후 2초 동안 공격속도가 0.15초 감소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H / 공격력, 공격속도, 공격횟수, 사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재화를 주고 소모품을 구매할 수 있는 방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스택은 0.5초마다 하나씩 사라진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공포탄 / blanck ammunition</x:t>
   </x:si>
   <x:si>
     <x:t>삼보필살 /
 Sam Bo Fil Sal</x:t>
   </x:si>
   <x:si>
+    <x:t>사거리에 분배된 포인트 / 실제 사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buddha's hand / 여래신장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 맵에서 무기의 속성을 물로 바꾼다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나의 무기로 얼마나 공격할지 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 맵에서 무기의 속성을 암흑으로 바꾼다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지역에서는 공격이 가능한 최대 거리를 의미</x:t>
+  </x:si>
+  <x:si>
+    <x:t>two handed sword / 양손검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력에 분배된 포인트 / 실제 공격력</x:t>
+  </x:si>
+  <x:si>
     <x:t>slug shotgun / 슬러그 샷건</x:t>
   </x:si>
   <x:si>
+    <x:t>공격횟수에 분배된 포인트/실제 공격횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>magic missile / 매직미사일</x:t>
+  </x:si>
+  <x:si>
     <x:t>movementSpeed(MS)/이동속도</x:t>
   </x:si>
   <x:si>
+    <x:t>projectileSpeed/투사체속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>defensivePower(DP)/방어력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4초간 적의 방어력을 30% 감소시킨다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 공격력+4 , 방어력+10, 체력+10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 맵에서 무기의 속성을 불로 바꾼다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>attackSpeed(AS)/공격속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 맵에서 무기의 속성을 성으로 바꾼다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도에 분배된 포인트/실제 공격속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4초간 적의 이동속도를 30% 감소시킨다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기를 갈면 하나의 무기 조각을 제공한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵을 클리어하면 보물상자가 드랍된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웨폰 마스터 / weapon master</x:t>
+  </x:si>
+  <x:si>
+    <x:t>solid potion / 단단 물약</x:t>
+  </x:si>
+  <x:si>
     <x:t>speed potion / 속도 물약</x:t>
   </x:si>
   <x:si>
-    <x:t>재화를 주고 소모품을 구매할 수 있는 방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사거리에 분배된 포인트 / 실제 사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>buddha's hand / 여래신장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>attackSpeed(AS)/공격속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공포탄 / blanck ammunition</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기를 갈면 하나의 무기 조각을 제공한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>projectileSpeed/투사체속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도에 분배된 포인트/실제 공격속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력에 분배된 포인트 / 실제 공격력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵을 클리어하면 보물상자가 드랍된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 공격력+4 , 방어력+10, 체력+10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4초간 적의 이동속도를 30% 감소시킨다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웨폰 마스터 / weapon master</x:t>
-  </x:si>
-  <x:si>
-    <x:t>magic missile / 매직미사일</x:t>
+    <x:t>3스테이지 =&gt; 1451 ~ 2902</x:t>
   </x:si>
   <x:si>
     <x:t>flypaper bomb/ 끈끈이 폭탄</x:t>
   </x:si>
   <x:si>
-    <x:t>한 맵에서 무기의 속성을 불로 바꾼다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한 맵에서 무기의 속성을 물로 바꾼다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격횟수에 분배된 포인트/실제 공격횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>two handed sword / 양손검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나의 무기로 얼마나 공격할지 결정한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>water element / 물 원소</x:t>
   </x:si>
   <x:si>
-    <x:t>defensivePower(DP)/방어력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4초간 적의 방어력을 30% 감소시킨다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>solid potion / 단단 물약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스택은 0.5초마다 하나씩 사라진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한 맵에서 무기의 속성을 성으로 바꾼다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2~6레벨 | 960 = 15x | x = 64</x:t>
+    <x:t>5스테이지 =&gt; 2326 ~ 4652</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에셋유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>텍스트로 대체</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1290,10 +1332,6 @@
           <hs:strikeoutShape val="solid"/>
           <hs:strikeoutType val="1"/>
           <hs:strikeoutColor rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
         </x:font>
       </mc:Choice>
       <mc:Fallback>
@@ -1305,26 +1343,11 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="16"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="16"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="16"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
   </x:fonts>
   <x:fills count="2">
     <x:fill>
@@ -3178,7 +3201,7 @@
   </x:sheetPr>
   <x:dimension ref="A2:Q33"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="B26" activeCellId="1" sqref="B26:P33 B26:P33"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3186,17 +3209,17 @@
   <x:sheetData>
     <x:row r="2" spans="2:2">
       <x:c r="B2" s="14" t="s">
-        <x:v>298</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:2">
       <x:c r="B3" s="14" t="s">
-        <x:v>316</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:17">
       <x:c r="B5" s="74" t="s">
-        <x:v>143</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="75"/>
       <x:c r="D5" s="75"/>
@@ -3484,7 +3507,7 @@
     </x:row>
     <x:row r="21" spans="2:16">
       <x:c r="B21" s="46" t="s">
-        <x:v>94</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C21" s="47"/>
       <x:c r="D21" s="47"/>
@@ -3572,7 +3595,7 @@
     </x:row>
     <x:row r="26" spans="2:16" s="15" customFormat="1">
       <x:c r="B26" s="46" t="s">
-        <x:v>11</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C26" s="53"/>
       <x:c r="D26" s="53"/>
@@ -3724,8 +3747,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A2:AC139"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="F40" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K86" activeCellId="0" sqref="K86:M95"/>
+    <x:sheetView topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B111" activeCellId="0" sqref="B98:E111"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -3737,7 +3760,7 @@
   <x:sheetData>
     <x:row r="2" spans="2:6">
       <x:c r="B2" s="74" t="s">
-        <x:v>61</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C2" s="74"/>
       <x:c r="D2" s="74"/>
@@ -3781,14 +3804,14 @@
     </x:row>
     <x:row r="8" spans="2:6">
       <x:c r="B8" s="54" t="s">
-        <x:v>231</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C8" s="54"/>
       <x:c r="F8" s="10"/>
     </x:row>
     <x:row r="9" spans="2:19" ht="17.149999999999999">
       <x:c r="B9" s="51" t="s">
-        <x:v>58</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="C9" s="51"/>
       <x:c r="D9" s="17"/>
@@ -3796,10 +3819,10 @@
       <x:c r="F9" s="17"/>
       <x:c r="G9" s="22"/>
       <x:c r="H9" s="24" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I9" s="76" t="s">
-        <x:v>145</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="J9" s="77"/>
       <x:c r="K9" s="77"/>
@@ -3814,22 +3837,22 @@
     </x:row>
     <x:row r="10" spans="2:19" ht="17.149999999999999" customHeight="1">
       <x:c r="B10" s="48" t="s">
-        <x:v>326</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C10" s="50"/>
       <x:c r="D10" s="18" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E10" s="63" t="s">
-        <x:v>175</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="F10" s="67"/>
       <x:c r="G10" s="35"/>
       <x:c r="H10" s="24" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I10" s="76" t="s">
-        <x:v>142</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="J10" s="77"/>
       <x:c r="K10" s="77"/>
@@ -3844,22 +3867,22 @@
     </x:row>
     <x:row r="11" spans="2:19" ht="16.75" customHeight="1">
       <x:c r="B11" s="48" t="s">
-        <x:v>289</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C11" s="50"/>
       <x:c r="D11" s="48" t="s">
-        <x:v>80</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E11" s="50"/>
       <x:c r="F11" s="23" t="s">
-        <x:v>212</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G11" s="19"/>
       <x:c r="H11" s="24" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I11" s="76" t="s">
-        <x:v>332</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="J11" s="77"/>
       <x:c r="K11" s="77"/>
@@ -3875,10 +3898,10 @@
     <x:row r="12" spans="6:19" ht="17.149999999999999">
       <x:c r="F12" s="6"/>
       <x:c r="H12" s="24" t="s">
-        <x:v>292</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I12" s="76" t="s">
-        <x:v>67</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="J12" s="77"/>
       <x:c r="K12" s="77"/>
@@ -3893,13 +3916,13 @@
     </x:row>
     <x:row r="13" spans="2:3">
       <x:c r="B13" s="47" t="s">
-        <x:v>171</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C13" s="47"/>
     </x:row>
     <x:row r="14" spans="2:6">
       <x:c r="B14" s="47" t="s">
-        <x:v>168</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="C14" s="47"/>
       <x:c r="D14" s="47"/>
@@ -3908,16 +3931,16 @@
     </x:row>
     <x:row r="15" spans="2:8">
       <x:c r="B15" s="20" t="s">
-        <x:v>31</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C15" s="47" t="s">
-        <x:v>218</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D15" s="47"/>
       <x:c r="E15" s="47"/>
       <x:c r="F15" s="47"/>
       <x:c r="G15" s="20" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H15" s="20"/>
     </x:row>
@@ -3926,20 +3949,20 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C16" s="51" t="s">
-        <x:v>275</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D16" s="51"/>
       <x:c r="E16" s="51"/>
       <x:c r="F16" s="51"/>
       <x:c r="G16" s="18" t="s">
-        <x:v>219</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="H16" s="21"/>
       <x:c r="I16" s="24" t="s">
-        <x:v>33</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="J16" s="76" t="s">
-        <x:v>256</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="K16" s="77"/>
       <x:c r="L16" s="77"/>
@@ -3956,20 +3979,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C17" s="48" t="s">
-        <x:v>346</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="D17" s="49"/>
       <x:c r="E17" s="49"/>
       <x:c r="F17" s="50"/>
       <x:c r="G17" s="18" t="s">
-        <x:v>219</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="H17" s="21"/>
       <x:c r="I17" s="24" t="s">
-        <x:v>214</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J17" s="76" t="s">
-        <x:v>52</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="K17" s="77"/>
       <x:c r="L17" s="77"/>
@@ -3986,20 +4009,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C18" s="48" t="s">
-        <x:v>285</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D18" s="49"/>
       <x:c r="E18" s="49"/>
       <x:c r="F18" s="50"/>
       <x:c r="G18" s="18" t="s">
-        <x:v>31</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H18" s="21"/>
       <x:c r="I18" s="24" t="s">
-        <x:v>247</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="J18" s="76" t="s">
-        <x:v>362</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="K18" s="77"/>
       <x:c r="L18" s="77"/>
@@ -4016,20 +4039,20 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C19" s="48" t="s">
-        <x:v>170</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="D19" s="49"/>
       <x:c r="E19" s="49"/>
       <x:c r="F19" s="50"/>
       <x:c r="G19" s="18" t="s">
-        <x:v>219</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="H19" s="21"/>
       <x:c r="I19" s="24" t="s">
-        <x:v>324</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="J19" s="32" t="s">
-        <x:v>93</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K19" s="33"/>
       <x:c r="L19" s="33"/>
@@ -4051,7 +4074,7 @@
       <x:c r="G20" s="15"/>
       <x:c r="H20" s="19"/>
       <x:c r="J20" s="79" t="s">
-        <x:v>338</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="K20" s="80"/>
       <x:c r="L20" s="80"/>
@@ -4066,22 +4089,22 @@
     </x:row>
     <x:row r="21" spans="2:19" ht="16.75" customHeight="1">
       <x:c r="B21" s="20" t="s">
-        <x:v>311</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C21" s="47" t="s">
-        <x:v>277</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D21" s="47"/>
       <x:c r="E21" s="47"/>
       <x:c r="F21" s="47"/>
       <x:c r="G21" s="20" t="s">
-        <x:v>219</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="I21" s="23" t="s">
-        <x:v>229</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J21" s="51" t="s">
-        <x:v>50</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="K21" s="51"/>
       <x:c r="L21" s="51"/>
@@ -4095,22 +4118,22 @@
     </x:row>
     <x:row r="22" spans="2:19" s="9" customFormat="1">
       <x:c r="B22" s="20" t="s">
-        <x:v>250</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C22" s="47" t="s">
-        <x:v>349</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="D22" s="47"/>
       <x:c r="E22" s="47"/>
       <x:c r="F22" s="47"/>
       <x:c r="G22" s="20" t="s">
-        <x:v>219</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="I22" s="23" t="s">
-        <x:v>210</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="J22" s="51" t="s">
-        <x:v>12</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K22" s="51"/>
       <x:c r="L22" s="51"/>
@@ -4125,36 +4148,36 @@
     <x:row r="23" s="9" customFormat="1"/>
     <x:row r="24" spans="2:6">
       <x:c r="B24" s="47" t="s">
-        <x:v>195</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C24" s="47"/>
       <x:c r="D24" s="54" t="s">
-        <x:v>269</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E24" s="54"/>
       <x:c r="F24" s="54"/>
     </x:row>
-    <x:row r="25" spans="2:17" ht="17.149999999999999" customHeight="1">
+    <x:row r="25" spans="2:22" ht="17.149999999999999" customHeight="1">
       <x:c r="B25" s="18" t="s">
-        <x:v>31</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C25" s="51" t="s">
-        <x:v>253</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D25" s="51"/>
       <x:c r="E25" s="51"/>
       <x:c r="F25" s="26" t="s">
-        <x:v>243</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="G25" s="27" t="s">
-        <x:v>206</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="H25" s="23" t="s">
-        <x:v>189</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="I25" s="15"/>
       <x:c r="J25" s="47" t="s">
-        <x:v>206</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="K25" s="47"/>
       <x:c r="L25" s="15"/>
@@ -4163,28 +4186,32 @@
       <x:c r="O25" s="19"/>
       <x:c r="P25" s="19"/>
       <x:c r="Q25" s="19"/>
-    </x:row>
-    <x:row r="26" spans="2:19" ht="17.149999999999999" customHeight="1">
+      <x:c r="U25" s="54" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="V25" s="54"/>
+    </x:row>
+    <x:row r="26" spans="2:25" ht="17.149999999999999" customHeight="1">
       <x:c r="B26" s="18">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C26" s="51" t="s">
-        <x:v>174</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="D26" s="51"/>
       <x:c r="E26" s="51"/>
       <x:c r="F26" s="18" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G26" s="28" t="s">
-        <x:v>307</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H26" s="23" t="s">
-        <x:v>288</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I26" s="15"/>
       <x:c r="J26" s="51" t="s">
-        <x:v>335</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="K26" s="51"/>
       <x:c r="L26" s="51"/>
@@ -4195,28 +4222,35 @@
       <x:c r="Q26" s="51"/>
       <x:c r="R26" s="51"/>
       <x:c r="S26" s="51"/>
-    </x:row>
-    <x:row r="27" spans="2:19" ht="17.149999999999999">
+      <x:c r="U26" s="51" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="V26" s="51"/>
+      <x:c r="W26" s="17"/>
+      <x:c r="X26" s="17"/>
+      <x:c r="Y26" s="17"/>
+    </x:row>
+    <x:row r="27" spans="2:25" ht="17.149999999999999">
       <x:c r="B27" s="18">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C27" s="51" t="s">
-        <x:v>270</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D27" s="51"/>
       <x:c r="E27" s="51"/>
       <x:c r="F27" s="18" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G27" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H27" s="23" t="s">
-        <x:v>288</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I27" s="15"/>
       <x:c r="J27" s="51" t="s">
-        <x:v>287</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="K27" s="51"/>
       <x:c r="L27" s="51"/>
@@ -4227,28 +4261,39 @@
       <x:c r="Q27" s="51"/>
       <x:c r="R27" s="51"/>
       <x:c r="S27" s="51"/>
-    </x:row>
-    <x:row r="28" spans="2:19" ht="17.149999999999999">
+      <x:c r="U27" s="48" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="V27" s="50"/>
+      <x:c r="W27" s="18" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="X27" s="63" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="Y27" s="67"/>
+    </x:row>
+    <x:row r="28" spans="2:25" ht="17.149999999999999">
       <x:c r="B28" s="18">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C28" s="51" t="s">
-        <x:v>76</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D28" s="51"/>
       <x:c r="E28" s="51"/>
       <x:c r="F28" s="18" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G28" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H28" s="23" t="s">
-        <x:v>305</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I28" s="15"/>
       <x:c r="J28" s="51" t="s">
-        <x:v>132</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="K28" s="51"/>
       <x:c r="L28" s="51"/>
@@ -4259,24 +4304,35 @@
       <x:c r="Q28" s="51"/>
       <x:c r="R28" s="51"/>
       <x:c r="S28" s="51"/>
+      <x:c r="U28" s="48" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="V28" s="50"/>
+      <x:c r="W28" s="48" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="X28" s="50"/>
+      <x:c r="Y28" s="23" t="s">
+        <x:v>184</x:v>
+      </x:c>
     </x:row>
     <x:row r="29" spans="2:19" ht="17.149999999999999" customHeight="1">
       <x:c r="B29" s="18">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C29" s="51" t="s">
-        <x:v>261</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D29" s="51"/>
       <x:c r="E29" s="51"/>
       <x:c r="F29" s="18" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G29" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H29" s="23" t="s">
-        <x:v>305</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I29" s="15"/>
       <x:c r="J29" s="31"/>
@@ -4295,34 +4351,34 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C30" s="51" t="s">
-        <x:v>361</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="D30" s="51"/>
       <x:c r="E30" s="51"/>
       <x:c r="F30" s="18" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G30" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H30" s="23" t="s">
-        <x:v>288</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I30" s="15"/>
       <x:c r="J30" s="47" t="s">
-        <x:v>189</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="K30" s="47"/>
       <x:c r="L30" s="15"/>
       <x:c r="M30" s="15"/>
       <x:c r="N30" s="15"/>
       <x:c r="O30" s="47" t="s">
-        <x:v>213</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="P30" s="47"/>
       <x:c r="Q30" s="47"/>
       <x:c r="R30" s="47" t="s">
-        <x:v>334</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="S30" s="47"/>
       <x:c r="T30" s="47"/>
@@ -4335,27 +4391,27 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C31" s="51" t="s">
-        <x:v>165</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D31" s="51"/>
       <x:c r="E31" s="51"/>
       <x:c r="F31" s="18" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G31" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H31" s="18" t="s">
-        <x:v>293</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="J31" s="47" t="s">
-        <x:v>118</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="K31" s="47"/>
       <x:c r="L31" s="47"/>
       <x:c r="M31" s="47"/>
       <x:c r="O31" s="47" t="s">
-        <x:v>348</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="P31" s="47"/>
       <x:c r="Q31" s="47"/>
@@ -4371,27 +4427,27 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C32" s="51" t="s">
-        <x:v>123</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="D32" s="51"/>
       <x:c r="E32" s="51"/>
       <x:c r="F32" s="18" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G32" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H32" s="18" t="s">
-        <x:v>302</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J32" s="47" t="s">
-        <x:v>158</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="K32" s="47"/>
       <x:c r="L32" s="47"/>
       <x:c r="M32" s="47"/>
       <x:c r="O32" s="47" t="s">
-        <x:v>53</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="P32" s="47"/>
       <x:c r="Q32" s="47"/>
@@ -4407,27 +4463,27 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C33" s="51" t="s">
-        <x:v>73</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D33" s="51"/>
       <x:c r="E33" s="51"/>
       <x:c r="F33" s="18" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G33" s="28" t="s">
-        <x:v>307</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H33" s="18" t="s">
-        <x:v>302</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J33" s="47" t="s">
-        <x:v>165</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="K33" s="47"/>
       <x:c r="L33" s="47"/>
       <x:c r="M33" s="47"/>
       <x:c r="O33" s="47" t="s">
-        <x:v>9</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="P33" s="47"/>
       <x:c r="Q33" s="47"/>
@@ -4443,31 +4499,31 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C34" s="51" t="s">
-        <x:v>82</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D34" s="51"/>
       <x:c r="E34" s="51"/>
       <x:c r="F34" s="18" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G34" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H34" s="18" t="s">
-        <x:v>288</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J34" s="47" t="s">
-        <x:v>163</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="K34" s="47"/>
       <x:c r="L34" s="47"/>
       <x:c r="M34" s="47"/>
       <x:c r="O34" s="51" t="s">
-        <x:v>306</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P34" s="51"/>
       <x:c r="Q34" s="51" t="s">
-        <x:v>251</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="R34" s="51"/>
       <x:c r="S34" s="51"/>
@@ -4480,31 +4536,31 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="51" t="s">
-        <x:v>282</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D35" s="51"/>
       <x:c r="E35" s="51"/>
       <x:c r="F35" s="18" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G35" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H35" s="18" t="s">
-        <x:v>302</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J35" s="47" t="s">
-        <x:v>191</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="K35" s="47"/>
       <x:c r="L35" s="47"/>
       <x:c r="M35" s="47"/>
       <x:c r="O35" s="51" t="s">
-        <x:v>318</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="P35" s="51"/>
       <x:c r="Q35" s="51" t="s">
-        <x:v>196</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="R35" s="51"/>
       <x:c r="S35" s="51"/>
@@ -4517,31 +4573,31 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C36" s="51" t="s">
-        <x:v>340</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="D36" s="51"/>
       <x:c r="E36" s="51"/>
       <x:c r="F36" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G36" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H36" s="18" t="s">
-        <x:v>295</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="J36" s="47" t="s">
-        <x:v>248</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="K36" s="47"/>
       <x:c r="L36" s="47"/>
       <x:c r="M36" s="47"/>
       <x:c r="O36" s="51" t="s">
-        <x:v>294</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="P36" s="51"/>
       <x:c r="Q36" s="51" t="s">
-        <x:v>199</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="R36" s="51"/>
       <x:c r="S36" s="51"/>
@@ -4554,21 +4610,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C37" s="51" t="s">
-        <x:v>254</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D37" s="51"/>
       <x:c r="E37" s="51"/>
       <x:c r="F37" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G37" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H37" s="18" t="s">
-        <x:v>295</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="J37" s="47" t="s">
-        <x:v>156</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="K37" s="47"/>
       <x:c r="L37" s="47"/>
@@ -4579,18 +4635,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C38" s="51" t="s">
-        <x:v>78</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D38" s="51"/>
       <x:c r="E38" s="51"/>
       <x:c r="F38" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G38" s="28" t="s">
-        <x:v>307</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H38" s="18" t="s">
-        <x:v>295</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="2:8" ht="17.149999999999999">
@@ -4598,18 +4654,18 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C39" s="51" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D39" s="51"/>
       <x:c r="E39" s="51"/>
       <x:c r="F39" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G39" s="28" t="s">
-        <x:v>307</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H39" s="18" t="s">
-        <x:v>296</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="2:12" ht="17.149999999999999" customHeight="1">
@@ -4617,21 +4673,21 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C40" s="51" t="s">
-        <x:v>267</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D40" s="51"/>
       <x:c r="E40" s="51"/>
       <x:c r="F40" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G40" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H40" s="18" t="s">
-        <x:v>297</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J40" s="47" t="s">
-        <x:v>246</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="K40" s="47"/>
       <x:c r="L40" s="47"/>
@@ -4641,21 +4697,21 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C41" s="51" t="s">
-        <x:v>356</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="D41" s="51"/>
       <x:c r="E41" s="51"/>
       <x:c r="F41" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G41" s="28" t="s">
-        <x:v>307</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H41" s="18" t="s">
-        <x:v>297</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J41" s="53" t="s">
-        <x:v>103</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K41" s="47"/>
       <x:c r="L41" s="47"/>
@@ -4675,18 +4731,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C42" s="51" t="s">
-        <x:v>86</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D42" s="51"/>
       <x:c r="E42" s="51"/>
       <x:c r="F42" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G42" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H42" s="18" t="s">
-        <x:v>296</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J42" s="47"/>
       <x:c r="K42" s="47"/>
@@ -4707,21 +4763,21 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C43" s="51" t="s">
-        <x:v>84</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D43" s="51"/>
       <x:c r="E43" s="51"/>
       <x:c r="F43" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G43" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H43" s="18" t="s">
-        <x:v>296</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J43" s="47" t="s">
-        <x:v>109</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K43" s="47"/>
       <x:c r="L43" s="47"/>
@@ -4741,33 +4797,33 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C44" s="51" t="s">
-        <x:v>266</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D44" s="51"/>
       <x:c r="E44" s="51"/>
       <x:c r="F44" s="18" t="s">
-        <x:v>292</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G44" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H44" s="18" t="s">
-        <x:v>297</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J44" s="51" t="s">
-        <x:v>134</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="K44" s="51"/>
       <x:c r="L44" s="51"/>
       <x:c r="M44" s="51"/>
       <x:c r="N44" s="51" t="s">
-        <x:v>137</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="O44" s="51"/>
       <x:c r="P44" s="51"/>
       <x:c r="Q44" s="51"/>
       <x:c r="R44" s="51" t="s">
-        <x:v>133</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="S44" s="51"/>
       <x:c r="T44" s="51"/>
@@ -4779,18 +4835,18 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="51" t="s">
-        <x:v>345</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="D45" s="51"/>
       <x:c r="E45" s="51"/>
       <x:c r="F45" s="18" t="s">
-        <x:v>292</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G45" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H45" s="18" t="s">
-        <x:v>302</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J45" s="23">
         <x:v>25</x:v>
@@ -4835,46 +4891,46 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C46" s="51" t="s">
-        <x:v>91</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D46" s="51"/>
       <x:c r="E46" s="51"/>
       <x:c r="F46" s="18" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G46" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H46" s="18" t="s">
-        <x:v>293</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="J46" s="68" t="s">
-        <x:v>150</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="K46" s="57"/>
       <x:c r="L46" s="57"/>
       <x:c r="M46" s="68" t="s">
-        <x:v>28</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="N46" s="68"/>
       <x:c r="O46" s="68"/>
       <x:c r="P46" s="68" t="s">
-        <x:v>115</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="Q46" s="68"/>
       <x:c r="R46" s="68"/>
       <x:c r="S46" s="68" t="s">
-        <x:v>180</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="T46" s="57"/>
       <x:c r="U46" s="57"/>
       <x:c r="V46" s="53" t="s">
-        <x:v>69</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="W46" s="47"/>
       <x:c r="X46" s="47"/>
       <x:c r="Y46" s="53" t="s">
-        <x:v>2</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="Z46" s="47"/>
       <x:c r="AA46" s="47"/>
@@ -5029,18 +5085,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C52" s="51" t="s">
-        <x:v>128</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="D52" s="51"/>
       <x:c r="E52" s="51"/>
       <x:c r="F52" s="18" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G52" s="29" t="s">
-        <x:v>307</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H52" s="18" t="s">
-        <x:v>302</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J52" s="47"/>
       <x:c r="K52" s="47"/>
@@ -5111,13 +5167,13 @@
       <x:c r="G55" s="7"/>
       <x:c r="H55" s="7"/>
       <x:c r="I55" s="51" t="s">
-        <x:v>351</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="J55" s="51"/>
       <x:c r="K55" s="51"/>
       <x:c r="L55" s="51"/>
       <x:c r="M55" s="51" t="s">
-        <x:v>350</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="N55" s="51"/>
       <x:c r="O55" s="51"/>
@@ -5129,17 +5185,17 @@
       <x:c r="S55" s="51"/>
       <x:c r="T55" s="51"/>
       <x:c r="U55" s="51" t="s">
-        <x:v>344</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="V55" s="51"/>
       <x:c r="W55" s="51"/>
       <x:c r="X55" s="51"/>
       <x:c r="Y55" s="51" t="s">
-        <x:v>232</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="Z55" s="51"/>
       <x:c r="AA55" s="51" t="s">
-        <x:v>173</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="AB55" s="51"/>
       <x:c r="AC55" s="6"/>
@@ -5149,18 +5205,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C56" s="51" t="s">
-        <x:v>174</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="D56" s="51"/>
       <x:c r="E56" s="51"/>
       <x:c r="F56" s="18" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G56" s="28" t="s">
-        <x:v>307</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H56" s="23" t="s">
-        <x:v>288</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I56" s="51">
         <x:v>10</x:v>
@@ -5209,18 +5265,18 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C57" s="51" t="s">
-        <x:v>270</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D57" s="51"/>
       <x:c r="E57" s="51"/>
       <x:c r="F57" s="18" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G57" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H57" s="23" t="s">
-        <x:v>288</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I57" s="51">
         <x:v>25</x:v>
@@ -5267,18 +5323,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C58" s="51" t="s">
-        <x:v>76</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D58" s="51"/>
       <x:c r="E58" s="51"/>
       <x:c r="F58" s="18" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G58" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H58" s="23" t="s">
-        <x:v>305</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I58" s="51">
         <x:v>35</x:v>
@@ -5322,18 +5378,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C59" s="51" t="s">
-        <x:v>261</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D59" s="51"/>
       <x:c r="E59" s="51"/>
       <x:c r="F59" s="18" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G59" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H59" s="23" t="s">
-        <x:v>305</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I59" s="51">
         <x:v>45</x:v>
@@ -5377,18 +5433,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C60" s="51" t="s">
-        <x:v>361</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="D60" s="51"/>
       <x:c r="E60" s="51"/>
       <x:c r="F60" s="18" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G60" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H60" s="23" t="s">
-        <x:v>288</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I60" s="51">
         <x:v>35</x:v>
@@ -5432,18 +5488,18 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C61" s="51" t="s">
-        <x:v>165</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D61" s="51"/>
       <x:c r="E61" s="51"/>
       <x:c r="F61" s="18" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G61" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H61" s="18" t="s">
-        <x:v>293</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I61" s="51">
         <x:v>20</x:v>
@@ -5487,18 +5543,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C62" s="51" t="s">
-        <x:v>123</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="D62" s="51"/>
       <x:c r="E62" s="51"/>
       <x:c r="F62" s="18" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G62" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H62" s="18" t="s">
-        <x:v>302</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I62" s="51">
         <x:v>20</x:v>
@@ -5542,18 +5598,18 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C63" s="51" t="s">
-        <x:v>73</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D63" s="51"/>
       <x:c r="E63" s="51"/>
       <x:c r="F63" s="18" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G63" s="28" t="s">
-        <x:v>307</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H63" s="18" t="s">
-        <x:v>302</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I63" s="51">
         <x:v>5</x:v>
@@ -5597,18 +5653,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C64" s="51" t="s">
-        <x:v>82</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D64" s="51"/>
       <x:c r="E64" s="51"/>
       <x:c r="F64" s="18" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G64" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H64" s="18" t="s">
-        <x:v>288</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I64" s="51">
         <x:v>20</x:v>
@@ -5652,18 +5708,18 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="51" t="s">
-        <x:v>282</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D65" s="51"/>
       <x:c r="E65" s="51"/>
       <x:c r="F65" s="18" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G65" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H65" s="18" t="s">
-        <x:v>302</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I65" s="51">
         <x:v>70</x:v>
@@ -5711,18 +5767,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C66" s="51" t="s">
-        <x:v>340</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="D66" s="51"/>
       <x:c r="E66" s="51"/>
       <x:c r="F66" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G66" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H66" s="18" t="s">
-        <x:v>295</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I66" s="51">
         <x:v>50</x:v>
@@ -5772,18 +5828,18 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C67" s="51" t="s">
-        <x:v>254</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D67" s="51"/>
       <x:c r="E67" s="51"/>
       <x:c r="F67" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G67" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H67" s="18" t="s">
-        <x:v>295</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I67" s="51">
         <x:v>40</x:v>
@@ -5833,18 +5889,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C68" s="51" t="s">
-        <x:v>78</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D68" s="51"/>
       <x:c r="E68" s="51"/>
       <x:c r="F68" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G68" s="28" t="s">
-        <x:v>307</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H68" s="18" t="s">
-        <x:v>295</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I68" s="51">
         <x:v>10</x:v>
@@ -5892,18 +5948,18 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C69" s="51" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D69" s="51"/>
       <x:c r="E69" s="51"/>
       <x:c r="F69" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G69" s="28" t="s">
-        <x:v>307</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H69" s="18" t="s">
-        <x:v>296</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I69" s="51">
         <x:v>15</x:v>
@@ -5951,18 +6007,18 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C70" s="51" t="s">
-        <x:v>267</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D70" s="51"/>
       <x:c r="E70" s="51"/>
       <x:c r="F70" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G70" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H70" s="18" t="s">
-        <x:v>297</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I70" s="51">
         <x:v>35</x:v>
@@ -6010,18 +6066,18 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C71" s="51" t="s">
-        <x:v>356</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="D71" s="51"/>
       <x:c r="E71" s="51"/>
       <x:c r="F71" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G71" s="28" t="s">
-        <x:v>307</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H71" s="18" t="s">
-        <x:v>297</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I71" s="51">
         <x:v>20</x:v>
@@ -6069,18 +6125,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C72" s="51" t="s">
-        <x:v>86</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D72" s="51"/>
       <x:c r="E72" s="51"/>
       <x:c r="F72" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G72" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H72" s="18" t="s">
-        <x:v>296</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I72" s="51">
         <x:v>25</x:v>
@@ -6128,18 +6184,18 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C73" s="51" t="s">
-        <x:v>84</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D73" s="51"/>
       <x:c r="E73" s="51"/>
       <x:c r="F73" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G73" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H73" s="18" t="s">
-        <x:v>296</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I73" s="51">
         <x:v>40</x:v>
@@ -6189,18 +6245,18 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C74" s="51" t="s">
-        <x:v>266</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D74" s="51"/>
       <x:c r="E74" s="51"/>
       <x:c r="F74" s="18" t="s">
-        <x:v>292</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G74" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H74" s="18" t="s">
-        <x:v>297</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I74" s="51">
         <x:v>30</x:v>
@@ -6249,18 +6305,18 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C75" s="51" t="s">
-        <x:v>345</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="D75" s="51"/>
       <x:c r="E75" s="51"/>
       <x:c r="F75" s="18" t="s">
-        <x:v>292</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G75" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H75" s="18" t="s">
-        <x:v>302</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I75" s="51">
         <x:v>40</x:v>
@@ -6309,18 +6365,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C76" s="51" t="s">
-        <x:v>91</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D76" s="51"/>
       <x:c r="E76" s="51"/>
       <x:c r="F76" s="18" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G76" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H76" s="18" t="s">
-        <x:v>293</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I76" s="51">
         <x:v>35</x:v>
@@ -6502,18 +6558,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C82" s="51" t="s">
-        <x:v>128</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="D82" s="51"/>
       <x:c r="E82" s="51"/>
       <x:c r="F82" s="18" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G82" s="29" t="s">
-        <x:v>307</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H82" s="18" t="s">
-        <x:v>302</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I82" s="51">
         <x:v>5</x:v>
@@ -6577,12 +6633,12 @@
     <x:row r="84" spans="1:20" s="7" customFormat="1">
       <x:c r="A84" s="6"/>
       <x:c r="B84" s="51" t="s">
-        <x:v>304</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C84" s="51"/>
       <x:c r="D84" s="51"/>
       <x:c r="E84" s="51" t="s">
-        <x:v>13</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F84" s="51"/>
       <x:c r="G84" s="51"/>
@@ -6591,7 +6647,7 @@
       <x:c r="J84" s="51"/>
       <x:c r="K84" s="51"/>
       <x:c r="L84" s="51" t="s">
-        <x:v>16</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M84" s="51"/>
       <x:c r="N84" s="51"/>
@@ -6607,7 +6663,7 @@
       <x:c r="C85" s="42"/>
       <x:c r="D85" s="42"/>
       <x:c r="E85" s="48" t="s">
-        <x:v>330</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="F85" s="49"/>
       <x:c r="G85" s="49"/>
@@ -6624,27 +6680,27 @@
     </x:row>
     <x:row r="86" spans="2:17" s="6" customFormat="1">
       <x:c r="B86" s="56" t="s">
-        <x:v>183</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C86" s="68"/>
       <x:c r="D86" s="68"/>
       <x:c r="E86" s="56" t="s">
-        <x:v>106</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F86" s="57"/>
       <x:c r="G86" s="58"/>
       <x:c r="H86" s="68" t="s">
-        <x:v>121</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I86" s="57"/>
       <x:c r="J86" s="57"/>
       <x:c r="K86" s="56" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="L86" s="57"/>
       <x:c r="M86" s="58"/>
       <x:c r="N86" s="81" t="s">
-        <x:v>114</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="O86" s="51"/>
       <x:c r="P86" s="51"/>
@@ -6825,19 +6881,19 @@
     </x:row>
     <x:row r="97" spans="2:4">
       <x:c r="B97" s="47" t="s">
-        <x:v>227</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C97" s="47"/>
       <x:c r="D97" s="20" t="s">
-        <x:v>244</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="2:21">
       <x:c r="B98" s="18" t="s">
-        <x:v>31</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C98" s="48" t="s">
-        <x:v>253</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D98" s="49"/>
       <x:c r="E98" s="50"/>
@@ -6851,7 +6907,7 @@
       <x:c r="M98" s="38"/>
       <x:c r="N98" s="39"/>
       <x:c r="P98" s="47" t="s">
-        <x:v>71</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="Q98" s="47"/>
       <x:c r="R98" s="47"/>
@@ -6864,12 +6920,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C99" s="48" t="s">
-        <x:v>363</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="D99" s="49"/>
       <x:c r="E99" s="50"/>
       <x:c r="F99" s="48" t="s">
-        <x:v>359</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="G99" s="49"/>
       <x:c r="H99" s="49"/>
@@ -6880,10 +6936,10 @@
       <x:c r="M99" s="49"/>
       <x:c r="N99" s="50"/>
       <x:c r="P99" s="20" t="s">
-        <x:v>31</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="Q99" s="47" t="s">
-        <x:v>253</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="R99" s="47"/>
       <x:c r="S99" s="47" t="s">
@@ -6902,12 +6958,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C100" s="48" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D100" s="49"/>
       <x:c r="E100" s="50"/>
       <x:c r="F100" s="48" t="s">
-        <x:v>358</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="G100" s="49"/>
       <x:c r="H100" s="49"/>
@@ -6921,11 +6977,11 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q100" s="47" t="s">
-        <x:v>169</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="R100" s="47"/>
       <x:c r="S100" s="47" t="s">
-        <x:v>354</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="T100" s="47"/>
       <x:c r="U100" s="47"/>
@@ -6940,12 +6996,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C101" s="48" t="s">
-        <x:v>271</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D101" s="49"/>
       <x:c r="E101" s="50"/>
       <x:c r="F101" s="48" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="G101" s="49"/>
       <x:c r="H101" s="49"/>
@@ -6959,7 +7015,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="Q101" s="47" t="s">
-        <x:v>154</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="R101" s="47"/>
       <x:c r="S101" s="47" t="s">
@@ -6978,12 +7034,12 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C102" s="48" t="s">
-        <x:v>127</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="D102" s="49"/>
       <x:c r="E102" s="50"/>
       <x:c r="F102" s="48" t="s">
-        <x:v>337</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="G102" s="49"/>
       <x:c r="H102" s="49"/>
@@ -6997,11 +7053,11 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="Q102" s="47" t="s">
-        <x:v>178</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="R102" s="47"/>
       <x:c r="S102" s="47" t="s">
-        <x:v>260</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="T102" s="47"/>
       <x:c r="U102" s="47"/>
@@ -7016,12 +7072,12 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C103" s="48" t="s">
-        <x:v>74</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D103" s="49"/>
       <x:c r="E103" s="50"/>
       <x:c r="F103" s="48" t="s">
-        <x:v>85</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G103" s="49"/>
       <x:c r="H103" s="49"/>
@@ -7035,11 +7091,11 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="Q103" s="47" t="s">
-        <x:v>172</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="R103" s="47"/>
       <x:c r="S103" s="47" t="s">
-        <x:v>62</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="T103" s="47"/>
       <x:c r="U103" s="47"/>
@@ -7054,12 +7110,12 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C104" s="48" t="s">
-        <x:v>264</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D104" s="49"/>
       <x:c r="E104" s="50"/>
       <x:c r="F104" s="48" t="s">
-        <x:v>268</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G104" s="49"/>
       <x:c r="H104" s="49"/>
@@ -7073,7 +7129,7 @@
       <x:c r="Q104" s="47"/>
       <x:c r="R104" s="47"/>
       <x:c r="S104" s="47" t="s">
-        <x:v>63</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="T104" s="47"/>
       <x:c r="U104" s="47"/>
@@ -7088,12 +7144,12 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C105" s="48" t="s">
-        <x:v>75</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D105" s="49"/>
       <x:c r="E105" s="50"/>
       <x:c r="F105" s="48" t="s">
-        <x:v>46</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G105" s="49"/>
       <x:c r="H105" s="49"/>
@@ -7107,7 +7163,7 @@
       <x:c r="Q105" s="5"/>
       <x:c r="R105" s="5"/>
       <x:c r="S105" s="47" t="s">
-        <x:v>279</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="T105" s="47"/>
       <x:c r="U105" s="47"/>
@@ -7122,12 +7178,12 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C106" s="48" t="s">
-        <x:v>157</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="D106" s="49"/>
       <x:c r="E106" s="50"/>
       <x:c r="F106" s="48" t="s">
-        <x:v>36</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G106" s="49"/>
       <x:c r="H106" s="49"/>
@@ -7143,12 +7199,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C107" s="48" t="s">
-        <x:v>366</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="D107" s="49"/>
       <x:c r="E107" s="50"/>
       <x:c r="F107" s="48" t="s">
-        <x:v>136</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="G107" s="49"/>
       <x:c r="H107" s="49"/>
@@ -7159,7 +7215,7 @@
       <x:c r="M107" s="49"/>
       <x:c r="N107" s="50"/>
       <x:c r="S107" s="53" t="s">
-        <x:v>112</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="T107" s="53"/>
       <x:c r="U107" s="53"/>
@@ -7174,12 +7230,12 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C108" s="48" t="s">
-        <x:v>342</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="D108" s="49"/>
       <x:c r="E108" s="50"/>
       <x:c r="F108" s="48" t="s">
-        <x:v>138</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="G108" s="49"/>
       <x:c r="H108" s="49"/>
@@ -7203,12 +7259,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C109" s="48" t="s">
-        <x:v>152</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="D109" s="49"/>
       <x:c r="E109" s="50"/>
       <x:c r="F109" s="48" t="s">
-        <x:v>60</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G109" s="49"/>
       <x:c r="H109" s="49"/>
@@ -7232,12 +7288,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C110" s="48" t="s">
-        <x:v>357</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="D110" s="49"/>
       <x:c r="E110" s="50"/>
       <x:c r="F110" s="48" t="s">
-        <x:v>149</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="G110" s="49"/>
       <x:c r="H110" s="49"/>
@@ -7253,12 +7309,12 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C111" s="48" t="s">
-        <x:v>273</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D111" s="49"/>
       <x:c r="E111" s="50"/>
       <x:c r="F111" s="48" t="s">
-        <x:v>41</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G111" s="49"/>
       <x:c r="H111" s="49"/>
@@ -7272,7 +7328,7 @@
     </x:row>
     <x:row r="112" spans="2:15">
       <x:c r="B112" s="57" t="s">
-        <x:v>92</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C112" s="57"/>
       <x:c r="D112" s="57"/>
@@ -7290,7 +7346,7 @@
     </x:row>
     <x:row r="113" spans="2:15">
       <x:c r="B113" s="47" t="s">
-        <x:v>64</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C113" s="47"/>
       <x:c r="D113" s="47"/>
@@ -7308,7 +7364,7 @@
     </x:row>
     <x:row r="114" spans="2:14">
       <x:c r="B114" s="47" t="s">
-        <x:v>151</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C114" s="47"/>
       <x:c r="D114" s="47"/>
@@ -7924,7 +7980,7 @@
       <x:c r="W139" s="15"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="404">
+  <x:mergeCells count="410">
     <x:mergeCell ref="B2:F7"/>
     <x:mergeCell ref="B9:C9"/>
     <x:mergeCell ref="B10:C10"/>
@@ -8329,6 +8385,12 @@
     <x:mergeCell ref="K74:L74"/>
     <x:mergeCell ref="K75:L75"/>
     <x:mergeCell ref="K76:L76"/>
+    <x:mergeCell ref="U26:V26"/>
+    <x:mergeCell ref="U27:V27"/>
+    <x:mergeCell ref="U28:V28"/>
+    <x:mergeCell ref="X27:Y27"/>
+    <x:mergeCell ref="W28:X28"/>
+    <x:mergeCell ref="U25:V25"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -8340,21 +8402,21 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:AM51"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H32" activeCellId="0" sqref="H32:H32"/>
+    <x:sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A21" activeCellId="0" sqref="A21:U21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="47" t="s">
-        <x:v>234</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B1" s="47"/>
     </x:row>
     <x:row r="2" spans="1:39">
       <x:c r="A2" s="48" t="s">
-        <x:v>111</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B2" s="49"/>
       <x:c r="C2" s="49"/>
@@ -8397,7 +8459,7 @@
     </x:row>
     <x:row r="3" spans="1:21">
       <x:c r="A3" s="48" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B3" s="49"/>
       <x:c r="C3" s="49"/>
@@ -8422,7 +8484,7 @@
     </x:row>
     <x:row r="4" spans="1:21">
       <x:c r="A4" s="48" t="s">
-        <x:v>104</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B4" s="49"/>
       <x:c r="C4" s="49"/>
@@ -8447,7 +8509,7 @@
     </x:row>
     <x:row r="5" spans="1:21">
       <x:c r="A5" s="48" t="s">
-        <x:v>30</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="B5" s="49"/>
       <x:c r="C5" s="49"/>
@@ -8472,7 +8534,7 @@
     </x:row>
     <x:row r="6" spans="1:21">
       <x:c r="A6" s="48" t="s">
-        <x:v>116</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B6" s="49"/>
       <x:c r="C6" s="49"/>
@@ -8497,7 +8559,7 @@
     </x:row>
     <x:row r="7" spans="1:21">
       <x:c r="A7" s="48" t="s">
-        <x:v>27</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B7" s="49"/>
       <x:c r="C7" s="49"/>
@@ -8521,53 +8583,57 @@
       <x:c r="U7" s="50"/>
     </x:row>
     <x:row r="8" spans="1:21">
-      <x:c r="A8" s="48"/>
-      <x:c r="B8" s="49"/>
-      <x:c r="C8" s="49"/>
-      <x:c r="D8" s="49"/>
-      <x:c r="E8" s="49"/>
-      <x:c r="F8" s="49"/>
-      <x:c r="G8" s="49"/>
-      <x:c r="H8" s="49"/>
-      <x:c r="I8" s="49"/>
-      <x:c r="J8" s="49"/>
-      <x:c r="K8" s="49"/>
-      <x:c r="L8" s="49"/>
-      <x:c r="M8" s="49"/>
-      <x:c r="N8" s="49"/>
-      <x:c r="O8" s="49"/>
-      <x:c r="P8" s="49"/>
-      <x:c r="Q8" s="49"/>
-      <x:c r="R8" s="49"/>
-      <x:c r="S8" s="49"/>
-      <x:c r="T8" s="49"/>
-      <x:c r="U8" s="50"/>
+      <x:c r="A8" s="66"/>
+      <x:c r="B8" s="57"/>
+      <x:c r="C8" s="57"/>
+      <x:c r="D8" s="57"/>
+      <x:c r="E8" s="57"/>
+      <x:c r="F8" s="57"/>
+      <x:c r="G8" s="57"/>
+      <x:c r="H8" s="57"/>
+      <x:c r="I8" s="57"/>
+      <x:c r="J8" s="57"/>
+      <x:c r="K8" s="57"/>
+      <x:c r="L8" s="57"/>
+      <x:c r="M8" s="57"/>
+      <x:c r="N8" s="57"/>
+      <x:c r="O8" s="57"/>
+      <x:c r="P8" s="57"/>
+      <x:c r="Q8" s="57"/>
+      <x:c r="R8" s="57"/>
+      <x:c r="S8" s="57"/>
+      <x:c r="T8" s="57"/>
+      <x:c r="U8" s="58"/>
     </x:row>
     <x:row r="9" spans="1:21">
-      <x:c r="A9" s="48"/>
-      <x:c r="B9" s="49"/>
-      <x:c r="C9" s="49"/>
-      <x:c r="D9" s="49"/>
-      <x:c r="E9" s="49"/>
-      <x:c r="F9" s="49"/>
-      <x:c r="G9" s="49"/>
-      <x:c r="H9" s="49"/>
-      <x:c r="I9" s="49"/>
-      <x:c r="J9" s="49"/>
-      <x:c r="K9" s="49"/>
-      <x:c r="L9" s="49"/>
-      <x:c r="M9" s="49"/>
-      <x:c r="N9" s="49"/>
-      <x:c r="O9" s="49"/>
-      <x:c r="P9" s="49"/>
-      <x:c r="Q9" s="49"/>
-      <x:c r="R9" s="49"/>
-      <x:c r="S9" s="49"/>
-      <x:c r="T9" s="49"/>
-      <x:c r="U9" s="50"/>
+      <x:c r="A9" s="54" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B9" s="54"/>
+      <x:c r="C9" s="36"/>
+      <x:c r="D9" s="36"/>
+      <x:c r="E9" s="36"/>
+      <x:c r="F9" s="36"/>
+      <x:c r="G9" s="36"/>
+      <x:c r="H9" s="36"/>
+      <x:c r="I9" s="36"/>
+      <x:c r="J9" s="36"/>
+      <x:c r="K9" s="36"/>
+      <x:c r="L9" s="36"/>
+      <x:c r="M9" s="36"/>
+      <x:c r="N9" s="36"/>
+      <x:c r="O9" s="36"/>
+      <x:c r="P9" s="36"/>
+      <x:c r="Q9" s="36"/>
+      <x:c r="R9" s="36"/>
+      <x:c r="S9" s="36"/>
+      <x:c r="T9" s="36"/>
+      <x:c r="U9" s="36"/>
     </x:row>
     <x:row r="10" spans="1:21">
-      <x:c r="A10" s="48"/>
+      <x:c r="A10" s="48" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="B10" s="49"/>
       <x:c r="C10" s="49"/>
       <x:c r="D10" s="49"/>
@@ -8590,7 +8656,9 @@
       <x:c r="U10" s="50"/>
     </x:row>
     <x:row r="11" spans="1:21">
-      <x:c r="A11" s="48"/>
+      <x:c r="A11" s="48" t="s">
+        <x:v>1</x:v>
+      </x:c>
       <x:c r="B11" s="49"/>
       <x:c r="C11" s="49"/>
       <x:c r="D11" s="49"/>
@@ -8613,7 +8681,9 @@
       <x:c r="U11" s="50"/>
     </x:row>
     <x:row r="12" spans="1:21">
-      <x:c r="A12" s="48"/>
+      <x:c r="A12" s="48" t="s">
+        <x:v>2</x:v>
+      </x:c>
       <x:c r="B12" s="49"/>
       <x:c r="C12" s="49"/>
       <x:c r="D12" s="49"/>
@@ -8636,7 +8706,9 @@
       <x:c r="U12" s="50"/>
     </x:row>
     <x:row r="13" spans="1:21">
-      <x:c r="A13" s="48"/>
+      <x:c r="A13" s="48" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="B13" s="49"/>
       <x:c r="C13" s="49"/>
       <x:c r="D13" s="49"/>
@@ -8659,7 +8731,9 @@
       <x:c r="U13" s="50"/>
     </x:row>
     <x:row r="14" spans="1:21">
-      <x:c r="A14" s="48"/>
+      <x:c r="A14" s="48" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="B14" s="49"/>
       <x:c r="C14" s="49"/>
       <x:c r="D14" s="49"/>
@@ -8682,7 +8756,9 @@
       <x:c r="U14" s="50"/>
     </x:row>
     <x:row r="15" spans="1:21">
-      <x:c r="A15" s="48"/>
+      <x:c r="A15" s="48" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B15" s="49"/>
       <x:c r="C15" s="49"/>
       <x:c r="D15" s="49"/>
@@ -8705,7 +8781,9 @@
       <x:c r="U15" s="50"/>
     </x:row>
     <x:row r="16" spans="1:21">
-      <x:c r="A16" s="48"/>
+      <x:c r="A16" s="48" t="s">
+        <x:v>316</x:v>
+      </x:c>
       <x:c r="B16" s="49"/>
       <x:c r="C16" s="49"/>
       <x:c r="D16" s="49"/>
@@ -8728,7 +8806,9 @@
       <x:c r="U16" s="50"/>
     </x:row>
     <x:row r="17" spans="1:21">
-      <x:c r="A17" s="48"/>
+      <x:c r="A17" s="48" t="s">
+        <x:v>318</x:v>
+      </x:c>
       <x:c r="B17" s="49"/>
       <x:c r="C17" s="49"/>
       <x:c r="D17" s="49"/>
@@ -8751,7 +8831,9 @@
       <x:c r="U17" s="50"/>
     </x:row>
     <x:row r="18" spans="1:21">
-      <x:c r="A18" s="48"/>
+      <x:c r="A18" s="48" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="B18" s="49"/>
       <x:c r="C18" s="49"/>
       <x:c r="D18" s="49"/>
@@ -8774,7 +8856,9 @@
       <x:c r="U18" s="50"/>
     </x:row>
     <x:row r="19" spans="1:21">
-      <x:c r="A19" s="48"/>
+      <x:c r="A19" s="48" t="s">
+        <x:v>320</x:v>
+      </x:c>
       <x:c r="B19" s="49"/>
       <x:c r="C19" s="49"/>
       <x:c r="D19" s="49"/>
@@ -8797,7 +8881,9 @@
       <x:c r="U19" s="50"/>
     </x:row>
     <x:row r="20" spans="1:21">
-      <x:c r="A20" s="48"/>
+      <x:c r="A20" s="48" t="s">
+        <x:v>252</x:v>
+      </x:c>
       <x:c r="B20" s="49"/>
       <x:c r="C20" s="49"/>
       <x:c r="D20" s="49"/>
@@ -8820,7 +8906,9 @@
       <x:c r="U20" s="50"/>
     </x:row>
     <x:row r="21" spans="1:21">
-      <x:c r="A21" s="48"/>
+      <x:c r="A21" s="48" t="s">
+        <x:v>317</x:v>
+      </x:c>
       <x:c r="B21" s="49"/>
       <x:c r="C21" s="49"/>
       <x:c r="D21" s="49"/>
@@ -8867,311 +8955,466 @@
     </x:row>
     <x:row r="24" spans="10:10">
       <x:c r="J24" s="7" t="s">
-        <x:v>236</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="3:10" ht="17.149999999999999">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="3:16" ht="17.149999999999999">
       <x:c r="C25" s="18">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D25" s="51" t="s">
-        <x:v>174</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="E25" s="51"/>
       <x:c r="F25" s="51"/>
       <x:c r="G25" s="18" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H25" s="28" t="s">
-        <x:v>307</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I25" s="23" t="s">
-        <x:v>288</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J25" s="17" t="s">
-        <x:v>325</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="3:10" ht="17.149999999999999">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="L25" s="18" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="M25" s="48" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="N25" s="49"/>
+      <x:c r="O25" s="50"/>
+      <x:c r="P25" t="s">
+        <x:v>381</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="3:16" ht="17.149999999999999" customHeight="1">
       <x:c r="C26" s="18">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D26" s="51" t="s">
-        <x:v>270</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E26" s="51"/>
       <x:c r="F26" s="51"/>
       <x:c r="G26" s="18" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H26" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I26" s="23" t="s">
-        <x:v>288</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J26" s="17" t="s">
-        <x:v>325</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="3:10" ht="17.149999999999999">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="L26" s="18">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M26" s="48" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="N26" s="49"/>
+      <x:c r="O26" s="50"/>
+      <x:c r="P26" s="23" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="3:16" ht="17.149999999999999">
       <x:c r="C27" s="18">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D27" s="51" t="s">
-        <x:v>76</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E27" s="51"/>
       <x:c r="F27" s="51"/>
       <x:c r="G27" s="18" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H27" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I27" s="23" t="s">
-        <x:v>305</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J27" s="17" t="s">
-        <x:v>325</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="3:10" ht="17.149999999999999">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="L27" s="18">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M27" s="48" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="N27" s="49"/>
+      <x:c r="O27" s="50"/>
+      <x:c r="P27" s="23" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="3:16" ht="17.149999999999999">
       <x:c r="C28" s="18">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D28" s="51" t="s">
-        <x:v>261</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E28" s="51"/>
       <x:c r="F28" s="51"/>
       <x:c r="G28" s="18" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H28" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I28" s="23" t="s">
-        <x:v>305</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J28" s="17" t="s">
-        <x:v>325</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="3:10" ht="17.149999999999999">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="L28" s="18">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M28" s="48" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="N28" s="49"/>
+      <x:c r="O28" s="50"/>
+      <x:c r="P28" s="23" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="3:16" ht="17.149999999999999">
       <x:c r="C29" s="18">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D29" s="51" t="s">
-        <x:v>361</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="E29" s="51"/>
       <x:c r="F29" s="51"/>
       <x:c r="G29" s="18" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H29" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I29" s="23" t="s">
-        <x:v>288</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J29" s="17" t="s">
-        <x:v>325</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="3:10" ht="17.149999999999999">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="L29" s="18">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="M29" s="48" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="N29" s="49"/>
+      <x:c r="O29" s="50"/>
+      <x:c r="P29" s="23" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="3:16" ht="17.149999999999999">
       <x:c r="C30" s="18">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D30" s="51" t="s">
-        <x:v>165</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="E30" s="51"/>
       <x:c r="F30" s="51"/>
       <x:c r="G30" s="18" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H30" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I30" s="18" t="s">
-        <x:v>293</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="J30" s="17" t="s">
-        <x:v>325</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="3:10" ht="17.149999999999999">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="L30" s="18">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="M30" s="48" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="N30" s="49"/>
+      <x:c r="O30" s="50"/>
+      <x:c r="P30" s="23" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="3:16" ht="17.149999999999999">
       <x:c r="C31" s="18">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D31" s="51" t="s">
-        <x:v>123</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="E31" s="51"/>
       <x:c r="F31" s="51"/>
       <x:c r="G31" s="18" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H31" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I31" s="18" t="s">
-        <x:v>302</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J31" s="17" t="s">
-        <x:v>325</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="3:10" ht="17.149999999999999">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="L31" s="18">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="M31" s="48" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="N31" s="49"/>
+      <x:c r="O31" s="50"/>
+      <x:c r="P31" s="23" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="3:16" ht="17.149999999999999">
       <x:c r="C32" s="18">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D32" s="51" t="s">
-        <x:v>73</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E32" s="51"/>
       <x:c r="F32" s="51"/>
       <x:c r="G32" s="18" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H32" s="28" t="s">
-        <x:v>307</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I32" s="18" t="s">
-        <x:v>302</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J32" s="17"/>
-    </x:row>
-    <x:row r="33" spans="3:10" ht="17.149999999999999">
+      <x:c r="L32" s="18">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="M32" s="48" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="N32" s="49"/>
+      <x:c r="O32" s="50"/>
+      <x:c r="P32" s="23" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="3:16" ht="17.149999999999999">
       <x:c r="C33" s="18">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D33" s="51" t="s">
-        <x:v>82</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E33" s="51"/>
       <x:c r="F33" s="51"/>
       <x:c r="G33" s="18" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H33" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I33" s="18" t="s">
-        <x:v>288</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J33" s="17" t="s">
-        <x:v>325</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="3:10" ht="17.149999999999999">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="L33" s="18">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="M33" s="48" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="N33" s="49"/>
+      <x:c r="O33" s="50"/>
+      <x:c r="P33" s="23" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="3:16" ht="17.149999999999999">
       <x:c r="C34" s="18">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D34" s="51" t="s">
-        <x:v>282</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E34" s="51"/>
       <x:c r="F34" s="51"/>
       <x:c r="G34" s="18" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H34" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I34" s="18" t="s">
-        <x:v>302</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J34" s="17"/>
-    </x:row>
-    <x:row r="35" spans="3:10" ht="17.149999999999999">
+      <x:c r="L34" s="18">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="M34" s="48" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="N34" s="49"/>
+      <x:c r="O34" s="50"/>
+      <x:c r="P34" s="23" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="3:16" ht="17.149999999999999">
       <x:c r="C35" s="18">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D35" s="51" t="s">
-        <x:v>340</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="E35" s="51"/>
       <x:c r="F35" s="51"/>
       <x:c r="G35" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H35" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I35" s="18" t="s">
-        <x:v>295</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="J35" s="17" t="s">
-        <x:v>325</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="3:10" ht="17.149999999999999">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="L35" s="18">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="M35" s="48" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="N35" s="49"/>
+      <x:c r="O35" s="50"/>
+      <x:c r="P35" s="23" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="3:17" ht="17.149999999999999" customHeight="1">
       <x:c r="C36" s="18">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D36" s="51" t="s">
-        <x:v>254</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E36" s="51"/>
       <x:c r="F36" s="51"/>
       <x:c r="G36" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H36" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I36" s="18" t="s">
-        <x:v>295</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="J36" s="17" t="s">
-        <x:v>325</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="3:10" ht="17.149999999999999">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="L36" s="18">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M36" s="48" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="N36" s="49"/>
+      <x:c r="O36" s="50"/>
+      <x:c r="P36" s="63" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="Q36" s="47"/>
+    </x:row>
+    <x:row r="37" spans="3:16" ht="17.149999999999999">
       <x:c r="C37" s="18">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D37" s="51" t="s">
-        <x:v>78</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E37" s="51"/>
       <x:c r="F37" s="51"/>
       <x:c r="G37" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H37" s="28" t="s">
-        <x:v>307</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I37" s="18" t="s">
-        <x:v>295</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="J37" s="17" t="s">
-        <x:v>325</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="3:10" ht="17.149999999999999">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="L37" s="18">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="M37" s="48" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="N37" s="49"/>
+      <x:c r="O37" s="50"/>
+      <x:c r="P37" s="23" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="3:16" ht="17.149999999999999">
       <x:c r="C38" s="18">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D38" s="51" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E38" s="51"/>
       <x:c r="F38" s="51"/>
       <x:c r="G38" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H38" s="28" t="s">
-        <x:v>307</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I38" s="18" t="s">
-        <x:v>296</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J38" s="17" t="s">
-        <x:v>325</x:v>
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="L38" s="18">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="M38" s="48" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="N38" s="49"/>
+      <x:c r="O38" s="50"/>
+      <x:c r="P38" s="23" t="s">
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="3:10" ht="17.149999999999999">
@@ -9179,21 +9422,21 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D39" s="51" t="s">
-        <x:v>267</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E39" s="51"/>
       <x:c r="F39" s="51"/>
       <x:c r="G39" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H39" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I39" s="18" t="s">
-        <x:v>297</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J39" s="17" t="s">
-        <x:v>325</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="3:10" ht="17.149999999999999">
@@ -9201,21 +9444,21 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D40" s="51" t="s">
-        <x:v>356</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="E40" s="51"/>
       <x:c r="F40" s="51"/>
       <x:c r="G40" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H40" s="28" t="s">
-        <x:v>307</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I40" s="18" t="s">
-        <x:v>297</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J40" s="17" t="s">
-        <x:v>325</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="3:10" ht="17.149999999999999">
@@ -9223,21 +9466,21 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D41" s="51" t="s">
-        <x:v>86</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E41" s="51"/>
       <x:c r="F41" s="51"/>
       <x:c r="G41" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H41" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I41" s="18" t="s">
-        <x:v>296</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J41" s="17" t="s">
-        <x:v>325</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="3:10" ht="17.149999999999999">
@@ -9245,21 +9488,21 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D42" s="51" t="s">
-        <x:v>84</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E42" s="51"/>
       <x:c r="F42" s="51"/>
       <x:c r="G42" s="18" t="s">
-        <x:v>328</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H42" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I42" s="18" t="s">
-        <x:v>296</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J42" s="17" t="s">
-        <x:v>325</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="3:10" ht="17.149999999999999">
@@ -9267,21 +9510,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D43" s="51" t="s">
-        <x:v>266</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E43" s="51"/>
       <x:c r="F43" s="51"/>
       <x:c r="G43" s="18" t="s">
-        <x:v>292</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H43" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I43" s="18" t="s">
-        <x:v>297</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J43" s="17" t="s">
-        <x:v>325</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="3:10" ht="17.149999999999999">
@@ -9289,18 +9532,18 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D44" s="51" t="s">
-        <x:v>345</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="E44" s="51"/>
       <x:c r="F44" s="51"/>
       <x:c r="G44" s="18" t="s">
-        <x:v>292</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H44" s="28" t="s">
-        <x:v>320</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I44" s="18" t="s">
-        <x:v>302</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J44" s="17"/>
     </x:row>
@@ -9309,21 +9552,21 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D45" s="51" t="s">
-        <x:v>91</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E45" s="51"/>
       <x:c r="F45" s="51"/>
       <x:c r="G45" s="18" t="s">
-        <x:v>327</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H45" s="28" t="s">
-        <x:v>317</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I45" s="18" t="s">
-        <x:v>293</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="J45" s="17" t="s">
-        <x:v>325</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="3:10" ht="17.149999999999999">
@@ -9391,23 +9634,23 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D51" s="51" t="s">
-        <x:v>128</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="E51" s="51"/>
       <x:c r="F51" s="51"/>
       <x:c r="G51" s="18" t="s">
-        <x:v>299</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H51" s="29" t="s">
-        <x:v>307</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I51" s="18" t="s">
-        <x:v>302</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J51" s="17"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="49">
+  <x:mergeCells count="64">
     <x:mergeCell ref="A1:B1"/>
     <x:mergeCell ref="A2:U2"/>
     <x:mergeCell ref="A3:U3"/>
@@ -9416,7 +9659,6 @@
     <x:mergeCell ref="A6:U6"/>
     <x:mergeCell ref="A7:U7"/>
     <x:mergeCell ref="A8:U8"/>
-    <x:mergeCell ref="A9:U9"/>
     <x:mergeCell ref="A10:U10"/>
     <x:mergeCell ref="A11:U11"/>
     <x:mergeCell ref="A12:U12"/>
@@ -9457,6 +9699,22 @@
     <x:mergeCell ref="D49:F49"/>
     <x:mergeCell ref="D50:F50"/>
     <x:mergeCell ref="D51:F51"/>
+    <x:mergeCell ref="A9:B9"/>
+    <x:mergeCell ref="M25:O25"/>
+    <x:mergeCell ref="M26:O26"/>
+    <x:mergeCell ref="M27:O27"/>
+    <x:mergeCell ref="M28:O28"/>
+    <x:mergeCell ref="M29:O29"/>
+    <x:mergeCell ref="M30:O30"/>
+    <x:mergeCell ref="M31:O31"/>
+    <x:mergeCell ref="M32:O32"/>
+    <x:mergeCell ref="M33:O33"/>
+    <x:mergeCell ref="M34:O34"/>
+    <x:mergeCell ref="M35:O35"/>
+    <x:mergeCell ref="M36:O36"/>
+    <x:mergeCell ref="M37:O37"/>
+    <x:mergeCell ref="M38:O38"/>
+    <x:mergeCell ref="P36:Q36"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -9468,7 +9726,7 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:A1"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="N16" activeCellId="0" sqref="N16:N16"/>
     </x:sheetView>
   </x:sheetViews>
@@ -9485,8 +9743,8 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="C2:AN115"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="R88" activeCellId="0" sqref="R88:R88"/>
+    <x:sheetView topLeftCell="A106" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="N96" activeCellId="0" sqref="N96:N96"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -9497,7 +9755,7 @@
   <x:sheetData>
     <x:row r="2" spans="3:12">
       <x:c r="C2" s="46" t="s">
-        <x:v>122</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D2" s="47"/>
       <x:c r="E2" s="47"/>
@@ -9607,21 +9865,21 @@
     </x:row>
     <x:row r="12" spans="3:4">
       <x:c r="C12" s="47" t="s">
-        <x:v>177</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D12" s="47"/>
     </x:row>
     <x:row r="13" spans="3:12">
       <x:c r="C13" s="18" t="s">
-        <x:v>31</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D13" s="48" t="s">
-        <x:v>218</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E13" s="49"/>
       <x:c r="F13" s="50"/>
       <x:c r="G13" s="18" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="I13" s="36"/>
       <x:c r="J13" s="36"/>
@@ -9633,18 +9891,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D14" s="48" t="s">
-        <x:v>263</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E14" s="49"/>
       <x:c r="F14" s="50"/>
       <x:c r="G14" s="18" t="s">
-        <x:v>219</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="I14" s="18" t="s">
-        <x:v>35</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="J14" s="51" t="s">
-        <x:v>15</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="K14" s="51"/>
       <x:c r="L14" s="51"/>
@@ -9670,13 +9928,13 @@
       <x:c r="E15" s="49"/>
       <x:c r="F15" s="50"/>
       <x:c r="G15" s="18" t="s">
-        <x:v>219</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="I15" s="18" t="s">
-        <x:v>34</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="J15" s="51" t="s">
-        <x:v>184</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="K15" s="51"/>
       <x:c r="L15" s="51"/>
@@ -9697,18 +9955,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D16" s="48" t="s">
-        <x:v>341</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="E16" s="49"/>
       <x:c r="F16" s="50"/>
       <x:c r="G16" s="18" t="s">
-        <x:v>219</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="I16" s="18" t="s">
-        <x:v>216</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="J16" s="51" t="s">
-        <x:v>186</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="K16" s="51"/>
       <x:c r="L16" s="51"/>
@@ -9729,19 +9987,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D17" s="48" t="s">
-        <x:v>275</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E17" s="49"/>
       <x:c r="F17" s="50"/>
       <x:c r="G17" s="18" t="s">
-        <x:v>219</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="H17" s="22"/>
       <x:c r="I17" s="18" t="s">
-        <x:v>33</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="J17" s="51" t="s">
-        <x:v>14</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="K17" s="51"/>
       <x:c r="L17" s="51"/>
@@ -9788,7 +10046,7 @@
     </x:row>
     <x:row r="20" spans="3:40">
       <x:c r="C20" s="47" t="s">
-        <x:v>221</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D20" s="47"/>
       <x:c r="AL20" s="22"/>
@@ -9797,15 +10055,15 @@
     </x:row>
     <x:row r="21" spans="3:40">
       <x:c r="C21" s="30" t="s">
-        <x:v>31</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D21" s="51" t="s">
-        <x:v>193</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E21" s="51"/>
       <x:c r="F21" s="51"/>
       <x:c r="G21" s="23" t="s">
-        <x:v>315</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="AL21" s="22"/>
       <x:c r="AM21" s="22"/>
@@ -9816,18 +10074,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D22" s="51" t="s">
-        <x:v>240</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E22" s="51"/>
       <x:c r="F22" s="51"/>
       <x:c r="G22" s="23" t="s">
-        <x:v>241</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="I22" s="18" t="s">
-        <x:v>291</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="J22" s="51" t="s">
-        <x:v>54</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="K22" s="51"/>
       <x:c r="L22" s="51"/>
@@ -9848,18 +10106,18 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D23" s="51" t="s">
-        <x:v>217</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E23" s="51"/>
       <x:c r="F23" s="51"/>
       <x:c r="G23" s="23" t="s">
-        <x:v>230</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="I23" s="18" t="s">
-        <x:v>313</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="J23" s="51" t="s">
-        <x:v>130</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="K23" s="51"/>
       <x:c r="L23" s="51"/>
@@ -9880,18 +10138,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D24" s="51" t="s">
-        <x:v>162</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="E24" s="51"/>
       <x:c r="F24" s="51"/>
       <x:c r="G24" s="23" t="s">
-        <x:v>160</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="18" t="s">
-        <x:v>308</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="J24" s="51" t="s">
-        <x:v>98</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K24" s="51"/>
       <x:c r="L24" s="51"/>
@@ -9925,18 +10183,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D25" s="51" t="s">
-        <x:v>272</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E25" s="51"/>
       <x:c r="F25" s="51"/>
       <x:c r="G25" s="23" t="s">
-        <x:v>312</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="I25" s="18" t="s">
-        <x:v>208</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="J25" s="51" t="s">
-        <x:v>331</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="K25" s="51"/>
       <x:c r="L25" s="51"/>
@@ -9957,18 +10215,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D26" s="51" t="s">
-        <x:v>204</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E26" s="51"/>
       <x:c r="F26" s="51"/>
       <x:c r="G26" s="23" t="s">
-        <x:v>235</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="I26" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J26" s="51" t="s">
-        <x:v>97</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="K26" s="51"/>
       <x:c r="L26" s="51"/>
@@ -9989,18 +10247,18 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D27" s="51" t="s">
-        <x:v>88</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E27" s="51"/>
       <x:c r="F27" s="51"/>
       <x:c r="G27" s="23" t="s">
-        <x:v>303</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I27" s="18" t="s">
-        <x:v>300</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="J27" s="51" t="s">
-        <x:v>47</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K27" s="51"/>
       <x:c r="L27" s="51"/>
@@ -10034,7 +10292,7 @@
     </x:row>
     <x:row r="29" spans="3:19">
       <x:c r="C29" s="47" t="s">
-        <x:v>192</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D29" s="47"/>
       <x:c r="E29" s="36"/>
@@ -10051,15 +10309,15 @@
     </x:row>
     <x:row r="30" spans="3:16">
       <x:c r="C30" s="23" t="s">
-        <x:v>31</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D30" s="51" t="s">
-        <x:v>253</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E30" s="51"/>
       <x:c r="F30" s="51"/>
       <x:c r="G30" s="23" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H30" s="51" t="s">
         <x:v>203</x:v>
@@ -10078,15 +10336,15 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D31" s="51" t="s">
-        <x:v>164</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="E31" s="51"/>
       <x:c r="F31" s="51"/>
       <x:c r="G31" s="23" t="s">
-        <x:v>326</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H31" s="51" t="s">
-        <x:v>146</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="I31" s="51"/>
       <x:c r="J31" s="51"/>
@@ -10102,15 +10360,15 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D32" s="51" t="s">
-        <x:v>72</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E32" s="51"/>
       <x:c r="F32" s="51"/>
       <x:c r="G32" s="23" t="s">
-        <x:v>326</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H32" s="51" t="s">
-        <x:v>42</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I32" s="51"/>
       <x:c r="J32" s="51"/>
@@ -10126,15 +10384,15 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D33" s="48" t="s">
-        <x:v>59</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="E33" s="49"/>
       <x:c r="F33" s="50"/>
       <x:c r="G33" s="23" t="s">
-        <x:v>326</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H33" s="51" t="s">
-        <x:v>45</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I33" s="51"/>
       <x:c r="J33" s="51"/>
@@ -10150,15 +10408,15 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D34" s="51" t="s">
-        <x:v>5</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="E34" s="51"/>
       <x:c r="F34" s="51"/>
       <x:c r="G34" s="23" t="s">
-        <x:v>289</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H34" s="51" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I34" s="51"/>
       <x:c r="J34" s="51"/>
@@ -10174,15 +10432,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D35" s="51" t="s">
-        <x:v>176</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="E35" s="51"/>
       <x:c r="F35" s="51"/>
       <x:c r="G35" s="23" t="s">
-        <x:v>289</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H35" s="51" t="s">
-        <x:v>40</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I35" s="51"/>
       <x:c r="J35" s="51"/>
@@ -10198,15 +10456,15 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D36" s="51" t="s">
-        <x:v>77</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E36" s="51"/>
       <x:c r="F36" s="51"/>
       <x:c r="G36" s="23" t="s">
-        <x:v>289</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H36" s="51" t="s">
-        <x:v>148</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="I36" s="51"/>
       <x:c r="J36" s="51"/>
@@ -10222,15 +10480,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D37" s="51" t="s">
-        <x:v>153</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="E37" s="51"/>
       <x:c r="F37" s="51"/>
       <x:c r="G37" s="23" t="s">
-        <x:v>309</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H37" s="51" t="s">
-        <x:v>44</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I37" s="51"/>
       <x:c r="J37" s="51"/>
@@ -10246,15 +10504,15 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D38" s="52" t="s">
-        <x:v>257</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E38" s="52"/>
       <x:c r="F38" s="52"/>
       <x:c r="G38" s="41" t="s">
-        <x:v>309</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H38" s="52" t="s">
-        <x:v>55</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I38" s="52"/>
       <x:c r="J38" s="52"/>
@@ -10267,7 +10525,7 @@
     </x:row>
     <x:row r="40" spans="3:6">
       <x:c r="C40" s="47" t="s">
-        <x:v>79</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D40" s="47"/>
       <x:c r="E40" s="47"/>
@@ -10275,13 +10533,13 @@
     </x:row>
     <x:row r="41" spans="3:22">
       <x:c r="C41" s="47" t="s">
-        <x:v>220</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D41" s="47"/>
       <x:c r="E41" s="47"/>
       <x:c r="F41" s="47"/>
       <x:c r="G41" s="47" t="s">
-        <x:v>119</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H41" s="47"/>
       <x:c r="I41" s="47"/>
@@ -10293,7 +10551,7 @@
       <x:c r="O41" s="47"/>
       <x:c r="P41" s="47"/>
       <x:c r="Q41" s="53" t="s">
-        <x:v>102</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="R41" s="53"/>
       <x:c r="S41" s="53"/>
@@ -10303,7 +10561,7 @@
     </x:row>
     <x:row r="42" spans="3:22">
       <x:c r="C42" s="54" t="s">
-        <x:v>202</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D42" s="54"/>
       <x:c r="E42" s="54"/>
@@ -10327,10 +10585,10 @@
     </x:row>
     <x:row r="43" spans="3:22">
       <x:c r="C43" s="23" t="s">
-        <x:v>31</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D43" s="51" t="s">
-        <x:v>284</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="51"/>
       <x:c r="F43" s="51"/>
@@ -10358,12 +10616,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D44" s="51" t="s">
-        <x:v>139</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E44" s="51"/>
       <x:c r="F44" s="51"/>
       <x:c r="G44" s="51" t="s">
-        <x:v>48</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="H44" s="51"/>
       <x:c r="I44" s="51"/>
@@ -10386,12 +10644,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D45" s="51" t="s">
-        <x:v>255</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E45" s="51"/>
       <x:c r="F45" s="51"/>
       <x:c r="G45" s="51" t="s">
-        <x:v>65</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="H45" s="51"/>
       <x:c r="I45" s="51"/>
@@ -10414,12 +10672,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D46" s="66" t="s">
-        <x:v>286</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="E46" s="57"/>
       <x:c r="F46" s="58"/>
       <x:c r="G46" s="56" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H46" s="68"/>
       <x:c r="I46" s="68"/>
@@ -10486,12 +10744,12 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D49" s="51" t="s">
-        <x:v>280</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E49" s="51"/>
       <x:c r="F49" s="51"/>
       <x:c r="G49" s="51" t="s">
-        <x:v>37</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H49" s="51"/>
       <x:c r="I49" s="51"/>
@@ -10514,12 +10772,12 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D50" s="51" t="s">
-        <x:v>355</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E50" s="51"/>
       <x:c r="F50" s="51"/>
       <x:c r="G50" s="51" t="s">
-        <x:v>10</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="H50" s="51"/>
       <x:c r="I50" s="51"/>
@@ -10533,7 +10791,7 @@
       <x:c r="Q50" s="43"/>
       <x:c r="R50" s="15"/>
       <x:c r="S50" s="47" t="s">
-        <x:v>71</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="T50" s="47"/>
       <x:c r="U50" s="47"/>
@@ -10544,12 +10802,12 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D51" s="51" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="E51" s="51"/>
       <x:c r="F51" s="51"/>
       <x:c r="G51" s="51" t="s">
-        <x:v>8</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H51" s="51"/>
       <x:c r="I51" s="51"/>
@@ -10561,10 +10819,10 @@
       <x:c r="O51" s="51"/>
       <x:c r="P51" s="51"/>
       <x:c r="S51" s="20" t="s">
-        <x:v>31</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="T51" s="47" t="s">
-        <x:v>253</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="U51" s="47"/>
       <x:c r="V51" s="47" t="s">
@@ -10583,12 +10841,12 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D52" s="51" t="s">
-        <x:v>278</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E52" s="51"/>
       <x:c r="F52" s="51"/>
       <x:c r="G52" s="51" t="s">
-        <x:v>129</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="H52" s="51"/>
       <x:c r="I52" s="51"/>
@@ -10603,11 +10861,11 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T52" s="47" t="s">
-        <x:v>169</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="U52" s="47"/>
       <x:c r="V52" s="47" t="s">
-        <x:v>354</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="W52" s="47"/>
       <x:c r="X52" s="47"/>
@@ -10622,12 +10880,12 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D53" s="51" t="s">
-        <x:v>283</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E53" s="51"/>
       <x:c r="F53" s="51"/>
       <x:c r="G53" s="51" t="s">
-        <x:v>7</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H53" s="51"/>
       <x:c r="I53" s="51"/>
@@ -10642,7 +10900,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T53" s="47" t="s">
-        <x:v>154</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="U53" s="47"/>
       <x:c r="V53" s="47" t="s">
@@ -10677,11 +10935,11 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="T54" s="47" t="s">
-        <x:v>178</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="U54" s="47"/>
       <x:c r="V54" s="47" t="s">
-        <x:v>260</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="W54" s="47"/>
       <x:c r="X54" s="47"/>
@@ -10693,7 +10951,7 @@
     </x:row>
     <x:row r="55" spans="3:29">
       <x:c r="C55" s="54" t="s">
-        <x:v>215</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D55" s="54"/>
       <x:c r="E55" s="54"/>
@@ -10712,11 +10970,11 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="T55" s="47" t="s">
-        <x:v>172</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="U55" s="47"/>
       <x:c r="V55" s="47" t="s">
-        <x:v>62</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="W55" s="47"/>
       <x:c r="X55" s="47"/>
@@ -10728,10 +10986,10 @@
     </x:row>
     <x:row r="56" spans="3:29">
       <x:c r="C56" s="44" t="s">
-        <x:v>31</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D56" s="55" t="s">
-        <x:v>284</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E56" s="55"/>
       <x:c r="F56" s="51"/>
@@ -10752,7 +11010,7 @@
       <x:c r="T56" s="47"/>
       <x:c r="U56" s="47"/>
       <x:c r="V56" s="47" t="s">
-        <x:v>63</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="W56" s="47"/>
       <x:c r="X56" s="47"/>
@@ -10767,12 +11025,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D57" s="56" t="s">
-        <x:v>329</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="E57" s="57"/>
       <x:c r="F57" s="58"/>
       <x:c r="G57" s="66" t="s">
-        <x:v>3</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="H57" s="57"/>
       <x:c r="I57" s="57"/>
@@ -10786,7 +11044,7 @@
       <x:c r="Q57" s="19"/>
       <x:c r="R57" s="19"/>
       <x:c r="V57" s="47" t="s">
-        <x:v>131</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="W57" s="47"/>
       <x:c r="X57" s="47"/>
@@ -10827,12 +11085,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D59" s="56" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E59" s="57"/>
       <x:c r="F59" s="58"/>
       <x:c r="G59" s="66" t="s">
-        <x:v>147</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="H59" s="57"/>
       <x:c r="I59" s="57"/>
@@ -10905,12 +11163,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D63" s="56" t="s">
-        <x:v>339</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="E63" s="57"/>
       <x:c r="F63" s="58"/>
       <x:c r="G63" s="56" t="s">
-        <x:v>6</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H63" s="57"/>
       <x:c r="I63" s="57"/>
@@ -10984,12 +11242,12 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D67" s="51" t="s">
-        <x:v>83</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E67" s="51"/>
       <x:c r="F67" s="51"/>
       <x:c r="G67" s="51" t="s">
-        <x:v>66</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="H67" s="51"/>
       <x:c r="I67" s="51"/>
@@ -11023,7 +11281,7 @@
     </x:row>
     <x:row r="69" spans="3:18" s="1" customFormat="1">
       <x:c r="C69" s="47" t="s">
-        <x:v>238</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D69" s="47"/>
       <x:c r="E69" s="47"/>
@@ -11043,10 +11301,10 @@
     </x:row>
     <x:row r="70" spans="3:18" s="1" customFormat="1">
       <x:c r="C70" s="23" t="s">
-        <x:v>31</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D70" s="51" t="s">
-        <x:v>284</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E70" s="51"/>
       <x:c r="F70" s="51"/>
@@ -11070,12 +11328,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D71" s="55" t="s">
-        <x:v>262</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E71" s="55"/>
       <x:c r="F71" s="55"/>
       <x:c r="G71" s="51" t="s">
-        <x:v>126</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="H71" s="51"/>
       <x:c r="I71" s="51"/>
@@ -11094,12 +11352,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D72" s="51" t="s">
-        <x:v>161</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E72" s="51"/>
       <x:c r="F72" s="51"/>
       <x:c r="G72" s="51" t="s">
-        <x:v>43</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H72" s="51"/>
       <x:c r="I72" s="51"/>
@@ -11118,12 +11376,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D73" s="51" t="s">
-        <x:v>159</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="E73" s="51"/>
       <x:c r="F73" s="48"/>
       <x:c r="G73" s="48" t="s">
-        <x:v>110</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H73" s="49"/>
       <x:c r="I73" s="49"/>
@@ -11143,7 +11401,7 @@
       <x:c r="E74" s="19"/>
       <x:c r="F74" s="19"/>
       <x:c r="G74" s="48" t="s">
-        <x:v>108</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H74" s="49"/>
       <x:c r="I74" s="49"/>
@@ -11163,7 +11421,7 @@
       <x:c r="E75" s="19"/>
       <x:c r="F75" s="19"/>
       <x:c r="G75" s="51" t="s">
-        <x:v>367</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="H75" s="51"/>
       <x:c r="I75" s="51"/>
@@ -11197,7 +11455,7 @@
     </x:row>
     <x:row r="77" spans="3:19">
       <x:c r="C77" s="47" t="s">
-        <x:v>155</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="D77" s="47"/>
       <x:c r="E77" s="22"/>
@@ -11218,14 +11476,14 @@
     </x:row>
     <x:row r="78" spans="3:19">
       <x:c r="C78" s="47" t="s">
-        <x:v>274</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D78" s="47"/>
       <x:c r="E78" s="47"/>
       <x:c r="F78" s="47"/>
       <x:c r="G78" s="47"/>
       <x:c r="H78" s="47" t="s">
-        <x:v>68</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="I78" s="47"/>
       <x:c r="J78" s="47"/>
@@ -11234,7 +11492,7 @@
       <x:c r="M78" s="47"/>
       <x:c r="N78" s="47"/>
       <x:c r="O78" s="19" t="s">
-        <x:v>125</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="P78" s="19"/>
       <x:c r="Q78" s="19"/>
@@ -11243,7 +11501,7 @@
     </x:row>
     <x:row r="79" spans="3:19">
       <x:c r="C79" s="47" t="s">
-        <x:v>18</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D79" s="47"/>
       <x:c r="E79" s="47"/>
@@ -11253,7 +11511,7 @@
       <x:c r="I79" s="47"/>
       <x:c r="J79" s="47"/>
       <x:c r="K79" s="19" t="s">
-        <x:v>135</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="L79" s="19"/>
       <x:c r="M79" s="19"/>
@@ -11262,128 +11520,113 @@
       <x:c r="P79" s="19"/>
       <x:c r="S79" s="3"/>
     </x:row>
-    <x:row r="80" spans="3:28">
+    <x:row r="80" spans="3:25">
       <x:c r="C80" s="23" t="s">
-        <x:v>32</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D80" s="51" t="s">
-        <x:v>226</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E80" s="51"/>
       <x:c r="F80" s="51"/>
       <x:c r="G80" s="51"/>
       <x:c r="H80" s="51"/>
       <x:c r="I80" s="51" t="s">
-        <x:v>224</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="J80" s="51"/>
       <x:c r="L80" s="47" t="s">
-        <x:v>95</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="M80" s="47"/>
       <x:c r="N80" s="47"/>
       <x:c r="O80" s="47" t="s">
-        <x:v>96</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="P80" s="47"/>
       <x:c r="Q80" s="47"/>
-      <x:c r="R80" s="47" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="S80" s="47"/>
-      <x:c r="T80" s="47"/>
+      <x:c r="R80" s="15"/>
+      <x:c r="S80" s="15"/>
+      <x:c r="T80" s="15"/>
       <x:c r="U80" s="15"/>
       <x:c r="V80" s="15"/>
       <x:c r="W80" s="15"/>
       <x:c r="X80" s="15"/>
       <x:c r="Y80" s="15"/>
-      <x:c r="Z80" s="15"/>
-      <x:c r="AA80" s="15"/>
-      <x:c r="AB80" s="15"/>
-    </x:row>
-    <x:row r="81" spans="3:28" s="2" customFormat="1">
+    </x:row>
+    <x:row r="81" spans="3:25" s="2" customFormat="1">
       <x:c r="C81" s="23">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D81" s="48" t="s">
-        <x:v>185</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="E81" s="49"/>
       <x:c r="F81" s="49"/>
       <x:c r="G81" s="49"/>
       <x:c r="H81" s="49"/>
       <x:c r="I81" s="51">
-        <x:v>64</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J81" s="51"/>
       <x:c r="L81" s="47" t="s">
-        <x:v>19</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="M81" s="47"/>
       <x:c r="N81" s="47"/>
       <x:c r="O81" s="47" t="s">
-        <x:v>20</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="P81" s="47"/>
       <x:c r="Q81" s="47"/>
-      <x:c r="R81" s="47" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="S81" s="47"/>
-      <x:c r="T81" s="47"/>
+      <x:c r="R81" s="15"/>
+      <x:c r="S81" s="15"/>
+      <x:c r="T81" s="15"/>
       <x:c r="U81" s="15"/>
       <x:c r="V81" s="15"/>
       <x:c r="W81" s="15"/>
       <x:c r="X81" s="15"/>
       <x:c r="Y81" s="15"/>
-      <x:c r="Z81" s="15"/>
-      <x:c r="AA81" s="15"/>
-      <x:c r="AB81" s="15"/>
-    </x:row>
-    <x:row r="82" spans="3:20" s="7" customFormat="1">
+    </x:row>
+    <x:row r="82" spans="3:17" s="7" customFormat="1">
       <x:c r="C82" s="23">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D82" s="48" t="s">
-        <x:v>228</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E82" s="49"/>
       <x:c r="F82" s="49"/>
       <x:c r="G82" s="49"/>
       <x:c r="H82" s="50"/>
       <x:c r="I82" s="51">
-        <x:v>128</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J82" s="51"/>
       <x:c r="L82" s="47" t="s">
-        <x:v>24</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="M82" s="47"/>
       <x:c r="N82" s="47"/>
       <x:c r="O82" s="47" t="s">
-        <x:v>25</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="P82" s="47"/>
       <x:c r="Q82" s="47"/>
-      <x:c r="R82" s="47" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="S82" s="47"/>
-      <x:c r="T82" s="47"/>
     </x:row>
     <x:row r="83" spans="3:14" s="7" customFormat="1">
       <x:c r="C83" s="23">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D83" s="48" t="s">
-        <x:v>353</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="E83" s="49"/>
       <x:c r="F83" s="49"/>
       <x:c r="G83" s="49"/>
       <x:c r="H83" s="50"/>
       <x:c r="I83" s="51">
-        <x:v>192</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="J83" s="51"/>
       <x:c r="L83" s="15"/>
@@ -11395,18 +11638,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D84" s="48" t="s">
-        <x:v>185</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="E84" s="49"/>
       <x:c r="F84" s="49"/>
       <x:c r="G84" s="49"/>
       <x:c r="H84" s="50"/>
       <x:c r="I84" s="51">
-        <x:v>256</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="J84" s="51"/>
       <x:c r="L84" s="47" t="s">
-        <x:v>369</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="M84" s="47"/>
       <x:c r="N84" s="47"/>
@@ -11422,18 +11665,18 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D85" s="48" t="s">
-        <x:v>228</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E85" s="49"/>
       <x:c r="F85" s="49"/>
       <x:c r="G85" s="49"/>
       <x:c r="H85" s="50"/>
       <x:c r="I85" s="51">
-        <x:v>320</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="J85" s="51"/>
       <x:c r="L85" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="M85" s="47"/>
       <x:c r="N85" s="47"/>
@@ -11449,18 +11692,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D86" s="48" t="s">
-        <x:v>353</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="E86" s="49"/>
       <x:c r="F86" s="49"/>
       <x:c r="G86" s="49"/>
       <x:c r="H86" s="50"/>
       <x:c r="I86" s="51">
-        <x:v>446</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="J86" s="51"/>
       <x:c r="L86" s="47" t="s">
-        <x:v>26</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="M86" s="47"/>
       <x:c r="N86" s="47"/>
@@ -11471,99 +11714,151 @@
       <x:c r="S86" s="47"/>
       <x:c r="T86" s="47"/>
     </x:row>
-    <x:row r="87" spans="3:10" s="2" customFormat="1">
+    <x:row r="87" spans="3:21" s="2" customFormat="1">
       <x:c r="C87" s="23">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D87" s="48" t="s">
-        <x:v>185</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="E87" s="49"/>
       <x:c r="F87" s="49"/>
       <x:c r="G87" s="49"/>
       <x:c r="H87" s="50"/>
       <x:c r="I87" s="51">
-        <x:v>572</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="J87" s="51"/>
-    </x:row>
-    <x:row r="88" spans="3:10" s="2" customFormat="1">
+      <x:c r="L87" s="53" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="M87" s="53"/>
+      <x:c r="N87" s="53"/>
+      <x:c r="O87" s="53"/>
+      <x:c r="P87" s="53"/>
+      <x:c r="Q87" s="53"/>
+      <x:c r="R87" s="53"/>
+      <x:c r="S87" s="53"/>
+      <x:c r="T87" s="53"/>
+      <x:c r="U87" s="53"/>
+    </x:row>
+    <x:row r="88" spans="3:21" s="2" customFormat="1">
       <x:c r="C88" s="23">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D88" s="48" t="s">
-        <x:v>228</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E88" s="49"/>
       <x:c r="F88" s="49"/>
       <x:c r="G88" s="49"/>
       <x:c r="H88" s="50"/>
       <x:c r="I88" s="51">
-        <x:v>698</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="J88" s="51"/>
-    </x:row>
-    <x:row r="89" spans="3:10" s="2" customFormat="1">
+      <x:c r="L88" s="53"/>
+      <x:c r="M88" s="53"/>
+      <x:c r="N88" s="53"/>
+      <x:c r="O88" s="53"/>
+      <x:c r="P88" s="53"/>
+      <x:c r="Q88" s="53"/>
+      <x:c r="R88" s="53"/>
+      <x:c r="S88" s="53"/>
+      <x:c r="T88" s="53"/>
+      <x:c r="U88" s="53"/>
+    </x:row>
+    <x:row r="89" spans="3:21" s="2" customFormat="1">
       <x:c r="C89" s="23">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D89" s="48" t="s">
-        <x:v>353</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="E89" s="49"/>
       <x:c r="F89" s="49"/>
       <x:c r="G89" s="49"/>
       <x:c r="H89" s="50"/>
       <x:c r="I89" s="51">
-        <x:v>824</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="J89" s="51"/>
-    </x:row>
-    <x:row r="90" spans="3:10" s="7" customFormat="1">
+      <x:c r="L89" s="53"/>
+      <x:c r="M89" s="53"/>
+      <x:c r="N89" s="53"/>
+      <x:c r="O89" s="53"/>
+      <x:c r="P89" s="53"/>
+      <x:c r="Q89" s="53"/>
+      <x:c r="R89" s="53"/>
+      <x:c r="S89" s="53"/>
+      <x:c r="T89" s="53"/>
+      <x:c r="U89" s="53"/>
+    </x:row>
+    <x:row r="90" spans="3:21" s="7" customFormat="1">
       <x:c r="C90" s="23">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D90" s="48" t="s">
-        <x:v>185</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="E90" s="49"/>
       <x:c r="F90" s="49"/>
       <x:c r="G90" s="49"/>
       <x:c r="H90" s="50"/>
       <x:c r="I90" s="51">
-        <x:v>950</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="J90" s="51"/>
-    </x:row>
-    <x:row r="91" spans="3:10" s="7" customFormat="1">
+      <x:c r="L90" s="53"/>
+      <x:c r="M90" s="53"/>
+      <x:c r="N90" s="53"/>
+      <x:c r="O90" s="53"/>
+      <x:c r="P90" s="53"/>
+      <x:c r="Q90" s="53"/>
+      <x:c r="R90" s="53"/>
+      <x:c r="S90" s="53"/>
+      <x:c r="T90" s="53"/>
+      <x:c r="U90" s="53"/>
+    </x:row>
+    <x:row r="91" spans="3:21" s="7" customFormat="1">
       <x:c r="C91" s="23">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D91" s="48" t="s">
-        <x:v>228</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E91" s="49"/>
       <x:c r="F91" s="49"/>
       <x:c r="G91" s="49"/>
       <x:c r="H91" s="50"/>
       <x:c r="I91" s="51">
-        <x:v>1070</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="J91" s="51"/>
+      <x:c r="L91" s="53"/>
+      <x:c r="M91" s="53"/>
+      <x:c r="N91" s="53"/>
+      <x:c r="O91" s="53"/>
+      <x:c r="P91" s="53"/>
+      <x:c r="Q91" s="53"/>
+      <x:c r="R91" s="53"/>
+      <x:c r="S91" s="53"/>
+      <x:c r="T91" s="53"/>
+      <x:c r="U91" s="53"/>
     </x:row>
     <x:row r="92" spans="3:10" s="7" customFormat="1">
       <x:c r="C92" s="23">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D92" s="48" t="s">
-        <x:v>353</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="E92" s="49"/>
       <x:c r="F92" s="49"/>
       <x:c r="G92" s="49"/>
       <x:c r="H92" s="50"/>
       <x:c r="I92" s="51">
-        <x:v>1190</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="J92" s="51"/>
     </x:row>
@@ -11572,14 +11867,14 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D93" s="48" t="s">
-        <x:v>185</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="E93" s="49"/>
       <x:c r="F93" s="49"/>
       <x:c r="G93" s="49"/>
       <x:c r="H93" s="50"/>
       <x:c r="I93" s="51">
-        <x:v>1310</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="J93" s="51"/>
     </x:row>
@@ -11588,14 +11883,14 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D94" s="48" t="s">
-        <x:v>228</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E94" s="49"/>
       <x:c r="F94" s="49"/>
       <x:c r="G94" s="49"/>
       <x:c r="H94" s="50"/>
       <x:c r="I94" s="51">
-        <x:v>1430</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="J94" s="51"/>
     </x:row>
@@ -11603,7 +11898,7 @@
     <x:row r="96" s="2" customFormat="1"/>
     <x:row r="97" spans="3:6" s="7" customFormat="1">
       <x:c r="C97" s="47" t="s">
-        <x:v>89</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D97" s="47"/>
       <x:c r="E97" s="47"/>
@@ -11611,13 +11906,13 @@
     </x:row>
     <x:row r="98" spans="3:16" s="7" customFormat="1">
       <x:c r="C98" s="47" t="s">
-        <x:v>233</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D98" s="47"/>
       <x:c r="E98" s="47"/>
       <x:c r="F98" s="47"/>
       <x:c r="G98" s="47" t="s">
-        <x:v>17</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H98" s="47"/>
       <x:c r="I98" s="47"/>
@@ -11631,10 +11926,10 @@
     </x:row>
     <x:row r="99" spans="3:16">
       <x:c r="C99" s="23" t="s">
-        <x:v>31</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D99" s="51" t="s">
-        <x:v>253</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E99" s="51"/>
       <x:c r="F99" s="51"/>
@@ -11656,12 +11951,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D100" s="51" t="s">
-        <x:v>249</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E100" s="51"/>
       <x:c r="F100" s="51"/>
       <x:c r="G100" s="51" t="s">
-        <x:v>281</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="H100" s="51"/>
       <x:c r="I100" s="51"/>
@@ -11678,12 +11973,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D101" s="51" t="s">
-        <x:v>252</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E101" s="51"/>
       <x:c r="F101" s="51"/>
       <x:c r="G101" s="51" t="s">
-        <x:v>258</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="H101" s="51"/>
       <x:c r="I101" s="51"/>
@@ -11700,12 +11995,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D102" s="51" t="s">
-        <x:v>201</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E102" s="51"/>
       <x:c r="F102" s="51"/>
       <x:c r="G102" s="51" t="s">
-        <x:v>259</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="H102" s="51"/>
       <x:c r="I102" s="51"/>
@@ -11722,12 +12017,12 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D103" s="51" t="s">
-        <x:v>211</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E103" s="51"/>
       <x:c r="F103" s="51"/>
       <x:c r="G103" s="51" t="s">
-        <x:v>265</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H103" s="51"/>
       <x:c r="I103" s="51"/>
@@ -11744,12 +12039,12 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D104" s="51" t="s">
-        <x:v>321</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E104" s="51"/>
       <x:c r="F104" s="51"/>
       <x:c r="G104" s="51" t="s">
-        <x:v>276</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="H104" s="51"/>
       <x:c r="I104" s="51"/>
@@ -11766,12 +12061,12 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D105" s="51" t="s">
-        <x:v>322</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E105" s="51"/>
       <x:c r="F105" s="51"/>
       <x:c r="G105" s="51" t="s">
-        <x:v>124</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="H105" s="51"/>
       <x:c r="I105" s="51"/>
@@ -11929,15 +12224,15 @@
     </x:row>
     <x:row r="115" spans="3:5">
       <x:c r="C115" s="47" t="s">
-        <x:v>242</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D115" s="47"/>
       <x:c r="E115" s="11" t="s">
-        <x:v>225</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="187">
+  <x:mergeCells count="185">
     <x:mergeCell ref="C2:L10"/>
     <x:mergeCell ref="C12:D12"/>
     <x:mergeCell ref="D13:F13"/>
@@ -12115,16 +12410,14 @@
     <x:mergeCell ref="G75:R75"/>
     <x:mergeCell ref="L80:N80"/>
     <x:mergeCell ref="O80:Q80"/>
-    <x:mergeCell ref="R80:T80"/>
     <x:mergeCell ref="L81:N81"/>
     <x:mergeCell ref="L82:N82"/>
     <x:mergeCell ref="O81:Q81"/>
     <x:mergeCell ref="O82:Q82"/>
-    <x:mergeCell ref="R81:T81"/>
-    <x:mergeCell ref="R82:T82"/>
     <x:mergeCell ref="L84:T84"/>
     <x:mergeCell ref="L85:T85"/>
     <x:mergeCell ref="L86:T86"/>
+    <x:mergeCell ref="L87:U91"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -12136,7 +12429,7 @@
   <x:sheetPr codeName="Sheet7"/>
   <x:dimension ref="A1:U22"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="H26" activeCellId="0" sqref="H26:H26"/>
     </x:sheetView>
   </x:sheetViews>
@@ -12144,13 +12437,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="47" t="s">
-        <x:v>198</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B1" s="47"/>
     </x:row>
     <x:row r="2" spans="1:21">
       <x:c r="A2" s="48" t="s">
-        <x:v>181</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B2" s="49"/>
       <x:c r="C2" s="49"/>
@@ -12175,7 +12468,7 @@
     </x:row>
     <x:row r="3" spans="1:21">
       <x:c r="A3" s="48" t="s">
-        <x:v>107</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B3" s="49"/>
       <x:c r="C3" s="49"/>
@@ -12200,7 +12493,7 @@
     </x:row>
     <x:row r="4" spans="1:21">
       <x:c r="A4" s="48" t="s">
-        <x:v>57</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B4" s="49"/>
       <x:c r="C4" s="49"/>
@@ -12225,7 +12518,7 @@
     </x:row>
     <x:row r="5" spans="1:21">
       <x:c r="A5" s="48" t="s">
-        <x:v>56</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B5" s="49"/>
       <x:c r="C5" s="49"/>
@@ -12250,7 +12543,7 @@
     </x:row>
     <x:row r="6" spans="1:21">
       <x:c r="A6" s="48" t="s">
-        <x:v>117</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="49"/>
       <x:c r="C6" s="49"/>
@@ -12275,7 +12568,7 @@
     </x:row>
     <x:row r="7" spans="1:21">
       <x:c r="A7" s="48" t="s">
-        <x:v>29</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B7" s="49"/>
       <x:c r="C7" s="49"/>
@@ -12300,7 +12593,7 @@
     </x:row>
     <x:row r="8" spans="1:21">
       <x:c r="A8" s="48" t="s">
-        <x:v>182</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B8" s="49"/>
       <x:c r="C8" s="49"/>
@@ -12688,7 +12981,7 @@
   <x:sheetData>
     <x:row r="3" spans="2:11">
       <x:c r="B3" s="46" t="s">
-        <x:v>51</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C3" s="47"/>
       <x:c r="D3" s="47"/>
@@ -12774,14 +13067,14 @@
     </x:row>
     <x:row r="11" spans="2:4">
       <x:c r="B11" s="47" t="s">
-        <x:v>87</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C11" s="47"/>
       <x:c r="D11" s="47"/>
     </x:row>
     <x:row r="12" spans="2:14">
       <x:c r="B12" s="47" t="s">
-        <x:v>352</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="C12" s="47"/>
       <x:c r="D12" s="47"/>
@@ -12798,7 +13091,7 @@
     </x:row>
     <x:row r="13" spans="2:14">
       <x:c r="B13" s="47" t="s">
-        <x:v>333</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="C13" s="47"/>
       <x:c r="D13" s="47"/>
@@ -12815,7 +13108,7 @@
     </x:row>
     <x:row r="14" spans="2:14">
       <x:c r="B14" s="47" t="s">
-        <x:v>70</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C14" s="47"/>
       <x:c r="D14" s="47"/>
@@ -12832,7 +13125,7 @@
     </x:row>
     <x:row r="15" spans="2:14">
       <x:c r="B15" s="47" t="s">
-        <x:v>4</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C15" s="47"/>
       <x:c r="D15" s="47"/>
@@ -12849,19 +13142,19 @@
     </x:row>
     <x:row r="18" spans="2:4">
       <x:c r="B18" s="47" t="s">
-        <x:v>167</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="C18" s="47"/>
       <x:c r="D18" s="47"/>
     </x:row>
     <x:row r="19" spans="2:15">
       <x:c r="B19" s="51" t="s">
-        <x:v>319</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C19" s="51"/>
       <x:c r="D19" s="51"/>
       <x:c r="E19" s="51" t="s">
-        <x:v>209</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="F19" s="51"/>
       <x:c r="G19" s="51"/>
@@ -12873,38 +13166,38 @@
       <x:c r="K19" s="51"/>
       <x:c r="L19" s="51"/>
       <x:c r="M19" s="51" t="s">
-        <x:v>245</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="N19" s="51"/>
       <x:c r="O19" s="51"/>
     </x:row>
     <x:row r="20" spans="5:15">
       <x:c r="E20" s="51" t="s">
-        <x:v>188</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F20" s="51"/>
       <x:c r="G20" s="51"/>
       <x:c r="H20" s="51"/>
       <x:c r="I20" s="51" t="s">
-        <x:v>187</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="J20" s="51"/>
       <x:c r="K20" s="51"/>
       <x:c r="L20" s="51"/>
       <x:c r="M20" s="66" t="s">
-        <x:v>237</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="N20" s="57"/>
       <x:c r="O20" s="57"/>
     </x:row>
     <x:row r="22" spans="2:12">
       <x:c r="B22" s="51" t="s">
-        <x:v>290</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C22" s="51"/>
       <x:c r="D22" s="51"/>
       <x:c r="E22" s="51" t="s">
-        <x:v>343</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="F22" s="51"/>
       <x:c r="G22" s="51"/>
@@ -12916,12 +13209,12 @@
     </x:row>
     <x:row r="23" spans="2:12">
       <x:c r="B23" s="51" t="s">
-        <x:v>239</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C23" s="51"/>
       <x:c r="D23" s="51"/>
       <x:c r="E23" s="51" t="s">
-        <x:v>49</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F23" s="51"/>
       <x:c r="G23" s="51"/>
@@ -12933,12 +13226,12 @@
     </x:row>
     <x:row r="24" spans="2:12">
       <x:c r="B24" s="51" t="s">
-        <x:v>314</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C24" s="51"/>
       <x:c r="D24" s="51"/>
       <x:c r="E24" s="51" t="s">
-        <x:v>100</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F24" s="51"/>
       <x:c r="G24" s="51"/>
@@ -12950,12 +13243,12 @@
     </x:row>
     <x:row r="25" spans="2:12">
       <x:c r="B25" s="51" t="s">
-        <x:v>323</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C25" s="51"/>
       <x:c r="D25" s="51"/>
       <x:c r="E25" s="51" t="s">
-        <x:v>1</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="F25" s="51"/>
       <x:c r="G25" s="51"/>
@@ -12970,7 +13263,7 @@
       <x:c r="C26" s="51"/>
       <x:c r="D26" s="51"/>
       <x:c r="E26" s="51" t="s">
-        <x:v>336</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="F26" s="51"/>
       <x:c r="G26" s="51"/>
@@ -12982,12 +13275,12 @@
     </x:row>
     <x:row r="27" spans="2:12">
       <x:c r="B27" s="51" t="s">
-        <x:v>310</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C27" s="51"/>
       <x:c r="D27" s="51"/>
       <x:c r="E27" s="51" t="s">
-        <x:v>90</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F27" s="51"/>
       <x:c r="G27" s="51"/>
@@ -13012,48 +13305,48 @@
     </x:row>
     <x:row r="29" spans="2:4">
       <x:c r="B29" s="47" t="s">
-        <x:v>223</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C29" s="47"/>
       <x:c r="D29" s="47"/>
     </x:row>
     <x:row r="30" spans="2:16">
       <x:c r="B30" s="47" t="s">
-        <x:v>166</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="C30" s="47"/>
       <x:c r="D30" s="47"/>
       <x:c r="E30" s="47" t="s">
-        <x:v>205</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F30" s="47"/>
       <x:c r="G30" s="47"/>
       <x:c r="H30" s="47" t="s">
-        <x:v>200</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I30" s="47"/>
       <x:c r="J30" s="47"/>
       <x:c r="K30" s="47" t="s">
-        <x:v>179</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="L30" s="47"/>
       <x:c r="M30" s="47"/>
       <x:c r="N30" s="47" t="s">
-        <x:v>207</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="O30" s="47"/>
       <x:c r="P30" s="47"/>
     </x:row>
     <x:row r="31" spans="2:4">
       <x:c r="B31" s="47" t="s">
-        <x:v>222</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C31" s="47"/>
       <x:c r="D31" s="47"/>
     </x:row>
     <x:row r="32" spans="2:16">
       <x:c r="B32" s="47" t="s">
-        <x:v>120</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C32" s="47"/>
       <x:c r="D32" s="47"/>
@@ -13072,7 +13365,7 @@
     </x:row>
     <x:row r="33" spans="2:16">
       <x:c r="B33" s="47" t="s">
-        <x:v>99</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C33" s="47"/>
       <x:c r="D33" s="47"/>
@@ -13137,14 +13430,14 @@
   <x:dimension ref="B2:K11"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B7" activeCellId="0" sqref="B7:K11"/>
+      <x:selection activeCell="B2" activeCellId="0" sqref="B2:K6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="2" spans="2:11">
       <x:c r="B2" s="82" t="s">
-        <x:v>39</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C2" s="47"/>
       <x:c r="D2" s="47"/>
@@ -13206,7 +13499,7 @@
     </x:row>
     <x:row r="7" spans="2:11">
       <x:c r="B7" s="82" t="s">
-        <x:v>141</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C7" s="47"/>
       <x:c r="D7" s="47"/>
@@ -13271,7 +13564,7 @@
     <x:mergeCell ref="B2:K6"/>
     <x:mergeCell ref="B7:K11"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/Disign/무기, 캐릭터.xlsx
+++ b/Disign/무기, 캐릭터.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8472" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8472" activeTab="7"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="용어정리" sheetId="1" r:id="rId4"/>
@@ -28,73 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="383">
   <x:si>
-    <x:t>전사 | https://assetstore.unity.com/packages/3d/characters/humanoids/barbarian-warrior-75519#description (가능) / https://assetstore.unity.com/packages/3d/characters/humanoids/low-poly-fantasy-warrior-127775</x:t>
-  </x:si>
-  <x:si>
-    <x:t>끈끈이 폭탄 - https://assetstore.unity.com/packages/2d/gui/icons/potions-kit-196598#content | Immunity Potions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불 원소 - https://assetstore.unity.com/packages/2d/gui/icons/elemental-potions-175338#content | fire_potion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물 원소 - https://assetstore.unity.com/packages/2d/gui/icons/elemental-potions-175338#content | water_potion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기의 스탯은 [ 스탯에 분배된 포인트 * 가중치 + 기본 값] 이다. (공격속도는 [ 기본값 - 스탯에 분배된 포인트 * 가중치 ] 이다.)
-이때 아래 표에서 실제 스탯의 가중치는 기본 가중치이며 자세한 설명은 표 아래에 존재한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적들의 어그로를 6초간 끄는 미끼를 자신의 위치에 설치한다. / 보스는 걸리지 않는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원거리 무기 공격력 10%증가/ 총 태그가 붙은 무기 공격력 10%증가 / 체력 10% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대시 후 1초 동안 찌르기 태그가 달린 무기의 공격력 30% 증가 및 사거리 20% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터는 현재 들고 있는 소모품을 사용한다. / 소모품은 -&gt;, &lt;-로 바꿀 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접무기 공격력 10% 증가/L 태그가 붙은 무기 공격횟수 1 증가/ 이동속도 10% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접무기 공격력 10% 증가/H 태그가 붙은 무기 공격력 10% 증가/ 공격력 5% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원거리 무기 공격력 10%증가/활 태그가 붙은 무기 공격력 10%증가 / 이동속도 10%증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신의 자리에 폭탄을 터트려 길이 5m인 장판을 깐다. 이 장판은 '손상' 상태를 부여한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 범위에 140의 고정 데미지를 주는 폭탄을 앞에 둔다. 무너질 수 있는 벽을 부순다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫 번째와 두 번째 무기의 공격력을 50% 감소시키고 그만큼 세 번째 무기의 공격력이 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접,원거리 무기 공격력 각각 5% 증가/ 메인 공격 시 40% 확률로 공격력 50% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최종 데미지
-= (무기 공격력 + 캐릭터 공격력) * (1 - (몬스터 방어력 / 100+몬스터 방어력)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터는 가지고 있는 무기를 이용해 적을 공격할 수 있다. / 한번의 클릭으로 한번의 서브공격이 나간다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기맵은 다른 무기맵과 3개의 맵 간격을 두어야 한다. 보스맵은 시작맵과 7개의 맵 간격을 두어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터는 앞, 뒤 방향으로 일정거리를 빠르게 이동한다. 이때 잠시 무적이 된다. / 3초마다 사용가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">공격범위
-모든 지역 무기는 0.5m의 반지름을 가진 원을 공격범위로 둔다.
-</x:t>
-  </x:si>
-  <x:si>
     <x:t>공격횟수
 기본, 최소 가중치 10포인트
 최대 가중치 7포인트
@@ -104,17 +37,127 @@
 8 7</x:t>
   </x:si>
   <x:si>
-    <x:t>캐릭터 / 계정
-- 캐릭터 레벨 및 캐릭터 특성
-- 계정 레벨 및 계정 특성
-- 캐릭터 공통 스탯
-- 캐릭터 종류
-- 캐릭터 무브셋</x:t>
+    <x:t>베기에서 궤적의 반지름을, 찌르기에서 가로 선분의 길이를, 투사체에서 투사체가 갈 수 있는 최대 거리를 의미</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전사 | https://assetstore.unity.com/packages/3d/characters/humanoids/barbarian-warrior-75519#description (가능) / https://assetstore.unity.com/packages/3d/characters/humanoids/low-poly-fantasy-warrior-127775</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터는 점프를 해, 위로 움직일 수 있다. / 1회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불 원소 - https://assetstore.unity.com/packages/2d/gui/icons/elemental-potions-175338#content | fire_potion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물 원소 - https://assetstore.unity.com/packages/2d/gui/icons/elemental-potions-175338#content | water_potion</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">공격횟수
+공격횟수는 분배된 포인트가 0일 때 0회 공격.(기본값)
+(가중치)포인트당 1회 늘어남.
+공격횟수에 상한 없음.
+공격횟수가 0이면 바로 다음 무기로 넘어감.
+최소치 0 / 최대치 X
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>끈끈이 폭탄 - https://assetstore.unity.com/packages/2d/gui/icons/potions-kit-196598#content | Immunity Potions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기의 스탯은 [ 스탯에 분배된 포인트 * 가중치 + 기본 값] 이다. (공격속도는 [ 기본값 - 스탯에 분배된 포인트 * 가중치 ] 이다.)
+이때 아래 표에서 실제 스탯의 가중치는 기본 가중치이며 자세한 설명은 표 아래에 존재한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적들의 어그로를 6초간 끄는 미끼를 자신의 위치에 설치한다. / 보스는 걸리지 않는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신의 자리에 폭탄을 터트려 길이 5m인 장판을 깐다. 이 장판은 '손상' 상태를 부여한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접무기 공격력 10% 증가/H 태그가 붙은 무기 공격력 10% 증가/ 공격력 5% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원거리 무기 공격력 10%증가/활 태그가 붙은 무기 공격력 10%증가 / 이동속도 10%증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접무기 공격력 10% 증가/L 태그가 붙은 무기 공격횟수 1 증가/ 이동속도 10% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접,원거리 무기 공격력 각각 5% 증가/ 메인 공격 시 40% 확률로 공격력 50% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원거리 무기 공격력 10%증가/ 총 태그가 붙은 무기 공격력 10%증가 / 체력 10% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대시 후 1초 동안 찌르기 태그가 달린 무기의 공격력 30% 증가 및 사거리 20% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터는 현재 들고 있는 소모품을 사용한다. / 소모품은 -&gt;, &lt;-로 바꿀 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 번째와 두 번째 무기의 공격력을 50% 감소시키고 그만큼 세 번째 무기의 공격력이 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정 범위에 140의 고정 데미지를 주는 폭탄을 앞에 둔다. 무너질 수 있는 벽을 부순다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터는 가지고 있는 무기를 이용해 적을 공격할 수 있다. / 한번의 클릭으로 한번의 서브공격이 나간다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기맵은 다른 무기맵과 3개의 맵 간격을 두어야 한다. 보스맵은 시작맵과 7개의 맵 간격을 두어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터는 앞, 뒤 방향으로 일정거리를 빠르게 이동한다. 이때 잠시 무적이 된다. / 3초마다 사용가능</x:t>
   </x:si>
   <x:si>
     <x:t>지정한 무기의 공격횟수를 1로 줄이는 대신, 공격력이 (30 * 줄어든 공격횟수)% 증가
 무기 지정은 이 특성을 얻고 처음으로 어떤 무기를 착용하면 그 무기가 지정된다. 
 지정된 무기를 착용해제하면 다시 무기를 지정할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 조건일시 기능 추가나 스탯 강화  /  깡 스탯 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2개의 스테이지를 끝내면 5레벨정도 오르게 경험치를 준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오로지 투사체 무기만 소유, 투사체가 날라가는 속도를 결정함.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라이트(L) : 대체로 공격력이 낮고, 공격속도가 빠르다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스탯 증가, 초기 자원 증가 / 특성을 여러번 찍을 수 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위 스탯표에서 실제 스탯은 기본 가중치로 계산해서 나온 값이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이 수치가 0이 되면 게임이 종료된다. / 최초 스탯 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반드랍의 경우와 희귀드랍의 경우에 무기 가중치가 다르다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테이지 구성은 아이작처럼 맵을 무작위 방식으로 배치한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터가 적에게 주는 데미지를 결정한다. / 최초 스탯 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L 태그의 무기로 적을 공격하면, 적에게 '독' 상태를 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>속도물약 - https://assetstore.unity.com/packages/2d/gui/icons/2d-pixel-item-asset-pack-99645#content | JarBlue01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특성 틀
+========================
+n 번째 공격 / " " 태그를 가진 무기 / 그냥 / 특정 조건을 만족
++
+일(할) 때
++
+" " 스탯을 강화한다. / " " 기능을 추가한다.</x:t>
   </x:si>
   <x:si>
     <x:t>암살자 | https://assetstore.unity.com/packages/2d/characters/mighty-heroes-rogue-2d-fantasy-characters-pack-85770 (가능)</x:t>
@@ -134,319 +177,165 @@
 </x:t>
   </x:si>
   <x:si>
+    <x:t>롱소드 / 양손검 / 롱 보우 / 전투 도끼 |  https://assetstore.unity.com/packages/3d/props/weapons/free-pack-of-medieval-weapons-136607</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창 / 숏보우 / 파이어볼 / 썬더볼트 / 손 도끼 / 매직미사일 |  https://assetstore.unity.com/packages/3d/props/weapons/free-rpg-weapons-199738</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나의 무기가 일반맵에서 드랍되는 것보다 최소치 최대치가 더 좋은 상태로 나오는 방</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">목차
+- 0. 게임 전투 템포
+- 1. 맵 클리어 보상 방식
+- 2. 맵 구성 방식
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>한 무기의 서브 공격을 얼마나 빠르게 하는지 결정한다. (ex - 2.1초, 1초)</x:t>
   </x:si>
   <x:si>
     <x:t>0성에서 1성은 1조각, 1성에서 2성은 2조각, 2성에서 3성은 6조각이 필요하다.</x:t>
   </x:si>
   <x:si>
-    <x:t>적이 상태 이상에 걸려있는 경우, 세 번째 공격의 공격력이 60% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세 개의 무기가 모두 다른 태그라면 각 무기의 공격속도가 0.2초 감소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫 번째 무기가 총일 때, 첫 번째 공격이 적을 '정지'상태로 만든다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2, 4, 6 스테이지면 보스가 등장하고 다음 스테이지로 가는 방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화할 때마다 스탯 포인트를 제공해 원하는 스탯을 올릴 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여기서 드랍되는 무기는 스탯의 최소 최대가 무기맵의 무기보다 더 낮다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2~6레벨 | 360 + 120+ 300 = 15x | x = 52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 소모품을 사용하거나, 특정 조건을 만족하면 보상을 제공하는 방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투사체속도
-모든 투사체 무기는 10m/s의 투사체 속도를 가진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>석궁 | https://assetstore.unity.com/packages/3d/props/weapons/stylized-crossbow-243342</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기의 궤적이 호인 무기 ( 호는 지면과 평행한 가로 선분의 위로 45도, 아래로 45도이다.)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신의 자리에 폭탄을 터트려 길이 5m인 장판을 깐다. 이 장판은 '느릿한' 상태를 부여한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원거리 무기 공격력 10%증가/ 마법 태그가 붙은 무기 공격속도 0.05초 감소/ 공격력 10%증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 ~ 11레벨 |   1451 + 483 + 600 = 15x + 5*260 | x = 82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한번의 메인 공격 이후, 2초 기다린 후 다음 메인 공격을 하면 그 메인공격의 공격력이 70% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가만히 있으면 중간은 간다. /
-you will break even if you stay still</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접 무기 공격력 10% 증가 / 검 태그가 붙은 무기 공격속도 10% 감소 / 방어력 10% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근/원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소모품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>찌르기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방어력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주먹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투사체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가중치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부활</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레벨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지역만</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>활</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상점맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>베기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기믹맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보스맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>e</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ㅁ</x:t>
+    <x:t>오로지 지역 무기만 소유. 커서가 가르키는 위치에 있는 원의 반지름을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터는 좌우로 움직일 수 있다. 이때, 움직이는 속도는 이동속도의 영향을 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 번째 무기가 베기 태그를 가진 무기일 때, 적에게 '느릿한' 상태를 부여한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 ~ 15레벨 | 2326 + 775 = 650*4 + 10x | x = 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접, 원거리 무기 공격력 각각 5% 증가 / 현재 이동속도의 N%를 공격력에 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 드랍
+: 적을 처치해서 무기가 드랍되는 경우
+희귀 드랍
+: 보물 상자 또는 무기맵에서 무기가 드랍되는 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 만약 원소 소모품을 쓰고 또 다른 원소 소모품을 쓰면 마지막으로 쓴 원소 소모품의 속성이 무기에 적용된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">공격력 5% 증가 / 최대 10번 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>암수 / secret weapon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스택은 1스택씩 차례대로 사라진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>characteristic name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>biker gang / 폭주족</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방어력 5% 증가 / 최대 10번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가속 / acceleration</x:t>
   </x:si>
   <x:si>
     <x:t>long sword / 롱소드</x:t>
   </x:si>
   <x:si>
-    <x:t>가속 / acceleration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스택은 1스택씩 차례대로 사라진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>characteristic name</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">공격력 5% 증가 / 최대 10번 </x:t>
-  </x:si>
-  <x:si>
     <x:t>무기가 주는 데미지를 결정한다.</x:t>
   </x:si>
   <x:si>
     <x:t>thunderbolt / 썬더볼트</x:t>
   </x:si>
   <x:si>
-    <x:t>암수 / secret weapon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>biker gang / 폭주족</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방어력 5% 증가 / 최대 10번</x:t>
+    <x:t>갑옷 파괴 / armor break</x:t>
+  </x:si>
+  <x:si>
+    <x:t>즉시 체력의 40%를 회복한다.</x:t>
   </x:si>
   <x:si>
     <x:t>healthPoint(HP)/체력</x:t>
   </x:si>
   <x:si>
-    <x:t>힘줄 자르기 / tendon cut</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1레벨로 시작 / 15레벨이 만렙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올포원 / all for one</x:t>
+    <x:t>hp potion / 체력 물약</x:t>
   </x:si>
   <x:si>
     <x:t>sniper rifle / 저격소총</x:t>
   </x:si>
   <x:si>
-    <x:t>무기 에셋은 판타지, 현대 무관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>holy element / 성 원소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>interaction/상호작용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력 5% 증가 / 최대 10번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>attackNum(AN)/공격횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> battleaxe / 전투도끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>attackRange/공격범위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>attackPower(AP)/공격력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fire element / 불 원소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑옷 파괴 / armor break</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신속한 영창 / fast chant</x:t>
+    <x:t>적을 2초간 움직이지 못하게 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동속도 5% 증가 / 최대 10번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1스테이지 =&gt; 360 ~ 720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fire ball / 파이어볼</x:t>
   </x:si>
   <x:si>
     <x:t>6스테이지 =&gt; 1960~2500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적을 2초간 움직이지 못하게 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기의 궤적이 가로 선분인 무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>break bomb / 손상 폭탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>즉시 체력의 40%를 회복한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초기 골드 소유량이 N만큼 증가</x:t>
   </x:si>
   <x:si>
     <x:t>최종 이동속도
 = 이동속도 / 5</x:t>
   </x:si>
   <x:si>
-    <x:t>hp potion / 체력 물약</x:t>
+    <x:t>attackRange/공격범위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>break bomb / 손상 폭탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fire element / 불 원소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기의 궤적이 가로 선분인 무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>interaction/상호작용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>attackPower(AP)/공격력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초기 골드 소유량이 N만큼 증가</x:t>
   </x:si>
   <x:si>
     <x:t>pile bunker / 파일 벙커</x:t>
   </x:si>
   <x:si>
-    <x:t>이동속도 5% 증가 / 최대 10번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1스테이지 =&gt; 360 ~ 720</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fire ball / 파이어볼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오로지 지역 무기만 소유. 커서가 가르키는 위치에 있는 원의 반지름을 결정한다.</x:t>
+    <x:t>힘줄 자르기 / tendon cut</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신속한 영창 / fast chant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>holy element / 성 원소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>attackNum(AN)/공격횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 에셋은 판타지, 현대 무관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올포원 / all for one</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1레벨로 시작 / 15레벨이 만렙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력 5% 증가 / 최대 10번</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> battleaxe / 전투도끼</x:t>
   </x:si>
   <x:si>
     <x:t>2스테이지 끝내 5레벨이 오르려면 (몬스터 스테이지의 모든 몬스터를 잡았을 때의 경험치
@@ -455,107 +344,290 @@
 6스테이지 보스에선 레벨이 올라도 소용없다 생각해 12~15구간은 5스테이지 경험치로만 계산</x:t>
   </x:si>
   <x:si>
+    <x:t>최종 데미지
+= (무기 공격력 + 캐릭터 공격력) * (1 - (몬스터 방어력 / 100+몬스터 방어력))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격범위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특성 제공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기믹맵 : 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>베기/cut</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태이상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기에셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 소모품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 무브셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 스탯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테이지 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(미정)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상호작용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소모품 에셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레벨업 보상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jump/점프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 공격범위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dash/대시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기맵 : 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요한 경험치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에셋유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지역/zone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 포인트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 포인트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>space</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일시 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>//////</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투사체속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 일반맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tag1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2. 보스맵 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bow / 활</x:t>
+  </x:si>
+  <x:si>
+    <x:t>type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상점맵 : 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투사체만</x:t>
+  </x:si>
+  <x:si>
+    <x:t>move/이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상시 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>effect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에셋 유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터에셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동속도 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>moveset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tag2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shift</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방어력 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. 기믹맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 상점맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60 포인트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버프 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">무기맵 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>gun / 총</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계정 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">계정 레벨표 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>tag0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. 시작맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a, d, s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 무기맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>텍스트로 대체</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">첫 번째 무기와 두 번째 무기가 주먹 무기이고,
 첫 번째 공격과 두 번째 공격을 모두 맞출 경우, 세 번째 공격의 사거리와 공격력이 150% 증가 </x:t>
   </x:si>
   <x:si>
-    <x:t>롱소드 / 양손검 / 롱 보우 / 전투 도끼 |  https://assetstore.unity.com/packages/3d/props/weapons/free-pack-of-medieval-weapons-136607</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창 / 숏보우 / 파이어볼 / 썬더볼트 / 손 도끼 / 매직미사일 |  https://assetstore.unity.com/packages/3d/props/weapons/free-rpg-weapons-199738</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테이지의 가장 첫 맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 레벨 및 캐릭터 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>longbow / 롱보우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>crossbow / 석궁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>즉시 모든 상태이상을 푼다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>consumable/소모품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grenade/ 수류탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>halberd / 할버드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2스테이지 =&gt; 300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>assassin/암살자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>battering / 난타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>panacea / 만병통치약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4스테이지 =&gt; 600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>derringer / 데린저</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투사체/projectile</x:t>
-  </x:si>
-  <x:si>
-    <x:t>호크아이 / hawkeye</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hatchet / 손 도끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shortbow / 숏보우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계정 레벨 및 계정 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 맵 클리어 보상 방식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rapier / 레이피어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>magician/마법사</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-상시 특성
-: 무기 교체를 할 때마다 적용되는 상시 효과를 가지는 특성. 
-일시 특성
-: 메인공격을 할 때마다 적용되는 일시 효과를 가지는 특성. 효과가 첫번째 공격에 적용됬다면 첫번째 공격이 끝난 뒤에 효과가 사라진다.
-버프 특성
-: 특정 조건을 만족하면 버프가 발생하고 제한시간이 끝나면 버프가 사라지는 특성.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특성 틀
-========================
-n 번째 공격 / " " 태그를 가진 무기 / 그냥 / 특정 조건을 만족
-+
-일(할) 때
-+
-" " 스탯을 강화한다. / " " 기능을 추가한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>속도물약 - https://assetstore.unity.com/packages/2d/gui/icons/2d-pixel-item-asset-pack-99645#content | JarBlue01</x:t>
+    <x:t>가만히 있으면 중간은 간다. /
+you will break even if you stay still</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한번의 메인 공격 이후, 2초 기다린 후 다음 메인 공격을 하면 그 메인공격의 공격력이 70% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원거리 무기 공격력 10%증가/ 마법 태그가 붙은 무기 공격속도 0.05초 감소/ 공격력 10%증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 ~ 11레벨 |   1451 + 483 + 600 = 15x + 5*260 | x = 82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신의 자리에 폭탄을 터트려 길이 5m인 장판을 깐다. 이 장판은 '느릿한' 상태를 부여한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접 무기 공격력 10% 증가 / 검 태그가 붙은 무기 공격속도 10% 감소 / 방어력 10% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기의 궤적이 호인 무기 ( 호는 지면과 평행한 가로 선분의 위로 45도, 아래로 45도이다.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">공격범위
+모든 지역 무기는 0.5m의 반지름을 가진 원을 공격범위로 둔다.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마우스 커서가 가르키는 위치에 원 내부를 공격을 해 데미지를 입히는 무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ex - 물 원소를 쓰고 불 원소를 쓰면 무기의 속성은 불 속성으로 결정됨.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,6,9,12,15레벨에 특성 선택이 제공, 대신 스탯은 오르지 않는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4초동안 초당 적의 최대 체력의 1%만큼 데미지를 준다. 최대 3중첩 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보스의 경우, 초당 최대 채력의 0.2%만큼 데미지를 준다. 나머지는 동일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵에 있는 모든 적에게 '정지'를 8초간 건다. / 보스는 걸리지 않는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>드랍되는 돈의 양에 최소치와 최대치를 두어 그 사이의 양으로 드랍되게 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">무기
+- 1. 분류
+- 2. 무기 스탯
+- 3. 무기 
+- 4. 소모품
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>활 태그가 달린 무기로 공격에 성공하면, 다음 메인 공격의 공격력 40% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 번째 무기가 H 태그를 가진 무기일 때, 적에게 '손상'을 부여한다.</x:t>
   </x:si>
   <x:si>
     <x:t>단단물약 - https://assetstore.unity.com/packages/2d/gui/icons/2d-pixel-item-asset-pack-99645#content | JarPurple01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력물약 - https://assetstore.unity.com/packages/2d/gui/icons/2d-pixel-item-asset-pack-99645#content | PotionRed00</x:t>
   </x:si>
   <x:si>
     <x:t>**용어정리**
@@ -571,34 +643,41 @@
   만약 무기를 딱 하나를 착용했다면 그 무기로 공격하면 한 번의 공격 사이클이 돌고, 두 개를 착용했다면 두 개의 무기가 공격을 다 끝냈다면 한 번의 공격 사이클이 돈 것이다.</x:t>
   </x:si>
   <x:si>
-    <x:t>근접, 원거리 무기 공격력 각각 5% 증가 / 현재 이동속도의 N%를 공격력에 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나의 무기가 일반맵에서 드랍되는 것보다 최소치 최대치가 더 좋은 상태로 나오는 방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터는 좌우로 움직일 수 있다. 이때, 움직이는 속도는 이동속도의 영향을 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫 번째 무기가 베기 태그를 가진 무기일 때, 적에게 '느릿한' 상태를 부여한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 ~ 15레벨 | 2326 + 775 = 650*4 + 10x | x = 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테이지 구성은 아이작처럼 맵을 무작위 방식으로 배치한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스탯 증가, 초기 자원 증가 / 특성을 여러번 찍을 수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 조건일시 기능 추가나 스탯 강화  /  깡 스탯 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반드랍의 경우와 희귀드랍의 경우에 무기 가중치가 다르다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라이트(L) : 대체로 공격력이 낮고, 공격속도가 빠르다.</x:t>
+    <x:t xml:space="preserve">
+상시 특성
+: 무기 교체를 할 때마다 적용되는 상시 효과를 가지는 특성. 
+일시 특성
+: 메인공격을 할 때마다 적용되는 일시 효과를 가지는 특성. 효과가 첫번째 공격에 적용됬다면 첫번째 공격이 끝난 뒤에 효과가 사라진다.
+버프 특성
+: 특정 조건을 만족하면 버프가 발생하고 제한시간이 끝나면 버프가 사라지는 특성.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2~6레벨 | 360 + 120+ 300 = 15x | x = 52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 상태 이상에 걸려있는 경우, 세 번째 공격의 공격력이 60% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투사체속도
+모든 투사체 무기는 10m/s의 투사체 속도를 가진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2, 4, 6 스테이지면 보스가 등장하고 다음 스테이지로 가는 방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화할 때마다 스탯 포인트를 제공해 원하는 스탯을 올릴 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 소모품을 사용하거나, 특정 조건을 만족하면 보상을 제공하는 방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 번째 무기가 총일 때, 첫 번째 공격이 적을 '정지'상태로 만든다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세 개의 무기가 모두 다른 태그라면 각 무기의 공격속도가 0.2초 감소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여기서 드랍되는 무기는 스탯의 최소 최대가 무기맵의 무기보다 더 낮다.</x:t>
   </x:si>
   <x:si>
     <x:t>스택은 1스택씩 차례대로 사라진다. 유지시간이 끝나기 전에 칼 태그가 붙은 무기로 공격에 성공하면 시간이 갱신된다.</x:t>
@@ -610,39 +689,351 @@
     <x:t>무기의 총 스탯 포인트는 100 / 아래는 tag1의 각 태그마다 기준이 되는 스탯 분배(*실제로 적용되는 거 아님)</x:t>
   </x:si>
   <x:si>
-    <x:t>일반 드랍
-: 적을 처치해서 무기가 드랍되는 경우
-희귀 드랍
-: 보물 상자 또는 무기맵에서 무기가 드랍되는 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 만약 원소 소모품을 쓰고 또 다른 원소 소모품을 쓰면 마지막으로 쓴 원소 소모품의 속성이 무기에 적용된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>베기에서 궤적의 반지름을, 찌르기에서 가로 선분의 길이를, 투사체에서 투사체가 갈 수 있는 최대 거리를 의미</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">공격횟수
-공격횟수는 분배된 포인트가 0일 때 0회 공격.
-(가중치)포인트당 1회 늘어남.
-공격횟수에 상한 없음.
-공격횟수가 0이면 바로 다음 무기로 넘어감.
-최소치 0 / 최대치 X
+    <x:t>단검 / 레이피어 / 할버드 | https://assetstore.unity.com/?free=true&amp;q=weapon&amp;orderBy=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">공격력
+공격력은 분배된 포인트가 0일
+때 0. (기본값)
+1포인트당 (가중치)씩 높아짐.
+공격력에 상한 없음
+최소치 10 / 최대치 X
 </x:t>
   </x:si>
   <x:si>
     <x:t>슬러그 샷건 / 데린저 / 저격소총  |  https://assetstore.unity.com/packages/3d/props/weapons/3d-guns-guns-pack-228975</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">미끼 - https://assetstore.unity.com/packages/3d/characters/humanoids/puppet-kid-free-demo-230773#content </x:t>
-  </x:si>
-  <x:si>
-    <x:t>손상 폭탄 - https://assetstore.unity.com/packages/2d/gui/icons/potions-kit-196598#content | Blood Potions</x:t>
   </x:si>
   <x:si>
     <x:t>여기 상태이상에 적혀있는 수치는 디폴트 값이다.
 만약 상태이상을 거는 특성이나 소모품이 있을 때, 거기에 상태이상 관련 수치가
 있다면 디폴트가 아닌 거기에 적혀있는 수치를 따르면 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">미끼 - https://assetstore.unity.com/packages/3d/characters/humanoids/puppet-kid-free-demo-230773#content </x:t>
+  </x:si>
+  <x:si>
+    <x:t>손상 폭탄 - https://assetstore.unity.com/packages/2d/gui/icons/potions-kit-196598#content | Blood Potions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소모품의 최대 소지 개수는 3개(종류 상관없이). 소모품은 R키로 사용할 수 있으며 &lt;-, -&gt;로 소모품을 바꿀 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">수류탄 - https://assetstore.unity.com/packages/3d/fps-grenade-model-textures-63667#content </x:t>
+  </x:si>
+  <x:si>
+    <x:t>해병 | https://assetstore.unity.com/packages/3d/characters/robots/robot-soldier-142438#content (가능) / https://assetstore.unity.com/packages/3d/characters/robots/robot-hero-pbr-hp-polyart-106154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법사 | https://assetstore.unity.com/packages/2d/characters/cute-2d-girl-wizard-155796 (가능) / https://assetstore.unity.com/packages/3d/characters/humanoids/fantasy/battle-wizard-poly-art-128097</x:t>
+  </x:si>
+  <x:si>
+    <x:t>궁수 | https://assetstore.unity.com/packages/3d/characters/newbie-friends-208112 (가운데 철모쓴애) (가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카타르 | https://assetstore.unity.com/packages/3d/props/weapons/ultimate-weapons-pack-lite-94668</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stop! / 멈춰!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 무기 스탯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sword / 검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fist / 주먹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>slow / 느릿한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>attack/공격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌진 / rush</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반맵 : 8~10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bait / 미끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 공통 스탯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gambler/도박꾼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spear / 창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>찌르기/sting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 공통 스탯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Left click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>magic /마법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>warrior/전사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>break / 손상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>katar / 카타르</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 맵 구성 방식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>knight/기사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>axe / 도끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dagger / 단검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접 / 원거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난도질 / hack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>range/사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 레벨 표</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">보스맵 : 1 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>archer/궁수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>marine/해병</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stop / 정지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>poison / 독</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 투사체속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강타 / smash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>석궁 | https://assetstore.unity.com/packages/3d/props/weapons/stylized-crossbow-243342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 / 계정
+- 캐릭터 레벨 및 캐릭터 특성
+- 계정 레벨 및 계정 특성
+- 캐릭터 공통 스탯
+- 캐릭터 종류
+- 캐릭터 무브셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터의 움직이는 속도를 결정한다. / 최초 스탯 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤비(H) : 대체로 공격력이 높고 공격속도가 느리다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약자 멸시 / 
+contempt for the Weak</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터는 근처에 있는 다른 객체와 상호작용할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적에게 받는 데미지를 경감시킨다. / 최초 스탯 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1, 3, 5 스테이지면 그냥 다음 스테이지로 가는 방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가중치는 드랍시 가능한 가중치에서 랜덤으로 결정된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력+4 , 이동속도+2.5, 방어력+10, 체력+10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보물상자에서는 확률에 따라 돈 또는 무기가 드랍된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투사체를 날려 투사체에 맞은 적이 데미지를 입는 무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더이상 안 쓰는 무기는 갈아서 다른 무기를 강화하게 함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기사 | https://assetstore.unity.com/packages/3d/characters/animals/dog-knight-pbr-polyart-135227(가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">도박사 | https://assetstore.unity.com/packages/3d/characters/creatures/low-pol-skeleton-188865 (가능) / </x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력
+기본, 최소 가중치 1
+최대 가중치 2
+일반 드랍의 가능한 가중치
+1 1.1 1.2 1.3 1.4 1.5
+희귀 드랍의 가능한 가중치
+1.5 1.6 1.7 1.8 1.9 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력물약 - https://assetstore.unity.com/packages/2d/gui/icons/2d-pixel-item-asset-pack-99645#content | PotionRed00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근/원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소모품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>찌르기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방어력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주먹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부활</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레벨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지역만</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투사체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가중치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>활</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상점맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보스맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>베기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ㅁ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기믹맵</x:t>
   </x:si>
   <x:si>
     <x:t>근접 사거리
@@ -655,9 +1046,6 @@
 0.05 0.075 0.1</x:t>
   </x:si>
   <x:si>
-    <x:t>성 원소 - https://assetstore.unity.com/packages/2d/gui/icons/potions-kit-196598#content | Brawl Potions</x:t>
-  </x:si>
-  <x:si>
     <x:t>암흑 원소 - https://assetstore.unity.com/packages/2d/gui/icons/potions-kit-196598#content | Demon Potions</x:t>
   </x:si>
   <x:si>
@@ -671,620 +1059,232 @@
 0.1 0.125 0.15</x:t>
   </x:si>
   <x:si>
-    <x:t>카타르 | https://assetstore.unity.com/packages/3d/props/weapons/ultimate-weapons-pack-lite-94668</x:t>
-  </x:si>
-  <x:si>
-    <x:t>궁수 | https://assetstore.unity.com/packages/3d/characters/newbie-friends-208112 (가운데 철모쓴애) (가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">공격력
-공격력은 분배된 포인트가 0일
-때 0.
-1포인트당 (가중치)씩 높아짐.
-공격력에 상한 없음
-최소치 10 / 최대치 X
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소모품의 최대 소지 개수는 3개(종류 상관없이). 소모품은 R키로 사용할 수 있으며 &lt;-, -&gt;로 소모품을 바꿀 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">목차
-- 0. 게임 전투 템포
-- 1. 맵 클리어 보상 방식
-- 2. 맵 구성 방식
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단검 / 레이피어 / 할버드 | https://assetstore.unity.com/?free=true&amp;q=weapon&amp;orderBy=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해병 | https://assetstore.unity.com/packages/3d/characters/robots/robot-soldier-142438#content (가능) / https://assetstore.unity.com/packages/3d/characters/robots/robot-hero-pbr-hp-polyart-106154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법사 | https://assetstore.unity.com/packages/2d/characters/cute-2d-girl-wizard-155796 (가능) / https://assetstore.unity.com/packages/3d/characters/humanoids/fantasy/battle-wizard-poly-art-128097</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dash/대시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 공격범위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 소모품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>float</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테이지 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격범위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소모품 에셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(미정)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상호작용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레벨업 보상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jump/점프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특성 제공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기믹맵 : 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기에셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>베기/cut</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태이상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 무브셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 스탯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요한 경험치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기맵 : 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>move/이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투사체속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bow / 활</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상점맵 : 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지역/zone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 포인트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투사체만</x:t>
-  </x:si>
-  <x:si>
-    <x:t>space</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일시 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>//////</x:t>
-  </x:si>
-  <x:si>
-    <x:t>effect</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 일반맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tag1</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2. 보스맵 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>상시 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에셋유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 포인트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에셋 유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">계정 레벨표 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터에셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 상점맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gun / 총</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60 포인트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tag0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동속도 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버프 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계정 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>moveset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">무기맵 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tag2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shift</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방어력 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5. 기믹맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 무기맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a, d, s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6. 시작맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>텍스트로 대체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>드랍되는 돈의 양에 최소치와 최대치를 두어 그 사이의 양으로 드랍되게 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,6,9,12,15레벨에 특성 선택이 제공, 대신 스탯은 오르지 않는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마우스 커서가 가르키는 위치에 원 내부를 공격을 해 데미지를 입히는 무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ex - 물 원소를 쓰고 불 원소를 쓰면 무기의 속성은 불 속성으로 결정됨.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫 번째 무기가 H 태그를 가진 무기일 때, 적에게 '손상'을 부여한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4초동안 초당 적의 최대 체력의 1%만큼 데미지를 준다. 최대 3중첩 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">무기
-- 1. 분류
-- 2. 무기 스탯
-- 3. 무기 
-- 4. 소모품
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵에 있는 모든 적에게 '정지'를 8초간 건다. / 보스는 걸리지 않는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>활 태그가 달린 무기로 공격에 성공하면, 다음 메인 공격의 공격력 40% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보스의 경우, 초당 최대 채력의 0.2%만큼 데미지를 준다. 나머지는 동일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기사 | https://assetstore.unity.com/packages/3d/characters/animals/dog-knight-pbr-polyart-135227(가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력
-기본, 최소 가중치 1
-최대 가중치 2
-일반 드랍의 가능한 가중치
-1 1.1 1.2 1.3 1.4 1.5
-희귀 드랍의 가능한 가중치
-1.5 1.6 1.7 1.8 1.9 2</x:t>
+    <x:t>성 원소 - https://assetstore.unity.com/packages/2d/gui/icons/potions-kit-196598#content | Brawl Potions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>assassin/암살자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>crossbow / 석궁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테이지의 가장 첫 맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>battering / 난타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>longbow / 롱보우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4스테이지 =&gt; 600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>panacea / 만병통치약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 레벨 및 캐릭터 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>halberd / 할버드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grenade/ 수류탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>consumable/소모품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2스테이지 =&gt; 300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>즉시 모든 상태이상을 푼다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계정 레벨 및 계정 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>magician/마법사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>호크아이 / hawkeye</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rapier / 레이피어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 맵 클리어 보상 방식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투사체/projectile</x:t>
+  </x:si>
+  <x:si>
+    <x:t>derringer / 데린저</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shortbow / 숏보우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hatchet / 손 도끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특성을 찍지 않는 레벨일 때는 스탯이 오른다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>just hand / 맨주먹 (default)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30초간 캐릭터의 방어력을 50% 상승시킨다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B / 공격력, 공격속도, 공격횟수, 사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특성 선택은 3개의 선택지를 주고 하나를 고른다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법 태그가 달린 무기는 공격속도가 0.1초 감소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H / 공격력, 공격속도, 공격횟수, 사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L / 공격력, 공격속도, 공격횟수, 사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">스택은 1초마다 1스택씩 차례대로 사라진다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 맵에서 캐릭터의 속도를 50% 상승시킨다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부활 횟수를 1회 늘린다. (특정 레벨 이상)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대시 후 2초 동안 공격속도가 0.15초 감소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>darkness element / 암흑 원소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밸런스(B) : 대체로 모든 수치에서 평균이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웨폰 마스터 / weapon master</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4초간 적의 방어력을 30% 감소시킨다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>defensivePower(DP)/방어력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>attackSpeed(AS)/공격속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 맵에서 무기의 속성을 불로 바꾼다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>two handed sword / 양손검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기를 갈면 하나의 무기 조각을 제공한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>movementSpeed(MS)/이동속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 맵에서 무기의 속성을 성으로 바꾼다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격횟수에 분배된 포인트/실제 공격횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나의 무기로 얼마나 공격할지 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력에 분배된 포인트 / 실제 공격력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 맵에서 무기의 속성을 물로 바꾼다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buddha's hand / 여래신장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼보필살 /
+Sam Bo Fil Sal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지역에서는 공격이 가능한 최대 거리를 의미</x:t>
+  </x:si>
+  <x:si>
+    <x:t>flypaper bomb/ 끈끈이 폭탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 공격력+4 , 방어력+10, 체력+10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>projectileSpeed/투사체속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스택은 0.5초마다 하나씩 사라진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 맵에서 무기의 속성을 암흑으로 바꾼다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사거리에 분배된 포인트 / 실제 사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공포탄 / blanck ammunition</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵을 클리어하면 보물상자가 드랍된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4초간 적의 이동속도를 30% 감소시킨다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도에 분배된 포인트/실제 공격속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재화를 주고 소모품을 구매할 수 있는 방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>slug shotgun / 슬러그 샷건</x:t>
+  </x:si>
+  <x:si>
+    <x:t>magic missile / 매직미사일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>solid potion / 단단 물약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>water element / 물 원소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5스테이지 =&gt; 2326 ~ 4652</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3스테이지 =&gt; 1451 ~ 2902</x:t>
+  </x:si>
+  <x:si>
+    <x:t>speed potion / 속도 물약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도
+공격속도는 분배된 포인트가  0일 때 1.3초.(기본값)
+1 포인트당 (가중치)씩 빨라짐.
+공격속도는 0.04초보다 빠를 수 없음.
+최소치 0.05 / 최대치 2</x:t>
   </x:si>
   <x:si>
     <x:t>사거리
-사거리는 분배된 포인트가 0일 때, 0.1m(근접) / 4m(원거리)
+사거리는 분배된 포인트가 0일 때, 0.1m(근접) / 4m(원거리)(기본값)
 1포인트당 (가중치)씩 높아짐
 사거리는 20m를 넘길 수 없음
 최소치 0.1m / 최대치 20m</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위 스탯표에서 실제 스탯은 기본 가중치로 계산해서 나온 값이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이 수치가 0이 되면 게임이 종료된다. / 최초 스탯 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2개의 스테이지를 끝내면 5레벨정도 오르게 경험치를 준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L 태그의 무기로 적을 공격하면, 적에게 '독' 상태를 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오로지 투사체 무기만 소유, 투사체가 날라가는 속도를 결정함.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터가 적에게 주는 데미지를 결정한다. / 최초 스탯 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">수류탄 - https://assetstore.unity.com/packages/3d/fps-grenade-model-textures-63667#content </x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도
-공격속도는 분배된 포인트가  0일 때 1.3초.
-1 포인트당 (가중치)씩 빨라짐.
-공격속도는 0.04초보다 빠를 수 없음.
-최소치 0.05 / 최대치 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">도박사 | https://assetstore.unity.com/packages/3d/characters/creatures/low-pol-skeleton-188865 (가능) / </x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌진 / rush</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fist / 주먹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bait / 미끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반맵 : 8~10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sword / 검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gambler/도박꾼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>slow / 느릿한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>attack/공격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stop! / 멈춰!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 공통 스탯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 무기 스탯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>warrior/전사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>knight/기사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Left click</x:t>
-  </x:si>
-  <x:si>
-    <x:t>찌르기/sting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>magic /마법</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 공통 스탯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 레벨 표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>axe / 도끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spear / 창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>katar / 카타르</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dagger / 단검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>range/사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접 / 원거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>break / 손상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난도질 / hack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 맵 구성 방식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 투사체속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">보스맵 : 1 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>poison / 독</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stop / 정지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>archer/궁수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>marine/해병</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강타 / smash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특성을 찍지 않는 레벨일 때는 스탯이 오른다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대시 후 2초 동안 공격속도가 0.15초 감소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>just hand / 맨주먹 (default)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부활 횟수를 1회 늘린다. (특정 레벨 이상)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30초간 캐릭터의 방어력을 50% 상승시킨다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B / 공격력, 공격속도, 공격횟수, 사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특성 선택은 3개의 선택지를 주고 하나를 고른다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">캐릭터는 점프를 해, 위로 움직일 수 있다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>한 맵에서 캐릭터의 속도를 50% 상승시킨다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법 태그가 달린 무기는 공격속도가 0.1초 감소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L / 공격력, 공격속도, 공격횟수, 사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>H / 공격력, 공격속도, 공격횟수, 사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밸런스(B) : 대체로 모든 수치에서 평균이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">스택은 1초마다 1스택씩 차례대로 사라진다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>darkness element / 암흑 원소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터의 움직이는 속도를 결정한다. / 최초 스탯 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보물상자에서는 확률에 따라 돈 또는 무기가 드랍된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약자 멸시 / 
-contempt for the Weak</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1, 3, 5 스테이지면 그냥 다음 스테이지로 가는 방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투사체를 날려 투사체에 맞은 적이 데미지를 입는 무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터는 근처에 있는 다른 객체와 상호작용할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤비(H) : 대체로 공격력이 높고 공격속도가 느리다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더이상 안 쓰는 무기는 갈아서 다른 무기를 강화하게 함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적에게 받는 데미지를 경감시킨다. / 최초 스탯 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력+4 , 이동속도+2.5, 방어력+10, 체력+10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가중치는 드랍시 가능한 가중치에서 랜덤으로 결정된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기를 갈면 하나의 무기 조각을 제공한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스택은 0.5초마다 하나씩 사라진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한 맵에서 무기의 속성을 암흑으로 바꾼다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>buddha's hand / 여래신장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>two handed sword / 양손검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격횟수에 분배된 포인트/실제 공격횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나의 무기로 얼마나 공격할지 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한 맵에서 무기의 속성을 불로 바꾼다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>movementSpeed(MS)/이동속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>projectileSpeed/투사체속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4초간 적의 이동속도를 30% 감소시킨다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵을 클리어하면 보물상자가 드랍된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사거리에 분배된 포인트 / 실제 사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도에 분배된 포인트/실제 공격속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한 맵에서 무기의 속성을 물로 바꾼다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공포탄 / blanck ammunition</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재화를 주고 소모품을 구매할 수 있는 방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼보필살 /
-Sam Bo Fil Sal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>slug shotgun / 슬러그 샷건</x:t>
-  </x:si>
-  <x:si>
-    <x:t>magic missile / 매직미사일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웨폰 마스터 / weapon master</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력에 분배된 포인트 / 실제 공격력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4초간 적의 방어력을 30% 감소시킨다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>defensivePower(DP)/방어력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지역에서는 공격이 가능한 최대 거리를 의미</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 공격력+4 , 방어력+10, 체력+10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>attackSpeed(AS)/공격속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한 맵에서 무기의 속성을 성으로 바꾼다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>flypaper bomb/ 끈끈이 폭탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>solid potion / 단단 물약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>speed potion / 속도 물약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>water element / 물 원소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3스테이지 =&gt; 1451 ~ 2902</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5스테이지 =&gt; 2326 ~ 4652</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1728,7 +1728,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="84">
+  <x:cellXfs count="87">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2501,6 +2501,45 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3212,17 +3251,17 @@
   <x:sheetData>
     <x:row r="2" spans="2:2">
       <x:c r="B2" s="15" t="s">
-        <x:v>72</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:2">
       <x:c r="B3" s="15" t="s">
-        <x:v>76</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:17">
       <x:c r="B5" s="57" t="s">
-        <x:v>162</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C5" s="58"/>
       <x:c r="D5" s="58"/>
@@ -3510,7 +3549,7 @@
     </x:row>
     <x:row r="21" spans="2:16">
       <x:c r="B21" s="59" t="s">
-        <x:v>176</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C21" s="47"/>
       <x:c r="D21" s="47"/>
@@ -3598,7 +3637,7 @@
     </x:row>
     <x:row r="26" spans="2:16" s="16" customFormat="1">
       <x:c r="B26" s="59" t="s">
-        <x:v>157</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C26" s="60"/>
       <x:c r="D26" s="60"/>
@@ -3750,8 +3789,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A2:AC139"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B111" activeCellId="0" sqref="B98:E111"/>
+    <x:sheetView topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="S46" activeCellId="0" sqref="S46:U54"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -3763,7 +3802,7 @@
   <x:sheetData>
     <x:row r="2" spans="2:6">
       <x:c r="B2" s="57" t="s">
-        <x:v>273</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C2" s="57"/>
       <x:c r="D2" s="57"/>
@@ -3807,14 +3846,14 @@
     </x:row>
     <x:row r="8" spans="2:6">
       <x:c r="B8" s="55" t="s">
-        <x:v>211</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C8" s="55"/>
       <x:c r="F8" s="11"/>
     </x:row>
     <x:row r="9" spans="2:19" ht="17.149999999999999">
       <x:c r="B9" s="54" t="s">
-        <x:v>312</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C9" s="54"/>
       <x:c r="D9" s="18"/>
@@ -3822,10 +3861,10 @@
       <x:c r="F9" s="18"/>
       <x:c r="G9" s="23"/>
       <x:c r="H9" s="25" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="I9" s="61" t="s">
-        <x:v>39</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="J9" s="62"/>
       <x:c r="K9" s="62"/>
@@ -3840,22 +3879,22 @@
     </x:row>
     <x:row r="10" spans="2:19" ht="17.149999999999999" customHeight="1">
       <x:c r="B10" s="48" t="s">
-        <x:v>83</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="C10" s="50"/>
       <x:c r="D10" s="19" t="s">
-        <x:v>212</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E10" s="56" t="s">
-        <x:v>303</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="F10" s="64"/>
       <x:c r="G10" s="36"/>
       <x:c r="H10" s="25" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="I10" s="61" t="s">
-        <x:v>120</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J10" s="62"/>
       <x:c r="K10" s="62"/>
@@ -3870,22 +3909,22 @@
     </x:row>
     <x:row r="11" spans="2:19" ht="16.75" customHeight="1">
       <x:c r="B11" s="48" t="s">
-        <x:v>59</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C11" s="50"/>
       <x:c r="D11" s="48" t="s">
-        <x:v>149</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="E11" s="50"/>
       <x:c r="F11" s="24" t="s">
-        <x:v>227</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G11" s="20"/>
       <x:c r="H11" s="25" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="I11" s="61" t="s">
-        <x:v>342</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="J11" s="62"/>
       <x:c r="K11" s="62"/>
@@ -3901,10 +3940,10 @@
     <x:row r="12" spans="6:19" ht="17.149999999999999">
       <x:c r="F12" s="7"/>
       <x:c r="H12" s="25" t="s">
-        <x:v>56</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="I12" s="61" t="s">
-        <x:v>269</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J12" s="62"/>
       <x:c r="K12" s="62"/>
@@ -3919,13 +3958,13 @@
     </x:row>
     <x:row r="13" spans="2:3">
       <x:c r="B13" s="47" t="s">
-        <x:v>299</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C13" s="47"/>
     </x:row>
     <x:row r="14" spans="2:6">
       <x:c r="B14" s="47" t="s">
-        <x:v>298</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C14" s="47"/>
       <x:c r="D14" s="47"/>
@@ -3934,16 +3973,16 @@
     </x:row>
     <x:row r="15" spans="2:8">
       <x:c r="B15" s="21" t="s">
-        <x:v>85</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C15" s="47" t="s">
-        <x:v>248</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D15" s="47"/>
       <x:c r="E15" s="47"/>
       <x:c r="F15" s="47"/>
       <x:c r="G15" s="21" t="s">
-        <x:v>228</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H15" s="21"/>
     </x:row>
@@ -3952,20 +3991,20 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C16" s="54" t="s">
-        <x:v>114</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D16" s="54"/>
       <x:c r="E16" s="54"/>
       <x:c r="F16" s="54"/>
       <x:c r="G16" s="19" t="s">
-        <x:v>200</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H16" s="22"/>
       <x:c r="I16" s="25" t="s">
-        <x:v>55</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="J16" s="61" t="s">
-        <x:v>97</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K16" s="62"/>
       <x:c r="L16" s="62"/>
@@ -3982,20 +4021,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C17" s="48" t="s">
-        <x:v>375</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="D17" s="49"/>
       <x:c r="E17" s="49"/>
       <x:c r="F17" s="50"/>
       <x:c r="G17" s="19" t="s">
-        <x:v>200</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H17" s="22"/>
       <x:c r="I17" s="25" t="s">
-        <x:v>222</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="J17" s="61" t="s">
-        <x:v>27</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="K17" s="62"/>
       <x:c r="L17" s="62"/>
@@ -4012,20 +4051,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C18" s="48" t="s">
-        <x:v>111</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D18" s="49"/>
       <x:c r="E18" s="49"/>
       <x:c r="F18" s="50"/>
       <x:c r="G18" s="19" t="s">
-        <x:v>85</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="H18" s="22"/>
       <x:c r="I18" s="25" t="s">
-        <x:v>243</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="J18" s="61" t="s">
-        <x:v>355</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="K18" s="62"/>
       <x:c r="L18" s="62"/>
@@ -4042,20 +4081,20 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C19" s="48" t="s">
-        <x:v>311</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D19" s="49"/>
       <x:c r="E19" s="49"/>
       <x:c r="F19" s="50"/>
       <x:c r="G19" s="19" t="s">
-        <x:v>200</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H19" s="22"/>
       <x:c r="I19" s="25" t="s">
-        <x:v>82</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="J19" s="33" t="s">
-        <x:v>178</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K19" s="34"/>
       <x:c r="L19" s="34"/>
@@ -4077,7 +4116,7 @@
       <x:c r="G20" s="16"/>
       <x:c r="H20" s="20"/>
       <x:c r="J20" s="65" t="s">
-        <x:v>373</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="K20" s="66"/>
       <x:c r="L20" s="66"/>
@@ -4092,22 +4131,22 @@
     </x:row>
     <x:row r="21" spans="2:19" ht="16.75" customHeight="1">
       <x:c r="B21" s="21" t="s">
-        <x:v>66</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C21" s="47" t="s">
-        <x:v>113</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D21" s="47"/>
       <x:c r="E21" s="47"/>
       <x:c r="F21" s="47"/>
       <x:c r="G21" s="21" t="s">
-        <x:v>200</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I21" s="24" t="s">
-        <x:v>202</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="J21" s="54" t="s">
-        <x:v>130</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K21" s="54"/>
       <x:c r="L21" s="54"/>
@@ -4121,22 +4160,22 @@
     </x:row>
     <x:row r="22" spans="2:19" s="10" customFormat="1">
       <x:c r="B22" s="21" t="s">
-        <x:v>230</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C22" s="47" t="s">
-        <x:v>358</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="D22" s="47"/>
       <x:c r="E22" s="47"/>
       <x:c r="F22" s="47"/>
       <x:c r="G22" s="21" t="s">
-        <x:v>200</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I22" s="24" t="s">
-        <x:v>224</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="J22" s="54" t="s">
-        <x:v>284</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K22" s="54"/>
       <x:c r="L22" s="54"/>
@@ -4151,36 +4190,36 @@
     <x:row r="23" s="10" customFormat="1"/>
     <x:row r="24" spans="2:6">
       <x:c r="B24" s="47" t="s">
-        <x:v>249</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C24" s="47"/>
       <x:c r="D24" s="55" t="s">
-        <x:v>107</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E24" s="55"/>
       <x:c r="F24" s="55"/>
     </x:row>
     <x:row r="25" spans="2:22" ht="17.149999999999999" customHeight="1">
       <x:c r="B25" s="19" t="s">
-        <x:v>85</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C25" s="54" t="s">
-        <x:v>198</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D25" s="54"/>
       <x:c r="E25" s="54"/>
       <x:c r="F25" s="27" t="s">
-        <x:v>251</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G25" s="28" t="s">
-        <x:v>236</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="H25" s="24" t="s">
-        <x:v>259</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="I25" s="16"/>
       <x:c r="J25" s="47" t="s">
-        <x:v>236</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="K25" s="47"/>
       <x:c r="L25" s="16"/>
@@ -4190,7 +4229,7 @@
       <x:c r="P25" s="20"/>
       <x:c r="Q25" s="20"/>
       <x:c r="U25" s="55" t="s">
-        <x:v>251</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="V25" s="55"/>
     </x:row>
@@ -4199,22 +4238,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C26" s="54" t="s">
-        <x:v>310</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D26" s="54"/>
       <x:c r="E26" s="54"/>
       <x:c r="F26" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G26" s="29" t="s">
-        <x:v>50</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H26" s="24" t="s">
-        <x:v>73</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="I26" s="16"/>
       <x:c r="J26" s="54" t="s">
-        <x:v>344</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="K26" s="54"/>
       <x:c r="L26" s="54"/>
@@ -4226,7 +4265,7 @@
       <x:c r="R26" s="54"/>
       <x:c r="S26" s="54"/>
       <x:c r="U26" s="54" t="s">
-        <x:v>312</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="V26" s="54"/>
       <x:c r="W26" s="18"/>
@@ -4238,22 +4277,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C27" s="54" t="s">
-        <x:v>92</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D27" s="54"/>
       <x:c r="E27" s="54"/>
       <x:c r="F27" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G27" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H27" s="24" t="s">
-        <x:v>73</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="I27" s="16"/>
       <x:c r="J27" s="54" t="s">
-        <x:v>172</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K27" s="54"/>
       <x:c r="L27" s="54"/>
@@ -4265,14 +4304,14 @@
       <x:c r="R27" s="54"/>
       <x:c r="S27" s="54"/>
       <x:c r="U27" s="48" t="s">
-        <x:v>83</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="V27" s="50"/>
       <x:c r="W27" s="19" t="s">
-        <x:v>212</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="X27" s="56" t="s">
-        <x:v>303</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="Y27" s="64"/>
     </x:row>
@@ -4281,22 +4320,22 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C28" s="54" t="s">
-        <x:v>151</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="D28" s="54"/>
       <x:c r="E28" s="54"/>
       <x:c r="F28" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G28" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H28" s="24" t="s">
-        <x:v>67</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="I28" s="16"/>
       <x:c r="J28" s="54" t="s">
-        <x:v>335</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="K28" s="54"/>
       <x:c r="L28" s="54"/>
@@ -4308,15 +4347,15 @@
       <x:c r="R28" s="54"/>
       <x:c r="S28" s="54"/>
       <x:c r="U28" s="48" t="s">
-        <x:v>59</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="V28" s="50"/>
       <x:c r="W28" s="48" t="s">
-        <x:v>149</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="X28" s="50"/>
       <x:c r="Y28" s="24" t="s">
-        <x:v>227</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:19" ht="17.149999999999999" customHeight="1">
@@ -4324,18 +4363,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C29" s="54" t="s">
-        <x:v>112</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D29" s="54"/>
       <x:c r="E29" s="54"/>
       <x:c r="F29" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G29" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H29" s="24" t="s">
-        <x:v>67</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="I29" s="16"/>
       <x:c r="J29" s="32"/>
@@ -4354,34 +4393,34 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C30" s="54" t="s">
-        <x:v>353</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="D30" s="54"/>
       <x:c r="E30" s="54"/>
       <x:c r="F30" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G30" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H30" s="24" t="s">
-        <x:v>73</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="I30" s="16"/>
       <x:c r="J30" s="47" t="s">
-        <x:v>259</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="K30" s="47"/>
       <x:c r="L30" s="16"/>
       <x:c r="M30" s="16"/>
       <x:c r="N30" s="16"/>
       <x:c r="O30" s="47" t="s">
-        <x:v>216</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="P30" s="47"/>
       <x:c r="Q30" s="47"/>
       <x:c r="R30" s="47" t="s">
-        <x:v>345</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="S30" s="47"/>
       <x:c r="T30" s="47"/>
@@ -4394,27 +4433,27 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C31" s="54" t="s">
-        <x:v>308</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D31" s="54"/>
       <x:c r="E31" s="54"/>
       <x:c r="F31" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G31" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H31" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="J31" s="47" t="s">
-        <x:v>293</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="K31" s="47"/>
       <x:c r="L31" s="47"/>
       <x:c r="M31" s="47"/>
       <x:c r="O31" s="47" t="s">
-        <x:v>349</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="P31" s="47"/>
       <x:c r="Q31" s="47"/>
@@ -4430,27 +4469,27 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C32" s="54" t="s">
-        <x:v>309</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D32" s="54"/>
       <x:c r="E32" s="54"/>
       <x:c r="F32" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G32" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H32" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="J32" s="47" t="s">
-        <x:v>307</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="K32" s="47"/>
       <x:c r="L32" s="47"/>
       <x:c r="M32" s="47"/>
       <x:c r="O32" s="47" t="s">
-        <x:v>28</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="P32" s="47"/>
       <x:c r="Q32" s="47"/>
@@ -4466,27 +4505,27 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C33" s="54" t="s">
-        <x:v>145</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="D33" s="54"/>
       <x:c r="E33" s="54"/>
       <x:c r="F33" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G33" s="29" t="s">
-        <x:v>50</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H33" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="J33" s="47" t="s">
-        <x:v>308</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="K33" s="47"/>
       <x:c r="L33" s="47"/>
       <x:c r="M33" s="47"/>
       <x:c r="O33" s="47" t="s">
-        <x:v>33</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="P33" s="47"/>
       <x:c r="Q33" s="47"/>
@@ -4502,31 +4541,31 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C34" s="54" t="s">
-        <x:v>155</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="D34" s="54"/>
       <x:c r="E34" s="54"/>
       <x:c r="F34" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G34" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H34" s="19" t="s">
-        <x:v>73</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="J34" s="47" t="s">
-        <x:v>290</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="K34" s="47"/>
       <x:c r="L34" s="47"/>
       <x:c r="M34" s="47"/>
       <x:c r="O34" s="54" t="s">
-        <x:v>47</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="P34" s="54"/>
       <x:c r="Q34" s="54" t="s">
-        <x:v>229</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="R34" s="54"/>
       <x:c r="S34" s="54"/>
@@ -4539,31 +4578,31 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="54" t="s">
-        <x:v>126</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D35" s="54"/>
       <x:c r="E35" s="54"/>
       <x:c r="F35" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G35" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H35" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="J35" s="47" t="s">
-        <x:v>247</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="K35" s="47"/>
       <x:c r="L35" s="47"/>
       <x:c r="M35" s="47"/>
       <x:c r="O35" s="54" t="s">
-        <x:v>87</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="P35" s="54"/>
       <x:c r="Q35" s="54" t="s">
-        <x:v>240</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="R35" s="54"/>
       <x:c r="S35" s="54"/>
@@ -4576,31 +4615,31 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C36" s="54" t="s">
-        <x:v>367</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="D36" s="54"/>
       <x:c r="E36" s="54"/>
       <x:c r="F36" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G36" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H36" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="J36" s="47" t="s">
-        <x:v>225</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="K36" s="47"/>
       <x:c r="L36" s="47"/>
       <x:c r="M36" s="47"/>
       <x:c r="O36" s="54" t="s">
-        <x:v>60</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="P36" s="54"/>
       <x:c r="Q36" s="54" t="s">
-        <x:v>250</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="R36" s="54"/>
       <x:c r="S36" s="54"/>
@@ -4613,21 +4652,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C37" s="54" t="s">
-        <x:v>106</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D37" s="54"/>
       <x:c r="E37" s="54"/>
       <x:c r="F37" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G37" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H37" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="J37" s="47" t="s">
-        <x:v>304</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="K37" s="47"/>
       <x:c r="L37" s="47"/>
@@ -4638,18 +4677,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C38" s="54" t="s">
-        <x:v>148</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D38" s="54"/>
       <x:c r="E38" s="54"/>
       <x:c r="F38" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G38" s="29" t="s">
-        <x:v>50</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H38" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="2:8" ht="17.149999999999999">
@@ -4657,18 +4696,18 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C39" s="54" t="s">
-        <x:v>152</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="D39" s="54"/>
       <x:c r="E39" s="54"/>
       <x:c r="F39" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G39" s="29" t="s">
-        <x:v>50</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H39" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="2:12" ht="17.149999999999999" customHeight="1">
@@ -4676,21 +4715,21 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C40" s="54" t="s">
-        <x:v>129</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D40" s="54"/>
       <x:c r="E40" s="54"/>
       <x:c r="F40" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G40" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H40" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="J40" s="47" t="s">
-        <x:v>218</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="K40" s="47"/>
       <x:c r="L40" s="47"/>
@@ -4700,21 +4739,21 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C41" s="54" t="s">
-        <x:v>368</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="D41" s="54"/>
       <x:c r="E41" s="54"/>
       <x:c r="F41" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G41" s="29" t="s">
-        <x:v>50</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H41" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="J41" s="60" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K41" s="47"/>
       <x:c r="L41" s="47"/>
@@ -4734,18 +4773,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C42" s="54" t="s">
-        <x:v>137</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="D42" s="54"/>
       <x:c r="E42" s="54"/>
       <x:c r="F42" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G42" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H42" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="J42" s="47"/>
       <x:c r="K42" s="47"/>
@@ -4766,21 +4805,21 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C43" s="54" t="s">
-        <x:v>138</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D43" s="54"/>
       <x:c r="E43" s="54"/>
       <x:c r="F43" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G43" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H43" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="J43" s="47" t="s">
-        <x:v>175</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="K43" s="47"/>
       <x:c r="L43" s="47"/>
@@ -4800,33 +4839,33 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C44" s="54" t="s">
-        <x:v>98</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D44" s="54"/>
       <x:c r="E44" s="54"/>
       <x:c r="F44" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="G44" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H44" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="J44" s="54" t="s">
-        <x:v>328</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="K44" s="54"/>
       <x:c r="L44" s="54"/>
       <x:c r="M44" s="54"/>
       <x:c r="N44" s="54" t="s">
-        <x:v>333</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="O44" s="54"/>
       <x:c r="P44" s="54"/>
       <x:c r="Q44" s="54"/>
       <x:c r="R44" s="54" t="s">
-        <x:v>334</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="S44" s="54"/>
       <x:c r="T44" s="54"/>
@@ -4838,18 +4877,18 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="54" t="s">
-        <x:v>352</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="D45" s="54"/>
       <x:c r="E45" s="54"/>
       <x:c r="F45" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="G45" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H45" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="J45" s="24">
         <x:v>25</x:v>
@@ -4894,46 +4933,46 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C46" s="54" t="s">
-        <x:v>142</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="D46" s="54"/>
       <x:c r="E46" s="54"/>
       <x:c r="F46" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G46" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H46" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="J46" s="67" t="s">
-        <x:v>190</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="K46" s="52"/>
       <x:c r="L46" s="52"/>
-      <x:c r="M46" s="67" t="s">
-        <x:v>287</x:v>
+      <x:c r="M46" s="85" t="s">
+        <x:v>381</x:v>
       </x:c>
       <x:c r="N46" s="67"/>
       <x:c r="O46" s="67"/>
-      <x:c r="P46" s="67" t="s">
-        <x:v>179</x:v>
+      <x:c r="P46" s="84" t="s">
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q46" s="67"/>
       <x:c r="R46" s="67"/>
-      <x:c r="S46" s="67" t="s">
-        <x:v>279</x:v>
+      <x:c r="S46" s="85" t="s">
+        <x:v>382</x:v>
       </x:c>
       <x:c r="T46" s="52"/>
       <x:c r="U46" s="52"/>
       <x:c r="V46" s="60" t="s">
-        <x:v>20</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="W46" s="47"/>
       <x:c r="X46" s="47"/>
       <x:c r="Y46" s="60" t="s">
-        <x:v>37</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="Z46" s="47"/>
       <x:c r="AA46" s="47"/>
@@ -5088,18 +5127,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C52" s="54" t="s">
-        <x:v>325</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="D52" s="54"/>
       <x:c r="E52" s="54"/>
       <x:c r="F52" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G52" s="30" t="s">
-        <x:v>50</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H52" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="J52" s="47"/>
       <x:c r="K52" s="47"/>
@@ -5170,35 +5209,35 @@
       <x:c r="G55" s="8"/>
       <x:c r="H55" s="8"/>
       <x:c r="I55" s="54" t="s">
-        <x:v>370</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="J55" s="54"/>
       <x:c r="K55" s="54"/>
       <x:c r="L55" s="54"/>
       <x:c r="M55" s="54" t="s">
-        <x:v>362</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="N55" s="54"/>
       <x:c r="O55" s="54"/>
       <x:c r="P55" s="54"/>
       <x:c r="Q55" s="54" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="R55" s="54"/>
       <x:c r="S55" s="54"/>
       <x:c r="T55" s="54"/>
       <x:c r="U55" s="54" t="s">
-        <x:v>361</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="V55" s="54"/>
       <x:c r="W55" s="54"/>
       <x:c r="X55" s="54"/>
       <x:c r="Y55" s="54" t="s">
-        <x:v>197</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="Z55" s="54"/>
       <x:c r="AA55" s="54" t="s">
-        <x:v>316</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="AB55" s="54"/>
       <x:c r="AC55" s="7"/>
@@ -5208,18 +5247,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C56" s="54" t="s">
-        <x:v>310</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D56" s="54"/>
       <x:c r="E56" s="54"/>
       <x:c r="F56" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G56" s="29" t="s">
-        <x:v>50</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H56" s="24" t="s">
-        <x:v>73</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="I56" s="54">
         <x:v>10</x:v>
@@ -5268,18 +5307,18 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C57" s="54" t="s">
-        <x:v>92</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D57" s="54"/>
       <x:c r="E57" s="54"/>
       <x:c r="F57" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G57" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H57" s="24" t="s">
-        <x:v>73</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="I57" s="54">
         <x:v>25</x:v>
@@ -5326,18 +5365,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C58" s="54" t="s">
-        <x:v>151</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="D58" s="54"/>
       <x:c r="E58" s="54"/>
       <x:c r="F58" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G58" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H58" s="24" t="s">
-        <x:v>67</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="I58" s="54">
         <x:v>35</x:v>
@@ -5381,18 +5420,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C59" s="54" t="s">
-        <x:v>112</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D59" s="54"/>
       <x:c r="E59" s="54"/>
       <x:c r="F59" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G59" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H59" s="24" t="s">
-        <x:v>67</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="I59" s="54">
         <x:v>45</x:v>
@@ -5436,18 +5475,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C60" s="54" t="s">
-        <x:v>353</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="D60" s="54"/>
       <x:c r="E60" s="54"/>
       <x:c r="F60" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G60" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H60" s="24" t="s">
-        <x:v>73</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="I60" s="54">
         <x:v>35</x:v>
@@ -5491,18 +5530,18 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C61" s="54" t="s">
-        <x:v>308</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D61" s="54"/>
       <x:c r="E61" s="54"/>
       <x:c r="F61" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G61" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H61" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="I61" s="54">
         <x:v>20</x:v>
@@ -5546,18 +5585,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C62" s="54" t="s">
-        <x:v>309</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D62" s="54"/>
       <x:c r="E62" s="54"/>
       <x:c r="F62" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G62" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H62" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="I62" s="54">
         <x:v>20</x:v>
@@ -5601,18 +5640,18 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C63" s="54" t="s">
-        <x:v>145</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="D63" s="54"/>
       <x:c r="E63" s="54"/>
       <x:c r="F63" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G63" s="29" t="s">
-        <x:v>50</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H63" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="I63" s="54">
         <x:v>5</x:v>
@@ -5656,18 +5695,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C64" s="54" t="s">
-        <x:v>155</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="D64" s="54"/>
       <x:c r="E64" s="54"/>
       <x:c r="F64" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G64" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H64" s="19" t="s">
-        <x:v>73</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="I64" s="54">
         <x:v>20</x:v>
@@ -5711,18 +5750,18 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="54" t="s">
-        <x:v>126</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D65" s="54"/>
       <x:c r="E65" s="54"/>
       <x:c r="F65" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G65" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H65" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="I65" s="54">
         <x:v>70</x:v>
@@ -5770,18 +5809,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C66" s="54" t="s">
-        <x:v>367</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="D66" s="54"/>
       <x:c r="E66" s="54"/>
       <x:c r="F66" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G66" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H66" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="I66" s="54">
         <x:v>50</x:v>
@@ -5831,18 +5870,18 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C67" s="54" t="s">
-        <x:v>106</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D67" s="54"/>
       <x:c r="E67" s="54"/>
       <x:c r="F67" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G67" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H67" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="I67" s="54">
         <x:v>40</x:v>
@@ -5892,18 +5931,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C68" s="54" t="s">
-        <x:v>148</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D68" s="54"/>
       <x:c r="E68" s="54"/>
       <x:c r="F68" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G68" s="29" t="s">
-        <x:v>50</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H68" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="I68" s="54">
         <x:v>10</x:v>
@@ -5951,18 +5990,18 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C69" s="54" t="s">
-        <x:v>152</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="D69" s="54"/>
       <x:c r="E69" s="54"/>
       <x:c r="F69" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G69" s="29" t="s">
-        <x:v>50</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H69" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="I69" s="54">
         <x:v>15</x:v>
@@ -6010,18 +6049,18 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C70" s="54" t="s">
-        <x:v>129</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D70" s="54"/>
       <x:c r="E70" s="54"/>
       <x:c r="F70" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G70" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H70" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="I70" s="54">
         <x:v>35</x:v>
@@ -6069,18 +6108,18 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C71" s="54" t="s">
-        <x:v>368</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="D71" s="54"/>
       <x:c r="E71" s="54"/>
       <x:c r="F71" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G71" s="29" t="s">
-        <x:v>50</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H71" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="I71" s="54">
         <x:v>20</x:v>
@@ -6128,18 +6167,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C72" s="54" t="s">
-        <x:v>137</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="D72" s="54"/>
       <x:c r="E72" s="54"/>
       <x:c r="F72" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G72" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H72" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="I72" s="54">
         <x:v>25</x:v>
@@ -6187,18 +6226,18 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C73" s="54" t="s">
-        <x:v>138</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D73" s="54"/>
       <x:c r="E73" s="54"/>
       <x:c r="F73" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G73" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H73" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="I73" s="54">
         <x:v>40</x:v>
@@ -6248,18 +6287,18 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C74" s="54" t="s">
-        <x:v>98</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D74" s="54"/>
       <x:c r="E74" s="54"/>
       <x:c r="F74" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="G74" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H74" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="I74" s="54">
         <x:v>30</x:v>
@@ -6308,18 +6347,18 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C75" s="54" t="s">
-        <x:v>352</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="D75" s="54"/>
       <x:c r="E75" s="54"/>
       <x:c r="F75" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="G75" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H75" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="I75" s="54">
         <x:v>40</x:v>
@@ -6368,18 +6407,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C76" s="54" t="s">
-        <x:v>142</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="D76" s="54"/>
       <x:c r="E76" s="54"/>
       <x:c r="F76" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G76" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H76" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="I76" s="54">
         <x:v>35</x:v>
@@ -6561,18 +6600,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C82" s="54" t="s">
-        <x:v>325</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="D82" s="54"/>
       <x:c r="E82" s="54"/>
       <x:c r="F82" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G82" s="30" t="s">
-        <x:v>50</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H82" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="I82" s="54">
         <x:v>5</x:v>
@@ -6636,12 +6675,12 @@
     <x:row r="84" spans="1:20" s="8" customFormat="1">
       <x:c r="A84" s="7"/>
       <x:c r="B84" s="54" t="s">
-        <x:v>62</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C84" s="54"/>
       <x:c r="D84" s="54"/>
       <x:c r="E84" s="54" t="s">
-        <x:v>280</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F84" s="54"/>
       <x:c r="G84" s="54"/>
@@ -6650,7 +6689,7 @@
       <x:c r="J84" s="54"/>
       <x:c r="K84" s="54"/>
       <x:c r="L84" s="54" t="s">
-        <x:v>171</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M84" s="54"/>
       <x:c r="N84" s="54"/>
@@ -6666,7 +6705,7 @@
       <x:c r="C85" s="43"/>
       <x:c r="D85" s="43"/>
       <x:c r="E85" s="48" t="s">
-        <x:v>348</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="F85" s="49"/>
       <x:c r="G85" s="49"/>
@@ -6683,27 +6722,27 @@
     </x:row>
     <x:row r="86" spans="2:17" s="7" customFormat="1">
       <x:c r="B86" s="69" t="s">
-        <x:v>278</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C86" s="67"/>
       <x:c r="D86" s="67"/>
       <x:c r="E86" s="69" t="s">
-        <x:v>26</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F86" s="52"/>
       <x:c r="G86" s="53"/>
       <x:c r="H86" s="67" t="s">
-        <x:v>21</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I86" s="52"/>
       <x:c r="J86" s="52"/>
       <x:c r="K86" s="69" t="s">
-        <x:v>184</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="L86" s="52"/>
       <x:c r="M86" s="53"/>
       <x:c r="N86" s="68" t="s">
-        <x:v>187</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="O86" s="54"/>
       <x:c r="P86" s="54"/>
@@ -6884,19 +6923,19 @@
     </x:row>
     <x:row r="97" spans="2:4">
       <x:c r="B97" s="47" t="s">
-        <x:v>199</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C97" s="47"/>
       <x:c r="D97" s="21" t="s">
-        <x:v>233</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="2:21">
       <x:c r="B98" s="19" t="s">
-        <x:v>85</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C98" s="48" t="s">
-        <x:v>198</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D98" s="49"/>
       <x:c r="E98" s="50"/>
@@ -6910,7 +6949,7 @@
       <x:c r="M98" s="39"/>
       <x:c r="N98" s="40"/>
       <x:c r="P98" s="47" t="s">
-        <x:v>215</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="Q98" s="47"/>
       <x:c r="R98" s="47"/>
@@ -6923,12 +6962,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C99" s="48" t="s">
-        <x:v>380</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="D99" s="49"/>
       <x:c r="E99" s="50"/>
       <x:c r="F99" s="48" t="s">
-        <x:v>363</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="G99" s="49"/>
       <x:c r="H99" s="49"/>
@@ -6939,14 +6978,14 @@
       <x:c r="M99" s="49"/>
       <x:c r="N99" s="50"/>
       <x:c r="P99" s="21" t="s">
-        <x:v>85</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="Q99" s="47" t="s">
-        <x:v>198</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="R99" s="47"/>
       <x:c r="S99" s="47" t="s">
-        <x:v>234</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="T99" s="47"/>
       <x:c r="U99" s="47"/>
@@ -6961,12 +7000,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C100" s="48" t="s">
-        <x:v>115</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D100" s="49"/>
       <x:c r="E100" s="50"/>
       <x:c r="F100" s="48" t="s">
-        <x:v>356</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="G100" s="49"/>
       <x:c r="H100" s="49"/>
@@ -6980,11 +7019,11 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q100" s="47" t="s">
-        <x:v>295</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="R100" s="47"/>
       <x:c r="S100" s="47" t="s">
-        <x:v>359</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="T100" s="47"/>
       <x:c r="U100" s="47"/>
@@ -6999,12 +7038,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C101" s="48" t="s">
-        <x:v>108</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D101" s="49"/>
       <x:c r="E101" s="50"/>
       <x:c r="F101" s="48" t="s">
-        <x:v>376</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="G101" s="49"/>
       <x:c r="H101" s="49"/>
@@ -7018,11 +7057,11 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="Q101" s="47" t="s">
-        <x:v>313</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="R101" s="47"/>
       <x:c r="S101" s="47" t="s">
-        <x:v>371</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="T101" s="47"/>
       <x:c r="U101" s="47"/>
@@ -7037,12 +7076,12 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C102" s="48" t="s">
-        <x:v>337</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D102" s="49"/>
       <x:c r="E102" s="50"/>
       <x:c r="F102" s="48" t="s">
-        <x:v>351</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="G102" s="49"/>
       <x:c r="H102" s="49"/>
@@ -7056,11 +7095,11 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="Q102" s="47" t="s">
-        <x:v>319</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="R102" s="47"/>
       <x:c r="S102" s="47" t="s">
-        <x:v>119</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="T102" s="47"/>
       <x:c r="U102" s="47"/>
@@ -7075,12 +7114,12 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C103" s="48" t="s">
-        <x:v>146</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="D103" s="49"/>
       <x:c r="E103" s="50"/>
       <x:c r="F103" s="48" t="s">
-        <x:v>139</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="G103" s="49"/>
       <x:c r="H103" s="49"/>
@@ -7094,11 +7133,11 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="Q103" s="47" t="s">
-        <x:v>318</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="R103" s="47"/>
       <x:c r="S103" s="47" t="s">
-        <x:v>272</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="T103" s="47"/>
       <x:c r="U103" s="47"/>
@@ -7113,12 +7152,12 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C104" s="48" t="s">
-        <x:v>125</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D104" s="49"/>
       <x:c r="E104" s="50"/>
       <x:c r="F104" s="48" t="s">
-        <x:v>122</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G104" s="49"/>
       <x:c r="H104" s="49"/>
@@ -7132,7 +7171,7 @@
       <x:c r="Q104" s="47"/>
       <x:c r="R104" s="47"/>
       <x:c r="S104" s="47" t="s">
-        <x:v>276</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="T104" s="47"/>
       <x:c r="U104" s="47"/>
@@ -7147,12 +7186,12 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C105" s="48" t="s">
-        <x:v>141</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="D105" s="49"/>
       <x:c r="E105" s="50"/>
       <x:c r="F105" s="48" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G105" s="49"/>
       <x:c r="H105" s="49"/>
@@ -7166,7 +7205,7 @@
       <x:c r="Q105" s="6"/>
       <x:c r="R105" s="6"/>
       <x:c r="S105" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="T105" s="47"/>
       <x:c r="U105" s="47"/>
@@ -7181,12 +7220,12 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C106" s="48" t="s">
-        <x:v>291</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D106" s="49"/>
       <x:c r="E106" s="50"/>
       <x:c r="F106" s="48" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G106" s="49"/>
       <x:c r="H106" s="49"/>
@@ -7202,12 +7241,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C107" s="48" t="s">
-        <x:v>378</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="D107" s="49"/>
       <x:c r="E107" s="50"/>
       <x:c r="F107" s="48" t="s">
-        <x:v>327</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="G107" s="49"/>
       <x:c r="H107" s="49"/>
@@ -7218,7 +7257,7 @@
       <x:c r="M107" s="49"/>
       <x:c r="N107" s="50"/>
       <x:c r="S107" s="60" t="s">
-        <x:v>183</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="T107" s="60"/>
       <x:c r="U107" s="60"/>
@@ -7233,12 +7272,12 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C108" s="48" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="D108" s="49"/>
       <x:c r="E108" s="50"/>
       <x:c r="F108" s="48" t="s">
-        <x:v>331</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="G108" s="49"/>
       <x:c r="H108" s="49"/>
@@ -7262,12 +7301,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C109" s="48" t="s">
-        <x:v>297</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D109" s="49"/>
       <x:c r="E109" s="50"/>
       <x:c r="F109" s="48" t="s">
-        <x:v>274</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G109" s="49"/>
       <x:c r="H109" s="49"/>
@@ -7291,12 +7330,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C110" s="48" t="s">
-        <x:v>377</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="D110" s="49"/>
       <x:c r="E110" s="50"/>
       <x:c r="F110" s="48" t="s">
-        <x:v>40</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G110" s="49"/>
       <x:c r="H110" s="49"/>
@@ -7312,12 +7351,12 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C111" s="48" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D111" s="49"/>
       <x:c r="E111" s="50"/>
       <x:c r="F111" s="48" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G111" s="49"/>
       <x:c r="H111" s="49"/>
@@ -7331,7 +7370,7 @@
     </x:row>
     <x:row r="112" spans="2:15">
       <x:c r="B112" s="52" t="s">
-        <x:v>177</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C112" s="52"/>
       <x:c r="D112" s="52"/>
@@ -7349,7 +7388,7 @@
     </x:row>
     <x:row r="113" spans="2:15">
       <x:c r="B113" s="47" t="s">
-        <x:v>270</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C113" s="47"/>
       <x:c r="D113" s="47"/>
@@ -7367,7 +7406,7 @@
     </x:row>
     <x:row r="114" spans="2:14">
       <x:c r="B114" s="47" t="s">
-        <x:v>191</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C114" s="47"/>
       <x:c r="D114" s="47"/>
@@ -8405,7 +8444,7 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:AM51"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="P36" activeCellId="0" sqref="P36:Q36"/>
     </x:sheetView>
   </x:sheetViews>
@@ -8413,13 +8452,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="47" t="s">
-        <x:v>210</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B1" s="47"/>
     </x:row>
     <x:row r="2" spans="1:39">
       <x:c r="A2" s="48" t="s">
-        <x:v>180</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B2" s="49"/>
       <x:c r="C2" s="49"/>
@@ -8462,7 +8501,7 @@
     </x:row>
     <x:row r="3" spans="1:21">
       <x:c r="A3" s="48" t="s">
-        <x:v>133</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B3" s="49"/>
       <x:c r="C3" s="49"/>
@@ -8487,7 +8526,7 @@
     </x:row>
     <x:row r="4" spans="1:21">
       <x:c r="A4" s="48" t="s">
-        <x:v>134</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B4" s="49"/>
       <x:c r="C4" s="49"/>
@@ -8512,7 +8551,7 @@
     </x:row>
     <x:row r="5" spans="1:21">
       <x:c r="A5" s="48" t="s">
-        <x:v>188</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B5" s="49"/>
       <x:c r="C5" s="49"/>
@@ -8537,7 +8576,7 @@
     </x:row>
     <x:row r="6" spans="1:21">
       <x:c r="A6" s="48" t="s">
-        <x:v>38</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B6" s="49"/>
       <x:c r="C6" s="49"/>
@@ -8562,7 +8601,7 @@
     </x:row>
     <x:row r="7" spans="1:21">
       <x:c r="A7" s="48" t="s">
-        <x:v>193</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B7" s="49"/>
       <x:c r="C7" s="49"/>
@@ -8610,7 +8649,7 @@
     </x:row>
     <x:row r="9" spans="1:21">
       <x:c r="A9" s="55" t="s">
-        <x:v>203</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B9" s="55"/>
       <x:c r="C9" s="37"/>
@@ -8635,7 +8674,7 @@
     </x:row>
     <x:row r="10" spans="1:21">
       <x:c r="A10" s="48" t="s">
-        <x:v>159</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B10" s="49"/>
       <x:c r="C10" s="49"/>
@@ -8660,7 +8699,7 @@
     </x:row>
     <x:row r="11" spans="1:21">
       <x:c r="A11" s="48" t="s">
-        <x:v>160</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B11" s="49"/>
       <x:c r="C11" s="49"/>
@@ -8685,7 +8724,7 @@
     </x:row>
     <x:row r="12" spans="1:21">
       <x:c r="A12" s="48" t="s">
-        <x:v>161</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B12" s="49"/>
       <x:c r="C12" s="49"/>
@@ -8710,7 +8749,7 @@
     </x:row>
     <x:row r="13" spans="1:21">
       <x:c r="A13" s="48" t="s">
-        <x:v>25</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B13" s="49"/>
       <x:c r="C13" s="49"/>
@@ -8735,7 +8774,7 @@
     </x:row>
     <x:row r="14" spans="1:21">
       <x:c r="A14" s="48" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B14" s="49"/>
       <x:c r="C14" s="49"/>
@@ -8760,7 +8799,7 @@
     </x:row>
     <x:row r="15" spans="1:21">
       <x:c r="A15" s="48" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B15" s="49"/>
       <x:c r="C15" s="49"/>
@@ -8785,7 +8824,7 @@
     </x:row>
     <x:row r="16" spans="1:21">
       <x:c r="A16" s="48" t="s">
-        <x:v>185</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B16" s="49"/>
       <x:c r="C16" s="49"/>
@@ -8810,7 +8849,7 @@
     </x:row>
     <x:row r="17" spans="1:21">
       <x:c r="A17" s="48" t="s">
-        <x:v>186</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B17" s="49"/>
       <x:c r="C17" s="49"/>
@@ -8835,7 +8874,7 @@
     </x:row>
     <x:row r="18" spans="1:21">
       <x:c r="A18" s="48" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B18" s="49"/>
       <x:c r="C18" s="49"/>
@@ -8860,7 +8899,7 @@
     </x:row>
     <x:row r="19" spans="1:21">
       <x:c r="A19" s="48" t="s">
-        <x:v>182</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B19" s="49"/>
       <x:c r="C19" s="49"/>
@@ -8885,7 +8924,7 @@
     </x:row>
     <x:row r="20" spans="1:21">
       <x:c r="A20" s="48" t="s">
-        <x:v>286</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B20" s="49"/>
       <x:c r="C20" s="49"/>
@@ -8910,7 +8949,7 @@
     </x:row>
     <x:row r="21" spans="1:21">
       <x:c r="A21" s="48" t="s">
-        <x:v>181</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B21" s="49"/>
       <x:c r="C21" s="49"/>
@@ -8958,7 +8997,7 @@
     </x:row>
     <x:row r="24" spans="10:10">
       <x:c r="J24" s="8" t="s">
-        <x:v>242</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="3:16" ht="17.149999999999999">
@@ -8966,32 +9005,32 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D25" s="54" t="s">
-        <x:v>310</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E25" s="54"/>
       <x:c r="F25" s="54"/>
       <x:c r="G25" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="H25" s="29" t="s">
-        <x:v>50</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="I25" s="24" t="s">
-        <x:v>73</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="J25" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="L25" s="19" t="s">
-        <x:v>85</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="M25" s="48" t="s">
-        <x:v>198</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N25" s="49"/>
       <x:c r="O25" s="50"/>
       <x:c r="P25" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="3:16" ht="17.149999999999999" customHeight="1">
@@ -8999,32 +9038,32 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D26" s="54" t="s">
-        <x:v>92</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E26" s="54"/>
       <x:c r="F26" s="54"/>
       <x:c r="G26" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="H26" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="I26" s="24" t="s">
-        <x:v>73</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="J26" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="L26" s="19">
         <x:v>1</x:v>
       </x:c>
       <x:c r="M26" s="48" t="s">
-        <x:v>380</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="N26" s="49"/>
       <x:c r="O26" s="50"/>
       <x:c r="P26" s="24" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="3:16" ht="17.149999999999999">
@@ -9032,32 +9071,32 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D27" s="54" t="s">
-        <x:v>151</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="E27" s="54"/>
       <x:c r="F27" s="54"/>
       <x:c r="G27" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="H27" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="I27" s="24" t="s">
-        <x:v>67</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="J27" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="L27" s="19">
         <x:v>2</x:v>
       </x:c>
       <x:c r="M27" s="48" t="s">
-        <x:v>115</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N27" s="49"/>
       <x:c r="O27" s="50"/>
       <x:c r="P27" s="24" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="3:16" ht="17.149999999999999">
@@ -9065,32 +9104,32 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D28" s="54" t="s">
-        <x:v>112</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E28" s="54"/>
       <x:c r="F28" s="54"/>
       <x:c r="G28" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="H28" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="I28" s="24" t="s">
-        <x:v>67</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="J28" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="L28" s="19">
         <x:v>3</x:v>
       </x:c>
       <x:c r="M28" s="48" t="s">
-        <x:v>108</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N28" s="49"/>
       <x:c r="O28" s="50"/>
       <x:c r="P28" s="24" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="3:16" ht="17.149999999999999">
@@ -9098,32 +9137,32 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D29" s="54" t="s">
-        <x:v>353</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="E29" s="54"/>
       <x:c r="F29" s="54"/>
       <x:c r="G29" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="H29" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="I29" s="24" t="s">
-        <x:v>73</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="J29" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="L29" s="19">
         <x:v>4</x:v>
       </x:c>
       <x:c r="M29" s="48" t="s">
-        <x:v>337</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="N29" s="49"/>
       <x:c r="O29" s="50"/>
       <x:c r="P29" s="24" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="3:16" ht="17.149999999999999">
@@ -9131,32 +9170,32 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D30" s="54" t="s">
-        <x:v>308</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E30" s="54"/>
       <x:c r="F30" s="54"/>
       <x:c r="G30" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="H30" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="I30" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="J30" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="L30" s="19">
         <x:v>5</x:v>
       </x:c>
       <x:c r="M30" s="48" t="s">
-        <x:v>146</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="N30" s="49"/>
       <x:c r="O30" s="50"/>
       <x:c r="P30" s="24" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="3:16" ht="17.149999999999999">
@@ -9164,32 +9203,32 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D31" s="54" t="s">
-        <x:v>309</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E31" s="54"/>
       <x:c r="F31" s="54"/>
       <x:c r="G31" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="H31" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="I31" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="J31" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="L31" s="19">
         <x:v>6</x:v>
       </x:c>
       <x:c r="M31" s="48" t="s">
-        <x:v>125</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="N31" s="49"/>
       <x:c r="O31" s="50"/>
       <x:c r="P31" s="24" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="3:16" ht="17.149999999999999">
@@ -9197,30 +9236,30 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D32" s="54" t="s">
-        <x:v>145</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="E32" s="54"/>
       <x:c r="F32" s="54"/>
       <x:c r="G32" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="H32" s="29" t="s">
-        <x:v>50</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="I32" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="J32" s="18"/>
       <x:c r="L32" s="19">
         <x:v>7</x:v>
       </x:c>
       <x:c r="M32" s="48" t="s">
-        <x:v>141</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="N32" s="49"/>
       <x:c r="O32" s="50"/>
       <x:c r="P32" s="24" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="3:16" ht="17.149999999999999">
@@ -9228,32 +9267,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D33" s="54" t="s">
-        <x:v>155</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="E33" s="54"/>
       <x:c r="F33" s="54"/>
       <x:c r="G33" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="H33" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="I33" s="19" t="s">
-        <x:v>73</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="J33" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="L33" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="M33" s="48" t="s">
-        <x:v>291</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="N33" s="49"/>
       <x:c r="O33" s="50"/>
       <x:c r="P33" s="24" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="3:16" ht="17.149999999999999">
@@ -9261,30 +9300,30 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D34" s="54" t="s">
-        <x:v>126</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E34" s="54"/>
       <x:c r="F34" s="54"/>
       <x:c r="G34" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="H34" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="I34" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="J34" s="18"/>
       <x:c r="L34" s="19">
         <x:v>9</x:v>
       </x:c>
       <x:c r="M34" s="48" t="s">
-        <x:v>378</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="N34" s="49"/>
       <x:c r="O34" s="50"/>
       <x:c r="P34" s="24" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="3:16" ht="17.149999999999999">
@@ -9292,32 +9331,32 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D35" s="54" t="s">
-        <x:v>367</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E35" s="54"/>
       <x:c r="F35" s="54"/>
       <x:c r="G35" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="H35" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="I35" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="J35" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="L35" s="19">
         <x:v>10</x:v>
       </x:c>
       <x:c r="M35" s="48" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="N35" s="49"/>
       <x:c r="O35" s="50"/>
       <x:c r="P35" s="24" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="3:17" ht="17.149999999999999" customHeight="1">
@@ -9325,32 +9364,32 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D36" s="54" t="s">
-        <x:v>106</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E36" s="54"/>
       <x:c r="F36" s="54"/>
       <x:c r="G36" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="H36" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="I36" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="J36" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="L36" s="19">
         <x:v>11</x:v>
       </x:c>
       <x:c r="M36" s="48" t="s">
-        <x:v>297</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="N36" s="49"/>
       <x:c r="O36" s="50"/>
       <x:c r="P36" s="56" t="s">
-        <x:v>266</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="Q36" s="47"/>
     </x:row>
@@ -9359,32 +9398,32 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D37" s="54" t="s">
-        <x:v>148</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="E37" s="54"/>
       <x:c r="F37" s="54"/>
       <x:c r="G37" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="H37" s="29" t="s">
-        <x:v>50</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="I37" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="J37" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="L37" s="19">
         <x:v>12</x:v>
       </x:c>
       <x:c r="M37" s="48" t="s">
-        <x:v>377</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="N37" s="49"/>
       <x:c r="O37" s="50"/>
       <x:c r="P37" s="24" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="3:16" ht="17.149999999999999">
@@ -9392,32 +9431,32 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D38" s="54" t="s">
-        <x:v>152</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="E38" s="54"/>
       <x:c r="F38" s="54"/>
       <x:c r="G38" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="H38" s="29" t="s">
-        <x:v>50</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="I38" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="J38" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="L38" s="19">
         <x:v>13</x:v>
       </x:c>
       <x:c r="M38" s="48" t="s">
-        <x:v>121</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N38" s="49"/>
       <x:c r="O38" s="50"/>
       <x:c r="P38" s="24" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="3:10" ht="17.149999999999999">
@@ -9425,21 +9464,21 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D39" s="54" t="s">
-        <x:v>129</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E39" s="54"/>
       <x:c r="F39" s="54"/>
       <x:c r="G39" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="H39" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="I39" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="J39" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="3:10" ht="17.149999999999999">
@@ -9447,21 +9486,21 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D40" s="54" t="s">
-        <x:v>368</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="E40" s="54"/>
       <x:c r="F40" s="54"/>
       <x:c r="G40" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="H40" s="29" t="s">
-        <x:v>50</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="I40" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="J40" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="3:10" ht="17.149999999999999">
@@ -9469,21 +9508,21 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D41" s="54" t="s">
-        <x:v>137</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="E41" s="54"/>
       <x:c r="F41" s="54"/>
       <x:c r="G41" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="H41" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="I41" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="J41" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="3:10" ht="17.149999999999999">
@@ -9491,21 +9530,21 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D42" s="54" t="s">
-        <x:v>138</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="E42" s="54"/>
       <x:c r="F42" s="54"/>
       <x:c r="G42" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="H42" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="I42" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="J42" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="3:10" ht="17.149999999999999">
@@ -9513,21 +9552,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D43" s="54" t="s">
-        <x:v>98</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E43" s="54"/>
       <x:c r="F43" s="54"/>
       <x:c r="G43" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H43" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="I43" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="J43" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="3:10" ht="17.149999999999999">
@@ -9535,18 +9574,18 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D44" s="54" t="s">
-        <x:v>352</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="E44" s="54"/>
       <x:c r="F44" s="54"/>
       <x:c r="G44" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H44" s="29" t="s">
-        <x:v>88</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="I44" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="J44" s="18"/>
     </x:row>
@@ -9555,21 +9594,21 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D45" s="54" t="s">
-        <x:v>142</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="E45" s="54"/>
       <x:c r="F45" s="54"/>
       <x:c r="G45" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="H45" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="I45" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="J45" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="3:10" ht="17.149999999999999">
@@ -9637,18 +9676,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D51" s="54" t="s">
-        <x:v>325</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="E51" s="54"/>
       <x:c r="F51" s="54"/>
       <x:c r="G51" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="H51" s="30" t="s">
-        <x:v>50</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="I51" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="J51" s="18"/>
     </x:row>
@@ -9746,8 +9785,8 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="C2:AN115"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A106" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="N96" activeCellId="0" sqref="N96:N96"/>
+    <x:sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="J23" activeCellId="0" sqref="J23:T23"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -9758,7 +9797,7 @@
   <x:sheetData>
     <x:row r="2" spans="3:12">
       <x:c r="C2" s="59" t="s">
-        <x:v>22</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D2" s="47"/>
       <x:c r="E2" s="47"/>
@@ -9868,21 +9907,21 @@
     </x:row>
     <x:row r="12" spans="3:4">
       <x:c r="C12" s="47" t="s">
-        <x:v>305</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D12" s="47"/>
     </x:row>
     <x:row r="13" spans="3:12">
       <x:c r="C13" s="19" t="s">
-        <x:v>85</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="D13" s="48" t="s">
-        <x:v>248</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E13" s="49"/>
       <x:c r="F13" s="50"/>
       <x:c r="G13" s="19" t="s">
-        <x:v>228</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="I13" s="37"/>
       <x:c r="J13" s="37"/>
@@ -9894,18 +9933,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D14" s="48" t="s">
-        <x:v>102</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E14" s="49"/>
       <x:c r="F14" s="50"/>
       <x:c r="G14" s="19" t="s">
-        <x:v>200</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="J14" s="54" t="s">
-        <x:v>281</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K14" s="54"/>
       <x:c r="L14" s="54"/>
@@ -9926,18 +9965,18 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D15" s="48" t="s">
-        <x:v>372</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="E15" s="49"/>
       <x:c r="F15" s="50"/>
       <x:c r="G15" s="19" t="s">
-        <x:v>200</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I15" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="J15" s="54" t="s">
-        <x:v>346</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="K15" s="54"/>
       <x:c r="L15" s="54"/>
@@ -9958,18 +9997,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D16" s="48" t="s">
-        <x:v>357</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="E16" s="49"/>
       <x:c r="F16" s="50"/>
       <x:c r="G16" s="19" t="s">
-        <x:v>200</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I16" s="19" t="s">
-        <x:v>256</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J16" s="54" t="s">
-        <x:v>338</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="K16" s="54"/>
       <x:c r="L16" s="54"/>
@@ -9990,19 +10029,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D17" s="48" t="s">
-        <x:v>114</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E17" s="49"/>
       <x:c r="F17" s="50"/>
       <x:c r="G17" s="19" t="s">
-        <x:v>200</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H17" s="23"/>
       <x:c r="I17" s="19" t="s">
-        <x:v>55</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="J17" s="54" t="s">
-        <x:v>285</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K17" s="54"/>
       <x:c r="L17" s="54"/>
@@ -10049,7 +10088,7 @@
     </x:row>
     <x:row r="20" spans="3:40">
       <x:c r="C20" s="47" t="s">
-        <x:v>217</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D20" s="47"/>
       <x:c r="AL20" s="23"/>
@@ -10058,15 +10097,15 @@
     </x:row>
     <x:row r="21" spans="3:40">
       <x:c r="C21" s="31" t="s">
-        <x:v>85</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="D21" s="54" t="s">
-        <x:v>255</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E21" s="54"/>
       <x:c r="F21" s="54"/>
       <x:c r="G21" s="24" t="s">
-        <x:v>77</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="AL21" s="23"/>
       <x:c r="AM21" s="23"/>
@@ -10077,18 +10116,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D22" s="54" t="s">
-        <x:v>223</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E22" s="54"/>
       <x:c r="F22" s="54"/>
       <x:c r="G22" s="24" t="s">
-        <x:v>264</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="I22" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="J22" s="54" t="s">
-        <x:v>165</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="K22" s="54"/>
       <x:c r="L22" s="54"/>
@@ -10109,18 +10148,18 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D23" s="54" t="s">
-        <x:v>207</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E23" s="54"/>
       <x:c r="F23" s="54"/>
       <x:c r="G23" s="24" t="s">
-        <x:v>231</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I23" s="19" t="s">
-        <x:v>89</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="J23" s="54" t="s">
-        <x:v>330</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K23" s="54"/>
       <x:c r="L23" s="54"/>
@@ -10141,18 +10180,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D24" s="54" t="s">
-        <x:v>296</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E24" s="54"/>
       <x:c r="F24" s="54"/>
       <x:c r="G24" s="24" t="s">
-        <x:v>302</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="J24" s="54" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K24" s="54"/>
       <x:c r="L24" s="54"/>
@@ -10186,18 +10225,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D25" s="54" t="s">
-        <x:v>109</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E25" s="54"/>
       <x:c r="F25" s="54"/>
       <x:c r="G25" s="24" t="s">
-        <x:v>90</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="I25" s="19" t="s">
-        <x:v>205</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="J25" s="54" t="s">
-        <x:v>343</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="K25" s="54"/>
       <x:c r="L25" s="54"/>
@@ -10218,18 +10257,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D26" s="54" t="s">
-        <x:v>196</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E26" s="54"/>
       <x:c r="F26" s="54"/>
       <x:c r="G26" s="24" t="s">
-        <x:v>260</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I26" s="19" t="s">
-        <x:v>70</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="J26" s="54" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K26" s="54"/>
       <x:c r="L26" s="54"/>
@@ -10250,18 +10289,18 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D27" s="54" t="s">
-        <x:v>140</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="E27" s="54"/>
       <x:c r="F27" s="54"/>
       <x:c r="G27" s="24" t="s">
-        <x:v>61</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="I27" s="19" t="s">
-        <x:v>51</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="J27" s="54" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K27" s="54"/>
       <x:c r="L27" s="54"/>
@@ -10295,7 +10334,7 @@
     </x:row>
     <x:row r="29" spans="3:19">
       <x:c r="C29" s="47" t="s">
-        <x:v>258</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D29" s="47"/>
       <x:c r="E29" s="37"/>
@@ -10312,18 +10351,18 @@
     </x:row>
     <x:row r="30" spans="3:16">
       <x:c r="C30" s="24" t="s">
-        <x:v>85</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="D30" s="54" t="s">
-        <x:v>198</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E30" s="54"/>
       <x:c r="F30" s="54"/>
       <x:c r="G30" s="24" t="s">
-        <x:v>228</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H30" s="54" t="s">
-        <x:v>234</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I30" s="54"/>
       <x:c r="J30" s="54"/>
@@ -10339,15 +10378,15 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D31" s="54" t="s">
-        <x:v>301</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E31" s="54"/>
       <x:c r="F31" s="54"/>
       <x:c r="G31" s="24" t="s">
-        <x:v>83</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="H31" s="54" t="s">
-        <x:v>45</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="I31" s="54"/>
       <x:c r="J31" s="54"/>
@@ -10363,15 +10402,15 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D32" s="54" t="s">
-        <x:v>144</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="E32" s="54"/>
       <x:c r="F32" s="54"/>
       <x:c r="G32" s="24" t="s">
-        <x:v>83</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="H32" s="54" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I32" s="54"/>
       <x:c r="J32" s="54"/>
@@ -10387,15 +10426,15 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D33" s="48" t="s">
-        <x:v>300</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E33" s="49"/>
       <x:c r="F33" s="50"/>
       <x:c r="G33" s="24" t="s">
-        <x:v>83</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="H33" s="54" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I33" s="54"/>
       <x:c r="J33" s="54"/>
@@ -10411,15 +10450,15 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D34" s="54" t="s">
-        <x:v>320</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E34" s="54"/>
       <x:c r="F34" s="54"/>
       <x:c r="G34" s="24" t="s">
-        <x:v>59</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="H34" s="54" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I34" s="54"/>
       <x:c r="J34" s="54"/>
@@ -10435,15 +10474,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D35" s="54" t="s">
-        <x:v>321</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E35" s="54"/>
       <x:c r="F35" s="54"/>
       <x:c r="G35" s="24" t="s">
-        <x:v>59</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="H35" s="54" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I35" s="54"/>
       <x:c r="J35" s="54"/>
@@ -10459,15 +10498,15 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D36" s="54" t="s">
-        <x:v>156</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="E36" s="54"/>
       <x:c r="F36" s="54"/>
       <x:c r="G36" s="24" t="s">
-        <x:v>59</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="H36" s="54" t="s">
-        <x:v>41</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="I36" s="54"/>
       <x:c r="J36" s="54"/>
@@ -10483,15 +10522,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D37" s="54" t="s">
-        <x:v>294</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E37" s="54"/>
       <x:c r="F37" s="54"/>
       <x:c r="G37" s="24" t="s">
-        <x:v>49</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="H37" s="54" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I37" s="54"/>
       <x:c r="J37" s="54"/>
@@ -10507,15 +10546,15 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D38" s="75" t="s">
-        <x:v>100</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E38" s="75"/>
       <x:c r="F38" s="75"/>
       <x:c r="G38" s="42" t="s">
-        <x:v>49</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="H38" s="75" t="s">
-        <x:v>163</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I38" s="75"/>
       <x:c r="J38" s="75"/>
@@ -10528,7 +10567,7 @@
     </x:row>
     <x:row r="40" spans="3:6">
       <x:c r="C40" s="47" t="s">
-        <x:v>136</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="D40" s="47"/>
       <x:c r="E40" s="47"/>
@@ -10536,13 +10575,13 @@
     </x:row>
     <x:row r="41" spans="3:22">
       <x:c r="C41" s="47" t="s">
-        <x:v>213</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D41" s="47"/>
       <x:c r="E41" s="47"/>
       <x:c r="F41" s="47"/>
       <x:c r="G41" s="47" t="s">
-        <x:v>170</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H41" s="47"/>
       <x:c r="I41" s="47"/>
@@ -10554,7 +10593,7 @@
       <x:c r="O41" s="47"/>
       <x:c r="P41" s="47"/>
       <x:c r="Q41" s="60" t="s">
-        <x:v>158</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="R41" s="60"/>
       <x:c r="S41" s="60"/>
@@ -10564,7 +10603,7 @@
     </x:row>
     <x:row r="42" spans="3:22">
       <x:c r="C42" s="55" t="s">
-        <x:v>238</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D42" s="55"/>
       <x:c r="E42" s="55"/>
@@ -10588,15 +10627,15 @@
     </x:row>
     <x:row r="43" spans="3:22">
       <x:c r="C43" s="24" t="s">
-        <x:v>85</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="D43" s="54" t="s">
-        <x:v>95</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E43" s="54"/>
       <x:c r="F43" s="54"/>
       <x:c r="G43" s="54" t="s">
-        <x:v>234</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H43" s="54"/>
       <x:c r="I43" s="54"/>
@@ -10619,12 +10658,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D44" s="54" t="s">
-        <x:v>103</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E44" s="54"/>
       <x:c r="F44" s="54"/>
       <x:c r="G44" s="54" t="s">
-        <x:v>166</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H44" s="54"/>
       <x:c r="I44" s="54"/>
@@ -10647,12 +10686,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D45" s="54" t="s">
-        <x:v>116</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E45" s="54"/>
       <x:c r="F45" s="54"/>
       <x:c r="G45" s="54" t="s">
-        <x:v>271</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="H45" s="54"/>
       <x:c r="I45" s="54"/>
@@ -10675,7 +10714,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D46" s="51" t="s">
-        <x:v>322</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E46" s="52"/>
       <x:c r="F46" s="53"/>
@@ -10747,12 +10786,12 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D49" s="54" t="s">
-        <x:v>105</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E49" s="54"/>
       <x:c r="F49" s="54"/>
       <x:c r="G49" s="54" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H49" s="54"/>
       <x:c r="I49" s="54"/>
@@ -10775,12 +10814,12 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D50" s="54" t="s">
-        <x:v>369</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="E50" s="54"/>
       <x:c r="F50" s="54"/>
       <x:c r="G50" s="54" t="s">
-        <x:v>30</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H50" s="54"/>
       <x:c r="I50" s="54"/>
@@ -10794,7 +10833,7 @@
       <x:c r="Q50" s="44"/>
       <x:c r="R50" s="16"/>
       <x:c r="S50" s="47" t="s">
-        <x:v>215</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="T50" s="47"/>
       <x:c r="U50" s="47"/>
@@ -10805,12 +10844,12 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D51" s="54" t="s">
-        <x:v>364</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E51" s="54"/>
       <x:c r="F51" s="54"/>
       <x:c r="G51" s="54" t="s">
-        <x:v>31</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="H51" s="54"/>
       <x:c r="I51" s="54"/>
@@ -10822,14 +10861,14 @@
       <x:c r="O51" s="54"/>
       <x:c r="P51" s="54"/>
       <x:c r="S51" s="21" t="s">
-        <x:v>85</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="T51" s="47" t="s">
-        <x:v>198</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="U51" s="47"/>
       <x:c r="V51" s="47" t="s">
-        <x:v>234</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="W51" s="47"/>
       <x:c r="X51" s="47"/>
@@ -10844,12 +10883,12 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D52" s="54" t="s">
-        <x:v>117</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E52" s="54"/>
       <x:c r="F52" s="54"/>
       <x:c r="G52" s="54" t="s">
-        <x:v>332</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="H52" s="54"/>
       <x:c r="I52" s="54"/>
@@ -10864,11 +10903,11 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T52" s="47" t="s">
-        <x:v>295</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="U52" s="47"/>
       <x:c r="V52" s="47" t="s">
-        <x:v>359</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="W52" s="47"/>
       <x:c r="X52" s="47"/>
@@ -10883,12 +10922,12 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D53" s="54" t="s">
-        <x:v>99</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E53" s="54"/>
       <x:c r="F53" s="54"/>
       <x:c r="G53" s="54" t="s">
-        <x:v>283</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H53" s="54"/>
       <x:c r="I53" s="54"/>
@@ -10903,11 +10942,11 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T53" s="47" t="s">
-        <x:v>313</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="U53" s="47"/>
       <x:c r="V53" s="47" t="s">
-        <x:v>371</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="W53" s="47"/>
       <x:c r="X53" s="47"/>
@@ -10938,11 +10977,11 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="T54" s="47" t="s">
-        <x:v>319</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="U54" s="47"/>
       <x:c r="V54" s="47" t="s">
-        <x:v>119</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="W54" s="47"/>
       <x:c r="X54" s="47"/>
@@ -10954,7 +10993,7 @@
     </x:row>
     <x:row r="55" spans="3:29">
       <x:c r="C55" s="55" t="s">
-        <x:v>232</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D55" s="55"/>
       <x:c r="E55" s="55"/>
@@ -10973,11 +11012,11 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="T55" s="47" t="s">
-        <x:v>318</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="U55" s="47"/>
       <x:c r="V55" s="47" t="s">
-        <x:v>272</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="W55" s="47"/>
       <x:c r="X55" s="47"/>
@@ -10989,15 +11028,15 @@
     </x:row>
     <x:row r="56" spans="3:29">
       <x:c r="C56" s="45" t="s">
-        <x:v>85</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="D56" s="76" t="s">
-        <x:v>95</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E56" s="76"/>
       <x:c r="F56" s="54"/>
       <x:c r="G56" s="54" t="s">
-        <x:v>234</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H56" s="54"/>
       <x:c r="I56" s="54"/>
@@ -11013,7 +11052,7 @@
       <x:c r="T56" s="47"/>
       <x:c r="U56" s="47"/>
       <x:c r="V56" s="47" t="s">
-        <x:v>276</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="W56" s="47"/>
       <x:c r="X56" s="47"/>
@@ -11028,12 +11067,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D57" s="69" t="s">
-        <x:v>340</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E57" s="52"/>
       <x:c r="F57" s="53"/>
       <x:c r="G57" s="51" t="s">
-        <x:v>29</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="H57" s="52"/>
       <x:c r="I57" s="52"/>
@@ -11047,7 +11086,7 @@
       <x:c r="Q57" s="20"/>
       <x:c r="R57" s="20"/>
       <x:c r="V57" s="47" t="s">
-        <x:v>336</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="W57" s="47"/>
       <x:c r="X57" s="47"/>
@@ -11088,12 +11127,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D59" s="69" t="s">
-        <x:v>44</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E59" s="52"/>
       <x:c r="F59" s="53"/>
       <x:c r="G59" s="51" t="s">
-        <x:v>43</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="H59" s="52"/>
       <x:c r="I59" s="52"/>
@@ -11166,12 +11205,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D63" s="69" t="s">
-        <x:v>366</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="E63" s="52"/>
       <x:c r="F63" s="53"/>
       <x:c r="G63" s="69" t="s">
-        <x:v>132</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="H63" s="52"/>
       <x:c r="I63" s="52"/>
@@ -11245,12 +11284,12 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D67" s="54" t="s">
-        <x:v>150</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="E67" s="54"/>
       <x:c r="F67" s="54"/>
       <x:c r="G67" s="54" t="s">
-        <x:v>275</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H67" s="54"/>
       <x:c r="I67" s="54"/>
@@ -11284,7 +11323,7 @@
     </x:row>
     <x:row r="69" spans="3:18" s="2" customFormat="1">
       <x:c r="C69" s="47" t="s">
-        <x:v>253</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D69" s="47"/>
       <x:c r="E69" s="47"/>
@@ -11304,15 +11343,15 @@
     </x:row>
     <x:row r="70" spans="3:18" s="2" customFormat="1">
       <x:c r="C70" s="24" t="s">
-        <x:v>85</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="D70" s="54" t="s">
-        <x:v>95</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E70" s="54"/>
       <x:c r="F70" s="54"/>
       <x:c r="G70" s="50" t="s">
-        <x:v>234</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H70" s="54"/>
       <x:c r="I70" s="54"/>
@@ -11331,12 +11370,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D71" s="76" t="s">
-        <x:v>93</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E71" s="76"/>
       <x:c r="F71" s="76"/>
       <x:c r="G71" s="54" t="s">
-        <x:v>324</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="H71" s="54"/>
       <x:c r="I71" s="54"/>
@@ -11355,12 +11394,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D72" s="54" t="s">
-        <x:v>289</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E72" s="54"/>
       <x:c r="F72" s="54"/>
       <x:c r="G72" s="54" t="s">
-        <x:v>7</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H72" s="54"/>
       <x:c r="I72" s="54"/>
@@ -11379,12 +11418,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D73" s="54" t="s">
-        <x:v>314</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E73" s="54"/>
       <x:c r="F73" s="48"/>
       <x:c r="G73" s="48" t="s">
-        <x:v>174</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="H73" s="49"/>
       <x:c r="I73" s="49"/>
@@ -11404,7 +11443,7 @@
       <x:c r="E74" s="20"/>
       <x:c r="F74" s="20"/>
       <x:c r="G74" s="48" t="s">
-        <x:v>173</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="H74" s="49"/>
       <x:c r="I74" s="49"/>
@@ -11424,7 +11463,7 @@
       <x:c r="E75" s="20"/>
       <x:c r="F75" s="20"/>
       <x:c r="G75" s="54" t="s">
-        <x:v>350</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="H75" s="54"/>
       <x:c r="I75" s="54"/>
@@ -11458,7 +11497,7 @@
     </x:row>
     <x:row r="77" spans="3:19">
       <x:c r="C77" s="47" t="s">
-        <x:v>306</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D77" s="47"/>
       <x:c r="E77" s="23"/>
@@ -11479,14 +11518,14 @@
     </x:row>
     <x:row r="78" spans="3:19">
       <x:c r="C78" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D78" s="47"/>
       <x:c r="E78" s="47"/>
       <x:c r="F78" s="47"/>
       <x:c r="G78" s="47"/>
       <x:c r="H78" s="47" t="s">
-        <x:v>268</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="I78" s="47"/>
       <x:c r="J78" s="47"/>
@@ -11495,7 +11534,7 @@
       <x:c r="M78" s="47"/>
       <x:c r="N78" s="47"/>
       <x:c r="O78" s="20" t="s">
-        <x:v>329</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="P78" s="20"/>
       <x:c r="Q78" s="20"/>
@@ -11504,7 +11543,7 @@
     </x:row>
     <x:row r="79" spans="3:19">
       <x:c r="C79" s="47" t="s">
-        <x:v>282</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D79" s="47"/>
       <x:c r="E79" s="47"/>
@@ -11514,7 +11553,7 @@
       <x:c r="I79" s="47"/>
       <x:c r="J79" s="47"/>
       <x:c r="K79" s="20" t="s">
-        <x:v>323</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="L79" s="20"/>
       <x:c r="M79" s="20"/>
@@ -11525,26 +11564,26 @@
     </x:row>
     <x:row r="80" spans="3:25">
       <x:c r="C80" s="24" t="s">
-        <x:v>65</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D80" s="54" t="s">
-        <x:v>206</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E80" s="54"/>
       <x:c r="F80" s="54"/>
       <x:c r="G80" s="54"/>
       <x:c r="H80" s="54"/>
       <x:c r="I80" s="54" t="s">
-        <x:v>219</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="J80" s="54"/>
       <x:c r="L80" s="47" t="s">
-        <x:v>128</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="M80" s="47"/>
       <x:c r="N80" s="47"/>
       <x:c r="O80" s="47" t="s">
-        <x:v>143</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="P80" s="47"/>
       <x:c r="Q80" s="47"/>
@@ -11562,7 +11601,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D81" s="48" t="s">
-        <x:v>347</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E81" s="49"/>
       <x:c r="F81" s="49"/>
@@ -11573,12 +11612,12 @@
       </x:c>
       <x:c r="J81" s="54"/>
       <x:c r="L81" s="47" t="s">
-        <x:v>381</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="M81" s="47"/>
       <x:c r="N81" s="47"/>
       <x:c r="O81" s="47" t="s">
-        <x:v>147</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="P81" s="47"/>
       <x:c r="Q81" s="47"/>
@@ -11596,7 +11635,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D82" s="48" t="s">
-        <x:v>208</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E82" s="49"/>
       <x:c r="F82" s="49"/>
@@ -11607,12 +11646,12 @@
       </x:c>
       <x:c r="J82" s="54"/>
       <x:c r="L82" s="47" t="s">
-        <x:v>382</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="M82" s="47"/>
       <x:c r="N82" s="47"/>
       <x:c r="O82" s="47" t="s">
-        <x:v>118</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P82" s="47"/>
       <x:c r="Q82" s="47"/>
@@ -11622,7 +11661,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D83" s="48" t="s">
-        <x:v>374</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="E83" s="49"/>
       <x:c r="F83" s="49"/>
@@ -11641,7 +11680,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D84" s="48" t="s">
-        <x:v>347</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E84" s="49"/>
       <x:c r="F84" s="49"/>
@@ -11652,7 +11691,7 @@
       </x:c>
       <x:c r="J84" s="54"/>
       <x:c r="L84" s="47" t="s">
-        <x:v>35</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="M84" s="47"/>
       <x:c r="N84" s="47"/>
@@ -11668,7 +11707,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D85" s="48" t="s">
-        <x:v>208</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E85" s="49"/>
       <x:c r="F85" s="49"/>
@@ -11679,7 +11718,7 @@
       </x:c>
       <x:c r="J85" s="54"/>
       <x:c r="L85" s="47" t="s">
-        <x:v>42</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="M85" s="47"/>
       <x:c r="N85" s="47"/>
@@ -11695,7 +11734,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D86" s="48" t="s">
-        <x:v>374</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="E86" s="49"/>
       <x:c r="F86" s="49"/>
@@ -11706,7 +11745,7 @@
       </x:c>
       <x:c r="J86" s="54"/>
       <x:c r="L86" s="47" t="s">
-        <x:v>167</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="M86" s="47"/>
       <x:c r="N86" s="47"/>
@@ -11722,7 +11761,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D87" s="48" t="s">
-        <x:v>347</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E87" s="49"/>
       <x:c r="F87" s="49"/>
@@ -11733,7 +11772,7 @@
       </x:c>
       <x:c r="J87" s="54"/>
       <x:c r="L87" s="60" t="s">
-        <x:v>131</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="M87" s="60"/>
       <x:c r="N87" s="60"/>
@@ -11750,7 +11789,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D88" s="48" t="s">
-        <x:v>208</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E88" s="49"/>
       <x:c r="F88" s="49"/>
@@ -11776,7 +11815,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D89" s="48" t="s">
-        <x:v>374</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="E89" s="49"/>
       <x:c r="F89" s="49"/>
@@ -11802,7 +11841,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D90" s="48" t="s">
-        <x:v>347</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E90" s="49"/>
       <x:c r="F90" s="49"/>
@@ -11828,7 +11867,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D91" s="48" t="s">
-        <x:v>208</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E91" s="49"/>
       <x:c r="F91" s="49"/>
@@ -11854,7 +11893,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D92" s="48" t="s">
-        <x:v>374</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="E92" s="49"/>
       <x:c r="F92" s="49"/>
@@ -11870,7 +11909,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D93" s="48" t="s">
-        <x:v>347</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E93" s="49"/>
       <x:c r="F93" s="49"/>
@@ -11886,7 +11925,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D94" s="48" t="s">
-        <x:v>208</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E94" s="49"/>
       <x:c r="F94" s="49"/>
@@ -11901,7 +11940,7 @@
     <x:row r="96" s="3" customFormat="1"/>
     <x:row r="97" spans="3:6" s="8" customFormat="1">
       <x:c r="C97" s="47" t="s">
-        <x:v>153</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="D97" s="47"/>
       <x:c r="E97" s="47"/>
@@ -11909,13 +11948,13 @@
     </x:row>
     <x:row r="98" spans="3:16" s="8" customFormat="1">
       <x:c r="C98" s="47" t="s">
-        <x:v>254</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D98" s="47"/>
       <x:c r="E98" s="47"/>
       <x:c r="F98" s="47"/>
       <x:c r="G98" s="47" t="s">
-        <x:v>169</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H98" s="47"/>
       <x:c r="I98" s="47"/>
@@ -11929,15 +11968,15 @@
     </x:row>
     <x:row r="99" spans="3:16">
       <x:c r="C99" s="24" t="s">
-        <x:v>85</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="D99" s="54" t="s">
-        <x:v>198</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E99" s="54"/>
       <x:c r="F99" s="54"/>
       <x:c r="G99" s="54" t="s">
-        <x:v>234</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H99" s="54"/>
       <x:c r="I99" s="54"/>
@@ -11954,12 +11993,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D100" s="54" t="s">
-        <x:v>241</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E100" s="54"/>
       <x:c r="F100" s="54"/>
       <x:c r="G100" s="54" t="s">
-        <x:v>96</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H100" s="54"/>
       <x:c r="I100" s="54"/>
@@ -11976,12 +12015,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D101" s="54" t="s">
-        <x:v>214</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E101" s="54"/>
       <x:c r="F101" s="54"/>
       <x:c r="G101" s="54" t="s">
-        <x:v>110</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H101" s="54"/>
       <x:c r="I101" s="54"/>
@@ -11998,12 +12037,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D102" s="54" t="s">
-        <x:v>261</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E102" s="54"/>
       <x:c r="F102" s="54"/>
       <x:c r="G102" s="54" t="s">
-        <x:v>101</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H102" s="54"/>
       <x:c r="I102" s="54"/>
@@ -12020,12 +12059,12 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D103" s="54" t="s">
-        <x:v>252</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E103" s="54"/>
       <x:c r="F103" s="54"/>
       <x:c r="G103" s="54" t="s">
-        <x:v>127</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H103" s="54"/>
       <x:c r="I103" s="54"/>
@@ -12042,12 +12081,12 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D104" s="54" t="s">
-        <x:v>75</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="E104" s="54"/>
       <x:c r="F104" s="54"/>
       <x:c r="G104" s="54" t="s">
-        <x:v>123</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H104" s="54"/>
       <x:c r="I104" s="54"/>
@@ -12064,12 +12103,12 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D105" s="54" t="s">
-        <x:v>64</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="E105" s="54"/>
       <x:c r="F105" s="54"/>
       <x:c r="G105" s="54" t="s">
-        <x:v>326</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="H105" s="54"/>
       <x:c r="I105" s="54"/>
@@ -12227,11 +12266,11 @@
     </x:row>
     <x:row r="115" spans="3:5">
       <x:c r="C115" s="47" t="s">
-        <x:v>244</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D115" s="47"/>
       <x:c r="E115" s="12" t="s">
-        <x:v>204</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12440,13 +12479,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="47" t="s">
-        <x:v>245</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B1" s="47"/>
     </x:row>
     <x:row r="2" spans="1:21">
       <x:c r="A2" s="48" t="s">
-        <x:v>277</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B2" s="49"/>
       <x:c r="C2" s="49"/>
@@ -12471,7 +12510,7 @@
     </x:row>
     <x:row r="3" spans="1:21">
       <x:c r="A3" s="48" t="s">
-        <x:v>24</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B3" s="49"/>
       <x:c r="C3" s="49"/>
@@ -12496,7 +12535,7 @@
     </x:row>
     <x:row r="4" spans="1:21">
       <x:c r="A4" s="48" t="s">
-        <x:v>195</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B4" s="49"/>
       <x:c r="C4" s="49"/>
@@ -12521,7 +12560,7 @@
     </x:row>
     <x:row r="5" spans="1:21">
       <x:c r="A5" s="48" t="s">
-        <x:v>194</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B5" s="49"/>
       <x:c r="C5" s="49"/>
@@ -12546,7 +12585,7 @@
     </x:row>
     <x:row r="6" spans="1:21">
       <x:c r="A6" s="48" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B6" s="49"/>
       <x:c r="C6" s="49"/>
@@ -12571,7 +12610,7 @@
     </x:row>
     <x:row r="7" spans="1:21">
       <x:c r="A7" s="48" t="s">
-        <x:v>189</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B7" s="49"/>
       <x:c r="C7" s="49"/>
@@ -12596,7 +12635,7 @@
     </x:row>
     <x:row r="8" spans="1:21">
       <x:c r="A8" s="48" t="s">
-        <x:v>288</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B8" s="49"/>
       <x:c r="C8" s="49"/>
@@ -12984,7 +13023,7 @@
   <x:sheetData>
     <x:row r="3" spans="2:11">
       <x:c r="B3" s="59" t="s">
-        <x:v>192</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C3" s="47"/>
       <x:c r="D3" s="47"/>
@@ -13070,14 +13109,14 @@
     </x:row>
     <x:row r="11" spans="2:4">
       <x:c r="B11" s="47" t="s">
-        <x:v>154</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C11" s="47"/>
       <x:c r="D11" s="47"/>
     </x:row>
     <x:row r="12" spans="2:14">
       <x:c r="B12" s="47" t="s">
-        <x:v>360</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="C12" s="47"/>
       <x:c r="D12" s="47"/>
@@ -13094,7 +13133,7 @@
     </x:row>
     <x:row r="13" spans="2:14">
       <x:c r="B13" s="47" t="s">
-        <x:v>339</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C13" s="47"/>
       <x:c r="D13" s="47"/>
@@ -13111,7 +13150,7 @@
     </x:row>
     <x:row r="14" spans="2:14">
       <x:c r="B14" s="47" t="s">
-        <x:v>267</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C14" s="47"/>
       <x:c r="D14" s="47"/>
@@ -13128,7 +13167,7 @@
     </x:row>
     <x:row r="15" spans="2:14">
       <x:c r="B15" s="47" t="s">
-        <x:v>34</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C15" s="47"/>
       <x:c r="D15" s="47"/>
@@ -13145,62 +13184,62 @@
     </x:row>
     <x:row r="18" spans="2:4">
       <x:c r="B18" s="47" t="s">
-        <x:v>315</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C18" s="47"/>
       <x:c r="D18" s="47"/>
     </x:row>
     <x:row r="19" spans="2:15">
       <x:c r="B19" s="54" t="s">
-        <x:v>79</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="C19" s="54"/>
       <x:c r="D19" s="54"/>
       <x:c r="E19" s="54" t="s">
-        <x:v>235</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F19" s="54"/>
       <x:c r="G19" s="54"/>
       <x:c r="H19" s="54"/>
       <x:c r="I19" s="54" t="s">
-        <x:v>237</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="J19" s="54"/>
       <x:c r="K19" s="54"/>
       <x:c r="L19" s="54"/>
       <x:c r="M19" s="54" t="s">
-        <x:v>262</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="N19" s="54"/>
       <x:c r="O19" s="54"/>
     </x:row>
     <x:row r="20" spans="5:15">
       <x:c r="E20" s="54" t="s">
-        <x:v>246</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F20" s="54"/>
       <x:c r="G20" s="54"/>
       <x:c r="H20" s="54"/>
       <x:c r="I20" s="54" t="s">
-        <x:v>263</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="J20" s="54"/>
       <x:c r="K20" s="54"/>
       <x:c r="L20" s="54"/>
       <x:c r="M20" s="51" t="s">
-        <x:v>265</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="N20" s="52"/>
       <x:c r="O20" s="52"/>
     </x:row>
     <x:row r="22" spans="2:12">
       <x:c r="B22" s="54" t="s">
-        <x:v>71</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="C22" s="54"/>
       <x:c r="D22" s="54"/>
       <x:c r="E22" s="54" t="s">
-        <x:v>365</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="F22" s="54"/>
       <x:c r="G22" s="54"/>
@@ -13212,12 +13251,12 @@
     </x:row>
     <x:row r="23" spans="2:12">
       <x:c r="B23" s="54" t="s">
-        <x:v>257</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C23" s="54"/>
       <x:c r="D23" s="54"/>
       <x:c r="E23" s="54" t="s">
-        <x:v>164</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F23" s="54"/>
       <x:c r="G23" s="54"/>
@@ -13229,12 +13268,12 @@
     </x:row>
     <x:row r="24" spans="2:12">
       <x:c r="B24" s="54" t="s">
-        <x:v>84</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="C24" s="54"/>
       <x:c r="D24" s="54"/>
       <x:c r="E24" s="54" t="s">
-        <x:v>36</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F24" s="54"/>
       <x:c r="G24" s="54"/>
@@ -13246,12 +13285,12 @@
     </x:row>
     <x:row r="25" spans="2:12">
       <x:c r="B25" s="54" t="s">
-        <x:v>86</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="C25" s="54"/>
       <x:c r="D25" s="54"/>
       <x:c r="E25" s="54" t="s">
-        <x:v>32</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="F25" s="54"/>
       <x:c r="G25" s="54"/>
@@ -13266,7 +13305,7 @@
       <x:c r="C26" s="54"/>
       <x:c r="D26" s="54"/>
       <x:c r="E26" s="54" t="s">
-        <x:v>341</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="F26" s="54"/>
       <x:c r="G26" s="54"/>
@@ -13278,12 +13317,12 @@
     </x:row>
     <x:row r="27" spans="2:12">
       <x:c r="B27" s="54" t="s">
-        <x:v>68</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C27" s="54"/>
       <x:c r="D27" s="54"/>
       <x:c r="E27" s="54" t="s">
-        <x:v>135</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="F27" s="54"/>
       <x:c r="G27" s="54"/>
@@ -13308,48 +13347,48 @@
     </x:row>
     <x:row r="29" spans="2:4">
       <x:c r="B29" s="47" t="s">
-        <x:v>221</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C29" s="47"/>
       <x:c r="D29" s="47"/>
     </x:row>
     <x:row r="30" spans="2:16">
       <x:c r="B30" s="47" t="s">
-        <x:v>292</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C30" s="47"/>
       <x:c r="D30" s="47"/>
       <x:c r="E30" s="47" t="s">
-        <x:v>226</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F30" s="47"/>
       <x:c r="G30" s="47"/>
       <x:c r="H30" s="47" t="s">
-        <x:v>220</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I30" s="47"/>
       <x:c r="J30" s="47"/>
       <x:c r="K30" s="47" t="s">
-        <x:v>317</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="L30" s="47"/>
       <x:c r="M30" s="47"/>
       <x:c r="N30" s="47" t="s">
-        <x:v>209</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="O30" s="47"/>
       <x:c r="P30" s="47"/>
     </x:row>
     <x:row r="31" spans="2:4">
       <x:c r="B31" s="47" t="s">
-        <x:v>201</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C31" s="47"/>
       <x:c r="D31" s="47"/>
     </x:row>
     <x:row r="32" spans="2:16">
       <x:c r="B32" s="47" t="s">
-        <x:v>168</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C32" s="47"/>
       <x:c r="D32" s="47"/>
@@ -13368,7 +13407,7 @@
     </x:row>
     <x:row r="33" spans="2:16">
       <x:c r="B33" s="47" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C33" s="47"/>
       <x:c r="D33" s="47"/>
@@ -13432,15 +13471,15 @@
   <x:sheetPr codeName="Sheet8"/>
   <x:dimension ref="B2:K11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="B2" activeCellId="0" sqref="B2:K6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="2" spans="2:11">
-      <x:c r="B2" s="83" t="s">
-        <x:v>16</x:v>
+      <x:c r="B2" s="86" t="s">
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C2" s="47"/>
       <x:c r="D2" s="47"/>
@@ -13502,7 +13541,7 @@
     </x:row>
     <x:row r="7" spans="2:11">
       <x:c r="B7" s="83" t="s">
-        <x:v>124</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C7" s="47"/>
       <x:c r="D7" s="47"/>

--- a/Disign/무기, 캐릭터.xlsx
+++ b/Disign/무기, 캐릭터.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8472" activeTab="7"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8472" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="용어정리" sheetId="1" r:id="rId4"/>
@@ -28,6 +28,73 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="383">
   <x:si>
+    <x:t>전사 | https://assetstore.unity.com/packages/3d/characters/humanoids/barbarian-warrior-75519#description (가능) / https://assetstore.unity.com/packages/3d/characters/humanoids/low-poly-fantasy-warrior-127775</x:t>
+  </x:si>
+  <x:si>
+    <x:t>끈끈이 폭탄 - https://assetstore.unity.com/packages/2d/gui/icons/potions-kit-196598#content | Immunity Potions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불 원소 - https://assetstore.unity.com/packages/2d/gui/icons/elemental-potions-175338#content | fire_potion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물 원소 - https://assetstore.unity.com/packages/2d/gui/icons/elemental-potions-175338#content | water_potion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기의 스탯은 [ 스탯에 분배된 포인트 * 가중치 + 기본 값] 이다. (공격속도는 [ 기본값 - 스탯에 분배된 포인트 * 가중치 ] 이다.)
+이때 아래 표에서 실제 스탯의 가중치는 기본 가중치이며 자세한 설명은 표 아래에 존재한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적들의 어그로를 6초간 끄는 미끼를 자신의 위치에 설치한다. / 보스는 걸리지 않는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원거리 무기 공격력 10%증가/ 총 태그가 붙은 무기 공격력 10%증가 / 체력 10% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대시 후 1초 동안 찌르기 태그가 달린 무기의 공격력 30% 증가 및 사거리 20% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터는 현재 들고 있는 소모품을 사용한다. / 소모품은 -&gt;, &lt;-로 바꿀 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접무기 공격력 10% 증가/L 태그가 붙은 무기 공격횟수 1 증가/ 이동속도 10% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접무기 공격력 10% 증가/H 태그가 붙은 무기 공격력 10% 증가/ 공격력 5% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원거리 무기 공격력 10%증가/활 태그가 붙은 무기 공격력 10%증가 / 이동속도 10%증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신의 자리에 폭탄을 터트려 길이 5m인 장판을 깐다. 이 장판은 '손상' 상태를 부여한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정 범위에 140의 고정 데미지를 주는 폭탄을 앞에 둔다. 무너질 수 있는 벽을 부순다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 번째와 두 번째 무기의 공격력을 50% 감소시키고 그만큼 세 번째 무기의 공격력이 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접,원거리 무기 공격력 각각 5% 증가/ 메인 공격 시 40% 확률로 공격력 50% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최종 데미지
+= (무기 공격력 + 캐릭터 공격력) * (1 - (몬스터 방어력 / 100+몬스터 방어력)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터는 가지고 있는 무기를 이용해 적을 공격할 수 있다. / 한번의 클릭으로 한번의 서브공격이 나간다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기맵은 다른 무기맵과 3개의 맵 간격을 두어야 한다. 보스맵은 시작맵과 7개의 맵 간격을 두어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터는 앞, 뒤 방향으로 일정거리를 빠르게 이동한다. 이때 잠시 무적이 된다. / 3초마다 사용가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">공격범위
+모든 지역 무기는 0.5m의 반지름을 가진 원을 공격범위로 둔다.
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>공격횟수
 기본, 최소 가중치 10포인트
 최대 가중치 7포인트
@@ -37,127 +104,17 @@
 8 7</x:t>
   </x:si>
   <x:si>
-    <x:t>베기에서 궤적의 반지름을, 찌르기에서 가로 선분의 길이를, 투사체에서 투사체가 갈 수 있는 최대 거리를 의미</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전사 | https://assetstore.unity.com/packages/3d/characters/humanoids/barbarian-warrior-75519#description (가능) / https://assetstore.unity.com/packages/3d/characters/humanoids/low-poly-fantasy-warrior-127775</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터는 점프를 해, 위로 움직일 수 있다. / 1회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불 원소 - https://assetstore.unity.com/packages/2d/gui/icons/elemental-potions-175338#content | fire_potion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물 원소 - https://assetstore.unity.com/packages/2d/gui/icons/elemental-potions-175338#content | water_potion</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">공격횟수
-공격횟수는 분배된 포인트가 0일 때 0회 공격.(기본값)
-(가중치)포인트당 1회 늘어남.
-공격횟수에 상한 없음.
-공격횟수가 0이면 바로 다음 무기로 넘어감.
-최소치 0 / 최대치 X
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>끈끈이 폭탄 - https://assetstore.unity.com/packages/2d/gui/icons/potions-kit-196598#content | Immunity Potions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기의 스탯은 [ 스탯에 분배된 포인트 * 가중치 + 기본 값] 이다. (공격속도는 [ 기본값 - 스탯에 분배된 포인트 * 가중치 ] 이다.)
-이때 아래 표에서 실제 스탯의 가중치는 기본 가중치이며 자세한 설명은 표 아래에 존재한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적들의 어그로를 6초간 끄는 미끼를 자신의 위치에 설치한다. / 보스는 걸리지 않는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신의 자리에 폭탄을 터트려 길이 5m인 장판을 깐다. 이 장판은 '손상' 상태를 부여한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접무기 공격력 10% 증가/H 태그가 붙은 무기 공격력 10% 증가/ 공격력 5% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원거리 무기 공격력 10%증가/활 태그가 붙은 무기 공격력 10%증가 / 이동속도 10%증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접무기 공격력 10% 증가/L 태그가 붙은 무기 공격횟수 1 증가/ 이동속도 10% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접,원거리 무기 공격력 각각 5% 증가/ 메인 공격 시 40% 확률로 공격력 50% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원거리 무기 공격력 10%증가/ 총 태그가 붙은 무기 공격력 10%증가 / 체력 10% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대시 후 1초 동안 찌르기 태그가 달린 무기의 공격력 30% 증가 및 사거리 20% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터는 현재 들고 있는 소모품을 사용한다. / 소모품은 -&gt;, &lt;-로 바꿀 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫 번째와 두 번째 무기의 공격력을 50% 감소시키고 그만큼 세 번째 무기의 공격력이 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 범위에 140의 고정 데미지를 주는 폭탄을 앞에 둔다. 무너질 수 있는 벽을 부순다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터는 가지고 있는 무기를 이용해 적을 공격할 수 있다. / 한번의 클릭으로 한번의 서브공격이 나간다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기맵은 다른 무기맵과 3개의 맵 간격을 두어야 한다. 보스맵은 시작맵과 7개의 맵 간격을 두어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터는 앞, 뒤 방향으로 일정거리를 빠르게 이동한다. 이때 잠시 무적이 된다. / 3초마다 사용가능</x:t>
+    <x:t>캐릭터 / 계정
+- 캐릭터 레벨 및 캐릭터 특성
+- 계정 레벨 및 계정 특성
+- 캐릭터 공통 스탯
+- 캐릭터 종류
+- 캐릭터 무브셋</x:t>
   </x:si>
   <x:si>
     <x:t>지정한 무기의 공격횟수를 1로 줄이는 대신, 공격력이 (30 * 줄어든 공격횟수)% 증가
 무기 지정은 이 특성을 얻고 처음으로 어떤 무기를 착용하면 그 무기가 지정된다. 
 지정된 무기를 착용해제하면 다시 무기를 지정할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 조건일시 기능 추가나 스탯 강화  /  깡 스탯 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2개의 스테이지를 끝내면 5레벨정도 오르게 경험치를 준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오로지 투사체 무기만 소유, 투사체가 날라가는 속도를 결정함.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라이트(L) : 대체로 공격력이 낮고, 공격속도가 빠르다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스탯 증가, 초기 자원 증가 / 특성을 여러번 찍을 수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위 스탯표에서 실제 스탯은 기본 가중치로 계산해서 나온 값이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이 수치가 0이 되면 게임이 종료된다. / 최초 스탯 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반드랍의 경우와 희귀드랍의 경우에 무기 가중치가 다르다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테이지 구성은 아이작처럼 맵을 무작위 방식으로 배치한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터가 적에게 주는 데미지를 결정한다. / 최초 스탯 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L 태그의 무기로 적을 공격하면, 적에게 '독' 상태를 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>속도물약 - https://assetstore.unity.com/packages/2d/gui/icons/2d-pixel-item-asset-pack-99645#content | JarBlue01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특성 틀
-========================
-n 번째 공격 / " " 태그를 가진 무기 / 그냥 / 특정 조건을 만족
-+
-일(할) 때
-+
-" " 스탯을 강화한다. / " " 기능을 추가한다.</x:t>
   </x:si>
   <x:si>
     <x:t>암살자 | https://assetstore.unity.com/packages/2d/characters/mighty-heroes-rogue-2d-fantasy-characters-pack-85770 (가능)</x:t>
@@ -177,165 +134,319 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>롱소드 / 양손검 / 롱 보우 / 전투 도끼 |  https://assetstore.unity.com/packages/3d/props/weapons/free-pack-of-medieval-weapons-136607</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창 / 숏보우 / 파이어볼 / 썬더볼트 / 손 도끼 / 매직미사일 |  https://assetstore.unity.com/packages/3d/props/weapons/free-rpg-weapons-199738</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나의 무기가 일반맵에서 드랍되는 것보다 최소치 최대치가 더 좋은 상태로 나오는 방</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">목차
-- 0. 게임 전투 템포
-- 1. 맵 클리어 보상 방식
-- 2. 맵 구성 방식
-</x:t>
-  </x:si>
-  <x:si>
     <x:t>한 무기의 서브 공격을 얼마나 빠르게 하는지 결정한다. (ex - 2.1초, 1초)</x:t>
   </x:si>
   <x:si>
     <x:t>0성에서 1성은 1조각, 1성에서 2성은 2조각, 2성에서 3성은 6조각이 필요하다.</x:t>
   </x:si>
   <x:si>
-    <x:t>오로지 지역 무기만 소유. 커서가 가르키는 위치에 있는 원의 반지름을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터는 좌우로 움직일 수 있다. 이때, 움직이는 속도는 이동속도의 영향을 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫 번째 무기가 베기 태그를 가진 무기일 때, 적에게 '느릿한' 상태를 부여한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 ~ 15레벨 | 2326 + 775 = 650*4 + 10x | x = 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접, 원거리 무기 공격력 각각 5% 증가 / 현재 이동속도의 N%를 공격력에 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 드랍
-: 적을 처치해서 무기가 드랍되는 경우
-희귀 드랍
-: 보물 상자 또는 무기맵에서 무기가 드랍되는 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 만약 원소 소모품을 쓰고 또 다른 원소 소모품을 쓰면 마지막으로 쓴 원소 소모품의 속성이 무기에 적용된다.</x:t>
+    <x:t>적이 상태 이상에 걸려있는 경우, 세 번째 공격의 공격력이 60% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세 개의 무기가 모두 다른 태그라면 각 무기의 공격속도가 0.2초 감소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 번째 무기가 총일 때, 첫 번째 공격이 적을 '정지'상태로 만든다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2, 4, 6 스테이지면 보스가 등장하고 다음 스테이지로 가는 방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화할 때마다 스탯 포인트를 제공해 원하는 스탯을 올릴 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여기서 드랍되는 무기는 스탯의 최소 최대가 무기맵의 무기보다 더 낮다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2~6레벨 | 360 + 120+ 300 = 15x | x = 52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 소모품을 사용하거나, 특정 조건을 만족하면 보상을 제공하는 방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투사체속도
+모든 투사체 무기는 10m/s의 투사체 속도를 가진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>석궁 | https://assetstore.unity.com/packages/3d/props/weapons/stylized-crossbow-243342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기의 궤적이 호인 무기 ( 호는 지면과 평행한 가로 선분의 위로 45도, 아래로 45도이다.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신의 자리에 폭탄을 터트려 길이 5m인 장판을 깐다. 이 장판은 '느릿한' 상태를 부여한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원거리 무기 공격력 10%증가/ 마법 태그가 붙은 무기 공격속도 0.05초 감소/ 공격력 10%증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 ~ 11레벨 |   1451 + 483 + 600 = 15x + 5*260 | x = 82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한번의 메인 공격 이후, 2초 기다린 후 다음 메인 공격을 하면 그 메인공격의 공격력이 70% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가만히 있으면 중간은 간다. /
+you will break even if you stay still</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접 무기 공격력 10% 증가 / 검 태그가 붙은 무기 공격속도 10% 감소 / 방어력 10% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근/원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소모품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>찌르기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방어력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주먹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투사체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가중치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부활</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레벨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지역만</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>활</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상점맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>베기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기믹맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보스맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ㅁ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>long sword / 롱소드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가속 / acceleration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스택은 1스택씩 차례대로 사라진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>characteristic name</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">공격력 5% 증가 / 최대 10번 </x:t>
   </x:si>
   <x:si>
+    <x:t>무기가 주는 데미지를 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thunderbolt / 썬더볼트</x:t>
+  </x:si>
+  <x:si>
     <x:t>암수 / secret weapon</x:t>
   </x:si>
   <x:si>
-    <x:t>스택은 1스택씩 차례대로 사라진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>characteristic name</x:t>
-  </x:si>
-  <x:si>
     <x:t>biker gang / 폭주족</x:t>
   </x:si>
   <x:si>
     <x:t>방어력 5% 증가 / 최대 10번</x:t>
   </x:si>
   <x:si>
-    <x:t>가속 / acceleration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>long sword / 롱소드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기가 주는 데미지를 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>thunderbolt / 썬더볼트</x:t>
+    <x:t>healthPoint(HP)/체력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>힘줄 자르기 / tendon cut</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1레벨로 시작 / 15레벨이 만렙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올포원 / all for one</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sniper rifle / 저격소총</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 에셋은 판타지, 현대 무관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>holy element / 성 원소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>interaction/상호작용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력 5% 증가 / 최대 10번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>attackNum(AN)/공격횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> battleaxe / 전투도끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>attackRange/공격범위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>attackPower(AP)/공격력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fire element / 불 원소</x:t>
   </x:si>
   <x:si>
     <x:t>갑옷 파괴 / armor break</x:t>
   </x:si>
   <x:si>
+    <x:t>신속한 영창 / fast chant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6스테이지 =&gt; 1960~2500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적을 2초간 움직이지 못하게 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기의 궤적이 가로 선분인 무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>break bomb / 손상 폭탄</x:t>
+  </x:si>
+  <x:si>
     <x:t>즉시 체력의 40%를 회복한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>healthPoint(HP)/체력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hp potion / 체력 물약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sniper rifle / 저격소총</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적을 2초간 움직이지 못하게 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동속도 5% 증가 / 최대 10번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1스테이지 =&gt; 360 ~ 720</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fire ball / 파이어볼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6스테이지 =&gt; 1960~2500</x:t>
+    <x:t>초기 골드 소유량이 N만큼 증가</x:t>
   </x:si>
   <x:si>
     <x:t>최종 이동속도
 = 이동속도 / 5</x:t>
   </x:si>
   <x:si>
-    <x:t>attackRange/공격범위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>break bomb / 손상 폭탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fire element / 불 원소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기의 궤적이 가로 선분인 무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>interaction/상호작용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>attackPower(AP)/공격력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초기 골드 소유량이 N만큼 증가</x:t>
+    <x:t>hp potion / 체력 물약</x:t>
   </x:si>
   <x:si>
     <x:t>pile bunker / 파일 벙커</x:t>
   </x:si>
   <x:si>
-    <x:t>힘줄 자르기 / tendon cut</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신속한 영창 / fast chant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>holy element / 성 원소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>attackNum(AN)/공격횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 에셋은 판타지, 현대 무관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올포원 / all for one</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1레벨로 시작 / 15레벨이 만렙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력 5% 증가 / 최대 10번</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> battleaxe / 전투도끼</x:t>
+    <x:t>이동속도 5% 증가 / 최대 10번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1스테이지 =&gt; 360 ~ 720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fire ball / 파이어볼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오로지 지역 무기만 소유. 커서가 가르키는 위치에 있는 원의 반지름을 결정한다.</x:t>
   </x:si>
   <x:si>
     <x:t>2스테이지 끝내 5레벨이 오르려면 (몬스터 스테이지의 모든 몬스터를 잡았을 때의 경험치
@@ -344,290 +455,107 @@
 6스테이지 보스에선 레벨이 올라도 소용없다 생각해 12~15구간은 5스테이지 경험치로만 계산</x:t>
   </x:si>
   <x:si>
-    <x:t>최종 데미지
-= (무기 공격력 + 캐릭터 공격력) * (1 - (몬스터 방어력 / 100+몬스터 방어력))</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격범위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특성 제공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기믹맵 : 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>베기/cut</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태이상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기에셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 소모품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 무브셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 스탯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테이지 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(미정)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>float</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상호작용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소모품 에셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레벨업 보상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jump/점프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 공격범위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dash/대시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기맵 : 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요한 경험치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에셋유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지역/zone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 포인트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 포인트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>space</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일시 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>//////</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투사체속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 일반맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tag1</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2. 보스맵 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bow / 활</x:t>
-  </x:si>
-  <x:si>
-    <x:t>type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상점맵 : 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투사체만</x:t>
-  </x:si>
-  <x:si>
-    <x:t>move/이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상시 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>effect</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에셋 유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터에셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동속도 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>moveset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tag2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shift</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방어력 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5. 기믹맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 상점맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60 포인트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버프 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">무기맵 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>gun / 총</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계정 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">계정 레벨표 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>tag0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6. 시작맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a, d, s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 무기맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>텍스트로 대체</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">첫 번째 무기와 두 번째 무기가 주먹 무기이고,
 첫 번째 공격과 두 번째 공격을 모두 맞출 경우, 세 번째 공격의 사거리와 공격력이 150% 증가 </x:t>
   </x:si>
   <x:si>
-    <x:t>가만히 있으면 중간은 간다. /
-you will break even if you stay still</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한번의 메인 공격 이후, 2초 기다린 후 다음 메인 공격을 하면 그 메인공격의 공격력이 70% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원거리 무기 공격력 10%증가/ 마법 태그가 붙은 무기 공격속도 0.05초 감소/ 공격력 10%증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 ~ 11레벨 |   1451 + 483 + 600 = 15x + 5*260 | x = 82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신의 자리에 폭탄을 터트려 길이 5m인 장판을 깐다. 이 장판은 '느릿한' 상태를 부여한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접 무기 공격력 10% 증가 / 검 태그가 붙은 무기 공격속도 10% 감소 / 방어력 10% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기의 궤적이 호인 무기 ( 호는 지면과 평행한 가로 선분의 위로 45도, 아래로 45도이다.)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">공격범위
-모든 지역 무기는 0.5m의 반지름을 가진 원을 공격범위로 둔다.
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마우스 커서가 가르키는 위치에 원 내부를 공격을 해 데미지를 입히는 무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ex - 물 원소를 쓰고 불 원소를 쓰면 무기의 속성은 불 속성으로 결정됨.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,6,9,12,15레벨에 특성 선택이 제공, 대신 스탯은 오르지 않는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4초동안 초당 적의 최대 체력의 1%만큼 데미지를 준다. 최대 3중첩 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보스의 경우, 초당 최대 채력의 0.2%만큼 데미지를 준다. 나머지는 동일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵에 있는 모든 적에게 '정지'를 8초간 건다. / 보스는 걸리지 않는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>드랍되는 돈의 양에 최소치와 최대치를 두어 그 사이의 양으로 드랍되게 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">무기
-- 1. 분류
-- 2. 무기 스탯
-- 3. 무기 
-- 4. 소모품
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>활 태그가 달린 무기로 공격에 성공하면, 다음 메인 공격의 공격력 40% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫 번째 무기가 H 태그를 가진 무기일 때, 적에게 '손상'을 부여한다.</x:t>
+    <x:t>롱소드 / 양손검 / 롱 보우 / 전투 도끼 |  https://assetstore.unity.com/packages/3d/props/weapons/free-pack-of-medieval-weapons-136607</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창 / 숏보우 / 파이어볼 / 썬더볼트 / 손 도끼 / 매직미사일 |  https://assetstore.unity.com/packages/3d/props/weapons/free-rpg-weapons-199738</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테이지의 가장 첫 맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 레벨 및 캐릭터 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>longbow / 롱보우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>crossbow / 석궁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>즉시 모든 상태이상을 푼다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>consumable/소모품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grenade/ 수류탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>halberd / 할버드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2스테이지 =&gt; 300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>assassin/암살자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>battering / 난타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>panacea / 만병통치약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4스테이지 =&gt; 600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>derringer / 데린저</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투사체/projectile</x:t>
+  </x:si>
+  <x:si>
+    <x:t>호크아이 / hawkeye</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hatchet / 손 도끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shortbow / 숏보우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계정 레벨 및 계정 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 맵 클리어 보상 방식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rapier / 레이피어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>magician/마법사</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+상시 특성
+: 무기 교체를 할 때마다 적용되는 상시 효과를 가지는 특성. 
+일시 특성
+: 메인공격을 할 때마다 적용되는 일시 효과를 가지는 특성. 효과가 첫번째 공격에 적용됬다면 첫번째 공격이 끝난 뒤에 효과가 사라진다.
+버프 특성
+: 특정 조건을 만족하면 버프가 발생하고 제한시간이 끝나면 버프가 사라지는 특성.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특성 틀
+========================
+n 번째 공격 / " " 태그를 가진 무기 / 그냥 / 특정 조건을 만족
++
+일(할) 때
++
+" " 스탯을 강화한다. / " " 기능을 추가한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>속도물약 - https://assetstore.unity.com/packages/2d/gui/icons/2d-pixel-item-asset-pack-99645#content | JarBlue01</x:t>
   </x:si>
   <x:si>
     <x:t>단단물약 - https://assetstore.unity.com/packages/2d/gui/icons/2d-pixel-item-asset-pack-99645#content | JarPurple01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력물약 - https://assetstore.unity.com/packages/2d/gui/icons/2d-pixel-item-asset-pack-99645#content | PotionRed00</x:t>
   </x:si>
   <x:si>
     <x:t>**용어정리**
@@ -643,41 +571,34 @@
   만약 무기를 딱 하나를 착용했다면 그 무기로 공격하면 한 번의 공격 사이클이 돌고, 두 개를 착용했다면 두 개의 무기가 공격을 다 끝냈다면 한 번의 공격 사이클이 돈 것이다.</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">
-상시 특성
-: 무기 교체를 할 때마다 적용되는 상시 효과를 가지는 특성. 
-일시 특성
-: 메인공격을 할 때마다 적용되는 일시 효과를 가지는 특성. 효과가 첫번째 공격에 적용됬다면 첫번째 공격이 끝난 뒤에 효과가 사라진다.
-버프 특성
-: 특정 조건을 만족하면 버프가 발생하고 제한시간이 끝나면 버프가 사라지는 특성.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2~6레벨 | 360 + 120+ 300 = 15x | x = 52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 상태 이상에 걸려있는 경우, 세 번째 공격의 공격력이 60% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투사체속도
-모든 투사체 무기는 10m/s의 투사체 속도를 가진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2, 4, 6 스테이지면 보스가 등장하고 다음 스테이지로 가는 방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화할 때마다 스탯 포인트를 제공해 원하는 스탯을 올릴 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 소모품을 사용하거나, 특정 조건을 만족하면 보상을 제공하는 방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫 번째 무기가 총일 때, 첫 번째 공격이 적을 '정지'상태로 만든다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세 개의 무기가 모두 다른 태그라면 각 무기의 공격속도가 0.2초 감소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여기서 드랍되는 무기는 스탯의 최소 최대가 무기맵의 무기보다 더 낮다.</x:t>
+    <x:t>근접, 원거리 무기 공격력 각각 5% 증가 / 현재 이동속도의 N%를 공격력에 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나의 무기가 일반맵에서 드랍되는 것보다 최소치 최대치가 더 좋은 상태로 나오는 방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터는 좌우로 움직일 수 있다. 이때, 움직이는 속도는 이동속도의 영향을 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 번째 무기가 베기 태그를 가진 무기일 때, 적에게 '느릿한' 상태를 부여한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 ~ 15레벨 | 2326 + 775 = 650*4 + 10x | x = 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테이지 구성은 아이작처럼 맵을 무작위 방식으로 배치한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스탯 증가, 초기 자원 증가 / 특성을 여러번 찍을 수 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 조건일시 기능 추가나 스탯 강화  /  깡 스탯 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반드랍의 경우와 희귀드랍의 경우에 무기 가중치가 다르다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라이트(L) : 대체로 공격력이 낮고, 공격속도가 빠르다.</x:t>
   </x:si>
   <x:si>
     <x:t>스택은 1스택씩 차례대로 사라진다. 유지시간이 끝나기 전에 칼 태그가 붙은 무기로 공격에 성공하면 시간이 갱신된다.</x:t>
@@ -689,351 +610,39 @@
     <x:t>무기의 총 스탯 포인트는 100 / 아래는 tag1의 각 태그마다 기준이 되는 스탯 분배(*실제로 적용되는 거 아님)</x:t>
   </x:si>
   <x:si>
-    <x:t>단검 / 레이피어 / 할버드 | https://assetstore.unity.com/?free=true&amp;q=weapon&amp;orderBy=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">공격력
-공격력은 분배된 포인트가 0일
-때 0. (기본값)
-1포인트당 (가중치)씩 높아짐.
-공격력에 상한 없음
-최소치 10 / 최대치 X
+    <x:t>일반 드랍
+: 적을 처치해서 무기가 드랍되는 경우
+희귀 드랍
+: 보물 상자 또는 무기맵에서 무기가 드랍되는 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 만약 원소 소모품을 쓰고 또 다른 원소 소모품을 쓰면 마지막으로 쓴 원소 소모품의 속성이 무기에 적용된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>베기에서 궤적의 반지름을, 찌르기에서 가로 선분의 길이를, 투사체에서 투사체가 갈 수 있는 최대 거리를 의미</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">공격횟수
+공격횟수는 분배된 포인트가 0일 때 0회 공격.
+(가중치)포인트당 1회 늘어남.
+공격횟수에 상한 없음.
+공격횟수가 0이면 바로 다음 무기로 넘어감.
+최소치 0 / 최대치 X
 </x:t>
   </x:si>
   <x:si>
     <x:t>슬러그 샷건 / 데린저 / 저격소총  |  https://assetstore.unity.com/packages/3d/props/weapons/3d-guns-guns-pack-228975</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">미끼 - https://assetstore.unity.com/packages/3d/characters/humanoids/puppet-kid-free-demo-230773#content </x:t>
+  </x:si>
+  <x:si>
+    <x:t>손상 폭탄 - https://assetstore.unity.com/packages/2d/gui/icons/potions-kit-196598#content | Blood Potions</x:t>
   </x:si>
   <x:si>
     <x:t>여기 상태이상에 적혀있는 수치는 디폴트 값이다.
 만약 상태이상을 거는 특성이나 소모품이 있을 때, 거기에 상태이상 관련 수치가
 있다면 디폴트가 아닌 거기에 적혀있는 수치를 따르면 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">미끼 - https://assetstore.unity.com/packages/3d/characters/humanoids/puppet-kid-free-demo-230773#content </x:t>
-  </x:si>
-  <x:si>
-    <x:t>손상 폭탄 - https://assetstore.unity.com/packages/2d/gui/icons/potions-kit-196598#content | Blood Potions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소모품의 최대 소지 개수는 3개(종류 상관없이). 소모품은 R키로 사용할 수 있으며 &lt;-, -&gt;로 소모품을 바꿀 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">수류탄 - https://assetstore.unity.com/packages/3d/fps-grenade-model-textures-63667#content </x:t>
-  </x:si>
-  <x:si>
-    <x:t>해병 | https://assetstore.unity.com/packages/3d/characters/robots/robot-soldier-142438#content (가능) / https://assetstore.unity.com/packages/3d/characters/robots/robot-hero-pbr-hp-polyart-106154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법사 | https://assetstore.unity.com/packages/2d/characters/cute-2d-girl-wizard-155796 (가능) / https://assetstore.unity.com/packages/3d/characters/humanoids/fantasy/battle-wizard-poly-art-128097</x:t>
-  </x:si>
-  <x:si>
-    <x:t>궁수 | https://assetstore.unity.com/packages/3d/characters/newbie-friends-208112 (가운데 철모쓴애) (가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카타르 | https://assetstore.unity.com/packages/3d/props/weapons/ultimate-weapons-pack-lite-94668</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stop! / 멈춰!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 무기 스탯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sword / 검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fist / 주먹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>slow / 느릿한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>attack/공격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌진 / rush</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반맵 : 8~10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bait / 미끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 공통 스탯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gambler/도박꾼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spear / 창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>찌르기/sting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 공통 스탯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Left click</x:t>
-  </x:si>
-  <x:si>
-    <x:t>magic /마법</x:t>
-  </x:si>
-  <x:si>
-    <x:t>warrior/전사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>break / 손상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>katar / 카타르</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 맵 구성 방식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>knight/기사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>axe / 도끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dagger / 단검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접 / 원거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난도질 / hack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>range/사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 레벨 표</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">보스맵 : 1 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>archer/궁수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>marine/해병</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stop / 정지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>poison / 독</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 투사체속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강타 / smash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>석궁 | https://assetstore.unity.com/packages/3d/props/weapons/stylized-crossbow-243342</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 / 계정
-- 캐릭터 레벨 및 캐릭터 특성
-- 계정 레벨 및 계정 특성
-- 캐릭터 공통 스탯
-- 캐릭터 종류
-- 캐릭터 무브셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터의 움직이는 속도를 결정한다. / 최초 스탯 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤비(H) : 대체로 공격력이 높고 공격속도가 느리다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약자 멸시 / 
-contempt for the Weak</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터는 근처에 있는 다른 객체와 상호작용할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적에게 받는 데미지를 경감시킨다. / 최초 스탯 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1, 3, 5 스테이지면 그냥 다음 스테이지로 가는 방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가중치는 드랍시 가능한 가중치에서 랜덤으로 결정된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력+4 , 이동속도+2.5, 방어력+10, 체력+10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보물상자에서는 확률에 따라 돈 또는 무기가 드랍된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투사체를 날려 투사체에 맞은 적이 데미지를 입는 무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더이상 안 쓰는 무기는 갈아서 다른 무기를 강화하게 함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기사 | https://assetstore.unity.com/packages/3d/characters/animals/dog-knight-pbr-polyart-135227(가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">도박사 | https://assetstore.unity.com/packages/3d/characters/creatures/low-pol-skeleton-188865 (가능) / </x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력
-기본, 최소 가중치 1
-최대 가중치 2
-일반 드랍의 가능한 가중치
-1 1.1 1.2 1.3 1.4 1.5
-희귀 드랍의 가능한 가중치
-1.5 1.6 1.7 1.8 1.9 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력물약 - https://assetstore.unity.com/packages/2d/gui/icons/2d-pixel-item-asset-pack-99645#content | PotionRed00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근/원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소모품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>찌르기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방어력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주먹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부활</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레벨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지역만</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투사체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가중치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>활</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상점맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보스맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>e</x:t>
-  </x:si>
-  <x:si>
-    <x:t>베기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ㅁ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근접</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기믹맵</x:t>
   </x:si>
   <x:si>
     <x:t>근접 사거리
@@ -1046,6 +655,9 @@
 0.05 0.075 0.1</x:t>
   </x:si>
   <x:si>
+    <x:t>성 원소 - https://assetstore.unity.com/packages/2d/gui/icons/potions-kit-196598#content | Brawl Potions</x:t>
+  </x:si>
+  <x:si>
     <x:t>암흑 원소 - https://assetstore.unity.com/packages/2d/gui/icons/potions-kit-196598#content | Demon Potions</x:t>
   </x:si>
   <x:si>
@@ -1059,232 +671,620 @@
 0.1 0.125 0.15</x:t>
   </x:si>
   <x:si>
-    <x:t>성 원소 - https://assetstore.unity.com/packages/2d/gui/icons/potions-kit-196598#content | Brawl Potions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>assassin/암살자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>crossbow / 석궁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테이지의 가장 첫 맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>battering / 난타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>longbow / 롱보우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4스테이지 =&gt; 600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>panacea / 만병통치약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 레벨 및 캐릭터 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>halberd / 할버드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grenade/ 수류탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>consumable/소모품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2스테이지 =&gt; 300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>즉시 모든 상태이상을 푼다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계정 레벨 및 계정 특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>magician/마법사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>호크아이 / hawkeye</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rapier / 레이피어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 맵 클리어 보상 방식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투사체/projectile</x:t>
-  </x:si>
-  <x:si>
-    <x:t>derringer / 데린저</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shortbow / 숏보우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hatchet / 손 도끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특성을 찍지 않는 레벨일 때는 스탯이 오른다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>just hand / 맨주먹 (default)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30초간 캐릭터의 방어력을 50% 상승시킨다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B / 공격력, 공격속도, 공격횟수, 사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특성 선택은 3개의 선택지를 주고 하나를 고른다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법 태그가 달린 무기는 공격속도가 0.1초 감소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>H / 공격력, 공격속도, 공격횟수, 사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L / 공격력, 공격속도, 공격횟수, 사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">스택은 1초마다 1스택씩 차례대로 사라진다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>한 맵에서 캐릭터의 속도를 50% 상승시킨다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부활 횟수를 1회 늘린다. (특정 레벨 이상)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대시 후 2초 동안 공격속도가 0.15초 감소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>darkness element / 암흑 원소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밸런스(B) : 대체로 모든 수치에서 평균이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웨폰 마스터 / weapon master</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4초간 적의 방어력을 30% 감소시킨다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>defensivePower(DP)/방어력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>attackSpeed(AS)/공격속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한 맵에서 무기의 속성을 불로 바꾼다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>two handed sword / 양손검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기를 갈면 하나의 무기 조각을 제공한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>movementSpeed(MS)/이동속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한 맵에서 무기의 속성을 성으로 바꾼다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격횟수에 분배된 포인트/실제 공격횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나의 무기로 얼마나 공격할지 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력에 분배된 포인트 / 실제 공격력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한 맵에서 무기의 속성을 물로 바꾼다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>buddha's hand / 여래신장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼보필살 /
-Sam Bo Fil Sal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지역에서는 공격이 가능한 최대 거리를 의미</x:t>
-  </x:si>
-  <x:si>
-    <x:t>flypaper bomb/ 끈끈이 폭탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 공격력+4 , 방어력+10, 체력+10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>projectileSpeed/투사체속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스택은 0.5초마다 하나씩 사라진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한 맵에서 무기의 속성을 암흑으로 바꾼다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사거리에 분배된 포인트 / 실제 사거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공포탄 / blanck ammunition</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵을 클리어하면 보물상자가 드랍된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4초간 적의 이동속도를 30% 감소시킨다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도에 분배된 포인트/실제 공격속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재화를 주고 소모품을 구매할 수 있는 방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>slug shotgun / 슬러그 샷건</x:t>
-  </x:si>
-  <x:si>
-    <x:t>magic missile / 매직미사일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>solid potion / 단단 물약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>water element / 물 원소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5스테이지 =&gt; 2326 ~ 4652</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3스테이지 =&gt; 1451 ~ 2902</x:t>
-  </x:si>
-  <x:si>
-    <x:t>speed potion / 속도 물약</x:t>
+    <x:t>카타르 | https://assetstore.unity.com/packages/3d/props/weapons/ultimate-weapons-pack-lite-94668</x:t>
+  </x:si>
+  <x:si>
+    <x:t>궁수 | https://assetstore.unity.com/packages/3d/characters/newbie-friends-208112 (가운데 철모쓴애) (가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">공격력
+공격력은 분배된 포인트가 0일
+때 0.
+1포인트당 (가중치)씩 높아짐.
+공격력에 상한 없음
+최소치 10 / 최대치 X
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소모품의 최대 소지 개수는 3개(종류 상관없이). 소모품은 R키로 사용할 수 있으며 &lt;-, -&gt;로 소모품을 바꿀 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">목차
+- 0. 게임 전투 템포
+- 1. 맵 클리어 보상 방식
+- 2. 맵 구성 방식
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단검 / 레이피어 / 할버드 | https://assetstore.unity.com/?free=true&amp;q=weapon&amp;orderBy=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해병 | https://assetstore.unity.com/packages/3d/characters/robots/robot-soldier-142438#content (가능) / https://assetstore.unity.com/packages/3d/characters/robots/robot-hero-pbr-hp-polyart-106154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법사 | https://assetstore.unity.com/packages/2d/characters/cute-2d-girl-wizard-155796 (가능) / https://assetstore.unity.com/packages/3d/characters/humanoids/fantasy/battle-wizard-poly-art-128097</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dash/대시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 공격범위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 소모품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테이지 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격범위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소모품 에셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(미정)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상호작용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레벨업 보상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jump/점프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특성 제공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기믹맵 : 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기에셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>베기/cut</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태이상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 무브셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 스탯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요한 경험치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기맵 : 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>move/이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투사체속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bow / 활</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상점맵 : 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지역/zone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 포인트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투사체만</x:t>
+  </x:si>
+  <x:si>
+    <x:t>space</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일시 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>//////</x:t>
+  </x:si>
+  <x:si>
+    <x:t>effect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 일반맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tag1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2. 보스맵 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>상시 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에셋유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 포인트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에셋 유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">계정 레벨표 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터에셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 상점맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gun / 총</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60 포인트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tag0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동속도 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버프 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계정 특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>moveset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">무기맵 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tag2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shift</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방어력 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. 기믹맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 무기맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a, d, s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. 시작맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>텍스트로 대체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>드랍되는 돈의 양에 최소치와 최대치를 두어 그 사이의 양으로 드랍되게 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,6,9,12,15레벨에 특성 선택이 제공, 대신 스탯은 오르지 않는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마우스 커서가 가르키는 위치에 원 내부를 공격을 해 데미지를 입히는 무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ex - 물 원소를 쓰고 불 원소를 쓰면 무기의 속성은 불 속성으로 결정됨.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 번째 무기가 H 태그를 가진 무기일 때, 적에게 '손상'을 부여한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4초동안 초당 적의 최대 체력의 1%만큼 데미지를 준다. 최대 3중첩 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">무기
+- 1. 분류
+- 2. 무기 스탯
+- 3. 무기 
+- 4. 소모품
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵에 있는 모든 적에게 '정지'를 8초간 건다. / 보스는 걸리지 않는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>활 태그가 달린 무기로 공격에 성공하면, 다음 메인 공격의 공격력 40% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보스의 경우, 초당 최대 채력의 0.2%만큼 데미지를 준다. 나머지는 동일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기사 | https://assetstore.unity.com/packages/3d/characters/animals/dog-knight-pbr-polyart-135227(가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력
+기본, 최소 가중치 1
+최대 가중치 2
+일반 드랍의 가능한 가중치
+1 1.1 1.2 1.3 1.4 1.5
+희귀 드랍의 가능한 가중치
+1.5 1.6 1.7 1.8 1.9 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사거리
+사거리는 분배된 포인트가 0일 때, 0.1m(근접) / 4m(원거리)
+1포인트당 (가중치)씩 높아짐
+사거리는 20m를 넘길 수 없음
+최소치 0.1m / 최대치 20m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위 스탯표에서 실제 스탯은 기본 가중치로 계산해서 나온 값이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이 수치가 0이 되면 게임이 종료된다. / 최초 스탯 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2개의 스테이지를 끝내면 5레벨정도 오르게 경험치를 준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L 태그의 무기로 적을 공격하면, 적에게 '독' 상태를 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오로지 투사체 무기만 소유, 투사체가 날라가는 속도를 결정함.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터가 적에게 주는 데미지를 결정한다. / 최초 스탯 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">수류탄 - https://assetstore.unity.com/packages/3d/fps-grenade-model-textures-63667#content </x:t>
   </x:si>
   <x:si>
     <x:t>공격속도
-공격속도는 분배된 포인트가  0일 때 1.3초.(기본값)
+공격속도는 분배된 포인트가  0일 때 1.3초.
 1 포인트당 (가중치)씩 빨라짐.
 공격속도는 0.04초보다 빠를 수 없음.
 최소치 0.05 / 최대치 2</x:t>
   </x:si>
   <x:si>
-    <x:t>사거리
-사거리는 분배된 포인트가 0일 때, 0.1m(근접) / 4m(원거리)(기본값)
-1포인트당 (가중치)씩 높아짐
-사거리는 20m를 넘길 수 없음
-최소치 0.1m / 최대치 20m</x:t>
+    <x:t xml:space="preserve">도박사 | https://assetstore.unity.com/packages/3d/characters/creatures/low-pol-skeleton-188865 (가능) / </x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌진 / rush</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fist / 주먹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bait / 미끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반맵 : 8~10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sword / 검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gambler/도박꾼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>slow / 느릿한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>attack/공격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stop! / 멈춰!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 공통 스탯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 무기 스탯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>warrior/전사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>knight/기사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Left click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>찌르기/sting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>magic /마법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 공통 스탯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 레벨 표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>axe / 도끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spear / 창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>katar / 카타르</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dagger / 단검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>range/사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접 / 원거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>break / 손상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난도질 / hack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 맵 구성 방식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 투사체속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">보스맵 : 1 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>poison / 독</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stop / 정지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>archer/궁수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>marine/해병</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강타 / smash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특성을 찍지 않는 레벨일 때는 스탯이 오른다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대시 후 2초 동안 공격속도가 0.15초 감소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>just hand / 맨주먹 (default)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부활 횟수를 1회 늘린다. (특정 레벨 이상)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30초간 캐릭터의 방어력을 50% 상승시킨다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B / 공격력, 공격속도, 공격횟수, 사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특성 선택은 3개의 선택지를 주고 하나를 고른다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">캐릭터는 점프를 해, 위로 움직일 수 있다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 맵에서 캐릭터의 속도를 50% 상승시킨다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법 태그가 달린 무기는 공격속도가 0.1초 감소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L / 공격력, 공격속도, 공격횟수, 사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H / 공격력, 공격속도, 공격횟수, 사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밸런스(B) : 대체로 모든 수치에서 평균이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">스택은 1초마다 1스택씩 차례대로 사라진다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>darkness element / 암흑 원소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터의 움직이는 속도를 결정한다. / 최초 스탯 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보물상자에서는 확률에 따라 돈 또는 무기가 드랍된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약자 멸시 / 
+contempt for the Weak</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1, 3, 5 스테이지면 그냥 다음 스테이지로 가는 방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투사체를 날려 투사체에 맞은 적이 데미지를 입는 무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터는 근처에 있는 다른 객체와 상호작용할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤비(H) : 대체로 공격력이 높고 공격속도가 느리다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더이상 안 쓰는 무기는 갈아서 다른 무기를 강화하게 함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적에게 받는 데미지를 경감시킨다. / 최초 스탯 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력+4 , 이동속도+2.5, 방어력+10, 체력+10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가중치는 드랍시 가능한 가중치에서 랜덤으로 결정된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기를 갈면 하나의 무기 조각을 제공한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스택은 0.5초마다 하나씩 사라진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 맵에서 무기의 속성을 암흑으로 바꾼다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buddha's hand / 여래신장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>two handed sword / 양손검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격횟수에 분배된 포인트/실제 공격횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나의 무기로 얼마나 공격할지 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 맵에서 무기의 속성을 불로 바꾼다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>movementSpeed(MS)/이동속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>projectileSpeed/투사체속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4초간 적의 이동속도를 30% 감소시킨다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵을 클리어하면 보물상자가 드랍된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사거리에 분배된 포인트 / 실제 사거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도에 분배된 포인트/실제 공격속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 맵에서 무기의 속성을 물로 바꾼다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공포탄 / blanck ammunition</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재화를 주고 소모품을 구매할 수 있는 방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼보필살 /
+Sam Bo Fil Sal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>slug shotgun / 슬러그 샷건</x:t>
+  </x:si>
+  <x:si>
+    <x:t>magic missile / 매직미사일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웨폰 마스터 / weapon master</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력에 분배된 포인트 / 실제 공격력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4초간 적의 방어력을 30% 감소시킨다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>defensivePower(DP)/방어력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지역에서는 공격이 가능한 최대 거리를 의미</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 공격력+4 , 방어력+10, 체력+10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>attackSpeed(AS)/공격속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 맵에서 무기의 속성을 성으로 바꾼다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>flypaper bomb/ 끈끈이 폭탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>solid potion / 단단 물약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>speed potion / 속도 물약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>water element / 물 원소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3스테이지 =&gt; 1451 ~ 2902</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5스테이지 =&gt; 2326 ~ 4652</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1728,7 +1728,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="87">
+  <x:cellXfs count="84">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2501,45 +2501,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3251,17 +3212,17 @@
   <x:sheetData>
     <x:row r="2" spans="2:2">
       <x:c r="B2" s="15" t="s">
-        <x:v>282</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:2">
       <x:c r="B3" s="15" t="s">
-        <x:v>303</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:17">
       <x:c r="B5" s="57" t="s">
-        <x:v>184</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C5" s="58"/>
       <x:c r="D5" s="58"/>
@@ -3549,7 +3510,7 @@
     </x:row>
     <x:row r="21" spans="2:16">
       <x:c r="B21" s="59" t="s">
-        <x:v>51</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C21" s="47"/>
       <x:c r="D21" s="47"/>
@@ -3637,7 +3598,7 @@
     </x:row>
     <x:row r="26" spans="2:16" s="16" customFormat="1">
       <x:c r="B26" s="59" t="s">
-        <x:v>185</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C26" s="60"/>
       <x:c r="D26" s="60"/>
@@ -3789,8 +3750,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A2:AC139"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="S46" activeCellId="0" sqref="S46:U54"/>
+    <x:sheetView topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B111" activeCellId="0" sqref="B98:E111"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -3802,7 +3763,7 @@
   <x:sheetData>
     <x:row r="2" spans="2:6">
       <x:c r="B2" s="57" t="s">
-        <x:v>180</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C2" s="57"/>
       <x:c r="D2" s="57"/>
@@ -3846,14 +3807,14 @@
     </x:row>
     <x:row r="8" spans="2:6">
       <x:c r="B8" s="55" t="s">
-        <x:v>103</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C8" s="55"/>
       <x:c r="F8" s="11"/>
     </x:row>
     <x:row r="9" spans="2:19" ht="17.149999999999999">
       <x:c r="B9" s="54" t="s">
-        <x:v>233</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C9" s="54"/>
       <x:c r="D9" s="18"/>
@@ -3861,10 +3822,10 @@
       <x:c r="F9" s="18"/>
       <x:c r="G9" s="23"/>
       <x:c r="H9" s="25" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I9" s="61" t="s">
-        <x:v>171</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J9" s="62"/>
       <x:c r="K9" s="62"/>
@@ -3879,22 +3840,22 @@
     </x:row>
     <x:row r="10" spans="2:19" ht="17.149999999999999" customHeight="1">
       <x:c r="B10" s="48" t="s">
-        <x:v>302</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C10" s="50"/>
       <x:c r="D10" s="19" t="s">
-        <x:v>96</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E10" s="56" t="s">
-        <x:v>222</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="F10" s="64"/>
       <x:c r="G10" s="36"/>
       <x:c r="H10" s="25" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I10" s="61" t="s">
-        <x:v>77</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J10" s="62"/>
       <x:c r="K10" s="62"/>
@@ -3909,22 +3870,22 @@
     </x:row>
     <x:row r="11" spans="2:19" ht="16.75" customHeight="1">
       <x:c r="B11" s="48" t="s">
-        <x:v>280</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C11" s="50"/>
       <x:c r="D11" s="48" t="s">
-        <x:v>329</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E11" s="50"/>
       <x:c r="F11" s="24" t="s">
-        <x:v>120</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="G11" s="20"/>
       <x:c r="H11" s="25" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I11" s="61" t="s">
-        <x:v>255</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="J11" s="62"/>
       <x:c r="K11" s="62"/>
@@ -3940,10 +3901,10 @@
     <x:row r="12" spans="6:19" ht="17.149999999999999">
       <x:c r="F12" s="7"/>
       <x:c r="H12" s="25" t="s">
-        <x:v>267</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I12" s="61" t="s">
-        <x:v>173</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="J12" s="62"/>
       <x:c r="K12" s="62"/>
@@ -3958,13 +3919,13 @@
     </x:row>
     <x:row r="13" spans="2:3">
       <x:c r="B13" s="47" t="s">
-        <x:v>211</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C13" s="47"/>
     </x:row>
     <x:row r="14" spans="2:6">
       <x:c r="B14" s="47" t="s">
-        <x:v>219</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="C14" s="47"/>
       <x:c r="D14" s="47"/>
@@ -3973,16 +3934,16 @@
     </x:row>
     <x:row r="15" spans="2:8">
       <x:c r="B15" s="21" t="s">
-        <x:v>299</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C15" s="47" t="s">
-        <x:v>156</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D15" s="47"/>
       <x:c r="E15" s="47"/>
       <x:c r="F15" s="47"/>
       <x:c r="G15" s="21" t="s">
-        <x:v>132</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="H15" s="21"/>
     </x:row>
@@ -3991,20 +3952,20 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C16" s="54" t="s">
-        <x:v>79</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D16" s="54"/>
       <x:c r="E16" s="54"/>
       <x:c r="F16" s="54"/>
       <x:c r="G16" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H16" s="22"/>
       <x:c r="I16" s="25" t="s">
-        <x:v>265</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="J16" s="61" t="s">
-        <x:v>61</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="K16" s="62"/>
       <x:c r="L16" s="62"/>
@@ -4021,20 +3982,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C17" s="48" t="s">
-        <x:v>350</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="D17" s="49"/>
       <x:c r="E17" s="49"/>
       <x:c r="F17" s="50"/>
       <x:c r="G17" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H17" s="22"/>
       <x:c r="I17" s="25" t="s">
-        <x:v>130</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="J17" s="61" t="s">
-        <x:v>44</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K17" s="62"/>
       <x:c r="L17" s="62"/>
@@ -4051,20 +4012,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C18" s="48" t="s">
-        <x:v>85</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D18" s="49"/>
       <x:c r="E18" s="49"/>
       <x:c r="F18" s="50"/>
       <x:c r="G18" s="19" t="s">
-        <x:v>299</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H18" s="22"/>
       <x:c r="I18" s="25" t="s">
-        <x:v>155</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="J18" s="61" t="s">
-        <x:v>357</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="K18" s="62"/>
       <x:c r="L18" s="62"/>
@@ -4081,20 +4042,20 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C19" s="48" t="s">
-        <x:v>235</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="D19" s="49"/>
       <x:c r="E19" s="49"/>
       <x:c r="F19" s="50"/>
       <x:c r="G19" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H19" s="22"/>
       <x:c r="I19" s="25" t="s">
-        <x:v>300</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="J19" s="33" t="s">
-        <x:v>1</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="K19" s="34"/>
       <x:c r="L19" s="34"/>
@@ -4116,7 +4077,7 @@
       <x:c r="G20" s="16"/>
       <x:c r="H20" s="20"/>
       <x:c r="J20" s="65" t="s">
-        <x:v>362</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="K20" s="66"/>
       <x:c r="L20" s="66"/>
@@ -4131,22 +4092,22 @@
     </x:row>
     <x:row r="21" spans="2:19" ht="16.75" customHeight="1">
       <x:c r="B21" s="21" t="s">
-        <x:v>278</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C21" s="47" t="s">
-        <x:v>74</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D21" s="47"/>
       <x:c r="E21" s="47"/>
       <x:c r="F21" s="47"/>
       <x:c r="G21" s="21" t="s">
-        <x:v>108</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I21" s="24" t="s">
-        <x:v>93</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="J21" s="54" t="s">
-        <x:v>46</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="K21" s="54"/>
       <x:c r="L21" s="54"/>
@@ -4160,22 +4121,22 @@
     </x:row>
     <x:row r="22" spans="2:19" s="10" customFormat="1">
       <x:c r="B22" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C22" s="47" t="s">
-        <x:v>365</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="D22" s="47"/>
       <x:c r="E22" s="47"/>
       <x:c r="F22" s="47"/>
       <x:c r="G22" s="21" t="s">
-        <x:v>108</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I22" s="24" t="s">
-        <x:v>126</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="J22" s="54" t="s">
-        <x:v>26</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="K22" s="54"/>
       <x:c r="L22" s="54"/>
@@ -4190,36 +4151,36 @@
     <x:row r="23" s="10" customFormat="1"/>
     <x:row r="24" spans="2:6">
       <x:c r="B24" s="47" t="s">
-        <x:v>143</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C24" s="47"/>
       <x:c r="D24" s="55" t="s">
-        <x:v>86</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E24" s="55"/>
       <x:c r="F24" s="55"/>
     </x:row>
     <x:row r="25" spans="2:22" ht="17.149999999999999" customHeight="1">
       <x:c r="B25" s="19" t="s">
-        <x:v>299</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C25" s="54" t="s">
-        <x:v>115</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D25" s="54"/>
       <x:c r="E25" s="54"/>
       <x:c r="F25" s="27" t="s">
-        <x:v>159</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="G25" s="28" t="s">
-        <x:v>128</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="H25" s="24" t="s">
-        <x:v>145</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="I25" s="16"/>
       <x:c r="J25" s="47" t="s">
-        <x:v>128</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="K25" s="47"/>
       <x:c r="L25" s="16"/>
@@ -4229,7 +4190,7 @@
       <x:c r="P25" s="20"/>
       <x:c r="Q25" s="20"/>
       <x:c r="U25" s="55" t="s">
-        <x:v>159</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="V25" s="55"/>
     </x:row>
@@ -4238,22 +4199,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C26" s="54" t="s">
-        <x:v>232</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="D26" s="54"/>
       <x:c r="E26" s="54"/>
       <x:c r="F26" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G26" s="29" t="s">
-        <x:v>268</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H26" s="24" t="s">
-        <x:v>273</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I26" s="16"/>
       <x:c r="J26" s="54" t="s">
-        <x:v>247</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="K26" s="54"/>
       <x:c r="L26" s="54"/>
@@ -4265,7 +4226,7 @@
       <x:c r="R26" s="54"/>
       <x:c r="S26" s="54"/>
       <x:c r="U26" s="54" t="s">
-        <x:v>233</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="V26" s="54"/>
       <x:c r="W26" s="18"/>
@@ -4277,22 +4238,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C27" s="54" t="s">
-        <x:v>60</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D27" s="54"/>
       <x:c r="E27" s="54"/>
       <x:c r="F27" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G27" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H27" s="24" t="s">
-        <x:v>273</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I27" s="16"/>
       <x:c r="J27" s="54" t="s">
-        <x:v>27</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="K27" s="54"/>
       <x:c r="L27" s="54"/>
@@ -4304,14 +4265,14 @@
       <x:c r="R27" s="54"/>
       <x:c r="S27" s="54"/>
       <x:c r="U27" s="48" t="s">
-        <x:v>302</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="V27" s="50"/>
       <x:c r="W27" s="19" t="s">
-        <x:v>96</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="X27" s="56" t="s">
-        <x:v>222</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="Y27" s="64"/>
     </x:row>
@@ -4320,22 +4281,22 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C28" s="54" t="s">
-        <x:v>332</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D28" s="54"/>
       <x:c r="E28" s="54"/>
       <x:c r="F28" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G28" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H28" s="24" t="s">
-        <x:v>276</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I28" s="16"/>
       <x:c r="J28" s="54" t="s">
-        <x:v>346</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="K28" s="54"/>
       <x:c r="L28" s="54"/>
@@ -4347,15 +4308,15 @@
       <x:c r="R28" s="54"/>
       <x:c r="S28" s="54"/>
       <x:c r="U28" s="48" t="s">
-        <x:v>280</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="V28" s="50"/>
       <x:c r="W28" s="48" t="s">
-        <x:v>329</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="X28" s="50"/>
       <x:c r="Y28" s="24" t="s">
-        <x:v>120</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:19" ht="17.149999999999999" customHeight="1">
@@ -4363,18 +4324,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C29" s="54" t="s">
-        <x:v>90</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D29" s="54"/>
       <x:c r="E29" s="54"/>
       <x:c r="F29" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G29" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H29" s="24" t="s">
-        <x:v>276</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I29" s="16"/>
       <x:c r="J29" s="32"/>
@@ -4393,34 +4354,34 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C30" s="54" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="D30" s="54"/>
       <x:c r="E30" s="54"/>
       <x:c r="F30" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G30" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H30" s="24" t="s">
-        <x:v>273</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I30" s="16"/>
       <x:c r="J30" s="47" t="s">
-        <x:v>145</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="K30" s="47"/>
       <x:c r="L30" s="16"/>
       <x:c r="M30" s="16"/>
       <x:c r="N30" s="16"/>
       <x:c r="O30" s="47" t="s">
-        <x:v>100</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="P30" s="47"/>
       <x:c r="Q30" s="47"/>
       <x:c r="R30" s="47" t="s">
-        <x:v>256</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="S30" s="47"/>
       <x:c r="T30" s="47"/>
@@ -4433,27 +4394,27 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C31" s="54" t="s">
-        <x:v>221</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="D31" s="54"/>
       <x:c r="E31" s="54"/>
       <x:c r="F31" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G31" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H31" s="19" t="s">
-        <x:v>270</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J31" s="47" t="s">
-        <x:v>212</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="K31" s="47"/>
       <x:c r="L31" s="47"/>
       <x:c r="M31" s="47"/>
       <x:c r="O31" s="47" t="s">
-        <x:v>353</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="P31" s="47"/>
       <x:c r="Q31" s="47"/>
@@ -4469,27 +4430,27 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C32" s="54" t="s">
-        <x:v>228</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="D32" s="54"/>
       <x:c r="E32" s="54"/>
       <x:c r="F32" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G32" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H32" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J32" s="47" t="s">
-        <x:v>231</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="K32" s="47"/>
       <x:c r="L32" s="47"/>
       <x:c r="M32" s="47"/>
       <x:c r="O32" s="47" t="s">
-        <x:v>45</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P32" s="47"/>
       <x:c r="Q32" s="47"/>
@@ -4505,27 +4466,27 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C33" s="54" t="s">
-        <x:v>314</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D33" s="54"/>
       <x:c r="E33" s="54"/>
       <x:c r="F33" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G33" s="29" t="s">
-        <x:v>268</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H33" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J33" s="47" t="s">
-        <x:v>221</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="K33" s="47"/>
       <x:c r="L33" s="47"/>
       <x:c r="M33" s="47"/>
       <x:c r="O33" s="47" t="s">
-        <x:v>190</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P33" s="47"/>
       <x:c r="Q33" s="47"/>
@@ -4541,31 +4502,31 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C34" s="54" t="s">
-        <x:v>327</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D34" s="54"/>
       <x:c r="E34" s="54"/>
       <x:c r="F34" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G34" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H34" s="19" t="s">
-        <x:v>273</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J34" s="47" t="s">
-        <x:v>213</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="K34" s="47"/>
       <x:c r="L34" s="47"/>
       <x:c r="M34" s="47"/>
       <x:c r="O34" s="54" t="s">
-        <x:v>264</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="P34" s="54"/>
       <x:c r="Q34" s="54" t="s">
-        <x:v>122</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="R34" s="54"/>
       <x:c r="S34" s="54"/>
@@ -4578,31 +4539,31 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="54" t="s">
-        <x:v>81</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D35" s="54"/>
       <x:c r="E35" s="54"/>
       <x:c r="F35" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G35" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H35" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J35" s="47" t="s">
-        <x:v>153</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="K35" s="47"/>
       <x:c r="L35" s="47"/>
       <x:c r="M35" s="47"/>
       <x:c r="O35" s="54" t="s">
-        <x:v>305</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P35" s="54"/>
       <x:c r="Q35" s="54" t="s">
-        <x:v>121</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="R35" s="54"/>
       <x:c r="S35" s="54"/>
@@ -4615,31 +4576,31 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C36" s="54" t="s">
-        <x:v>374</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="D36" s="54"/>
       <x:c r="E36" s="54"/>
       <x:c r="F36" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G36" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H36" s="19" t="s">
-        <x:v>271</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J36" s="47" t="s">
-        <x:v>131</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="K36" s="47"/>
       <x:c r="L36" s="47"/>
       <x:c r="M36" s="47"/>
       <x:c r="O36" s="54" t="s">
-        <x:v>274</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="P36" s="54"/>
       <x:c r="Q36" s="54" t="s">
-        <x:v>150</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="R36" s="54"/>
       <x:c r="S36" s="54"/>
@@ -4652,21 +4613,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C37" s="54" t="s">
-        <x:v>67</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D37" s="54"/>
       <x:c r="E37" s="54"/>
       <x:c r="F37" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G37" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H37" s="19" t="s">
-        <x:v>271</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J37" s="47" t="s">
-        <x:v>225</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="K37" s="47"/>
       <x:c r="L37" s="47"/>
@@ -4677,18 +4638,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C38" s="54" t="s">
-        <x:v>330</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D38" s="54"/>
       <x:c r="E38" s="54"/>
       <x:c r="F38" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G38" s="29" t="s">
-        <x:v>268</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H38" s="19" t="s">
-        <x:v>271</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="2:8" ht="17.149999999999999">
@@ -4696,18 +4657,18 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C39" s="54" t="s">
-        <x:v>331</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D39" s="54"/>
       <x:c r="E39" s="54"/>
       <x:c r="F39" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G39" s="29" t="s">
-        <x:v>268</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H39" s="19" t="s">
-        <x:v>286</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="2:12" ht="17.149999999999999" customHeight="1">
@@ -4715,21 +4676,21 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C40" s="54" t="s">
-        <x:v>71</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D40" s="54"/>
       <x:c r="E40" s="54"/>
       <x:c r="F40" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G40" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H40" s="19" t="s">
-        <x:v>281</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J40" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="K40" s="47"/>
       <x:c r="L40" s="47"/>
@@ -4739,21 +4700,21 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C41" s="54" t="s">
-        <x:v>375</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="D41" s="54"/>
       <x:c r="E41" s="54"/>
       <x:c r="F41" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G41" s="29" t="s">
-        <x:v>268</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H41" s="19" t="s">
-        <x:v>281</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J41" s="60" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K41" s="47"/>
       <x:c r="L41" s="47"/>
@@ -4773,18 +4734,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C42" s="54" t="s">
-        <x:v>315</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D42" s="54"/>
       <x:c r="E42" s="54"/>
       <x:c r="F42" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G42" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H42" s="19" t="s">
-        <x:v>286</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="J42" s="47"/>
       <x:c r="K42" s="47"/>
@@ -4805,21 +4766,21 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C43" s="54" t="s">
-        <x:v>312</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D43" s="54"/>
       <x:c r="E43" s="54"/>
       <x:c r="F43" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G43" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H43" s="19" t="s">
-        <x:v>286</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="J43" s="47" t="s">
-        <x:v>197</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="K43" s="47"/>
       <x:c r="L43" s="47"/>
@@ -4839,33 +4800,33 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C44" s="54" t="s">
-        <x:v>62</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D44" s="54"/>
       <x:c r="E44" s="54"/>
       <x:c r="F44" s="19" t="s">
-        <x:v>267</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G44" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H44" s="19" t="s">
-        <x:v>281</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J44" s="54" t="s">
-        <x:v>336</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="K44" s="54"/>
       <x:c r="L44" s="54"/>
       <x:c r="M44" s="54"/>
       <x:c r="N44" s="54" t="s">
-        <x:v>340</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="O44" s="54"/>
       <x:c r="P44" s="54"/>
       <x:c r="Q44" s="54"/>
       <x:c r="R44" s="54" t="s">
-        <x:v>339</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="S44" s="54"/>
       <x:c r="T44" s="54"/>
@@ -4877,18 +4838,18 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="54" t="s">
-        <x:v>360</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="D45" s="54"/>
       <x:c r="E45" s="54"/>
       <x:c r="F45" s="19" t="s">
-        <x:v>267</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G45" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H45" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J45" s="24">
         <x:v>25</x:v>
@@ -4933,46 +4894,46 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C46" s="54" t="s">
-        <x:v>319</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D46" s="54"/>
       <x:c r="E46" s="54"/>
       <x:c r="F46" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G46" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H46" s="19" t="s">
-        <x:v>270</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J46" s="67" t="s">
-        <x:v>199</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="K46" s="52"/>
       <x:c r="L46" s="52"/>
-      <x:c r="M46" s="85" t="s">
-        <x:v>381</x:v>
+      <x:c r="M46" s="67" t="s">
+        <x:v>287</x:v>
       </x:c>
       <x:c r="N46" s="67"/>
       <x:c r="O46" s="67"/>
-      <x:c r="P46" s="84" t="s">
-        <x:v>6</x:v>
+      <x:c r="P46" s="67" t="s">
+        <x:v>179</x:v>
       </x:c>
       <x:c r="Q46" s="67"/>
       <x:c r="R46" s="67"/>
-      <x:c r="S46" s="85" t="s">
-        <x:v>382</x:v>
+      <x:c r="S46" s="67" t="s">
+        <x:v>279</x:v>
       </x:c>
       <x:c r="T46" s="52"/>
       <x:c r="U46" s="52"/>
       <x:c r="V46" s="60" t="s">
-        <x:v>172</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="W46" s="47"/>
       <x:c r="X46" s="47"/>
       <x:c r="Y46" s="60" t="s">
-        <x:v>188</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="Z46" s="47"/>
       <x:c r="AA46" s="47"/>
@@ -5127,18 +5088,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C52" s="54" t="s">
-        <x:v>334</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="D52" s="54"/>
       <x:c r="E52" s="54"/>
       <x:c r="F52" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G52" s="30" t="s">
-        <x:v>268</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H52" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J52" s="47"/>
       <x:c r="K52" s="47"/>
@@ -5209,35 +5170,35 @@
       <x:c r="G55" s="8"/>
       <x:c r="H55" s="8"/>
       <x:c r="I55" s="54" t="s">
-        <x:v>358</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="J55" s="54"/>
       <x:c r="K55" s="54"/>
       <x:c r="L55" s="54"/>
       <x:c r="M55" s="54" t="s">
-        <x:v>372</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="N55" s="54"/>
       <x:c r="O55" s="54"/>
       <x:c r="P55" s="54"/>
       <x:c r="Q55" s="54" t="s">
-        <x:v>356</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="R55" s="54"/>
       <x:c r="S55" s="54"/>
       <x:c r="T55" s="54"/>
       <x:c r="U55" s="54" t="s">
-        <x:v>368</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="V55" s="54"/>
       <x:c r="W55" s="54"/>
       <x:c r="X55" s="54"/>
       <x:c r="Y55" s="54" t="s">
-        <x:v>113</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="Z55" s="54"/>
       <x:c r="AA55" s="54" t="s">
-        <x:v>242</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="AB55" s="54"/>
       <x:c r="AC55" s="7"/>
@@ -5247,18 +5208,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C56" s="54" t="s">
-        <x:v>232</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="D56" s="54"/>
       <x:c r="E56" s="54"/>
       <x:c r="F56" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G56" s="29" t="s">
-        <x:v>268</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H56" s="24" t="s">
-        <x:v>273</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I56" s="54">
         <x:v>10</x:v>
@@ -5307,18 +5268,18 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C57" s="54" t="s">
-        <x:v>60</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D57" s="54"/>
       <x:c r="E57" s="54"/>
       <x:c r="F57" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G57" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H57" s="24" t="s">
-        <x:v>273</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I57" s="54">
         <x:v>25</x:v>
@@ -5365,18 +5326,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C58" s="54" t="s">
-        <x:v>332</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D58" s="54"/>
       <x:c r="E58" s="54"/>
       <x:c r="F58" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G58" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H58" s="24" t="s">
-        <x:v>276</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I58" s="54">
         <x:v>35</x:v>
@@ -5420,18 +5381,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C59" s="54" t="s">
-        <x:v>90</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D59" s="54"/>
       <x:c r="E59" s="54"/>
       <x:c r="F59" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G59" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H59" s="24" t="s">
-        <x:v>276</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I59" s="54">
         <x:v>45</x:v>
@@ -5475,18 +5436,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C60" s="54" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="D60" s="54"/>
       <x:c r="E60" s="54"/>
       <x:c r="F60" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G60" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H60" s="24" t="s">
-        <x:v>273</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I60" s="54">
         <x:v>35</x:v>
@@ -5530,18 +5491,18 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C61" s="54" t="s">
-        <x:v>221</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="D61" s="54"/>
       <x:c r="E61" s="54"/>
       <x:c r="F61" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G61" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H61" s="19" t="s">
-        <x:v>270</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I61" s="54">
         <x:v>20</x:v>
@@ -5585,18 +5546,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C62" s="54" t="s">
-        <x:v>228</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="D62" s="54"/>
       <x:c r="E62" s="54"/>
       <x:c r="F62" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G62" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H62" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I62" s="54">
         <x:v>20</x:v>
@@ -5640,18 +5601,18 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C63" s="54" t="s">
-        <x:v>314</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D63" s="54"/>
       <x:c r="E63" s="54"/>
       <x:c r="F63" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G63" s="29" t="s">
-        <x:v>268</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H63" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I63" s="54">
         <x:v>5</x:v>
@@ -5695,18 +5656,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C64" s="54" t="s">
-        <x:v>327</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D64" s="54"/>
       <x:c r="E64" s="54"/>
       <x:c r="F64" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G64" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H64" s="19" t="s">
-        <x:v>273</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I64" s="54">
         <x:v>20</x:v>
@@ -5750,18 +5711,18 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="54" t="s">
-        <x:v>81</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D65" s="54"/>
       <x:c r="E65" s="54"/>
       <x:c r="F65" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G65" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H65" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I65" s="54">
         <x:v>70</x:v>
@@ -5809,18 +5770,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C66" s="54" t="s">
-        <x:v>374</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="D66" s="54"/>
       <x:c r="E66" s="54"/>
       <x:c r="F66" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G66" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H66" s="19" t="s">
-        <x:v>271</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I66" s="54">
         <x:v>50</x:v>
@@ -5870,18 +5831,18 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C67" s="54" t="s">
-        <x:v>67</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D67" s="54"/>
       <x:c r="E67" s="54"/>
       <x:c r="F67" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G67" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H67" s="19" t="s">
-        <x:v>271</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I67" s="54">
         <x:v>40</x:v>
@@ -5931,18 +5892,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C68" s="54" t="s">
-        <x:v>330</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D68" s="54"/>
       <x:c r="E68" s="54"/>
       <x:c r="F68" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G68" s="29" t="s">
-        <x:v>268</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H68" s="19" t="s">
-        <x:v>271</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I68" s="54">
         <x:v>10</x:v>
@@ -5990,18 +5951,18 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C69" s="54" t="s">
-        <x:v>331</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D69" s="54"/>
       <x:c r="E69" s="54"/>
       <x:c r="F69" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G69" s="29" t="s">
-        <x:v>268</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H69" s="19" t="s">
-        <x:v>286</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I69" s="54">
         <x:v>15</x:v>
@@ -6049,18 +6010,18 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C70" s="54" t="s">
-        <x:v>71</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D70" s="54"/>
       <x:c r="E70" s="54"/>
       <x:c r="F70" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G70" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H70" s="19" t="s">
-        <x:v>281</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I70" s="54">
         <x:v>35</x:v>
@@ -6108,18 +6069,18 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C71" s="54" t="s">
-        <x:v>375</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="D71" s="54"/>
       <x:c r="E71" s="54"/>
       <x:c r="F71" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G71" s="29" t="s">
-        <x:v>268</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H71" s="19" t="s">
-        <x:v>281</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I71" s="54">
         <x:v>20</x:v>
@@ -6167,18 +6128,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C72" s="54" t="s">
-        <x:v>315</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D72" s="54"/>
       <x:c r="E72" s="54"/>
       <x:c r="F72" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G72" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H72" s="19" t="s">
-        <x:v>286</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I72" s="54">
         <x:v>25</x:v>
@@ -6226,18 +6187,18 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C73" s="54" t="s">
-        <x:v>312</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D73" s="54"/>
       <x:c r="E73" s="54"/>
       <x:c r="F73" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G73" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H73" s="19" t="s">
-        <x:v>286</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I73" s="54">
         <x:v>40</x:v>
@@ -6287,18 +6248,18 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C74" s="54" t="s">
-        <x:v>62</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D74" s="54"/>
       <x:c r="E74" s="54"/>
       <x:c r="F74" s="19" t="s">
-        <x:v>267</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G74" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H74" s="19" t="s">
-        <x:v>281</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I74" s="54">
         <x:v>30</x:v>
@@ -6347,18 +6308,18 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C75" s="54" t="s">
-        <x:v>360</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="D75" s="54"/>
       <x:c r="E75" s="54"/>
       <x:c r="F75" s="19" t="s">
-        <x:v>267</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G75" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H75" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I75" s="54">
         <x:v>40</x:v>
@@ -6407,18 +6368,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C76" s="54" t="s">
-        <x:v>319</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D76" s="54"/>
       <x:c r="E76" s="54"/>
       <x:c r="F76" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G76" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H76" s="19" t="s">
-        <x:v>270</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I76" s="54">
         <x:v>35</x:v>
@@ -6600,18 +6561,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C82" s="54" t="s">
-        <x:v>334</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="D82" s="54"/>
       <x:c r="E82" s="54"/>
       <x:c r="F82" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G82" s="30" t="s">
-        <x:v>268</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H82" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I82" s="54">
         <x:v>5</x:v>
@@ -6675,12 +6636,12 @@
     <x:row r="84" spans="1:20" s="8" customFormat="1">
       <x:c r="A84" s="7"/>
       <x:c r="B84" s="54" t="s">
-        <x:v>285</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C84" s="54"/>
       <x:c r="D84" s="54"/>
       <x:c r="E84" s="54" t="s">
-        <x:v>29</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="F84" s="54"/>
       <x:c r="G84" s="54"/>
@@ -6689,7 +6650,7 @@
       <x:c r="J84" s="54"/>
       <x:c r="K84" s="54"/>
       <x:c r="L84" s="54" t="s">
-        <x:v>31</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="M84" s="54"/>
       <x:c r="N84" s="54"/>
@@ -6705,7 +6666,7 @@
       <x:c r="C85" s="43"/>
       <x:c r="D85" s="43"/>
       <x:c r="E85" s="48" t="s">
-        <x:v>252</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="F85" s="49"/>
       <x:c r="G85" s="49"/>
@@ -6722,27 +6683,27 @@
     </x:row>
     <x:row r="86" spans="2:17" s="7" customFormat="1">
       <x:c r="B86" s="69" t="s">
-        <x:v>259</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C86" s="67"/>
       <x:c r="D86" s="67"/>
       <x:c r="E86" s="69" t="s">
-        <x:v>39</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F86" s="52"/>
       <x:c r="G86" s="53"/>
       <x:c r="H86" s="67" t="s">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I86" s="52"/>
       <x:c r="J86" s="52"/>
       <x:c r="K86" s="69" t="s">
-        <x:v>307</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="L86" s="52"/>
       <x:c r="M86" s="53"/>
       <x:c r="N86" s="68" t="s">
-        <x:v>309</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="O86" s="54"/>
       <x:c r="P86" s="54"/>
@@ -6923,19 +6884,19 @@
     </x:row>
     <x:row r="97" spans="2:4">
       <x:c r="B97" s="47" t="s">
-        <x:v>102</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C97" s="47"/>
       <x:c r="D97" s="21" t="s">
-        <x:v>125</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="2:21">
       <x:c r="B98" s="19" t="s">
-        <x:v>299</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C98" s="48" t="s">
-        <x:v>115</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D98" s="49"/>
       <x:c r="E98" s="50"/>
@@ -6949,7 +6910,7 @@
       <x:c r="M98" s="39"/>
       <x:c r="N98" s="40"/>
       <x:c r="P98" s="47" t="s">
-        <x:v>99</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="Q98" s="47"/>
       <x:c r="R98" s="47"/>
@@ -6962,12 +6923,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C99" s="48" t="s">
-        <x:v>377</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="D99" s="49"/>
       <x:c r="E99" s="50"/>
       <x:c r="F99" s="48" t="s">
-        <x:v>359</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="G99" s="49"/>
       <x:c r="H99" s="49"/>
@@ -6978,14 +6939,14 @@
       <x:c r="M99" s="49"/>
       <x:c r="N99" s="50"/>
       <x:c r="P99" s="21" t="s">
-        <x:v>299</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="Q99" s="47" t="s">
-        <x:v>115</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="R99" s="47"/>
       <x:c r="S99" s="47" t="s">
-        <x:v>137</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="T99" s="47"/>
       <x:c r="U99" s="47"/>
@@ -7000,12 +6961,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C100" s="48" t="s">
-        <x:v>76</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D100" s="49"/>
       <x:c r="E100" s="50"/>
       <x:c r="F100" s="48" t="s">
-        <x:v>351</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="G100" s="49"/>
       <x:c r="H100" s="49"/>
@@ -7019,11 +6980,11 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q100" s="47" t="s">
-        <x:v>214</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="R100" s="47"/>
       <x:c r="S100" s="47" t="s">
-        <x:v>371</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="T100" s="47"/>
       <x:c r="U100" s="47"/>
@@ -7038,12 +6999,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C101" s="48" t="s">
-        <x:v>84</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D101" s="49"/>
       <x:c r="E101" s="50"/>
       <x:c r="F101" s="48" t="s">
-        <x:v>355</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="G101" s="49"/>
       <x:c r="H101" s="49"/>
@@ -7057,11 +7018,11 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="Q101" s="47" t="s">
-        <x:v>227</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="R101" s="47"/>
       <x:c r="S101" s="47" t="s">
-        <x:v>348</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="T101" s="47"/>
       <x:c r="U101" s="47"/>
@@ -7076,12 +7037,12 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C102" s="48" t="s">
-        <x:v>345</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="D102" s="49"/>
       <x:c r="E102" s="50"/>
       <x:c r="F102" s="48" t="s">
-        <x:v>367</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="G102" s="49"/>
       <x:c r="H102" s="49"/>
@@ -7095,11 +7056,11 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="Q102" s="47" t="s">
-        <x:v>240</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="R102" s="47"/>
       <x:c r="S102" s="47" t="s">
-        <x:v>68</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="T102" s="47"/>
       <x:c r="U102" s="47"/>
@@ -7114,12 +7075,12 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C103" s="48" t="s">
-        <x:v>317</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D103" s="49"/>
       <x:c r="E103" s="50"/>
       <x:c r="F103" s="48" t="s">
-        <x:v>323</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G103" s="49"/>
       <x:c r="H103" s="49"/>
@@ -7133,11 +7094,11 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="Q103" s="47" t="s">
-        <x:v>241</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="R103" s="47"/>
       <x:c r="S103" s="47" t="s">
-        <x:v>176</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="T103" s="47"/>
       <x:c r="U103" s="47"/>
@@ -7152,12 +7113,12 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C104" s="48" t="s">
-        <x:v>66</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D104" s="49"/>
       <x:c r="E104" s="50"/>
       <x:c r="F104" s="48" t="s">
-        <x:v>64</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G104" s="49"/>
       <x:c r="H104" s="49"/>
@@ -7171,7 +7132,7 @@
       <x:c r="Q104" s="47"/>
       <x:c r="R104" s="47"/>
       <x:c r="S104" s="47" t="s">
-        <x:v>177</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="T104" s="47"/>
       <x:c r="U104" s="47"/>
@@ -7186,12 +7147,12 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C105" s="48" t="s">
-        <x:v>320</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D105" s="49"/>
       <x:c r="E105" s="50"/>
       <x:c r="F105" s="48" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G105" s="49"/>
       <x:c r="H105" s="49"/>
@@ -7205,7 +7166,7 @@
       <x:c r="Q105" s="6"/>
       <x:c r="R105" s="6"/>
       <x:c r="S105" s="47" t="s">
-        <x:v>55</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="T105" s="47"/>
       <x:c r="U105" s="47"/>
@@ -7220,12 +7181,12 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C106" s="48" t="s">
-        <x:v>218</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D106" s="49"/>
       <x:c r="E106" s="50"/>
       <x:c r="F106" s="48" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G106" s="49"/>
       <x:c r="H106" s="49"/>
@@ -7241,12 +7202,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C107" s="48" t="s">
-        <x:v>376</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="D107" s="49"/>
       <x:c r="E107" s="50"/>
       <x:c r="F107" s="48" t="s">
-        <x:v>335</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="G107" s="49"/>
       <x:c r="H107" s="49"/>
@@ -7257,7 +7218,7 @@
       <x:c r="M107" s="49"/>
       <x:c r="N107" s="50"/>
       <x:c r="S107" s="60" t="s">
-        <x:v>201</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="T107" s="60"/>
       <x:c r="U107" s="60"/>
@@ -7272,12 +7233,12 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C108" s="48" t="s">
-        <x:v>380</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="D108" s="49"/>
       <x:c r="E108" s="50"/>
       <x:c r="F108" s="48" t="s">
-        <x:v>342</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="G108" s="49"/>
       <x:c r="H108" s="49"/>
@@ -7301,12 +7262,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C109" s="48" t="s">
-        <x:v>210</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="D109" s="49"/>
       <x:c r="E109" s="50"/>
       <x:c r="F109" s="48" t="s">
-        <x:v>178</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="G109" s="49"/>
       <x:c r="H109" s="49"/>
@@ -7330,12 +7291,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C110" s="48" t="s">
-        <x:v>363</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="D110" s="49"/>
       <x:c r="E110" s="50"/>
       <x:c r="F110" s="48" t="s">
-        <x:v>169</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G110" s="49"/>
       <x:c r="H110" s="49"/>
@@ -7351,12 +7312,12 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C111" s="48" t="s">
-        <x:v>75</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D111" s="49"/>
       <x:c r="E111" s="50"/>
       <x:c r="F111" s="48" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G111" s="49"/>
       <x:c r="H111" s="49"/>
@@ -7370,7 +7331,7 @@
     </x:row>
     <x:row r="112" spans="2:15">
       <x:c r="B112" s="52" t="s">
-        <x:v>52</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C112" s="52"/>
       <x:c r="D112" s="52"/>
@@ -7388,7 +7349,7 @@
     </x:row>
     <x:row r="113" spans="2:15">
       <x:c r="B113" s="47" t="s">
-        <x:v>174</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C113" s="47"/>
       <x:c r="D113" s="47"/>
@@ -7406,7 +7367,7 @@
     </x:row>
     <x:row r="114" spans="2:14">
       <x:c r="B114" s="47" t="s">
-        <x:v>204</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C114" s="47"/>
       <x:c r="D114" s="47"/>
@@ -8444,7 +8405,7 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:AM51"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="P36" activeCellId="0" sqref="P36:Q36"/>
     </x:sheetView>
   </x:sheetViews>
@@ -8452,13 +8413,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B1" s="47"/>
     </x:row>
     <x:row r="2" spans="1:39">
       <x:c r="A2" s="48" t="s">
-        <x:v>200</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B2" s="49"/>
       <x:c r="C2" s="49"/>
@@ -8501,7 +8462,7 @@
     </x:row>
     <x:row r="3" spans="1:21">
       <x:c r="A3" s="48" t="s">
-        <x:v>40</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B3" s="49"/>
       <x:c r="C3" s="49"/>
@@ -8526,7 +8487,7 @@
     </x:row>
     <x:row r="4" spans="1:21">
       <x:c r="A4" s="48" t="s">
-        <x:v>41</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B4" s="49"/>
       <x:c r="C4" s="49"/>
@@ -8551,7 +8512,7 @@
     </x:row>
     <x:row r="5" spans="1:21">
       <x:c r="A5" s="48" t="s">
-        <x:v>209</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B5" s="49"/>
       <x:c r="C5" s="49"/>
@@ -8576,7 +8537,7 @@
     </x:row>
     <x:row r="6" spans="1:21">
       <x:c r="A6" s="48" t="s">
-        <x:v>244</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B6" s="49"/>
       <x:c r="C6" s="49"/>
@@ -8601,7 +8562,7 @@
     </x:row>
     <x:row r="7" spans="1:21">
       <x:c r="A7" s="48" t="s">
-        <x:v>198</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B7" s="49"/>
       <x:c r="C7" s="49"/>
@@ -8649,7 +8610,7 @@
     </x:row>
     <x:row r="9" spans="1:21">
       <x:c r="A9" s="55" t="s">
-        <x:v>110</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B9" s="55"/>
       <x:c r="C9" s="37"/>
@@ -8674,7 +8635,7 @@
     </x:row>
     <x:row r="10" spans="1:21">
       <x:c r="A10" s="48" t="s">
-        <x:v>35</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B10" s="49"/>
       <x:c r="C10" s="49"/>
@@ -8699,7 +8660,7 @@
     </x:row>
     <x:row r="11" spans="1:21">
       <x:c r="A11" s="48" t="s">
-        <x:v>183</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B11" s="49"/>
       <x:c r="C11" s="49"/>
@@ -8724,7 +8685,7 @@
     </x:row>
     <x:row r="12" spans="1:21">
       <x:c r="A12" s="48" t="s">
-        <x:v>260</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B12" s="49"/>
       <x:c r="C12" s="49"/>
@@ -8749,7 +8710,7 @@
     </x:row>
     <x:row r="13" spans="1:21">
       <x:c r="A13" s="48" t="s">
-        <x:v>38</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B13" s="49"/>
       <x:c r="C13" s="49"/>
@@ -8774,7 +8735,7 @@
     </x:row>
     <x:row r="14" spans="1:21">
       <x:c r="A14" s="48" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B14" s="49"/>
       <x:c r="C14" s="49"/>
@@ -8799,7 +8760,7 @@
     </x:row>
     <x:row r="15" spans="1:21">
       <x:c r="A15" s="48" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B15" s="49"/>
       <x:c r="C15" s="49"/>
@@ -8824,7 +8785,7 @@
     </x:row>
     <x:row r="16" spans="1:21">
       <x:c r="A16" s="48" t="s">
-        <x:v>310</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B16" s="49"/>
       <x:c r="C16" s="49"/>
@@ -8849,7 +8810,7 @@
     </x:row>
     <x:row r="17" spans="1:21">
       <x:c r="A17" s="48" t="s">
-        <x:v>308</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B17" s="49"/>
       <x:c r="C17" s="49"/>
@@ -8874,7 +8835,7 @@
     </x:row>
     <x:row r="18" spans="1:21">
       <x:c r="A18" s="48" t="s">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B18" s="49"/>
       <x:c r="C18" s="49"/>
@@ -8899,7 +8860,7 @@
     </x:row>
     <x:row r="19" spans="1:21">
       <x:c r="A19" s="48" t="s">
-        <x:v>203</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B19" s="49"/>
       <x:c r="C19" s="49"/>
@@ -8924,7 +8885,7 @@
     </x:row>
     <x:row r="20" spans="1:21">
       <x:c r="A20" s="48" t="s">
-        <x:v>205</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B20" s="49"/>
       <x:c r="C20" s="49"/>
@@ -8949,7 +8910,7 @@
     </x:row>
     <x:row r="21" spans="1:21">
       <x:c r="A21" s="48" t="s">
-        <x:v>202</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B21" s="49"/>
       <x:c r="C21" s="49"/>
@@ -8997,7 +8958,7 @@
     </x:row>
     <x:row r="24" spans="10:10">
       <x:c r="J24" s="8" t="s">
-        <x:v>138</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="3:16" ht="17.149999999999999">
@@ -9005,32 +8966,32 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D25" s="54" t="s">
-        <x:v>232</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="E25" s="54"/>
       <x:c r="F25" s="54"/>
       <x:c r="G25" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H25" s="29" t="s">
-        <x:v>268</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I25" s="24" t="s">
-        <x:v>273</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J25" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L25" s="19" t="s">
-        <x:v>299</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="M25" s="48" t="s">
-        <x:v>115</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="N25" s="49"/>
       <x:c r="O25" s="50"/>
       <x:c r="P25" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="3:16" ht="17.149999999999999" customHeight="1">
@@ -9038,32 +8999,32 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D26" s="54" t="s">
-        <x:v>60</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E26" s="54"/>
       <x:c r="F26" s="54"/>
       <x:c r="G26" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H26" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I26" s="24" t="s">
-        <x:v>273</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J26" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L26" s="19">
         <x:v>1</x:v>
       </x:c>
       <x:c r="M26" s="48" t="s">
-        <x:v>377</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="N26" s="49"/>
       <x:c r="O26" s="50"/>
       <x:c r="P26" s="24" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="3:16" ht="17.149999999999999">
@@ -9071,32 +9032,32 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D27" s="54" t="s">
-        <x:v>332</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E27" s="54"/>
       <x:c r="F27" s="54"/>
       <x:c r="G27" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H27" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I27" s="24" t="s">
-        <x:v>276</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J27" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L27" s="19">
         <x:v>2</x:v>
       </x:c>
       <x:c r="M27" s="48" t="s">
-        <x:v>76</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N27" s="49"/>
       <x:c r="O27" s="50"/>
       <x:c r="P27" s="24" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="3:16" ht="17.149999999999999">
@@ -9104,32 +9065,32 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D28" s="54" t="s">
-        <x:v>90</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E28" s="54"/>
       <x:c r="F28" s="54"/>
       <x:c r="G28" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H28" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I28" s="24" t="s">
-        <x:v>276</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J28" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L28" s="19">
         <x:v>3</x:v>
       </x:c>
       <x:c r="M28" s="48" t="s">
-        <x:v>84</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="N28" s="49"/>
       <x:c r="O28" s="50"/>
       <x:c r="P28" s="24" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="3:16" ht="17.149999999999999">
@@ -9137,32 +9098,32 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D29" s="54" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="E29" s="54"/>
       <x:c r="F29" s="54"/>
       <x:c r="G29" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H29" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I29" s="24" t="s">
-        <x:v>273</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J29" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L29" s="19">
         <x:v>4</x:v>
       </x:c>
       <x:c r="M29" s="48" t="s">
-        <x:v>345</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="N29" s="49"/>
       <x:c r="O29" s="50"/>
       <x:c r="P29" s="24" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="3:16" ht="17.149999999999999">
@@ -9170,32 +9131,32 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D30" s="54" t="s">
-        <x:v>221</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="E30" s="54"/>
       <x:c r="F30" s="54"/>
       <x:c r="G30" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H30" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I30" s="19" t="s">
-        <x:v>270</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J30" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L30" s="19">
         <x:v>5</x:v>
       </x:c>
       <x:c r="M30" s="48" t="s">
-        <x:v>317</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="N30" s="49"/>
       <x:c r="O30" s="50"/>
       <x:c r="P30" s="24" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="3:16" ht="17.149999999999999">
@@ -9203,32 +9164,32 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D31" s="54" t="s">
-        <x:v>228</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="E31" s="54"/>
       <x:c r="F31" s="54"/>
       <x:c r="G31" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H31" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I31" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J31" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L31" s="19">
         <x:v>6</x:v>
       </x:c>
       <x:c r="M31" s="48" t="s">
-        <x:v>66</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="N31" s="49"/>
       <x:c r="O31" s="50"/>
       <x:c r="P31" s="24" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="3:16" ht="17.149999999999999">
@@ -9236,30 +9197,30 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D32" s="54" t="s">
-        <x:v>314</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E32" s="54"/>
       <x:c r="F32" s="54"/>
       <x:c r="G32" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H32" s="29" t="s">
-        <x:v>268</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I32" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J32" s="18"/>
       <x:c r="L32" s="19">
         <x:v>7</x:v>
       </x:c>
       <x:c r="M32" s="48" t="s">
-        <x:v>320</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="N32" s="49"/>
       <x:c r="O32" s="50"/>
       <x:c r="P32" s="24" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="3:16" ht="17.149999999999999">
@@ -9267,32 +9228,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D33" s="54" t="s">
-        <x:v>327</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E33" s="54"/>
       <x:c r="F33" s="54"/>
       <x:c r="G33" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H33" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I33" s="19" t="s">
-        <x:v>273</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J33" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L33" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="M33" s="48" t="s">
-        <x:v>218</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="N33" s="49"/>
       <x:c r="O33" s="50"/>
       <x:c r="P33" s="24" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="3:16" ht="17.149999999999999">
@@ -9300,30 +9261,30 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D34" s="54" t="s">
-        <x:v>81</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E34" s="54"/>
       <x:c r="F34" s="54"/>
       <x:c r="G34" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H34" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I34" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J34" s="18"/>
       <x:c r="L34" s="19">
         <x:v>9</x:v>
       </x:c>
       <x:c r="M34" s="48" t="s">
-        <x:v>376</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="N34" s="49"/>
       <x:c r="O34" s="50"/>
       <x:c r="P34" s="24" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="3:16" ht="17.149999999999999">
@@ -9331,32 +9292,32 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D35" s="54" t="s">
-        <x:v>374</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="E35" s="54"/>
       <x:c r="F35" s="54"/>
       <x:c r="G35" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H35" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I35" s="19" t="s">
-        <x:v>271</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J35" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L35" s="19">
         <x:v>10</x:v>
       </x:c>
       <x:c r="M35" s="48" t="s">
-        <x:v>380</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="N35" s="49"/>
       <x:c r="O35" s="50"/>
       <x:c r="P35" s="24" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="3:17" ht="17.149999999999999" customHeight="1">
@@ -9364,32 +9325,32 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D36" s="54" t="s">
-        <x:v>67</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="54"/>
       <x:c r="F36" s="54"/>
       <x:c r="G36" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H36" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I36" s="19" t="s">
-        <x:v>271</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J36" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L36" s="19">
         <x:v>11</x:v>
       </x:c>
       <x:c r="M36" s="48" t="s">
-        <x:v>210</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="N36" s="49"/>
       <x:c r="O36" s="50"/>
       <x:c r="P36" s="56" t="s">
-        <x:v>163</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="Q36" s="47"/>
     </x:row>
@@ -9398,32 +9359,32 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D37" s="54" t="s">
-        <x:v>330</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E37" s="54"/>
       <x:c r="F37" s="54"/>
       <x:c r="G37" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H37" s="29" t="s">
-        <x:v>268</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I37" s="19" t="s">
-        <x:v>271</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J37" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L37" s="19">
         <x:v>12</x:v>
       </x:c>
       <x:c r="M37" s="48" t="s">
-        <x:v>363</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="N37" s="49"/>
       <x:c r="O37" s="50"/>
       <x:c r="P37" s="24" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="3:16" ht="17.149999999999999">
@@ -9431,32 +9392,32 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D38" s="54" t="s">
-        <x:v>331</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E38" s="54"/>
       <x:c r="F38" s="54"/>
       <x:c r="G38" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H38" s="29" t="s">
-        <x:v>268</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I38" s="19" t="s">
-        <x:v>286</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="J38" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L38" s="19">
         <x:v>13</x:v>
       </x:c>
       <x:c r="M38" s="48" t="s">
-        <x:v>75</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N38" s="49"/>
       <x:c r="O38" s="50"/>
       <x:c r="P38" s="24" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="3:10" ht="17.149999999999999">
@@ -9464,21 +9425,21 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D39" s="54" t="s">
-        <x:v>71</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E39" s="54"/>
       <x:c r="F39" s="54"/>
       <x:c r="G39" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H39" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I39" s="19" t="s">
-        <x:v>281</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J39" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="3:10" ht="17.149999999999999">
@@ -9486,21 +9447,21 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D40" s="54" t="s">
-        <x:v>375</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="E40" s="54"/>
       <x:c r="F40" s="54"/>
       <x:c r="G40" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H40" s="29" t="s">
-        <x:v>268</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I40" s="19" t="s">
-        <x:v>281</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J40" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="3:10" ht="17.149999999999999">
@@ -9508,21 +9469,21 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D41" s="54" t="s">
-        <x:v>315</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E41" s="54"/>
       <x:c r="F41" s="54"/>
       <x:c r="G41" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H41" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I41" s="19" t="s">
-        <x:v>286</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="J41" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="3:10" ht="17.149999999999999">
@@ -9530,21 +9491,21 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D42" s="54" t="s">
-        <x:v>312</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E42" s="54"/>
       <x:c r="F42" s="54"/>
       <x:c r="G42" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H42" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I42" s="19" t="s">
-        <x:v>286</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="J42" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="3:10" ht="17.149999999999999">
@@ -9552,21 +9513,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D43" s="54" t="s">
-        <x:v>62</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E43" s="54"/>
       <x:c r="F43" s="54"/>
       <x:c r="G43" s="19" t="s">
-        <x:v>267</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H43" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I43" s="19" t="s">
-        <x:v>281</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J43" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="3:10" ht="17.149999999999999">
@@ -9574,18 +9535,18 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D44" s="54" t="s">
-        <x:v>360</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="E44" s="54"/>
       <x:c r="F44" s="54"/>
       <x:c r="G44" s="19" t="s">
-        <x:v>267</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H44" s="29" t="s">
-        <x:v>297</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I44" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J44" s="18"/>
     </x:row>
@@ -9594,21 +9555,21 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D45" s="54" t="s">
-        <x:v>319</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E45" s="54"/>
       <x:c r="F45" s="54"/>
       <x:c r="G45" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H45" s="29" t="s">
-        <x:v>304</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I45" s="19" t="s">
-        <x:v>270</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J45" s="18" t="s">
-        <x:v>301</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="3:10" ht="17.149999999999999">
@@ -9676,18 +9637,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D51" s="54" t="s">
-        <x:v>334</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="E51" s="54"/>
       <x:c r="F51" s="54"/>
       <x:c r="G51" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H51" s="30" t="s">
-        <x:v>268</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I51" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J51" s="18"/>
     </x:row>
@@ -9785,8 +9746,8 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="C2:AN115"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J23" activeCellId="0" sqref="J23:T23"/>
+    <x:sheetView topLeftCell="A106" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="N96" activeCellId="0" sqref="N96:N96"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -9797,7 +9758,7 @@
   <x:sheetData>
     <x:row r="2" spans="3:12">
       <x:c r="C2" s="59" t="s">
-        <x:v>245</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D2" s="47"/>
       <x:c r="E2" s="47"/>
@@ -9907,21 +9868,21 @@
     </x:row>
     <x:row r="12" spans="3:4">
       <x:c r="C12" s="47" t="s">
-        <x:v>223</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="D12" s="47"/>
     </x:row>
     <x:row r="13" spans="3:12">
       <x:c r="C13" s="19" t="s">
-        <x:v>299</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D13" s="48" t="s">
-        <x:v>156</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E13" s="49"/>
       <x:c r="F13" s="50"/>
       <x:c r="G13" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="I13" s="37"/>
       <x:c r="J13" s="37"/>
@@ -9933,18 +9894,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D14" s="48" t="s">
-        <x:v>65</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E14" s="49"/>
       <x:c r="F14" s="50"/>
       <x:c r="G14" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>296</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="J14" s="54" t="s">
-        <x:v>30</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="K14" s="54"/>
       <x:c r="L14" s="54"/>
@@ -9965,18 +9926,18 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D15" s="48" t="s">
-        <x:v>349</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="E15" s="49"/>
       <x:c r="F15" s="50"/>
       <x:c r="G15" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I15" s="19" t="s">
-        <x:v>266</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J15" s="54" t="s">
-        <x:v>250</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="K15" s="54"/>
       <x:c r="L15" s="54"/>
@@ -9997,18 +9958,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D16" s="48" t="s">
-        <x:v>354</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="E16" s="49"/>
       <x:c r="F16" s="50"/>
       <x:c r="G16" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I16" s="19" t="s">
-        <x:v>144</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="J16" s="54" t="s">
-        <x:v>246</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="K16" s="54"/>
       <x:c r="L16" s="54"/>
@@ -10029,19 +9990,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D17" s="48" t="s">
-        <x:v>79</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E17" s="49"/>
       <x:c r="F17" s="50"/>
       <x:c r="G17" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H17" s="23"/>
       <x:c r="I17" s="19" t="s">
-        <x:v>265</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="J17" s="54" t="s">
-        <x:v>33</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="K17" s="54"/>
       <x:c r="L17" s="54"/>
@@ -10088,7 +10049,7 @@
     </x:row>
     <x:row r="20" spans="3:40">
       <x:c r="C20" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D20" s="47"/>
       <x:c r="AL20" s="23"/>
@@ -10097,15 +10058,15 @@
     </x:row>
     <x:row r="21" spans="3:40">
       <x:c r="C21" s="31" t="s">
-        <x:v>299</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D21" s="54" t="s">
-        <x:v>141</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E21" s="54"/>
       <x:c r="F21" s="54"/>
       <x:c r="G21" s="24" t="s">
-        <x:v>295</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="AL21" s="23"/>
       <x:c r="AM21" s="23"/>
@@ -10116,18 +10077,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D22" s="54" t="s">
-        <x:v>135</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E22" s="54"/>
       <x:c r="F22" s="54"/>
       <x:c r="G22" s="24" t="s">
-        <x:v>161</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="I22" s="19" t="s">
-        <x:v>269</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J22" s="54" t="s">
-        <x:v>47</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="K22" s="54"/>
       <x:c r="L22" s="54"/>
@@ -10148,18 +10109,18 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D23" s="54" t="s">
-        <x:v>112</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E23" s="54"/>
       <x:c r="F23" s="54"/>
       <x:c r="G23" s="24" t="s">
-        <x:v>123</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="I23" s="19" t="s">
-        <x:v>294</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="J23" s="54" t="s">
-        <x:v>3</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="K23" s="54"/>
       <x:c r="L23" s="54"/>
@@ -10180,18 +10141,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D24" s="54" t="s">
-        <x:v>215</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="E24" s="54"/>
       <x:c r="F24" s="54"/>
       <x:c r="G24" s="24" t="s">
-        <x:v>224</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>298</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="J24" s="54" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K24" s="54"/>
       <x:c r="L24" s="54"/>
@@ -10225,18 +10186,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D25" s="54" t="s">
-        <x:v>78</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E25" s="54"/>
       <x:c r="F25" s="54"/>
       <x:c r="G25" s="24" t="s">
-        <x:v>292</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I25" s="19" t="s">
-        <x:v>109</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="J25" s="54" t="s">
-        <x:v>249</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="K25" s="54"/>
       <x:c r="L25" s="54"/>
@@ -10257,18 +10218,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D26" s="54" t="s">
-        <x:v>114</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E26" s="54"/>
       <x:c r="F26" s="54"/>
       <x:c r="G26" s="24" t="s">
-        <x:v>146</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="I26" s="19" t="s">
-        <x:v>288</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="J26" s="54" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K26" s="54"/>
       <x:c r="L26" s="54"/>
@@ -10289,18 +10250,18 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D27" s="54" t="s">
-        <x:v>321</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E27" s="54"/>
       <x:c r="F27" s="54"/>
       <x:c r="G27" s="24" t="s">
-        <x:v>284</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I27" s="19" t="s">
-        <x:v>262</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J27" s="54" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K27" s="54"/>
       <x:c r="L27" s="54"/>
@@ -10334,7 +10295,7 @@
     </x:row>
     <x:row r="29" spans="3:19">
       <x:c r="C29" s="47" t="s">
-        <x:v>142</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D29" s="47"/>
       <x:c r="E29" s="37"/>
@@ -10351,18 +10312,18 @@
     </x:row>
     <x:row r="30" spans="3:16">
       <x:c r="C30" s="24" t="s">
-        <x:v>299</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D30" s="54" t="s">
-        <x:v>115</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E30" s="54"/>
       <x:c r="F30" s="54"/>
       <x:c r="G30" s="24" t="s">
-        <x:v>132</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="H30" s="54" t="s">
-        <x:v>137</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I30" s="54"/>
       <x:c r="J30" s="54"/>
@@ -10378,15 +10339,15 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D31" s="54" t="s">
-        <x:v>230</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="E31" s="54"/>
       <x:c r="F31" s="54"/>
       <x:c r="G31" s="24" t="s">
-        <x:v>302</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H31" s="54" t="s">
-        <x:v>170</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I31" s="54"/>
       <x:c r="J31" s="54"/>
@@ -10402,15 +10363,15 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D32" s="54" t="s">
-        <x:v>311</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E32" s="54"/>
       <x:c r="F32" s="54"/>
       <x:c r="G32" s="24" t="s">
-        <x:v>302</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H32" s="54" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I32" s="54"/>
       <x:c r="J32" s="54"/>
@@ -10426,15 +10387,15 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D33" s="48" t="s">
-        <x:v>226</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E33" s="49"/>
       <x:c r="F33" s="50"/>
       <x:c r="G33" s="24" t="s">
-        <x:v>302</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H33" s="54" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I33" s="54"/>
       <x:c r="J33" s="54"/>
@@ -10450,15 +10411,15 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D34" s="54" t="s">
-        <x:v>238</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="E34" s="54"/>
       <x:c r="F34" s="54"/>
       <x:c r="G34" s="24" t="s">
-        <x:v>280</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H34" s="54" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I34" s="54"/>
       <x:c r="J34" s="54"/>
@@ -10474,15 +10435,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D35" s="54" t="s">
-        <x:v>239</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="E35" s="54"/>
       <x:c r="F35" s="54"/>
       <x:c r="G35" s="24" t="s">
-        <x:v>280</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H35" s="54" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I35" s="54"/>
       <x:c r="J35" s="54"/>
@@ -10498,15 +10459,15 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D36" s="54" t="s">
-        <x:v>325</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E36" s="54"/>
       <x:c r="F36" s="54"/>
       <x:c r="G36" s="24" t="s">
-        <x:v>280</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H36" s="54" t="s">
-        <x:v>167</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I36" s="54"/>
       <x:c r="J36" s="54"/>
@@ -10522,15 +10483,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D37" s="54" t="s">
-        <x:v>220</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="E37" s="54"/>
       <x:c r="F37" s="54"/>
       <x:c r="G37" s="24" t="s">
-        <x:v>261</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H37" s="54" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I37" s="54"/>
       <x:c r="J37" s="54"/>
@@ -10546,15 +10507,15 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D38" s="75" t="s">
-        <x:v>57</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E38" s="75"/>
       <x:c r="F38" s="75"/>
       <x:c r="G38" s="42" t="s">
-        <x:v>261</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H38" s="75" t="s">
-        <x:v>50</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I38" s="75"/>
       <x:c r="J38" s="75"/>
@@ -10567,7 +10528,7 @@
     </x:row>
     <x:row r="40" spans="3:6">
       <x:c r="C40" s="47" t="s">
-        <x:v>318</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D40" s="47"/>
       <x:c r="E40" s="47"/>
@@ -10575,13 +10536,13 @@
     </x:row>
     <x:row r="41" spans="3:22">
       <x:c r="C41" s="47" t="s">
-        <x:v>97</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D41" s="47"/>
       <x:c r="E41" s="47"/>
       <x:c r="F41" s="47"/>
       <x:c r="G41" s="47" t="s">
-        <x:v>24</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H41" s="47"/>
       <x:c r="I41" s="47"/>
@@ -10593,7 +10554,7 @@
       <x:c r="O41" s="47"/>
       <x:c r="P41" s="47"/>
       <x:c r="Q41" s="60" t="s">
-        <x:v>36</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="R41" s="60"/>
       <x:c r="S41" s="60"/>
@@ -10603,7 +10564,7 @@
     </x:row>
     <x:row r="42" spans="3:22">
       <x:c r="C42" s="55" t="s">
-        <x:v>136</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D42" s="55"/>
       <x:c r="E42" s="55"/>
@@ -10627,15 +10588,15 @@
     </x:row>
     <x:row r="43" spans="3:22">
       <x:c r="C43" s="24" t="s">
-        <x:v>299</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D43" s="54" t="s">
-        <x:v>56</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E43" s="54"/>
       <x:c r="F43" s="54"/>
       <x:c r="G43" s="54" t="s">
-        <x:v>137</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="H43" s="54"/>
       <x:c r="I43" s="54"/>
@@ -10658,12 +10619,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D44" s="54" t="s">
-        <x:v>82</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E44" s="54"/>
       <x:c r="F44" s="54"/>
       <x:c r="G44" s="54" t="s">
-        <x:v>48</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="H44" s="54"/>
       <x:c r="I44" s="54"/>
@@ -10686,12 +10647,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D45" s="54" t="s">
-        <x:v>63</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E45" s="54"/>
       <x:c r="F45" s="54"/>
       <x:c r="G45" s="54" t="s">
-        <x:v>182</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="H45" s="54"/>
       <x:c r="I45" s="54"/>
@@ -10714,7 +10675,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D46" s="51" t="s">
-        <x:v>243</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="E46" s="52"/>
       <x:c r="F46" s="53"/>
@@ -10786,12 +10747,12 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D49" s="54" t="s">
-        <x:v>87</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E49" s="54"/>
       <x:c r="F49" s="54"/>
       <x:c r="G49" s="54" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="54"/>
       <x:c r="I49" s="54"/>
@@ -10814,12 +10775,12 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D50" s="54" t="s">
-        <x:v>347</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E50" s="54"/>
       <x:c r="F50" s="54"/>
       <x:c r="G50" s="54" t="s">
-        <x:v>193</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H50" s="54"/>
       <x:c r="I50" s="54"/>
@@ -10833,7 +10794,7 @@
       <x:c r="Q50" s="44"/>
       <x:c r="R50" s="16"/>
       <x:c r="S50" s="47" t="s">
-        <x:v>99</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="T50" s="47"/>
       <x:c r="U50" s="47"/>
@@ -10844,12 +10805,12 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D51" s="54" t="s">
-        <x:v>369</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="E51" s="54"/>
       <x:c r="F51" s="54"/>
       <x:c r="G51" s="54" t="s">
-        <x:v>192</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H51" s="54"/>
       <x:c r="I51" s="54"/>
@@ -10861,14 +10822,14 @@
       <x:c r="O51" s="54"/>
       <x:c r="P51" s="54"/>
       <x:c r="S51" s="21" t="s">
-        <x:v>299</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="T51" s="47" t="s">
-        <x:v>115</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="U51" s="47"/>
       <x:c r="V51" s="47" t="s">
-        <x:v>137</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="W51" s="47"/>
       <x:c r="X51" s="47"/>
@@ -10883,12 +10844,12 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D52" s="54" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E52" s="54"/>
       <x:c r="F52" s="54"/>
       <x:c r="G52" s="54" t="s">
-        <x:v>338</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="H52" s="54"/>
       <x:c r="I52" s="54"/>
@@ -10903,11 +10864,11 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T52" s="47" t="s">
-        <x:v>214</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="U52" s="47"/>
       <x:c r="V52" s="47" t="s">
-        <x:v>371</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="W52" s="47"/>
       <x:c r="X52" s="47"/>
@@ -10922,12 +10883,12 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D53" s="54" t="s">
-        <x:v>54</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E53" s="54"/>
       <x:c r="F53" s="54"/>
       <x:c r="G53" s="54" t="s">
-        <x:v>34</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="H53" s="54"/>
       <x:c r="I53" s="54"/>
@@ -10942,11 +10903,11 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T53" s="47" t="s">
-        <x:v>227</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="U53" s="47"/>
       <x:c r="V53" s="47" t="s">
-        <x:v>348</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="W53" s="47"/>
       <x:c r="X53" s="47"/>
@@ -10977,11 +10938,11 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="T54" s="47" t="s">
-        <x:v>240</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="U54" s="47"/>
       <x:c r="V54" s="47" t="s">
-        <x:v>68</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="W54" s="47"/>
       <x:c r="X54" s="47"/>
@@ -10993,7 +10954,7 @@
     </x:row>
     <x:row r="55" spans="3:29">
       <x:c r="C55" s="55" t="s">
-        <x:v>124</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D55" s="55"/>
       <x:c r="E55" s="55"/>
@@ -11012,11 +10973,11 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="T55" s="47" t="s">
-        <x:v>241</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="U55" s="47"/>
       <x:c r="V55" s="47" t="s">
-        <x:v>176</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="W55" s="47"/>
       <x:c r="X55" s="47"/>
@@ -11028,15 +10989,15 @@
     </x:row>
     <x:row r="56" spans="3:29">
       <x:c r="C56" s="45" t="s">
-        <x:v>299</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D56" s="76" t="s">
-        <x:v>56</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E56" s="76"/>
       <x:c r="F56" s="54"/>
       <x:c r="G56" s="54" t="s">
-        <x:v>137</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="H56" s="54"/>
       <x:c r="I56" s="54"/>
@@ -11052,7 +11013,7 @@
       <x:c r="T56" s="47"/>
       <x:c r="U56" s="47"/>
       <x:c r="V56" s="47" t="s">
-        <x:v>177</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="W56" s="47"/>
       <x:c r="X56" s="47"/>
@@ -11067,12 +11028,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D57" s="69" t="s">
-        <x:v>248</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="E57" s="52"/>
       <x:c r="F57" s="53"/>
       <x:c r="G57" s="51" t="s">
-        <x:v>187</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H57" s="52"/>
       <x:c r="I57" s="52"/>
@@ -11086,7 +11047,7 @@
       <x:c r="Q57" s="20"/>
       <x:c r="R57" s="20"/>
       <x:c r="V57" s="47" t="s">
-        <x:v>341</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="W57" s="47"/>
       <x:c r="X57" s="47"/>
@@ -11127,12 +11088,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D59" s="69" t="s">
-        <x:v>165</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E59" s="52"/>
       <x:c r="F59" s="53"/>
       <x:c r="G59" s="51" t="s">
-        <x:v>166</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H59" s="52"/>
       <x:c r="I59" s="52"/>
@@ -11205,12 +11166,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D63" s="69" t="s">
-        <x:v>361</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="E63" s="52"/>
       <x:c r="F63" s="53"/>
       <x:c r="G63" s="69" t="s">
-        <x:v>164</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H63" s="52"/>
       <x:c r="I63" s="52"/>
@@ -11284,12 +11245,12 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D67" s="54" t="s">
-        <x:v>326</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E67" s="54"/>
       <x:c r="F67" s="54"/>
       <x:c r="G67" s="54" t="s">
-        <x:v>181</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="H67" s="54"/>
       <x:c r="I67" s="54"/>
@@ -11323,7 +11284,7 @@
     </x:row>
     <x:row r="69" spans="3:18" s="2" customFormat="1">
       <x:c r="C69" s="47" t="s">
-        <x:v>151</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D69" s="47"/>
       <x:c r="E69" s="47"/>
@@ -11343,15 +11304,15 @@
     </x:row>
     <x:row r="70" spans="3:18" s="2" customFormat="1">
       <x:c r="C70" s="24" t="s">
-        <x:v>299</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D70" s="54" t="s">
-        <x:v>56</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E70" s="54"/>
       <x:c r="F70" s="54"/>
       <x:c r="G70" s="50" t="s">
-        <x:v>137</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="H70" s="54"/>
       <x:c r="I70" s="54"/>
@@ -11370,12 +11331,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D71" s="76" t="s">
-        <x:v>59</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E71" s="76"/>
       <x:c r="F71" s="76"/>
       <x:c r="G71" s="54" t="s">
-        <x:v>344</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="H71" s="54"/>
       <x:c r="I71" s="54"/>
@@ -11394,12 +11355,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D72" s="54" t="s">
-        <x:v>216</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="E72" s="54"/>
       <x:c r="F72" s="54"/>
       <x:c r="G72" s="54" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H72" s="54"/>
       <x:c r="I72" s="54"/>
@@ -11418,12 +11379,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D73" s="54" t="s">
-        <x:v>234</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="E73" s="54"/>
       <x:c r="F73" s="48"/>
       <x:c r="G73" s="48" t="s">
-        <x:v>196</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="H73" s="49"/>
       <x:c r="I73" s="49"/>
@@ -11443,7 +11404,7 @@
       <x:c r="E74" s="20"/>
       <x:c r="F74" s="20"/>
       <x:c r="G74" s="48" t="s">
-        <x:v>195</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="H74" s="49"/>
       <x:c r="I74" s="49"/>
@@ -11463,7 +11424,7 @@
       <x:c r="E75" s="20"/>
       <x:c r="F75" s="20"/>
       <x:c r="G75" s="54" t="s">
-        <x:v>366</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="H75" s="54"/>
       <x:c r="I75" s="54"/>
@@ -11497,7 +11458,7 @@
     </x:row>
     <x:row r="77" spans="3:19">
       <x:c r="C77" s="47" t="s">
-        <x:v>236</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="D77" s="47"/>
       <x:c r="E77" s="23"/>
@@ -11518,14 +11479,14 @@
     </x:row>
     <x:row r="78" spans="3:19">
       <x:c r="C78" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D78" s="47"/>
       <x:c r="E78" s="47"/>
       <x:c r="F78" s="47"/>
       <x:c r="G78" s="47"/>
       <x:c r="H78" s="47" t="s">
-        <x:v>175</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="I78" s="47"/>
       <x:c r="J78" s="47"/>
@@ -11534,7 +11495,7 @@
       <x:c r="M78" s="47"/>
       <x:c r="N78" s="47"/>
       <x:c r="O78" s="20" t="s">
-        <x:v>337</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="P78" s="20"/>
       <x:c r="Q78" s="20"/>
@@ -11543,7 +11504,7 @@
     </x:row>
     <x:row r="79" spans="3:19">
       <x:c r="C79" s="47" t="s">
-        <x:v>25</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="D79" s="47"/>
       <x:c r="E79" s="47"/>
@@ -11553,7 +11514,7 @@
       <x:c r="I79" s="47"/>
       <x:c r="J79" s="47"/>
       <x:c r="K79" s="20" t="s">
-        <x:v>333</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="L79" s="20"/>
       <x:c r="M79" s="20"/>
@@ -11564,26 +11525,26 @@
     </x:row>
     <x:row r="80" spans="3:25">
       <x:c r="C80" s="24" t="s">
-        <x:v>277</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D80" s="54" t="s">
-        <x:v>111</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E80" s="54"/>
       <x:c r="F80" s="54"/>
       <x:c r="G80" s="54"/>
       <x:c r="H80" s="54"/>
       <x:c r="I80" s="54" t="s">
-        <x:v>118</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="J80" s="54"/>
       <x:c r="L80" s="47" t="s">
-        <x:v>70</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="M80" s="47"/>
       <x:c r="N80" s="47"/>
       <x:c r="O80" s="47" t="s">
-        <x:v>322</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="P80" s="47"/>
       <x:c r="Q80" s="47"/>
@@ -11601,7 +11562,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D81" s="48" t="s">
-        <x:v>253</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="E81" s="49"/>
       <x:c r="F81" s="49"/>
@@ -11612,12 +11573,12 @@
       </x:c>
       <x:c r="J81" s="54"/>
       <x:c r="L81" s="47" t="s">
-        <x:v>379</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="M81" s="47"/>
       <x:c r="N81" s="47"/>
       <x:c r="O81" s="47" t="s">
-        <x:v>316</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="P81" s="47"/>
       <x:c r="Q81" s="47"/>
@@ -11635,7 +11596,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D82" s="48" t="s">
-        <x:v>94</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E82" s="49"/>
       <x:c r="F82" s="49"/>
@@ -11646,12 +11607,12 @@
       </x:c>
       <x:c r="J82" s="54"/>
       <x:c r="L82" s="47" t="s">
-        <x:v>378</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="M82" s="47"/>
       <x:c r="N82" s="47"/>
       <x:c r="O82" s="47" t="s">
-        <x:v>72</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="P82" s="47"/>
       <x:c r="Q82" s="47"/>
@@ -11661,7 +11622,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D83" s="48" t="s">
-        <x:v>364</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E83" s="49"/>
       <x:c r="F83" s="49"/>
@@ -11680,7 +11641,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D84" s="48" t="s">
-        <x:v>253</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="E84" s="49"/>
       <x:c r="F84" s="49"/>
@@ -11691,7 +11652,7 @@
       </x:c>
       <x:c r="J84" s="54"/>
       <x:c r="L84" s="47" t="s">
-        <x:v>186</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M84" s="47"/>
       <x:c r="N84" s="47"/>
@@ -11707,7 +11668,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D85" s="48" t="s">
-        <x:v>94</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E85" s="49"/>
       <x:c r="F85" s="49"/>
@@ -11718,7 +11679,7 @@
       </x:c>
       <x:c r="J85" s="54"/>
       <x:c r="L85" s="47" t="s">
-        <x:v>168</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="M85" s="47"/>
       <x:c r="N85" s="47"/>
@@ -11734,7 +11695,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D86" s="48" t="s">
-        <x:v>364</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E86" s="49"/>
       <x:c r="F86" s="49"/>
@@ -11745,7 +11706,7 @@
       </x:c>
       <x:c r="J86" s="54"/>
       <x:c r="L86" s="47" t="s">
-        <x:v>49</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="M86" s="47"/>
       <x:c r="N86" s="47"/>
@@ -11761,7 +11722,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D87" s="48" t="s">
-        <x:v>253</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="E87" s="49"/>
       <x:c r="F87" s="49"/>
@@ -11772,7 +11733,7 @@
       </x:c>
       <x:c r="J87" s="54"/>
       <x:c r="L87" s="60" t="s">
-        <x:v>91</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="M87" s="60"/>
       <x:c r="N87" s="60"/>
@@ -11789,7 +11750,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D88" s="48" t="s">
-        <x:v>94</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E88" s="49"/>
       <x:c r="F88" s="49"/>
@@ -11815,7 +11776,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D89" s="48" t="s">
-        <x:v>364</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E89" s="49"/>
       <x:c r="F89" s="49"/>
@@ -11841,7 +11802,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D90" s="48" t="s">
-        <x:v>253</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="E90" s="49"/>
       <x:c r="F90" s="49"/>
@@ -11867,7 +11828,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D91" s="48" t="s">
-        <x:v>94</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E91" s="49"/>
       <x:c r="F91" s="49"/>
@@ -11893,7 +11854,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D92" s="48" t="s">
-        <x:v>364</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E92" s="49"/>
       <x:c r="F92" s="49"/>
@@ -11909,7 +11870,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D93" s="48" t="s">
-        <x:v>253</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="E93" s="49"/>
       <x:c r="F93" s="49"/>
@@ -11925,7 +11886,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D94" s="48" t="s">
-        <x:v>94</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E94" s="49"/>
       <x:c r="F94" s="49"/>
@@ -11940,7 +11901,7 @@
     <x:row r="96" s="3" customFormat="1"/>
     <x:row r="97" spans="3:6" s="8" customFormat="1">
       <x:c r="C97" s="47" t="s">
-        <x:v>324</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D97" s="47"/>
       <x:c r="E97" s="47"/>
@@ -11948,13 +11909,13 @@
     </x:row>
     <x:row r="98" spans="3:16" s="8" customFormat="1">
       <x:c r="C98" s="47" t="s">
-        <x:v>157</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D98" s="47"/>
       <x:c r="E98" s="47"/>
       <x:c r="F98" s="47"/>
       <x:c r="G98" s="47" t="s">
-        <x:v>28</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="H98" s="47"/>
       <x:c r="I98" s="47"/>
@@ -11968,15 +11929,15 @@
     </x:row>
     <x:row r="99" spans="3:16">
       <x:c r="C99" s="24" t="s">
-        <x:v>299</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D99" s="54" t="s">
-        <x:v>115</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E99" s="54"/>
       <x:c r="F99" s="54"/>
       <x:c r="G99" s="54" t="s">
-        <x:v>137</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="H99" s="54"/>
       <x:c r="I99" s="54"/>
@@ -11993,12 +11954,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D100" s="54" t="s">
-        <x:v>154</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E100" s="54"/>
       <x:c r="F100" s="54"/>
       <x:c r="G100" s="54" t="s">
-        <x:v>53</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H100" s="54"/>
       <x:c r="I100" s="54"/>
@@ -12015,12 +11976,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D101" s="54" t="s">
-        <x:v>98</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E101" s="54"/>
       <x:c r="F101" s="54"/>
       <x:c r="G101" s="54" t="s">
-        <x:v>89</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H101" s="54"/>
       <x:c r="I101" s="54"/>
@@ -12037,12 +11998,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D102" s="54" t="s">
-        <x:v>147</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="E102" s="54"/>
       <x:c r="F102" s="54"/>
       <x:c r="G102" s="54" t="s">
-        <x:v>58</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H102" s="54"/>
       <x:c r="I102" s="54"/>
@@ -12059,12 +12020,12 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D103" s="54" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E103" s="54"/>
       <x:c r="F103" s="54"/>
       <x:c r="G103" s="54" t="s">
-        <x:v>69</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H103" s="54"/>
       <x:c r="I103" s="54"/>
@@ -12081,12 +12042,12 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D104" s="54" t="s">
-        <x:v>289</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E104" s="54"/>
       <x:c r="F104" s="54"/>
       <x:c r="G104" s="54" t="s">
-        <x:v>80</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H104" s="54"/>
       <x:c r="I104" s="54"/>
@@ -12103,12 +12064,12 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D105" s="54" t="s">
-        <x:v>275</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E105" s="54"/>
       <x:c r="F105" s="54"/>
       <x:c r="G105" s="54" t="s">
-        <x:v>343</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="H105" s="54"/>
       <x:c r="I105" s="54"/>
@@ -12266,11 +12227,11 @@
     </x:row>
     <x:row r="115" spans="3:5">
       <x:c r="C115" s="47" t="s">
-        <x:v>158</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="D115" s="47"/>
       <x:c r="E115" s="12" t="s">
-        <x:v>107</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12479,13 +12440,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="47" t="s">
-        <x:v>139</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B1" s="47"/>
     </x:row>
     <x:row r="2" spans="1:21">
       <x:c r="A2" s="48" t="s">
-        <x:v>257</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B2" s="49"/>
       <x:c r="C2" s="49"/>
@@ -12510,7 +12471,7 @@
     </x:row>
     <x:row r="3" spans="1:21">
       <x:c r="A3" s="48" t="s">
-        <x:v>37</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B3" s="49"/>
       <x:c r="C3" s="49"/>
@@ -12535,7 +12496,7 @@
     </x:row>
     <x:row r="4" spans="1:21">
       <x:c r="A4" s="48" t="s">
-        <x:v>207</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B4" s="49"/>
       <x:c r="C4" s="49"/>
@@ -12560,7 +12521,7 @@
     </x:row>
     <x:row r="5" spans="1:21">
       <x:c r="A5" s="48" t="s">
-        <x:v>206</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B5" s="49"/>
       <x:c r="C5" s="49"/>
@@ -12585,7 +12546,7 @@
     </x:row>
     <x:row r="6" spans="1:21">
       <x:c r="A6" s="48" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="49"/>
       <x:c r="C6" s="49"/>
@@ -12610,7 +12571,7 @@
     </x:row>
     <x:row r="7" spans="1:21">
       <x:c r="A7" s="48" t="s">
-        <x:v>208</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B7" s="49"/>
       <x:c r="C7" s="49"/>
@@ -12635,7 +12596,7 @@
     </x:row>
     <x:row r="8" spans="1:21">
       <x:c r="A8" s="48" t="s">
-        <x:v>258</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B8" s="49"/>
       <x:c r="C8" s="49"/>
@@ -13023,7 +12984,7 @@
   <x:sheetData>
     <x:row r="3" spans="2:11">
       <x:c r="B3" s="59" t="s">
-        <x:v>43</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C3" s="47"/>
       <x:c r="D3" s="47"/>
@@ -13109,14 +13070,14 @@
     </x:row>
     <x:row r="11" spans="2:4">
       <x:c r="B11" s="47" t="s">
-        <x:v>328</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C11" s="47"/>
       <x:c r="D11" s="47"/>
     </x:row>
     <x:row r="12" spans="2:14">
       <x:c r="B12" s="47" t="s">
-        <x:v>370</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C12" s="47"/>
       <x:c r="D12" s="47"/>
@@ -13133,7 +13094,7 @@
     </x:row>
     <x:row r="13" spans="2:14">
       <x:c r="B13" s="47" t="s">
-        <x:v>254</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C13" s="47"/>
       <x:c r="D13" s="47"/>
@@ -13150,7 +13111,7 @@
     </x:row>
     <x:row r="14" spans="2:14">
       <x:c r="B14" s="47" t="s">
-        <x:v>179</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C14" s="47"/>
       <x:c r="D14" s="47"/>
@@ -13167,7 +13128,7 @@
     </x:row>
     <x:row r="15" spans="2:14">
       <x:c r="B15" s="47" t="s">
-        <x:v>194</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C15" s="47"/>
       <x:c r="D15" s="47"/>
@@ -13184,62 +13145,62 @@
     </x:row>
     <x:row r="18" spans="2:4">
       <x:c r="B18" s="47" t="s">
-        <x:v>229</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="C18" s="47"/>
       <x:c r="D18" s="47"/>
     </x:row>
     <x:row r="19" spans="2:15">
       <x:c r="B19" s="54" t="s">
-        <x:v>291</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C19" s="54"/>
       <x:c r="D19" s="54"/>
       <x:c r="E19" s="54" t="s">
-        <x:v>127</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F19" s="54"/>
       <x:c r="G19" s="54"/>
       <x:c r="H19" s="54"/>
       <x:c r="I19" s="54" t="s">
-        <x:v>129</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="J19" s="54"/>
       <x:c r="K19" s="54"/>
       <x:c r="L19" s="54"/>
       <x:c r="M19" s="54" t="s">
-        <x:v>148</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="N19" s="54"/>
       <x:c r="O19" s="54"/>
     </x:row>
     <x:row r="20" spans="5:15">
       <x:c r="E20" s="54" t="s">
-        <x:v>149</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="F20" s="54"/>
       <x:c r="G20" s="54"/>
       <x:c r="H20" s="54"/>
       <x:c r="I20" s="54" t="s">
-        <x:v>162</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="J20" s="54"/>
       <x:c r="K20" s="54"/>
       <x:c r="L20" s="54"/>
       <x:c r="M20" s="51" t="s">
-        <x:v>160</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="N20" s="52"/>
       <x:c r="O20" s="52"/>
     </x:row>
     <x:row r="22" spans="2:12">
       <x:c r="B22" s="54" t="s">
-        <x:v>287</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C22" s="54"/>
       <x:c r="D22" s="54"/>
       <x:c r="E22" s="54" t="s">
-        <x:v>373</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="F22" s="54"/>
       <x:c r="G22" s="54"/>
@@ -13251,12 +13212,12 @@
     </x:row>
     <x:row r="23" spans="2:12">
       <x:c r="B23" s="54" t="s">
-        <x:v>152</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="C23" s="54"/>
       <x:c r="D23" s="54"/>
       <x:c r="E23" s="54" t="s">
-        <x:v>42</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F23" s="54"/>
       <x:c r="G23" s="54"/>
@@ -13268,12 +13229,12 @@
     </x:row>
     <x:row r="24" spans="2:12">
       <x:c r="B24" s="54" t="s">
-        <x:v>306</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C24" s="54"/>
       <x:c r="D24" s="54"/>
       <x:c r="E24" s="54" t="s">
-        <x:v>191</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F24" s="54"/>
       <x:c r="G24" s="54"/>
@@ -13285,12 +13246,12 @@
     </x:row>
     <x:row r="25" spans="2:12">
       <x:c r="B25" s="54" t="s">
-        <x:v>290</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C25" s="54"/>
       <x:c r="D25" s="54"/>
       <x:c r="E25" s="54" t="s">
-        <x:v>189</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F25" s="54"/>
       <x:c r="G25" s="54"/>
@@ -13305,7 +13266,7 @@
       <x:c r="C26" s="54"/>
       <x:c r="D26" s="54"/>
       <x:c r="E26" s="54" t="s">
-        <x:v>251</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="F26" s="54"/>
       <x:c r="G26" s="54"/>
@@ -13317,12 +13278,12 @@
     </x:row>
     <x:row r="27" spans="2:12">
       <x:c r="B27" s="54" t="s">
-        <x:v>279</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C27" s="54"/>
       <x:c r="D27" s="54"/>
       <x:c r="E27" s="54" t="s">
-        <x:v>313</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F27" s="54"/>
       <x:c r="G27" s="54"/>
@@ -13347,48 +13308,48 @@
     </x:row>
     <x:row r="29" spans="2:4">
       <x:c r="B29" s="47" t="s">
-        <x:v>117</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C29" s="47"/>
       <x:c r="D29" s="47"/>
     </x:row>
     <x:row r="30" spans="2:16">
       <x:c r="B30" s="47" t="s">
-        <x:v>217</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C30" s="47"/>
       <x:c r="D30" s="47"/>
       <x:c r="E30" s="47" t="s">
-        <x:v>133</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F30" s="47"/>
       <x:c r="G30" s="47"/>
       <x:c r="H30" s="47" t="s">
-        <x:v>116</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I30" s="47"/>
       <x:c r="J30" s="47"/>
       <x:c r="K30" s="47" t="s">
-        <x:v>237</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="L30" s="47"/>
       <x:c r="M30" s="47"/>
       <x:c r="N30" s="47" t="s">
-        <x:v>95</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="O30" s="47"/>
       <x:c r="P30" s="47"/>
     </x:row>
     <x:row r="31" spans="2:4">
       <x:c r="B31" s="47" t="s">
-        <x:v>106</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C31" s="47"/>
       <x:c r="D31" s="47"/>
     </x:row>
     <x:row r="32" spans="2:16">
       <x:c r="B32" s="47" t="s">
-        <x:v>32</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C32" s="47"/>
       <x:c r="D32" s="47"/>
@@ -13407,7 +13368,7 @@
     </x:row>
     <x:row r="33" spans="2:16">
       <x:c r="B33" s="47" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C33" s="47"/>
       <x:c r="D33" s="47"/>
@@ -13471,15 +13432,15 @@
   <x:sheetPr codeName="Sheet8"/>
   <x:dimension ref="B2:K11"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="B2" activeCellId="0" sqref="B2:K6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="2" spans="2:11">
-      <x:c r="B2" s="86" t="s">
-        <x:v>92</x:v>
+      <x:c r="B2" s="83" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2" s="47"/>
       <x:c r="D2" s="47"/>
@@ -13541,7 +13502,7 @@
     </x:row>
     <x:row r="7" spans="2:11">
       <x:c r="B7" s="83" t="s">
-        <x:v>73</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C7" s="47"/>
       <x:c r="D7" s="47"/>
